--- a/dataset/lg/aandhranaayaka.xlsx
+++ b/dataset/lg/aandhranaayaka.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F213"/>
+  <dimension ref="A1:E213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,42 +434,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>padyam</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>padyam</t>
+          <t>class</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>class</t>
+          <t>satakam</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>satakam</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>lg</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
         <is>
           <t>శ్రీమదనంత లక్ష్మీ యుతోరః స్థల- చతురాననాండ పూరిత పిచండ
 ధర చక్ర ఖడ్గ గదా శరాసనహస్త- నిఖిల వేదాంత వర్ణిత చరిత్ర
@@ -477,63 +474,57 @@
 మణి సౌధవ త్ఫణామండ లోరగతల్ప- వరకల్పకోద్యాన వన విహార</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>aandhranaayaka</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>[('శ్రీ', 'U'), ('మ', '|'), ('ద', '|'), ('నం', 'U'), ('త', '|'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('యు', '|'), ('తో', 'U'), ('రః', 'U'), ('స్థ', '|'), ('ల', '|'), ('చ', '|'), ('తు', '|'), ('రా', 'U'), ('న', '|'), ('నాం', 'U'), ('డ', '|'), ('పూ', 'U'), ('రి', '|'), ('త', '|'), ('పి', '|'), ('చం', 'U'), ('డ', '|'), ('ధ', '|'), ('ర', '|'), ('చ', 'U'), ('క్ర', '|'), ('ఖ', 'U'), ('డ్గ', '|'), ('గ', '|'), ('దా', 'U'), ('శ', '|'), ('రా', 'U'), ('స', '|'), ('న', '|'), ('హ', 'U'), ('స్త', '|'), ('ని', '|'), ('ఖి', '|'), ('ల', '|'), ('వే', 'U'), ('దాం', 'U'), ('త', '|'), ('వ', 'U'), ('ర్ణి', '|'), ('త', '|'), ('చ', '|'), ('రి', 'U'), ('త్ర', '|'), ('స', '|'), ('క', '|'), ('ల', '|'), ('పా', 'U'), ('వ', '|'), ('న', '|'), ('న', '|'), ('దీ', 'U'), ('జ', '|'), ('న', '|'), ('క', '|'), ('పా', 'U'), ('దాం', 'U'), ('భో', 'U'), ('జ', '|'), ('ద', '|'), ('మ', '|'), ('ణీ', 'U'), ('య', '|'), ('ఖ', '|'), ('గ', '|'), ('కు', '|'), ('లో', 'U'), ('త్త', '|'), ('మ', '|'), ('తు', '|'), ('రం', 'U'), ('గ', '|'), ('మ', '|'), ('ణి', '|'), ('సౌ', 'U'), ('ధ', '|'), ('వ', 'U'), ('త్ఫ', '|'), ('ణా', 'U'), ('మం', 'U'), ('డ', '|'), ('లో', 'U'), ('ర', '|'), ('గ', '|'), ('త', 'U'), ('ల్ప', '|'), ('వ', '|'), ('ర', '|'), ('క', 'U'), ('ల్ప', '|'), ('కో', 'U'), ('ద్యా', 'U'), ('న', '|'), ('వ', '|'), ('న', '|'), ('వి', '|'), ('హా', 'U'), ('ర', '|')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>భాను సితభాను నేత్ర సౌభాగ్యగాత్ర-యోగిహృద్గేయ భవనైక భాగధేయ
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>vruttamu</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[('శ్రీ', 'U'), ('మ', '|'), ('ద', '|'), ('నం', 'U'), ('త', '|'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('యు', '|'), ('తో', 'U'), ('రః', 'U'), ('స్థ', '|'), ('ల', '|'), ('చ', '|'), ('తు', '|'), ('రా', 'U'), ('న', '|'), ('నాం', 'U'), ('డ', '|'), ('పూ', 'U'), ('రి', '|'), ('త', '|'), ('పి', '|'), ('చం', 'U'), ('డ', '|'), ('ధ', '|'), ('ర', '|'), ('చ', 'U'), ('క్ర', '|'), ('ఖ', 'U'), ('డ్గ', '|'), ('గ', '|'), ('దా', 'U'), ('శ', '|'), ('రా', 'U'), ('స', '|'), ('న', '|'), ('హ', 'U'), ('స్త', '|'), ('ని', '|'), ('ఖి', '|'), ('ల', '|'), ('వే', 'U'), ('దాం', 'U'), ('త', '|'), ('వ', 'U'), ('ర్ణి', '|'), ('త', '|'), ('చ', '|'), ('రి', 'U'), ('త్ర', '|'), ('స', '|'), ('క', '|'), ('ల', '|'), ('పా', 'U'), ('వ', '|'), ('న', '|'), ('న', '|'), ('దీ', 'U'), ('జ', '|'), ('న', '|'), ('క', '|'), ('పా', 'U'), ('దాం', 'U'), ('భో', 'U'), ('జ', '|'), ('ద', '|'), ('మ', '|'), ('ణీ', 'U'), ('య', '|'), ('ఖ', '|'), ('గ', '|'), ('కు', '|'), ('లో', 'U'), ('త్త', '|'), ('మ', '|'), ('తు', '|'), ('రం', 'U'), ('గ', '|'), ('మ', '|'), ('ణి', '|'), ('సౌ', 'U'), ('ధ', '|'), ('వ', 'U'), ('త్ఫ', '|'), ('ణా', 'U'), ('మం', 'U'), ('డ', '|'), ('లో', 'U'), ('ర', '|'), ('గ', '|'), ('త', 'U'), ('ల్ప', '|'), ('వ', '|'), ('ర', '|'), ('క', 'U'), ('ల్ప', '|'), ('కో', 'U'), ('ద్యా', 'U'), ('న', '|'), ('వ', '|'), ('న', '|'), ('వి', '|'), ('హా', 'U'), ('ర', '|')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>భాను సితభాను నేత్ర సౌభాగ్యగాత్ర-యోగిహృద్గేయ భవనైక భాగధేయ
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
           <t>[('భా', 'U'), ('ను', '|'), ('సి', '|'), ('త', '|'), ('భా', 'U'), ('ను', '|'), ('నే', 'U'), ('త్ర', '|'), ('సౌ', 'U'), ('భా', 'U'), ('గ్య', '|'), ('గా', 'U'), ('త్ర', '|'), ('యో', 'U'), ('గి', '|'), ('హృ', 'U'), ('ద్గే', 'U'), ('య', '|'), ('భ', '|'), ('వ', '|'), ('నై', 'U'), ('క', '|'), ('భా', 'U'), ('గ', '|'), ('ధే', 'U'), ('య', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
         <is>
           <t>వైజయంతీధామ వర్ణిత సుత్రామ- శోభననామ లోకాభిరామ
 కువలయశ్యామ వికుంఠపట్టణధామ- శ్రుతిహితనామ దైవతలలామ
@@ -541,63 +532,57 @@
 సంగర జిత భౌమ రంగద్గుణస్తోమ- త్రిభువన క్షేమ వర్ధిష్ణుకామ</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>aandhranaayaka</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>[('వై', 'U'), ('జ', '|'), ('యం', 'U'), ('తీ', 'U'), ('ధా', 'U'), ('మ', '|'), ('వ', 'U'), ('ర్ణి', '|'), ('త', '|'), ('సు', 'U'), ('త్రా', 'U'), ('మ', '|'), ('శో', 'U'), ('భ', '|'), ('న', '|'), ('నా', 'U'), ('మ', '|'), ('లో', 'U'), ('కా', 'U'), ('భి', '|'), ('రా', 'U'), ('మ', '|'), ('కు', '|'), ('వ', '|'), ('ల', '|'), ('య', 'U'), ('శ్యా', 'U'), ('మ', '|'), ('వి', '|'), ('కుం', 'U'), ('ఠ', '|'), ('ప', 'U'), ('ట్ట', '|'), ('ణ', '|'), ('ధా', 'U'), ('మ', 'U'), ('శ్రు', '|'), ('తి', '|'), ('హి', '|'), ('త', '|'), ('నా', 'U'), ('మ', '|'), ('దై', 'U'), ('వ', '|'), ('త', '|'), ('ల', '|'), ('లా', 'U'), ('మ', '|'), ('కృ', 'U'), ('త్య', '|'), ('దై', 'U'), ('త్య', '|'), ('సం', 'U'), ('గ్రా', 'U'), ('మ', '|'), ('గీ', 'U'), ('తా', 'U'), ('ర్థ', '|'), ('ప', '|'), ('రి', '|'), ('ణా', 'U'), ('మ', '|'), ('య', '|'), ('దు', '|'), ('కు', '|'), ('లాం', 'U'), ('బు', '|'), ('ధి', '|'), ('సో', 'U'), ('మ', '|'), ('అ', '|'), ('ఘ', '|'), ('వి', '|'), ('రా', 'U'), ('మ', '|'), ('సం', 'U'), ('గ', '|'), ('ర', '|'), ('జి', '|'), ('త', '|'), ('భౌ', 'U'), ('మ', '|'), ('రం', 'U'), ('గ', 'U'), ('ద్గు', '|'), ('ణ', 'U'), ('స్తో', 'U'), ('మ', 'U'), ('త్రి', '|'), ('భు', '|'), ('వ', '|'), ('న', 'U'), ('క్షే', 'U'), ('మ', '|'), ('వ', 'U'), ('ర్ధి', 'U'), ('ష్ణు', '|'), ('కా', 'U'), ('మ', '|')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>దాసులము గామ? నీ పేరు దలఁచుకోమ?-కొసరితిమి ప్రేమ కోరిన కోర్కు లీవ?
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>vruttamu</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>[('వై', 'U'), ('జ', '|'), ('యం', 'U'), ('తీ', 'U'), ('ధా', 'U'), ('మ', '|'), ('వ', 'U'), ('ర్ణి', '|'), ('త', '|'), ('సు', 'U'), ('త్రా', 'U'), ('మ', '|'), ('శో', 'U'), ('భ', '|'), ('న', '|'), ('నా', 'U'), ('మ', '|'), ('లో', 'U'), ('కా', 'U'), ('భి', '|'), ('రా', 'U'), ('మ', '|'), ('కు', '|'), ('వ', '|'), ('ల', '|'), ('య', 'U'), ('శ్యా', 'U'), ('మ', '|'), ('వి', '|'), ('కుం', 'U'), ('ఠ', '|'), ('ప', 'U'), ('ట్ట', '|'), ('ణ', '|'), ('ధా', 'U'), ('మ', 'U'), ('శ్రు', '|'), ('తి', '|'), ('హి', '|'), ('త', '|'), ('నా', 'U'), ('మ', '|'), ('దై', 'U'), ('వ', '|'), ('త', '|'), ('ల', '|'), ('లా', 'U'), ('మ', '|'), ('కృ', 'U'), ('త్య', '|'), ('దై', 'U'), ('త్య', '|'), ('సం', 'U'), ('గ్రా', 'U'), ('మ', '|'), ('గీ', 'U'), ('తా', 'U'), ('ర్థ', '|'), ('ప', '|'), ('రి', '|'), ('ణా', 'U'), ('మ', '|'), ('య', '|'), ('దు', '|'), ('కు', '|'), ('లాం', 'U'), ('బు', '|'), ('ధి', '|'), ('సో', 'U'), ('మ', '|'), ('అ', '|'), ('ఘ', '|'), ('వి', '|'), ('రా', 'U'), ('మ', '|'), ('సం', 'U'), ('గ', '|'), ('ర', '|'), ('జి', '|'), ('త', '|'), ('భౌ', 'U'), ('మ', '|'), ('రం', 'U'), ('గ', 'U'), ('ద్గు', '|'), ('ణ', 'U'), ('స్తో', 'U'), ('మ', 'U'), ('త్రి', '|'), ('భు', '|'), ('వ', '|'), ('న', 'U'), ('క్షే', 'U'), ('మ', '|'), ('వ', 'U'), ('ర్ధి', 'U'), ('ష్ణు', '|'), ('కా', 'U'), ('మ', '|')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>దాసులము గామ? నీ పేరు దలఁచుకోమ?-కొసరితిమి ప్రేమ కోరిన కోర్కు లీవ?
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
           <t>[('దా', 'U'), ('సు', '|'), ('ల', '|'), ('ము', '|'), ('గా', 'U'), ('మ', '|'), ('నీ', 'U'), ('పే', 'U'), ('రు', '|'), ('ద', '|'), ('ల', '|'), ('చు', '|'), ('కో', 'U'), ('మ', '|'), ('కొ', '|'), ('స', '|'), ('రి', '|'), ('తి', '|'), ('మి', 'U'), ('ప్రే', 'U'), ('మ', '|'), ('కో', 'U'), ('రి', '|'), ('న', '|'), ('కో', 'U'), ('ర్కు', '|'), ('లీ', 'U'), ('వ', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
         <is>
           <t>మానుషహర్యక్ష మార్తాండ సోమాక్ష- త్రిభువనాధ్యక్ష కౌంతేయపక్ష
 మదనకోటివిలాస మంజుల దరహాస- శ్రీహృన్నివాస కౌశేయవాస
@@ -605,63 +590,57 @@
 దీనశరణ్య విద్విట్భేద నైపుణ్య- భక్తానుగణ్య దిక్ప్రభువరేణ్య</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>aandhranaayaka</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>[('మా', 'U'), ('ను', '|'), ('ష', '|'), ('హ', 'U'), ('ర్య', 'U'), ('క్ష', '|'), ('మా', 'U'), ('ర్తాం', 'U'), ('డ', '|'), ('సో', 'U'), ('మా', 'U'), ('క్ష', 'U'), ('త్రి', '|'), ('భు', '|'), ('వ', '|'), ('నా', 'U'), ('ధ్య', 'U'), ('క్ష', '|'), ('కౌం', 'U'), ('తే', 'U'), ('య', '|'), ('ప', 'U'), ('క్ష', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('కో', 'U'), ('టి', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('మం', 'U'), ('జు', '|'), ('ల', '|'), ('ద', '|'), ('ర', '|'), ('హా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('హృ', 'U'), ('న్ని', '|'), ('వా', 'U'), ('స', '|'), ('కౌ', 'U'), ('శే', 'U'), ('య', '|'), ('వా', 'U'), ('స', '|'), ('శా', 'U'), ('ర్ఙ్గ', '|'), ('కో', 'U'), ('దం', 'U'), ('డ', '|'), ('పి', '|'), ('చం', 'U'), ('డ', '|'), ('భృ', '|'), ('తా', 'U'), ('జాం', 'U'), ('డ', '|'), ('వి', '|'), ('ను', '|'), ('త', '|'), ('వే', 'U'), ('దం', 'U'), ('డ', '|'), ('ర', '|'), ('వి', 'U'), ('ప్ర', '|'), ('చం', 'U'), ('డ', '|'), ('దీ', 'U'), ('న', '|'), ('శ', '|'), ('ర', 'U'), ('ణ్య', '|'), ('వి', 'U'), ('ద్వి', 'U'), ('ట్భే', 'U'), ('ద', '|'), ('నై', 'U'), ('పు', 'U'), ('ణ్య', '|'), ('భ', 'U'), ('క్తా', 'U'), ('ను', '|'), ('గ', 'U'), ('ణ్య', '|'), ('ది', 'U'), ('క్ప్ర', '|'), ('భు', '|'), ('వ', '|'), ('రే', 'U'), ('ణ్య', '|')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>సిద్ధసంకల్ప అవికల్ప శేషతల్ప-నిష్కలంక నిరాతంక నిరుపమాంక
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>vruttamu</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>[('మా', 'U'), ('ను', '|'), ('ష', '|'), ('హ', 'U'), ('ర్య', 'U'), ('క్ష', '|'), ('మా', 'U'), ('ర్తాం', 'U'), ('డ', '|'), ('సో', 'U'), ('మా', 'U'), ('క్ష', 'U'), ('త్రి', '|'), ('భు', '|'), ('వ', '|'), ('నా', 'U'), ('ధ్య', 'U'), ('క్ష', '|'), ('కౌం', 'U'), ('తే', 'U'), ('య', '|'), ('ప', 'U'), ('క్ష', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('కో', 'U'), ('టి', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('మం', 'U'), ('జు', '|'), ('ల', '|'), ('ద', '|'), ('ర', '|'), ('హా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('హృ', 'U'), ('న్ని', '|'), ('వా', 'U'), ('స', '|'), ('కౌ', 'U'), ('శే', 'U'), ('య', '|'), ('వా', 'U'), ('స', '|'), ('శా', 'U'), ('ర్ఙ్గ', '|'), ('కో', 'U'), ('దం', 'U'), ('డ', '|'), ('పి', '|'), ('చం', 'U'), ('డ', '|'), ('భృ', '|'), ('తా', 'U'), ('జాం', 'U'), ('డ', '|'), ('వి', '|'), ('ను', '|'), ('త', '|'), ('వే', 'U'), ('దం', 'U'), ('డ', '|'), ('ర', '|'), ('వి', 'U'), ('ప్ర', '|'), ('చం', 'U'), ('డ', '|'), ('దీ', 'U'), ('న', '|'), ('శ', '|'), ('ర', 'U'), ('ణ్య', '|'), ('వి', 'U'), ('ద్వి', 'U'), ('ట్భే', 'U'), ('ద', '|'), ('నై', 'U'), ('పు', 'U'), ('ణ్య', '|'), ('భ', 'U'), ('క్తా', 'U'), ('ను', '|'), ('గ', 'U'), ('ణ్య', '|'), ('ది', 'U'), ('క్ప్ర', '|'), ('భు', '|'), ('వ', '|'), ('రే', 'U'), ('ణ్య', '|')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>సిద్ధసంకల్ప అవికల్ప శేషతల్ప-నిష్కలంక నిరాతంక నిరుపమాంక
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
           <t>[('సి', 'U'), ('ద్ధ', '|'), ('సం', 'U'), ('క', 'U'), ('ల్ప', '|'), ('అ', '|'), ('వి', '|'), ('క', 'U'), ('ల్ప', '|'), ('శే', 'U'), ('ష', '|'), ('త', 'U'), ('ల్ప', '|'), ('ని', 'U'), ('ష్క', '|'), ('లం', 'U'), ('క', '|'), ('ని', '|'), ('రా', 'U'), ('తం', 'U'), ('క', '|'), ('ని', '|'), ('రు', '|'), ('ప', '|'), ('మాం', 'U'), ('క', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
         <is>
           <t>గోవింద ముచికుంద సేవిత పాదార- వింద నిత్యానంద విశ్వతుంద
 శ్రీమంత విజయలక్ష్మీకాంత నిర్మల- స్వాంత భక్తోద్యాన వనవసంత
@@ -669,63 +648,57 @@
 సద్గుణ గేహ వాసవనీల సమదేహ- బంధురోత్సాహ సువర్ణవాహ</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>aandhranaayaka</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>[('గో', 'U'), ('విం', 'U'), ('ద', '|'), ('ము', '|'), ('చి', '|'), ('కుం', 'U'), ('ద', '|'), ('సే', 'U'), ('వి', '|'), ('త', '|'), ('పా', 'U'), ('దా', 'U'), ('ర', '|'), ('విం', 'U'), ('ద', '|'), ('ని', 'U'), ('త్యా', 'U'), ('నం', 'U'), ('ద', '|'), ('వి', 'U'), ('శ్వ', '|'), ('తుం', 'U'), ('ద', 'U'), ('శ్రీ', 'U'), ('మం', 'U'), ('త', '|'), ('వి', '|'), ('జ', '|'), ('య', '|'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('కాం', 'U'), ('త', '|'), ('ని', '|'), ('ర్మ', '|'), ('ల', 'U'), ('స్వాం', 'U'), ('త', '|'), ('భ', 'U'), ('క్తో', 'U'), ('ద్యా', 'U'), ('న', '|'), ('వ', '|'), ('న', '|'), ('వ', '|'), ('సం', 'U'), ('త', '|'), ('అ', '|'), ('ఘ', '|'), ('నా', 'U'), ('శ', '|'), ('కో', 'U'), ('టి', '|'), ('సూ', 'U'), ('ర్య', 'U'), ('ప్ర', '|'), ('కా', 'U'), ('శ', '|'), ('వ', '|'), ('రే', 'U'), ('శ', '|'), ('వి', '|'), ('జి', '|'), ('తా', 'U'), ('శ', '|'), ('స', 'U'), ('న్మ', '|'), ('నోం', 'U'), ('బు', '|'), ('జ', '|'), ('ని', '|'), ('వే', 'U'), ('శ', '|'), ('స', 'U'), ('ద్గు', '|'), ('ణ', '|'), ('గే', 'U'), ('హ', '|'), ('వా', 'U'), ('స', '|'), ('వ', '|'), ('నీ', 'U'), ('ల', '|'), ('స', '|'), ('మ', '|'), ('దే', 'U'), ('హ', '|'), ('బం', 'U'), ('ధు', '|'), ('రో', 'U'), ('త్సా', 'U'), ('హ', '|'), ('సు', '|'), ('వ', 'U'), ('ర్ణ', '|'), ('వా', 'U'), ('హ', '|')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>పండితస్తోత్ర చారిత్ర పద్మనేత్ర-మధుర మంజులభాష సమస్తపోష
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>vruttamu</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>[('గో', 'U'), ('విం', 'U'), ('ద', '|'), ('ము', '|'), ('చి', '|'), ('కుం', 'U'), ('ద', '|'), ('సే', 'U'), ('వి', '|'), ('త', '|'), ('పా', 'U'), ('దా', 'U'), ('ర', '|'), ('విం', 'U'), ('ద', '|'), ('ని', 'U'), ('త్యా', 'U'), ('నం', 'U'), ('ద', '|'), ('వి', 'U'), ('శ్వ', '|'), ('తుం', 'U'), ('ద', 'U'), ('శ్రీ', 'U'), ('మం', 'U'), ('త', '|'), ('వి', '|'), ('జ', '|'), ('య', '|'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('కాం', 'U'), ('త', '|'), ('ని', '|'), ('ర్మ', '|'), ('ల', 'U'), ('స్వాం', 'U'), ('త', '|'), ('భ', 'U'), ('క్తో', 'U'), ('ద్యా', 'U'), ('న', '|'), ('వ', '|'), ('న', '|'), ('వ', '|'), ('సం', 'U'), ('త', '|'), ('అ', '|'), ('ఘ', '|'), ('నా', 'U'), ('శ', '|'), ('కో', 'U'), ('టి', '|'), ('సూ', 'U'), ('ర్య', 'U'), ('ప్ర', '|'), ('కా', 'U'), ('శ', '|'), ('వ', '|'), ('రే', 'U'), ('శ', '|'), ('వి', '|'), ('జి', '|'), ('తా', 'U'), ('శ', '|'), ('స', 'U'), ('న్మ', '|'), ('నోం', 'U'), ('బు', '|'), ('జ', '|'), ('ని', '|'), ('వే', 'U'), ('శ', '|'), ('స', 'U'), ('ద్గు', '|'), ('ణ', '|'), ('గే', 'U'), ('హ', '|'), ('వా', 'U'), ('స', '|'), ('వ', '|'), ('నీ', 'U'), ('ల', '|'), ('స', '|'), ('మ', '|'), ('దే', 'U'), ('హ', '|'), ('బం', 'U'), ('ధు', '|'), ('రో', 'U'), ('త్సా', 'U'), ('హ', '|'), ('సు', '|'), ('వ', 'U'), ('ర్ణ', '|'), ('వా', 'U'), ('హ', '|')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>పండితస్తోత్ర చారిత్ర పద్మనేత్ర-మధుర మంజులభాష సమస్తపోష
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
           <t>[('పం', 'U'), ('డి', '|'), ('త', 'U'), ('స్తో', 'U'), ('త్ర', '|'), ('చా', 'U'), ('రి', 'U'), ('త్ర', '|'), ('ప', 'U'), ('ద్మ', '|'), ('నే', 'U'), ('త్ర', '|'), ('మ', '|'), ('ధు', '|'), ('ర', '|'), ('మం', 'U'), ('జు', '|'), ('ల', '|'), ('భా', 'U'), ('ష', '|'), ('స', '|'), ('మ', 'U'), ('స్త', '|'), ('పో', 'U'), ('ష', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
         <is>
           <t>శ్రీకాకుళము భక్తలోక చింతామణి- శ్రీకాకుళము సుకృతాకరంబు
 శ్రీకాకుళము ధరాలోక వైకుంఠంబు- శ్రీకాకుళము మర్త్యసేవితంబు
@@ -733,63 +706,57 @@
 శ్రీకాకుళము మహాక్షేత్రావతంసంబు- శ్రీకాకుళము సర్వసిద్ధికరము</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>aandhranaayaka</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>[('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళ', '|'), ('ము', '|'), ('భ', 'U'), ('క్త', '|'), ('లో', 'U'), ('క', '|'), ('చిం', 'U'), ('తా', 'U'), ('మ', '|'), ('ణి', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళ', '|'), ('ము', '|'), ('సు', '|'), ('కృ', '|'), ('తా', 'U'), ('క', '|'), ('రం', 'U'), ('బు', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళ', '|'), ('ము', '|'), ('ధ', '|'), ('రా', 'U'), ('లో', 'U'), ('క', '|'), ('వై', 'U'), ('కుం', 'U'), ('ఠం', 'U'), ('బు', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళ', '|'), ('ము', '|'), ('మ', 'U'), ('ర్త్య', '|'), ('సే', 'U'), ('వి', '|'), ('తం', 'U'), ('బు', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళ', '|'), ('ము', '|'), ('వే', 'U'), ('ద', '|'), ('సి', 'U'), ('ద్ధాం', 'U'), ('త', '|'), ('మ', '|'), ('హి', '|'), ('మం', 'U'), ('బు', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళ', '|'), ('ము', '|'), ('హ', '|'), ('త', 'U'), ('వ్యా', 'U'), ('కు', '|'), ('లం', 'U'), ('బు', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళ', '|'), ('ము', '|'), ('మ', '|'), ('హా', 'U'), ('క్షే', 'U'), ('త్రా', 'U'), ('వ', '|'), ('తం', 'U'), ('సం', 'U'), ('బు', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళ', '|'), ('ము', '|'), ('స', 'U'), ('ర్వ', '|'), ('సి', 'U'), ('ద్ధి', '|'), ('క', '|'), ('ర', '|'), ('ము', '|')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>తెలియ శ్రీకాకుళంబు నీ దివ్యదేశ-మాంధ్రనాయక నీవె శ్రీహరివి నిజము
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>vruttamu</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>[('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళ', '|'), ('ము', '|'), ('భ', 'U'), ('క్త', '|'), ('లో', 'U'), ('క', '|'), ('చిం', 'U'), ('తా', 'U'), ('మ', '|'), ('ణి', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళ', '|'), ('ము', '|'), ('సు', '|'), ('కృ', '|'), ('తా', 'U'), ('క', '|'), ('రం', 'U'), ('బు', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళ', '|'), ('ము', '|'), ('ధ', '|'), ('రా', 'U'), ('లో', 'U'), ('క', '|'), ('వై', 'U'), ('కుం', 'U'), ('ఠం', 'U'), ('బు', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళ', '|'), ('ము', '|'), ('మ', 'U'), ('ర్త్య', '|'), ('సే', 'U'), ('వి', '|'), ('తం', 'U'), ('బు', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళ', '|'), ('ము', '|'), ('వే', 'U'), ('ద', '|'), ('సి', 'U'), ('ద్ధాం', 'U'), ('త', '|'), ('మ', '|'), ('హి', '|'), ('మం', 'U'), ('బు', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళ', '|'), ('ము', '|'), ('హ', '|'), ('త', 'U'), ('వ్యా', 'U'), ('కు', '|'), ('లం', 'U'), ('బు', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళ', '|'), ('ము', '|'), ('మ', '|'), ('హా', 'U'), ('క్షే', 'U'), ('త్రా', 'U'), ('వ', '|'), ('తం', 'U'), ('సం', 'U'), ('బు', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళ', '|'), ('ము', '|'), ('స', 'U'), ('ర్వ', '|'), ('సి', 'U'), ('ద్ధి', '|'), ('క', '|'), ('ర', '|'), ('ము', '|')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>తెలియ శ్రీకాకుళంబు నీ దివ్యదేశ-మాంధ్రనాయక నీవె శ్రీహరివి నిజము
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
           <t>[('తె', '|'), ('లి', '|'), ('య', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళం', 'U'), ('బు', '|'), ('నీ', 'U'), ('ది', 'U'), ('వ్య', '|'), ('దే', 'U'), ('శ', '|'), ('మాం', 'U'), ('ధ్ర', '|'), ('నా', 'U'), ('య', '|'), ('క', '|'), ('నీ', 'U'), ('వె', 'U'), ('శ్రీ', 'U'), ('హ', '|'), ('రి', '|'), ('వి', '|'), ('ని', '|'), ('జ', '|'), ('ము', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
         <is>
           <t>ఇంద్రనీలచ్ఛాయ లీను నెమ్మేనిపైఁ- గనకాంబరప్రభ గ్రందుకొనఁగఁ
 బర్వసుధాంశు శోభసముజ్జ్వలవక్త్ర- మున నూర్ధ్వపుండ్రము ముద్దు గుల్క
@@ -797,63 +764,57 @@
 వర్ణితోరస్థలి వైయంతిక కౌస్తు- భాంతర శ్రీదేవియంద మమర</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>aandhranaayaka</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>[('ఇం', 'U'), ('ద్ర', '|'), ('నీ', 'U'), ('ల', 'U'), ('చ్ఛా', 'U'), ('య', '|'), ('లీ', 'U'), ('ను', '|'), ('నె', 'U'), ('మ్మే', 'U'), ('ని', '|'), ('పై', 'U'), ('గ', '|'), ('న', '|'), ('కాం', 'U'), ('బ', '|'), ('ర', 'U'), ('ప్ర', '|'), ('భ', 'U'), ('గ్రం', 'U'), ('దు', '|'), ('కొ', '|'), ('న', '|'), ('గ', '|'), ('బ', 'U'), ('ర్వ', '|'), ('సు', '|'), ('ధాం', 'U'), ('శు', '|'), ('శో', 'U'), ('భ', '|'), ('స', '|'), ('ము', 'U'), ('జ్జ్వ', '|'), ('ల', '|'), ('వ', 'U'), ('క్త్ర', '|'), ('ము', '|'), ('న', '|'), ('నూ', 'U'), ('ర్ధ్వ', '|'), ('పుం', 'U'), ('డ్ర', '|'), ('ము', '|'), ('ము', 'U'), ('ద్దు', '|'), ('గు', 'U'), ('ల్క', '|'), ('నె', '|'), ('గు', '|'), ('భు', '|'), ('జం', 'U'), ('బు', '|'), ('ల', '|'), ('ధ', '|'), ('గ', 'U'), ('ద్ధ', '|'), ('గి', '|'), ('తాం', 'U'), ('గ', '|'), ('ద', 'U'), ('ద్యు', '|'), ('తు', 'U'), ('ల్మూ', 'U'), ('ర్ధ', '|'), ('ర', 'U'), ('త్న', '|'), ('కి', '|'), ('రీ', 'U'), ('ట', '|'), ('ము', '|'), ('న', '|'), ('జ', '|'), ('రిం', 'U'), ('ప', '|'), ('వ', 'U'), ('ర్ణి', '|'), ('తో', 'U'), ('ర', 'U'), ('స్థ', '|'), ('లి', '|'), ('వై', 'U'), ('యం', 'U'), ('తి', '|'), ('క', '|'), ('కౌ', 'U'), ('స్తు', '|'), ('భాం', 'U'), ('త', '|'), ('ర', 'U'), ('శ్రీ', 'U'), ('దే', 'U'), ('వి', '|'), ('యం', 'U'), ('ద', '|'), ('మ', '|'), ('మ', '|'), ('ర', '|')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>రమ్ము దర్శన మిమ్ము ఘోరములఁ జిమ్ము-మభయ మిమ్ము భవత్తత్త్వ మానతిమ్ము 
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>vruttamu</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>[('ఇం', 'U'), ('ద్ర', '|'), ('నీ', 'U'), ('ల', 'U'), ('చ్ఛా', 'U'), ('య', '|'), ('లీ', 'U'), ('ను', '|'), ('నె', 'U'), ('మ్మే', 'U'), ('ని', '|'), ('పై', 'U'), ('గ', '|'), ('న', '|'), ('కాం', 'U'), ('బ', '|'), ('ర', 'U'), ('ప్ర', '|'), ('భ', 'U'), ('గ్రం', 'U'), ('దు', '|'), ('కొ', '|'), ('న', '|'), ('గ', '|'), ('బ', 'U'), ('ర్వ', '|'), ('సు', '|'), ('ధాం', 'U'), ('శు', '|'), ('శో', 'U'), ('భ', '|'), ('స', '|'), ('ము', 'U'), ('జ్జ్వ', '|'), ('ల', '|'), ('వ', 'U'), ('క్త్ర', '|'), ('ము', '|'), ('న', '|'), ('నూ', 'U'), ('ర్ధ్వ', '|'), ('పుం', 'U'), ('డ్ర', '|'), ('ము', '|'), ('ము', 'U'), ('ద్దు', '|'), ('గు', 'U'), ('ల్క', '|'), ('నె', '|'), ('గు', '|'), ('భు', '|'), ('జం', 'U'), ('బు', '|'), ('ల', '|'), ('ధ', '|'), ('గ', 'U'), ('ద్ధ', '|'), ('గి', '|'), ('తాం', 'U'), ('గ', '|'), ('ద', 'U'), ('ద్యు', '|'), ('తు', 'U'), ('ల్మూ', 'U'), ('ర్ధ', '|'), ('ర', 'U'), ('త్న', '|'), ('కి', '|'), ('రీ', 'U'), ('ట', '|'), ('ము', '|'), ('న', '|'), ('జ', '|'), ('రిం', 'U'), ('ప', '|'), ('వ', 'U'), ('ర్ణి', '|'), ('తో', 'U'), ('ర', 'U'), ('స్థ', '|'), ('లి', '|'), ('వై', 'U'), ('యం', 'U'), ('తి', '|'), ('క', '|'), ('కౌ', 'U'), ('స్తు', '|'), ('భాం', 'U'), ('త', '|'), ('ర', 'U'), ('శ్రీ', 'U'), ('దే', 'U'), ('వి', '|'), ('యం', 'U'), ('ద', '|'), ('మ', '|'), ('మ', '|'), ('ర', '|')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>రమ్ము దర్శన మిమ్ము ఘోరములఁ జిమ్ము-మభయ మిమ్ము భవత్తత్త్వ మానతిమ్ము 
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
-        </is>
-      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
           <t>[('ర', 'U'), ('మ్ము', '|'), ('ద', 'U'), ('ర్శ', '|'), ('న', '|'), ('మి', 'U'), ('మ్ము', '|'), ('ఘో', 'U'), ('ర', '|'), ('ము', '|'), ('ల', '|'), ('జి', 'U'), ('మ్ము', '|'), ('మ', '|'), ('భ', '|'), ('య', '|'), ('మి', 'U'), ('మ్ము', '|'), ('భ', '|'), ('వ', 'U'), ('త్త', 'U'), ('త్త్వ', '|'), ('మా', 'U'), ('న', '|'), ('తి', 'U'), ('మ్ము', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
         <is>
           <t>కలిగినప్పుడె కన్న తలిదండ్రు లెన్న నే- నిసువు మాటాడంగ నేర్చె జగతి
 జయలిజగంబు లంబకు నిజోదరమునం- దేబిడ్డ చూపించె నిద్ధరిత్రిఁ
@@ -861,63 +822,57 @@
 దల్లిచెంగటనుండి యిల్లిల్లుఁ జొచ్చి యే- కుఱ్ఱఁ డింతుల బల్మిఁ గూడ నేర్చె</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>aandhranaayaka</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>[('క', '|'), ('లి', '|'), ('గి', '|'), ('న', 'U'), ('ప్పు', '|'), ('డె', '|'), ('క', 'U'), ('న్న', '|'), ('త', '|'), ('లి', '|'), ('దం', 'U'), ('డ్రు', '|'), ('లె', 'U'), ('న్న', '|'), ('నే', 'U'), ('ని', '|'), ('సు', '|'), ('వు', '|'), ('మా', 'U'), ('టా', 'U'), ('డం', 'U'), ('గ', '|'), ('నే', 'U'), ('ర్చె', '|'), ('జ', '|'), ('గ', '|'), ('తి', '|'), ('జ', '|'), ('య', '|'), ('లి', '|'), ('జ', '|'), ('గం', 'U'), ('బు', '|'), ('లం', 'U'), ('బ', '|'), ('కు', '|'), ('ని', '|'), ('జో', 'U'), ('ద', '|'), ('ర', '|'), ('ము', '|'), ('నం', 'U'), ('దే', 'U'), ('బి', 'U'), ('డ్డ', '|'), ('చూ', 'U'), ('పిం', 'U'), ('చె', '|'), ('ని', 'U'), ('ద్ధ', '|'), ('రి', 'U'), ('త్రి', '|'), ('దొ', '|'), ('డ', '|'), ('ల', '|'), ('పై', 'U'), ('ము', 'U'), ('ద్దు', '|'), ('గా', 'U'), ('ని', '|'), ('డు', '|'), ('కొ', 'U'), ('న్న', '|'), ('జ', '|'), ('న', '|'), ('ని', '|'), ('కే', 'U'), ('ప', '|'), ('సి', '|'), ('పి', 'U'), ('ల్ల', '|'), ('కొం', 'U'), ('డం', 'U'), ('త', '|'), ('బ', '|'), ('రు', '|'), ('వు', '|'), ('దో', 'U'), ('చె', '|'), ('ద', 'U'), ('ల్లి', '|'), ('చెం', 'U'), ('గ', '|'), ('ట', '|'), ('నుం', 'U'), ('డి', '|'), ('యి', 'U'), ('ల్లి', 'U'), ('ల్లు', '|'), ('జొ', 'U'), ('చ్చి', '|'), ('యే', 'U'), ('కు', 'U'), ('ఱ్ఱ', '|'), ('డిం', 'U'), ('తు', '|'), ('ల', '|'), ('బ', 'U'), ('ల్మి', '|'), ('గూ', 'U'), ('డ', '|'), ('నే', 'U'), ('ర్చె', '|')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>నాబుడత వీవెరా యబ్బ! యబ్బురంపు-కతలమారివి నీ వెఱుంగనివి గలవె?
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>vruttamu</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>[('క', '|'), ('లి', '|'), ('గి', '|'), ('న', 'U'), ('ప్పు', '|'), ('డె', '|'), ('క', 'U'), ('న్న', '|'), ('త', '|'), ('లి', '|'), ('దం', 'U'), ('డ్రు', '|'), ('లె', 'U'), ('న్న', '|'), ('నే', 'U'), ('ని', '|'), ('సు', '|'), ('వు', '|'), ('మా', 'U'), ('టా', 'U'), ('డం', 'U'), ('గ', '|'), ('నే', 'U'), ('ర్చె', '|'), ('జ', '|'), ('గ', '|'), ('తి', '|'), ('జ', '|'), ('య', '|'), ('లి', '|'), ('జ', '|'), ('గం', 'U'), ('బు', '|'), ('లం', 'U'), ('బ', '|'), ('కు', '|'), ('ని', '|'), ('జో', 'U'), ('ద', '|'), ('ర', '|'), ('ము', '|'), ('నం', 'U'), ('దే', 'U'), ('బి', 'U'), ('డ్డ', '|'), ('చూ', 'U'), ('పిం', 'U'), ('చె', '|'), ('ని', 'U'), ('ద్ధ', '|'), ('రి', 'U'), ('త్రి', '|'), ('దొ', '|'), ('డ', '|'), ('ల', '|'), ('పై', 'U'), ('ము', 'U'), ('ద్దు', '|'), ('గా', 'U'), ('ని', '|'), ('డు', '|'), ('కొ', 'U'), ('న్న', '|'), ('జ', '|'), ('న', '|'), ('ని', '|'), ('కే', 'U'), ('ప', '|'), ('సి', '|'), ('పి', 'U'), ('ల్ల', '|'), ('కొం', 'U'), ('డం', 'U'), ('త', '|'), ('బ', '|'), ('రు', '|'), ('వు', '|'), ('దో', 'U'), ('చె', '|'), ('ద', 'U'), ('ల్లి', '|'), ('చెం', 'U'), ('గ', '|'), ('ట', '|'), ('నుం', 'U'), ('డి', '|'), ('యి', 'U'), ('ల్లి', 'U'), ('ల్లు', '|'), ('జొ', 'U'), ('చ్చి', '|'), ('యే', 'U'), ('కు', 'U'), ('ఱ్ఱ', '|'), ('డిం', 'U'), ('తు', '|'), ('ల', '|'), ('బ', 'U'), ('ల్మి', '|'), ('గూ', 'U'), ('డ', '|'), ('నే', 'U'), ('ర్చె', '|')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>నాబుడత వీవెరా యబ్బ! యబ్బురంపు-కతలమారివి నీ వెఱుంగనివి గలవె?
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
-        </is>
-      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
           <t>[('నా', 'U'), ('బు', '|'), ('డ', '|'), ('త', '|'), ('వీ', 'U'), ('వె', '|'), ('రా', 'U'), ('య', 'U'), ('బ్బ', '|'), ('య', 'U'), ('బ్బు', '|'), ('రం', 'U'), ('పు', '|'), ('క', '|'), ('త', '|'), ('ల', '|'), ('మా', 'U'), ('రి', '|'), ('వి', '|'), ('నీ', 'U'), ('వె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('ని', '|'), ('వి', '|'), ('గ', '|'), ('ల', '|'), ('వె', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
         <is>
           <t>వరమిచ్చినట్టి శంకరుని కెగ్గు దలంచు- భస్మాసురుని పేరుఁ బాపినావు
 తనయిల్లుఁ గాచు నుగ్రుని బోరుటకుఁ బిల్చు- బాణుచేతులు తెగఁ బఱికినావు
@@ -925,63 +880,57 @@
 బలిమి దైత్యులు సుధాకలశము న్గొన వారి- వంచించి సురలకుఁ బంచినావు</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>aandhranaayaka</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>[('వ', '|'), ('ర', '|'), ('మి', 'U'), ('చ్చి', '|'), ('న', 'U'), ('ట్టి', '|'), ('శం', 'U'), ('క', '|'), ('రు', '|'), ('ని', '|'), ('కె', 'U'), ('గ్గు', '|'), ('ద', '|'), ('లం', 'U'), ('చు', '|'), ('భ', 'U'), ('స్మా', 'U'), ('సు', '|'), ('రు', '|'), ('ని', '|'), ('పే', 'U'), ('రు', '|'), ('బా', 'U'), ('పి', '|'), ('నా', 'U'), ('వు', '|'), ('త', '|'), ('న', '|'), ('యి', 'U'), ('ల్లు', '|'), ('గా', 'U'), ('చు', '|'), ('ను', 'U'), ('గ్రు', '|'), ('ని', '|'), ('బో', 'U'), ('రు', '|'), ('ట', '|'), ('కు', '|'), ('బి', 'U'), ('ల్చు', '|'), ('బా', 'U'), ('ణు', '|'), ('చే', 'U'), ('తు', '|'), ('లు', '|'), ('తె', '|'), ('గ', '|'), ('బ', '|'), ('ఱి', '|'), ('కి', '|'), ('నా', 'U'), ('వు', '|'), ('తొ', '|'), ('లు', '|'), ('మి', 'U'), ('న్కు', '|'), ('ల', '|'), ('జు', '|'), ('ని', '|'), ('మ్రు', 'U'), ('చ్చి', '|'), ('లి', '|'), ('గొ', 'U'), ('న్న', '|'), ('సో', 'U'), ('మ', '|'), ('కు', '|'), ('జం', 'U'), ('పి', '|'), ('వి', 'U'), ('ద్య', '|'), ('లు', '|'), ('ధా', 'U'), ('త', '|'), ('కం', 'U'), ('పి', '|'), ('నా', 'U'), ('వు', '|'), ('బ', '|'), ('లి', '|'), ('మి', '|'), ('దై', 'U'), ('త్యు', '|'), ('లు', '|'), ('సు', '|'), ('ధా', 'U'), ('క', '|'), ('ల', '|'), ('శ', '|'), ('ము', 'U'), ('న్గొ', '|'), ('న', '|'), ('వా', 'U'), ('రి', '|'), ('వం', 'U'), ('చిం', 'U'), ('చి', '|'), ('సు', '|'), ('ర', '|'), ('ల', '|'), ('కు', '|'), ('బం', 'U'), ('చి', '|'), ('నా', 'U'), ('వు', '|')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>నిఖిలదైవత కార్యముల్‌ నిర్వహించు-నీకు నిజకార్యము భరంబె నిర్వహింప!
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>vruttamu</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>[('వ', '|'), ('ర', '|'), ('మి', 'U'), ('చ్చి', '|'), ('న', 'U'), ('ట్టి', '|'), ('శం', 'U'), ('క', '|'), ('రు', '|'), ('ని', '|'), ('కె', 'U'), ('గ్గు', '|'), ('ద', '|'), ('లం', 'U'), ('చు', '|'), ('భ', 'U'), ('స్మా', 'U'), ('సు', '|'), ('రు', '|'), ('ని', '|'), ('పే', 'U'), ('రు', '|'), ('బా', 'U'), ('పి', '|'), ('నా', 'U'), ('వు', '|'), ('త', '|'), ('న', '|'), ('యి', 'U'), ('ల్లు', '|'), ('గా', 'U'), ('చు', '|'), ('ను', 'U'), ('గ్రు', '|'), ('ని', '|'), ('బో', 'U'), ('రు', '|'), ('ట', '|'), ('కు', '|'), ('బి', 'U'), ('ల్చు', '|'), ('బా', 'U'), ('ణు', '|'), ('చే', 'U'), ('తు', '|'), ('లు', '|'), ('తె', '|'), ('గ', '|'), ('బ', '|'), ('ఱి', '|'), ('కి', '|'), ('నా', 'U'), ('వు', '|'), ('తొ', '|'), ('లు', '|'), ('మి', 'U'), ('న్కు', '|'), ('ల', '|'), ('జు', '|'), ('ని', '|'), ('మ్రు', 'U'), ('చ్చి', '|'), ('లి', '|'), ('గొ', 'U'), ('న్న', '|'), ('సో', 'U'), ('మ', '|'), ('కు', '|'), ('జం', 'U'), ('పి', '|'), ('వి', 'U'), ('ద్య', '|'), ('లు', '|'), ('ధా', 'U'), ('త', '|'), ('కం', 'U'), ('పి', '|'), ('నా', 'U'), ('వు', '|'), ('బ', '|'), ('లి', '|'), ('మి', '|'), ('దై', 'U'), ('త్యు', '|'), ('లు', '|'), ('సు', '|'), ('ధా', 'U'), ('క', '|'), ('ల', '|'), ('శ', '|'), ('ము', 'U'), ('న్గొ', '|'), ('న', '|'), ('వా', 'U'), ('రి', '|'), ('వం', 'U'), ('చిం', 'U'), ('చి', '|'), ('సు', '|'), ('ర', '|'), ('ల', '|'), ('కు', '|'), ('బం', 'U'), ('చి', '|'), ('నా', 'U'), ('వు', '|')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>నిఖిలదైవత కార్యముల్‌ నిర్వహించు-నీకు నిజకార్యము భరంబె నిర్వహింప!
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
-        </is>
-      </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
           <t>[('ని', '|'), ('ఖి', '|'), ('ల', '|'), ('దై', 'U'), ('వ', '|'), ('త', '|'), ('కా', 'U'), ('ర్య', '|'), ('ముల్', 'U'), ('ని', 'U'), ('ర్వ', '|'), ('హిం', 'U'), ('చు', '|'), ('నీ', 'U'), ('కు', '|'), ('ని', '|'), ('జ', '|'), ('కా', 'U'), ('ర్య', '|'), ('ము', '|'), ('భ', '|'), ('రం', 'U'), ('బె', '|'), ('ని', 'U'), ('ర్వ', '|'), ('హిం', 'U'), ('ప', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
         <is>
           <t>అచట లే వని కదా యరచేతఁ జఱచెఁ గ్రు- ద్ధత సభా స్తంభంబు దానవేంద్రుఁ
 డచట లే వని కదా యస్త్రరాజం బేసె- గురుసుతుం డుత్తరోదరమునందు
@@ -989,63 +938,57 @@
 డచట లే వని కదా యాత్మీయసభను ద్రౌ- పది వల్వ లూడ్చె సర్పధ్వజుండు</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>aandhranaayaka</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>[('అ', '|'), ('చ', '|'), ('ట', '|'), ('లే', 'U'), ('వ', '|'), ('ని', '|'), ('క', '|'), ('దా', 'U'), ('య', '|'), ('ర', '|'), ('చే', 'U'), ('త', '|'), ('జ', '|'), ('ఱ', '|'), ('చె', 'U'), ('గ్రు', 'U'), ('ద్ధ', '|'), ('త', '|'), ('స', '|'), ('భా', 'U'), ('స్తం', 'U'), ('భం', 'U'), ('బు', '|'), ('దా', 'U'), ('న', '|'), ('వేం', 'U'), ('ద్రు', '|'), ('డ', '|'), ('చ', '|'), ('ట', '|'), ('లే', 'U'), ('వ', '|'), ('ని', '|'), ('క', '|'), ('దా', 'U'), ('య', 'U'), ('స్త్ర', '|'), ('రా', 'U'), ('జం', 'U'), ('బే', 'U'), ('సె', '|'), ('గు', '|'), ('రు', '|'), ('సు', '|'), ('తుం', 'U'), ('డు', 'U'), ('త్త', '|'), ('రో', 'U'), ('ద', '|'), ('ర', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('న', '|'), ('చ', '|'), ('ట', '|'), ('లే', 'U'), ('వ', '|'), ('ని', '|'), ('క', '|'), ('దా', 'U'), ('య', '|'), ('తి', '|'), ('కో', 'U'), ('పి', '|'), ('న', '|'), ('ని', '|'), ('చె', '|'), ('బాం', 'U'), ('డ', '|'), ('వు', '|'), ('లు', 'U'), ('న్న', '|'), ('వ', '|'), ('ని', '|'), ('కి', '|'), ('గౌ', 'U'), ('ర', '|'), ('వ', '|'), ('కు', '|'), ('లేం', 'U'), ('ద్రు', '|'), ('డ', '|'), ('చ', '|'), ('ట', '|'), ('లే', 'U'), ('వ', '|'), ('ని', '|'), ('క', '|'), ('దా', 'U'), ('యా', 'U'), ('త్మీ', 'U'), ('య', '|'), ('స', '|'), ('భ', '|'), ('ను', '|'), ('ద్రౌ', 'U'), ('ప', '|'), ('ది', '|'), ('వ', 'U'), ('ల్వ', '|'), ('లూ', 'U'), ('డ్చె', '|'), ('స', 'U'), ('ర్ప', 'U'), ('ధ్వ', '|'), ('జుం', 'U'), ('డు', '|')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>లేక యచ్చోటులను గల్గలేదె ముందు-కలవు కేవల మిచ్చోటఁ గల్గు టరుదె
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>vruttamu</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>[('అ', '|'), ('చ', '|'), ('ట', '|'), ('లే', 'U'), ('వ', '|'), ('ని', '|'), ('క', '|'), ('దా', 'U'), ('య', '|'), ('ర', '|'), ('చే', 'U'), ('త', '|'), ('జ', '|'), ('ఱ', '|'), ('చె', 'U'), ('గ్రు', 'U'), ('ద్ధ', '|'), ('త', '|'), ('స', '|'), ('భా', 'U'), ('స్తం', 'U'), ('భం', 'U'), ('బు', '|'), ('దా', 'U'), ('న', '|'), ('వేం', 'U'), ('ద్రు', '|'), ('డ', '|'), ('చ', '|'), ('ట', '|'), ('లే', 'U'), ('వ', '|'), ('ని', '|'), ('క', '|'), ('దా', 'U'), ('య', 'U'), ('స్త్ర', '|'), ('రా', 'U'), ('జం', 'U'), ('బే', 'U'), ('సె', '|'), ('గు', '|'), ('రు', '|'), ('సు', '|'), ('తుం', 'U'), ('డు', 'U'), ('త్త', '|'), ('రో', 'U'), ('ద', '|'), ('ర', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('న', '|'), ('చ', '|'), ('ట', '|'), ('లే', 'U'), ('వ', '|'), ('ని', '|'), ('క', '|'), ('దా', 'U'), ('య', '|'), ('తి', '|'), ('కో', 'U'), ('పి', '|'), ('న', '|'), ('ని', '|'), ('చె', '|'), ('బాం', 'U'), ('డ', '|'), ('వు', '|'), ('లు', 'U'), ('న్న', '|'), ('వ', '|'), ('ని', '|'), ('కి', '|'), ('గౌ', 'U'), ('ర', '|'), ('వ', '|'), ('కు', '|'), ('లేం', 'U'), ('ద్రు', '|'), ('డ', '|'), ('చ', '|'), ('ట', '|'), ('లే', 'U'), ('వ', '|'), ('ని', '|'), ('క', '|'), ('దా', 'U'), ('యా', 'U'), ('త్మీ', 'U'), ('య', '|'), ('స', '|'), ('భ', '|'), ('ను', '|'), ('ద్రౌ', 'U'), ('ప', '|'), ('ది', '|'), ('వ', 'U'), ('ల్వ', '|'), ('లూ', 'U'), ('డ్చె', '|'), ('స', 'U'), ('ర్ప', 'U'), ('ధ్వ', '|'), ('జుం', 'U'), ('డు', '|')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>లేక యచ్చోటులను గల్గలేదె ముందు-కలవు కేవల మిచ్చోటఁ గల్గు టరుదె
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
-        </is>
-      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
           <t>[('లే', 'U'), ('క', '|'), ('య', 'U'), ('చ్చో', 'U'), ('టు', '|'), ('ల', '|'), ('ను', '|'), ('గ', 'U'), ('ల్గ', '|'), ('లే', 'U'), ('దె', '|'), ('ముం', 'U'), ('దు', '|'), ('క', '|'), ('ల', '|'), ('వు', '|'), ('కే', 'U'), ('వ', '|'), ('ల', '|'), ('మి', 'U'), ('చ్చో', 'U'), ('ట', '|'), ('గ', 'U'), ('ల్గు', '|'), ('ట', '|'), ('రు', '|'), ('దె', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
         <is>
           <t>అంచితాఖండ దీపారాధనల చేత- దీపించు నెప్పుడు దేవళంబు
 అగరుసాంబ్రాణి ధూపార్పణంబులచేత- భవనం బ దెప్పుడుఁ బరిమళించు
@@ -1053,63 +996,57 @@
 నఖిలోపచార సమర్పణంబులచేత- మెఱయు నెప్పుడుఁ దిరుమేను కళల</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>aandhranaayaka</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>[('అం', 'U'), ('చి', '|'), ('తా', 'U'), ('ఖం', 'U'), ('డ', '|'), ('దీ', 'U'), ('పా', 'U'), ('రా', 'U'), ('ధ', '|'), ('న', '|'), ('ల', '|'), ('చే', 'U'), ('త', '|'), ('దీ', 'U'), ('పిం', 'U'), ('చు', '|'), ('నె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('దే', 'U'), ('వ', '|'), ('ళం', 'U'), ('బు', '|'), ('అ', '|'), ('గ', '|'), ('రు', '|'), ('సాం', 'U'), ('బ్రా', 'U'), ('ణి', '|'), ('ధూ', 'U'), ('పా', 'U'), ('ర్ప', '|'), ('ణం', 'U'), ('బు', '|'), ('ల', '|'), ('చే', 'U'), ('త', '|'), ('భ', '|'), ('వ', '|'), ('నం', 'U'), ('బ', '|'), ('దె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('బ', '|'), ('రి', '|'), ('మ', '|'), ('ళిం', 'U'), ('చు', '|'), ('న', '|'), ('తి', '|'), ('నృ', 'U'), ('త్య', '|'), ('గీ', 'U'), ('త', '|'), ('వా', 'U'), ('ద్య', 'U'), ('స్వ', '|'), ('నం', 'U'), ('బు', '|'), ('ల', '|'), ('చే', 'U'), ('త', '|'), ('నె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('గో', 'U'), ('వె', '|'), ('ల', '|'), ('యె', '|'), ('స', '|'), ('క', '|'), ('మె', '|'), ('స', '|'), ('గు', '|'), ('న', '|'), ('ఖి', '|'), ('లో', 'U'), ('ప', '|'), ('చా', 'U'), ('ర', '|'), ('స', '|'), ('మ', 'U'), ('ర్ప', '|'), ('ణం', 'U'), ('బు', '|'), ('ల', '|'), ('చే', 'U'), ('త', '|'), ('మె', '|'), ('ఱ', '|'), ('యు', '|'), ('నె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('ది', '|'), ('రు', '|'), ('మే', 'U'), ('ను', '|'), ('క', '|'), ('ళ', '|'), ('ల', '|')]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>నిపు డొకించుక లోభిత్వ మెనసి నట్లు-దోఁచుచున్నాఁడ విట్టియద్భుతము గలదె
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>vruttamu</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>[('అం', 'U'), ('చి', '|'), ('తా', 'U'), ('ఖం', 'U'), ('డ', '|'), ('దీ', 'U'), ('పా', 'U'), ('రా', 'U'), ('ధ', '|'), ('న', '|'), ('ల', '|'), ('చే', 'U'), ('త', '|'), ('దీ', 'U'), ('పిం', 'U'), ('చు', '|'), ('నె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('దే', 'U'), ('వ', '|'), ('ళం', 'U'), ('బు', '|'), ('అ', '|'), ('గ', '|'), ('రు', '|'), ('సాం', 'U'), ('బ్రా', 'U'), ('ణి', '|'), ('ధూ', 'U'), ('పా', 'U'), ('ర్ప', '|'), ('ణం', 'U'), ('బు', '|'), ('ల', '|'), ('చే', 'U'), ('త', '|'), ('భ', '|'), ('వ', '|'), ('నం', 'U'), ('బ', '|'), ('దె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('బ', '|'), ('రి', '|'), ('మ', '|'), ('ళిం', 'U'), ('చు', '|'), ('న', '|'), ('తి', '|'), ('నృ', 'U'), ('త్య', '|'), ('గీ', 'U'), ('త', '|'), ('వా', 'U'), ('ద్య', 'U'), ('స్వ', '|'), ('నం', 'U'), ('బు', '|'), ('ల', '|'), ('చే', 'U'), ('త', '|'), ('నె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('గో', 'U'), ('వె', '|'), ('ల', '|'), ('యె', '|'), ('స', '|'), ('క', '|'), ('మె', '|'), ('స', '|'), ('గు', '|'), ('న', '|'), ('ఖి', '|'), ('లో', 'U'), ('ప', '|'), ('చా', 'U'), ('ర', '|'), ('స', '|'), ('మ', 'U'), ('ర్ప', '|'), ('ణం', 'U'), ('బు', '|'), ('ల', '|'), ('చే', 'U'), ('త', '|'), ('మె', '|'), ('ఱ', '|'), ('యు', '|'), ('నె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('ది', '|'), ('రు', '|'), ('మే', 'U'), ('ను', '|'), ('క', '|'), ('ళ', '|'), ('ల', '|')]</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>నిపు డొకించుక లోభిత్వ మెనసి నట్లు-దోఁచుచున్నాఁడ విట్టియద్భుతము గలదె
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
-        </is>
-      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
           <t>[('ని', '|'), ('పు', '|'), ('డొ', '|'), ('కిం', 'U'), ('చు', '|'), ('క', '|'), ('లో', 'U'), ('భి', 'U'), ('త్వ', '|'), ('మె', '|'), ('న', '|'), ('సి', '|'), ('న', 'U'), ('ట్లు', '|'), ('దో', 'U'), ('చు', '|'), ('చు', 'U'), ('న్నా', 'U'), ('డ', '|'), ('వి', 'U'), ('ట్టి', '|'), ('య', 'U'), ('ద్భు', '|'), ('త', '|'), ('ము', '|'), ('గ', '|'), ('ల', '|'), ('దె', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
         <is>
           <t>భక్తిఁజేసిన శిలాప్రతిమ మాత్రమే కాని- హరి యిందుఁ గలుగునా యనెడువారు
 స్వామి యిం దుండిన సత్యంబుఁ జూపక- యుండునే యని పల్కుచుండువారు
@@ -1117,63 +1054,57 @@
 దేవతామహిమంబు దెలియునో యేమేమి- నడువ నున్నదో యని నుడువువారు</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
           <t>[('భ', 'U'), ('క్తి', '|'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('శి', '|'), ('లా', 'U'), ('ప్ర', '|'), ('తి', '|'), ('మ', '|'), ('మా', 'U'), ('త్ర', '|'), ('మే', 'U'), ('కా', 'U'), ('ని', '|'), ('హ', '|'), ('రి', '|'), ('యిం', 'U'), ('దు', '|'), ('గ', '|'), ('లు', '|'), ('గు', '|'), ('నా', 'U'), ('య', '|'), ('నె', '|'), ('డు', '|'), ('వా', 'U'), ('రు', 'U'), ('స్వా', 'U'), ('మి', '|'), ('యిం', 'U'), ('దుం', 'U'), ('డి', '|'), ('న', '|'), ('స', 'U'), ('త్యం', 'U'), ('బు', '|'), ('జూ', 'U'), ('ప', '|'), ('క', '|'), ('యుం', 'U'), ('డు', '|'), ('నే', 'U'), ('య', '|'), ('ని', '|'), ('ప', 'U'), ('ల్కు', '|'), ('చుం', 'U'), ('డు', '|'), ('వా', 'U'), ('రు', '|'), ('బు', 'U'), ('ద్ధా', 'U'), ('వ', '|'), ('తా', 'U'), ('రం', 'U'), ('బు', '|'), ('బూ', 'U'), ('ని', '|'), ('నా', 'U'), ('డ', '|'), ('ఖి', '|'), ('లం', 'U'), ('బు', '|'), ('గ', '|'), ('ని', '|'), ('క', '|'), ('న', '|'), ('న', 'U'), ('ట్లుం', 'U'), ('డు', '|'), ('న', '|'), ('నె', '|'), ('డు', '|'), ('వా', 'U'), ('రు', '|'), ('దే', 'U'), ('వ', '|'), ('తా', 'U'), ('మ', '|'), ('హి', '|'), ('మం', 'U'), ('బు', '|'), ('దె', '|'), ('లి', '|'), ('యు', '|'), ('నో', 'U'), ('యే', 'U'), ('మే', 'U'), ('మి', '|'), ('న', '|'), ('డు', '|'), ('వ', '|'), ('ను', 'U'), ('న్న', '|'), ('దో', 'U'), ('య', '|'), ('ని', '|'), ('ను', '|'), ('డు', '|'), ('వు', '|'), ('వా', 'U'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నీకు నిత్యోపచారముల్‌ లేకయున్న-లోకు లి ట్లాడుకొండ్రు పరాకిదేమి
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>నీకు నిత్యోపచారముల్‌ లేకయున్న-లోకు లి ట్లాడుకొండ్రు పరాకిదేమి
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('కు', '|'), ('ని', 'U'), ('త్యో', 'U'), ('ప', '|'), ('చా', 'U'), ('ర', '|'), ('ముల్', 'U'), ('లే', 'U'), ('క', '|'), ('యు', 'U'), ('న్న', '|'), ('లో', 'U'), ('కు', '|'), ('లి', 'U'), ('ట్లా', 'U'), ('డు', '|'), ('కొం', 'U'), ('డ్రు', '|'), ('ప', '|'), ('రా', 'U'), ('కి', '|'), ('దే', 'U'), ('మి', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
         <is>
           <t>ధర నూటయెనిమిది తిరుపతులందు శ్రీ- కాకుళం బరయఁ బ్రఖ్యాతమేని
 యాంధ్రనాయకుఁడ వం చఖిలదేశంబుల- నిన్నుఁ గీర్తించుటే నిజమయేని
@@ -1181,63 +1112,57 @@
 వైకుంఠుఁడవు స్వయంవ్యక్తిగా మర్చావ- తార మొందినమాట తథ్యమేని</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
           <t>[('ధ', '|'), ('ర', '|'), ('నూ', 'U'), ('ట', '|'), ('యె', '|'), ('ని', '|'), ('మి', '|'), ('ది', '|'), ('తి', '|'), ('రు', '|'), ('ప', '|'), ('తు', '|'), ('లం', 'U'), ('దు', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళం', 'U'), ('బ', '|'), ('ర', '|'), ('య', 'U'), ('బ్ర', 'U'), ('ఖ్యా', 'U'), ('త', '|'), ('మే', 'U'), ('ని', '|'), ('యాం', 'U'), ('ధ్ర', '|'), ('నా', 'U'), ('య', '|'), ('కు', '|'), ('డ', '|'), ('వం', 'U'), ('చ', '|'), ('ఖి', '|'), ('ల', '|'), ('దే', 'U'), ('శం', 'U'), ('బు', '|'), ('ల', '|'), ('ని', 'U'), ('న్ను', '|'), ('గీ', 'U'), ('ర్తిం', 'U'), ('చు', '|'), ('టే', 'U'), ('ని', '|'), ('జ', '|'), ('మ', '|'), ('యే', 'U'), ('ని', '|'), ('వై', 'U'), ('ఖా', 'U'), ('న', '|'), ('సో', 'U'), ('క్తి', '|'), ('కి', '|'), ('వం', 'U'), ('చ', '|'), ('న', '|'), ('రా', 'U'), ('కుం', 'U'), ('డ', '|'), ('నె', '|'), ('ర', '|'), ('లు', '|'), ('చూ', 'U'), ('పి', '|'), ('న', '|'), ('మా', 'U'), ('ట', '|'), ('ని', '|'), ('జ', '|'), ('మ', '|'), ('యే', 'U'), ('ని', '|'), ('వై', 'U'), ('కుం', 'U'), ('ఠు', '|'), ('డ', '|'), ('వు', 'U'), ('స్వ', '|'), ('యం', 'U'), ('వ్య', 'U'), ('క్తి', '|'), ('గా', 'U'), ('మ', 'U'), ('ర్చా', 'U'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('మొం', 'U'), ('ది', '|'), ('న', '|'), ('మా', 'U'), ('ట', '|'), ('త', 'U'), ('థ్య', '|'), ('మే', 'U'), ('ని', '|')]</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>వివిధ పూజోత్సవములు నిర్విఘ్నములుగఁ-జేసికొనకున్న నీకుఁ బ్రసిద్ధి గలదె
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>వివిధ పూజోత్సవములు నిర్విఘ్నములుగఁ-జేసికొనకున్న నీకుఁ బ్రసిద్ధి గలదె
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
           <t>[('వి', '|'), ('వి', '|'), ('ధ', '|'), ('పూ', 'U'), ('జో', 'U'), ('త్స', '|'), ('వ', '|'), ('ము', '|'), ('లు', '|'), ('ని', 'U'), ('ర్వి', 'U'), ('ఘ్న', '|'), ('ము', '|'), ('లు', '|'), ('గ', '|'), ('జే', 'U'), ('సి', '|'), ('కొ', '|'), ('న', '|'), ('కు', 'U'), ('న్న', '|'), ('నీ', 'U'), ('కు', 'U'), ('బ్ర', '|'), ('సి', 'U'), ('ద్ధి', '|'), ('గ', '|'), ('ల', '|'), ('దె', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B26" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
         <is>
           <t>మానితంబుగ గరుత్మద్ధ్వజారోహణం- బెప్పుడొనర్తువో చెప్పుమయ్య!
 గరిమతో నీ తిరుక్కల్యాణసంభ్రమం- బెప్పు డెప్పుడొ వేగ చెప్పు మయ్య
@@ -1245,63 +1170,57 @@
 ధరణి నభ్యాగతదాన ప్రజాబృంద- మెప్పుడు బలియునో చెప్పు మయ్య</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
           <t>[('మా', 'U'), ('ని', '|'), ('తం', 'U'), ('బు', '|'), ('గ', '|'), ('గ', '|'), ('రు', 'U'), ('త్మ', 'U'), ('ద్ధ్వ', '|'), ('జా', 'U'), ('రో', 'U'), ('హ', '|'), ('ణం', 'U'), ('బె', 'U'), ('ప్పు', '|'), ('డొ', '|'), ('న', 'U'), ('ర్తు', '|'), ('వో', 'U'), ('చె', 'U'), ('ప్పు', '|'), ('మ', 'U'), ('య్య', '|'), ('గ', '|'), ('రి', '|'), ('మ', '|'), ('తో', 'U'), ('నీ', 'U'), ('తి', '|'), ('రు', 'U'), ('క్క', 'U'), ('ల్యా', 'U'), ('ణ', '|'), ('సం', 'U'), ('భ్ర', '|'), ('మం', 'U'), ('బె', 'U'), ('ప్పు', '|'), ('డె', 'U'), ('ప్పు', '|'), ('డొ', '|'), ('వే', 'U'), ('గ', '|'), ('చె', 'U'), ('ప్పు', '|'), ('మ', 'U'), ('య్య', '|'), ('ర', '|'), ('మ', '|'), ('తో', 'U'), ('మ', '|'), ('హో', 'U'), ('న్న', '|'), ('త', '|'), ('ర', '|'), ('థ', '|'), ('మె', 'U'), ('క్కి', '|'), ('తి', '|'), ('రు', '|'), ('వీ', 'U'), ('థు', '|'), ('లె', 'U'), ('ప్పు', '|'), ('డే', 'U'), ('తెం', 'U'), ('తు', '|'), ('వో', 'U'), ('చె', 'U'), ('ప్పు', '|'), ('మ', 'U'), ('య్య', '|'), ('ధ', '|'), ('ర', '|'), ('ణి', '|'), ('న', 'U'), ('భ్యా', 'U'), ('గ', '|'), ('త', '|'), ('దా', 'U'), ('న', 'U'), ('ప్ర', '|'), ('జా', 'U'), ('బృం', 'U'), ('ద', '|'), ('మె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('బ', '|'), ('లి', '|'), ('యు', '|'), ('నో', 'U'), ('చె', 'U'), ('ప్పు', '|'), ('మ', 'U'), ('య్య', '|')]</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>వత్సరోత్సవ వీక్షణవాంఛ జనుల-కెపుడు ఫలియించునో యానతీయు మయ్య
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>వత్సరోత్సవ వీక్షణవాంఛ జనుల-కెపుడు ఫలియించునో యానతీయు మయ్య
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
           <t>[('వ', 'U'), ('త్స', '|'), ('రో', 'U'), ('త్స', '|'), ('వ', '|'), ('వీ', 'U'), ('క్ష', '|'), ('ణ', '|'), ('వాం', 'U'), ('ఛ', '|'), ('జ', '|'), ('ను', '|'), ('ల', '|'), ('కె', '|'), ('పు', '|'), ('డు', '|'), ('ఫ', '|'), ('లి', '|'), ('యిం', 'U'), ('చు', '|'), ('నో', 'U'), ('యా', 'U'), ('న', '|'), ('తీ', 'U'), ('యు', '|'), ('మ', 'U'), ('య్య', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B28" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
         <is>
           <t>తగునట్లు తిరుమేను తా నామతింపుచు- మిన్న పీతాంబరం బున్న దనుచుఁ
 గమలతోఁ బుట్టిన కౌస్తుభం బది పోవఁ- దక్కు సొమ్మది నీకు తక్కె ననుచు
@@ -1309,63 +1228,57 @@
 మండితమాణిక్యకుండలంబులు కర్ణ- యుగళితోఁ బుట్టిన ట్లున్న వనుచు</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('గు', '|'), ('న', 'U'), ('ట్లు', '|'), ('తి', '|'), ('రు', '|'), ('మే', 'U'), ('ను', '|'), ('తా', 'U'), ('నా', 'U'), ('మ', '|'), ('తిం', 'U'), ('పు', '|'), ('చు', '|'), ('మి', 'U'), ('న్న', '|'), ('పీ', 'U'), ('తాం', 'U'), ('బ', '|'), ('రం', 'U'), ('బు', 'U'), ('న్న', '|'), ('ద', '|'), ('ను', '|'), ('చు', '|'), ('గ', '|'), ('మ', '|'), ('ల', '|'), ('తో', 'U'), ('బు', 'U'), ('ట్టి', '|'), ('న', '|'), ('కౌ', 'U'), ('స్తు', '|'), ('భం', 'U'), ('బ', '|'), ('ది', '|'), ('పో', 'U'), ('వ', '|'), ('ద', 'U'), ('క్కు', '|'), ('సొ', 'U'), ('మ్మ', '|'), ('ది', '|'), ('నీ', 'U'), ('కు', '|'), ('త', 'U'), ('క్కె', '|'), ('న', '|'), ('ను', '|'), ('చు', '|'), ('ల', '|'), ('లి', '|'), ('త', '|'), ('ర', 'U'), ('త్న', 'U'), ('ద్యు', '|'), ('తి', '|'), ('మొ', '|'), ('ల', '|'), ('చి', '|'), ('న', 'U'), ('ట్లు', '|'), ('కి', '|'), ('రీ', 'U'), ('ట', '|'), ('ము', 'U'), ('త్త', '|'), ('మాం', 'U'), ('గ', '|'), ('ము', '|'), ('బా', 'U'), ('య', '|'), ('కు', 'U'), ('న్న', '|'), ('ద', '|'), ('ను', '|'), ('చు', '|'), ('మం', 'U'), ('డి', '|'), ('త', '|'), ('మా', 'U'), ('ణి', 'U'), ('క్య', '|'), ('కుం', 'U'), ('డ', '|'), ('లం', 'U'), ('బు', '|'), ('లు', '|'), ('క', 'U'), ('ర్ణ', '|'), ('యు', '|'), ('గ', '|'), ('ళి', '|'), ('తో', 'U'), ('బు', 'U'), ('ట్టి', '|'), ('న', 'U'), ('ట్లు', 'U'), ('న్న', '|'), ('వ', '|'), ('ను', '|'), ('చు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నిండుకొన్నావు గడియించు నేరుపరివె-ప్రావలువ బ్రారువాణముల్‌ బ్రాఁతి యేమి?
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>నిండుకొన్నావు గడియించు నేరుపరివె-ప్రావలువ బ్రారువాణముల్‌ బ్రాఁతి యేమి?
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
           <t>[('నిం', 'U'), ('డు', '|'), ('కొ', 'U'), ('న్నా', 'U'), ('వు', '|'), ('గ', '|'), ('డి', '|'), ('యిం', 'U'), ('చు', '|'), ('నే', 'U'), ('రు', '|'), ('ప', '|'), ('రి', '|'), ('వె', 'U'), ('ప్రా', 'U'), ('వ', '|'), ('లు', '|'), ('వ', 'U'), ('బ్రా', 'U'), ('రు', '|'), ('వా', 'U'), ('ణ', '|'), ('ముల్', 'U'), ('బ్రా', 'U'), ('తి', '|'), ('యే', 'U'), ('మి', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B30" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
         <is>
           <t>వంచన గాదె దివ్యక్షేత్రపతులలో- మంత్రార్థకృత్యము ల్మాని యున్న?
 నపకీర్తిగాదె లోకాలోకములయందు- వత్సరోత్సవములు వదలి యున్న?
@@ -1373,63 +1286,57 @@
 బరిపాటి గాదె యల్పజ్ఞానమతులలో- దేవతామహిమంబుఁ దెలుపకున్న?</t>
         </is>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
           <t>[('వం', 'U'), ('చ', '|'), ('న', '|'), ('గా', 'U'), ('దె', '|'), ('ది', 'U'), ('వ్య', 'U'), ('క్షే', 'U'), ('త్ర', '|'), ('ప', '|'), ('తు', '|'), ('ల', '|'), ('లో', 'U'), ('మం', 'U'), ('త్రా', 'U'), ('ర్థ', '|'), ('కృ', 'U'), ('త్య', '|'), ('ము', 'U'), ('ల్మా', 'U'), ('ని', '|'), ('యు', 'U'), ('న్న', '|'), ('న', '|'), ('ప', '|'), ('కీ', 'U'), ('ర్తి', '|'), ('గా', 'U'), ('దె', '|'), ('లో', 'U'), ('కా', 'U'), ('లో', 'U'), ('క', '|'), ('ము', '|'), ('ల', '|'), ('యం', 'U'), ('దు', '|'), ('వ', 'U'), ('త్స', '|'), ('రో', 'U'), ('త్స', '|'), ('వ', '|'), ('ము', '|'), ('లు', '|'), ('వ', '|'), ('ద', '|'), ('లి', '|'), ('యు', 'U'), ('న్న', '|'), ('న', '|'), ('గు', '|'), ('బా', 'U'), ('టు', '|'), ('గా', 'U'), ('దె', '|'), ('య', 'U'), ('న్య', '|'), ('మ', '|'), ('త', 'U'), ('స్థ', '|'), ('జ', '|'), ('ను', '|'), ('ల', '|'), ('లో', 'U'), ('ని', '|'), ('జ', '|'), ('దా', 'U'), ('స', '|'), ('కో', 'U'), ('టి', '|'), ('మ', 'U'), ('న్నిం', 'U'), ('ప', '|'), ('కు', 'U'), ('న్న', '|'), ('బ', '|'), ('రి', '|'), ('పా', 'U'), ('టి', '|'), ('గా', 'U'), ('దె', '|'), ('య', 'U'), ('ల్ప', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('మ', '|'), ('తు', '|'), ('ల', '|'), ('లో', 'U'), ('దే', 'U'), ('వ', '|'), ('తా', 'U'), ('మ', '|'), ('హి', '|'), ('మం', 'U'), ('బు', '|'), ('దె', '|'), ('లు', '|'), ('ప', '|'), ('కు', 'U'), ('న్న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నేఁటిదా నీ ప్రతిష్ఠ వర్ణించి చూడఁ-బాడి దప్పిన బలునిందపాలు గావె?
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>నేఁటిదా నీ ప్రతిష్ఠ వర్ణించి చూడఁ-బాడి దప్పిన బలునిందపాలు గావె?
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
           <t>[('నే', 'U'), ('టి', '|'), ('దా', 'U'), ('నీ', 'U'), ('ప్ర', '|'), ('తి', 'U'), ('ష్ఠ', '|'), ('వ', 'U'), ('ర్ణిం', 'U'), ('చి', '|'), ('చూ', 'U'), ('డ', '|'), ('బా', 'U'), ('డి', '|'), ('ద', 'U'), ('ప్పి', '|'), ('న', '|'), ('బ', '|'), ('లు', '|'), ('నిం', 'U'), ('ద', '|'), ('పా', 'U'), ('లు', '|'), ('గా', 'U'), ('వె', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B32" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
         <is>
           <t>తిరునాళ్ళతఱి వచ్చెఁ బరిపరివిధముల- నెలమి సామగ్రిఁ జేయింప వేమి?
 సేవకు లందందు సేవింప భావింప- తిరువీథుల రథంబుఁ ద్రిప్పవేమి?
@@ -1437,63 +1344,57 @@
 దివ్య దేశం బిది తీర్థంబు సార్థంబు- చక్రతీర్థము కృప సలుప వేమి?</t>
         </is>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
           <t>[('తి', '|'), ('రు', '|'), ('నా', 'U'), ('ళ్ళ', '|'), ('త', '|'), ('ఱి', '|'), ('వ', 'U'), ('చ్చె', '|'), ('బ', '|'), ('రి', '|'), ('ప', '|'), ('రి', '|'), ('వి', '|'), ('ధ', '|'), ('ము', '|'), ('ల', '|'), ('నె', '|'), ('ల', '|'), ('మి', '|'), ('సా', 'U'), ('మ', 'U'), ('గ్రి', '|'), ('జే', 'U'), ('యిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మి', '|'), ('సే', 'U'), ('వ', '|'), ('కు', '|'), ('లం', 'U'), ('దం', 'U'), ('దు', '|'), ('సే', 'U'), ('విం', 'U'), ('ప', '|'), ('భా', 'U'), ('విం', 'U'), ('ప', '|'), ('తి', '|'), ('రు', '|'), ('వీ', 'U'), ('థు', '|'), ('ల', '|'), ('ర', '|'), ('థం', 'U'), ('బు', '|'), ('ద్రి', 'U'), ('ప్ప', '|'), ('వే', 'U'), ('మి', '|'), ('వృ', '|'), ('జి', '|'), ('న', '|'), ('మె', 'U'), ('ల్ల', '|'), ('దొ', '|'), ('లం', 'U'), ('గు', '|'), ('ని', '|'), ('జ', '|'), ('మం', 'U'), ('చు', 'U'), ('బ్ర', '|'), ('జ', '|'), ('లెం', 'U'), ('చు', '|'), ('ప', '|'), ('ర', '|'), ('మ', 'U'), ('ప్ర', '|'), ('సా', 'U'), ('దం', 'U'), ('బు', '|'), ('బం', 'U'), ('చ', '|'), ('వే', 'U'), ('మి', '|'), ('ది', 'U'), ('వ్య', '|'), ('దే', 'U'), ('శం', 'U'), ('బి', '|'), ('ది', '|'), ('తీ', 'U'), ('ర్థం', 'U'), ('బు', '|'), ('సా', 'U'), ('ర్థం', 'U'), ('బు', '|'), ('చ', 'U'), ('క్ర', '|'), ('తీ', 'U'), ('ర్థ', '|'), ('ము', '|'), ('కృ', '|'), ('ప', '|'), ('స', '|'), ('లు', '|'), ('ప', '|'), ('వే', 'U'), ('మి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>హఠము గావించి నీయన్వయంబు లెత్తి-కీర్తి నిందఁగ వర్ణించి గేలిపఱతు
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>హఠము గావించి నీయన్వయంబు లెత్తి-కీర్తి నిందఁగ వర్ణించి గేలిపఱతు
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
           <t>[('హ', '|'), ('ఠ', '|'), ('ము', '|'), ('గా', 'U'), ('విం', 'U'), ('చి', '|'), ('నీ', 'U'), ('య', 'U'), ('న్వ', '|'), ('యం', 'U'), ('బు', '|'), ('లె', 'U'), ('త్తి', '|'), ('కీ', 'U'), ('ర్తి', '|'), ('నిం', 'U'), ('ద', '|'), ('గ', '|'), ('వ', 'U'), ('ర్ణిం', 'U'), ('చి', '|'), ('గే', 'U'), ('లి', '|'), ('ప', '|'), ('ఱ', '|'), ('తు', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B34" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
         <is>
           <t>చెల్లింపఁ దగునె వ్రేపల్లెలోఁ గల వెఱ్ఱి- గొల్లయిల్లాండ్రను గొల్లగొనఁగ?
 మెక్కంగఁ దగునె ము న్పెక్కిండ్లలో నుట్ల- కెక్కి పాల్వెన్నలు డొక్క నిండ?
@@ -1501,63 +1402,57 @@
 మ్రొక్కంగఁ దగునె ముం దొక్కపువ్వునకుఁ దాఁ- గక్కసించినయాలి కక్కజముగ</t>
         </is>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
           <t>[('చె', 'U'), ('ల్లిం', 'U'), ('ప', '|'), ('ద', '|'), ('గు', '|'), ('నె', 'U'), ('వ్రే', 'U'), ('ప', 'U'), ('ల్లె', '|'), ('లో', 'U'), ('గ', '|'), ('ల', '|'), ('వె', 'U'), ('ఱ్ఱి', '|'), ('గొ', 'U'), ('ల్ల', '|'), ('యి', 'U'), ('ల్లాం', 'U'), ('డ్ర', '|'), ('ను', '|'), ('గొ', 'U'), ('ల్ల', '|'), ('గొ', '|'), ('న', '|'), ('గ', '|'), ('మె', 'U'), ('క్కం', 'U'), ('గ', '|'), ('ద', '|'), ('గు', '|'), ('నె', '|'), ('ము', 'U'), ('న్పె', 'U'), ('క్కిం', 'U'), ('డ్ల', '|'), ('లో', 'U'), ('ను', 'U'), ('ట్ల', '|'), ('కె', 'U'), ('క్కి', '|'), ('పా', 'U'), ('ల్వె', 'U'), ('న్న', '|'), ('లు', '|'), ('డొ', 'U'), ('క్క', '|'), ('నిం', 'U'), ('డ', '|'), ('మ్రు', 'U'), ('చ్చి', '|'), ('ల', '|'), ('ద', '|'), ('గు', '|'), ('నె', '|'), ('మ', 'U'), ('ళ్ళు', 'U'), ('చ్చి', '|'), ('జ', '|'), ('ల', '|'), ('క', 'U'), ('మ్మా', 'U'), ('డు', '|'), ('మ', 'U'), ('చ్చె', '|'), ('కం', 'U'), ('టు', '|'), ('ల', '|'), ('కో', 'U'), ('క', '|'), ('లి', 'U'), ('చ్చ', '|'), ('క', '|'), ('ము', '|'), ('గ', '|'), ('మ్రొ', 'U'), ('క్కం', 'U'), ('గ', '|'), ('ద', '|'), ('గు', '|'), ('నె', '|'), ('ముం', 'U'), ('దొ', 'U'), ('క్క', '|'), ('పు', 'U'), ('వ్వు', '|'), ('న', '|'), ('కు', '|'), ('దా', 'U'), ('గ', 'U'), ('క్క', '|'), ('సిం', 'U'), ('చి', '|'), ('న', '|'), ('యా', 'U'), ('లి', '|'), ('క', 'U'), ('క్క', '|'), ('జ', '|'), ('ము', '|'), ('గ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నిట్టీ నగుబాటుపనులు నీ వెన్ని కలుగఁ-జేసినాఁడవు మంచిప్రసిద్ధకుఁడవె
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>నిట్టీ నగుబాటుపనులు నీ వెన్ని కలుగఁ-జేసినాఁడవు మంచిప్రసిద్ధకుఁడవె
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
           <t>[('ని', 'U'), ('ట్టీ', 'U'), ('న', '|'), ('గు', '|'), ('బా', 'U'), ('టు', '|'), ('ప', '|'), ('ను', '|'), ('లు', '|'), ('నీ', 'U'), ('వె', 'U'), ('న్ని', '|'), ('క', '|'), ('లు', '|'), ('గ', '|'), ('జే', 'U'), ('సి', '|'), ('నా', 'U'), ('డ', '|'), ('వు', '|'), ('మం', 'U'), ('చి', 'U'), ('ప్ర', '|'), ('సి', 'U'), ('ద్ధ', '|'), ('కు', '|'), ('డ', '|'), ('వె', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B36" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
         <is>
           <t>అబ్బుకో గలవొ కాయక్లేశ మొనరించుఁ- దేవాసురు లటుండ దివ్యరమను
 దోచుకోఁ గలవొ చే సాచి లోకము లాచి- బలిమహాదాత వైభవము లెల్ల
@@ -1565,63 +1460,57 @@
 నాటించఁ గలవొ సన్న కసన్ననె వనంబు- పెట్టు మ్రాన్పెకలించి పెరటిలోనఁ</t>
         </is>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
           <t>[('అ', 'U'), ('బ్బు', '|'), ('కో', 'U'), ('గ', '|'), ('ల', '|'), ('వొ', '|'), ('కా', 'U'), ('య', 'U'), ('క్లే', 'U'), ('శ', '|'), ('మొ', '|'), ('న', '|'), ('రిం', 'U'), ('చు', '|'), ('దే', 'U'), ('వా', 'U'), ('సు', '|'), ('రు', '|'), ('ల', '|'), ('టుం', 'U'), ('డ', '|'), ('ది', 'U'), ('వ్య', '|'), ('ర', '|'), ('మ', '|'), ('ను', '|'), ('దో', 'U'), ('చు', '|'), ('కో', 'U'), ('గ', '|'), ('ల', '|'), ('వొ', '|'), ('చే', 'U'), ('సా', 'U'), ('చి', '|'), ('లో', 'U'), ('క', '|'), ('ము', '|'), ('లా', 'U'), ('చి', '|'), ('బ', '|'), ('లి', '|'), ('మ', '|'), ('హా', 'U'), ('దా', 'U'), ('త', '|'), ('వై', 'U'), ('భ', '|'), ('వ', '|'), ('ము', '|'), ('లె', 'U'), ('ల్ల', '|'), ('రా', 'U'), ('దీ', 'U'), ('య', '|'), ('గ', '|'), ('ల', '|'), ('వొ', '|'), ('స', 'U'), ('త్రా', 'U'), ('జి', 'U'), ('త్తు', '|'), ('డీ', 'U'), ('కు', 'U'), ('న్న', '|'), ('మ', '|'), ('ణి', '|'), ('శ', '|'), ('మం', 'U'), ('త', '|'), ('క', '|'), ('మొ', '|'), ('క', '|'), ('మ', '|'), ('మ', '|'), ('త', '|'), ('గొ', 'U'), ('ల్పి', '|'), ('నా', 'U'), ('టిం', 'U'), ('చ', '|'), ('గ', '|'), ('ల', '|'), ('వొ', '|'), ('స', 'U'), ('న్న', '|'), ('క', '|'), ('స', 'U'), ('న్న', '|'), ('నె', '|'), ('వ', '|'), ('నం', 'U'), ('బు', '|'), ('పె', 'U'), ('ట్టు', '|'), ('మ్రా', 'U'), ('న్పె', '|'), ('క', '|'), ('లిం', 'U'), ('చి', '|'), ('పె', '|'), ('ర', '|'), ('టి', '|'), ('లో', 'U'), ('న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>దెచ్చుకొన వేమి వస్త్రాన్నదీపధూప-గంధ తాంబూలములకైన గడన దెలిసె
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>దెచ్చుకొన వేమి వస్త్రాన్నదీపధూప-గంధ తాంబూలములకైన గడన దెలిసె
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
           <t>[('దె', 'U'), ('చ్చు', '|'), ('కొ', '|'), ('న', '|'), ('వే', 'U'), ('మి', '|'), ('వ', 'U'), ('స్త్రా', 'U'), ('న్న', '|'), ('దీ', 'U'), ('ప', '|'), ('ధూ', 'U'), ('ప', '|'), ('గం', 'U'), ('ధ', '|'), ('తాం', 'U'), ('బూ', 'U'), ('ల', '|'), ('ము', '|'), ('ల', '|'), ('కై', 'U'), ('న', '|'), ('గ', '|'), ('డ', '|'), ('న', '|'), ('దె', '|'), ('లి', '|'), ('సె', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B38" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
         <is>
           <t>తలను బించెపుదండ ధరియించవలె గాని- మణికిరీటము బెట్ట మనుజపతివె?
 గళమున వనమాలికలు పూనవలెఁ గాని- హారము న్వేయ దేశాధిపతివె?
@@ -1629,63 +1518,57 @@
 తనువు గోక్షీరవాసన గుప్పవలెఁ గాని- చందనం బలఁద రాజవె తలంప?</t>
         </is>
       </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('ల', '|'), ('ను', '|'), ('బిం', 'U'), ('చె', '|'), ('పు', '|'), ('దం', 'U'), ('డ', '|'), ('ధ', '|'), ('రి', '|'), ('యిం', 'U'), ('చ', '|'), ('వ', '|'), ('లె', '|'), ('గా', 'U'), ('ని', '|'), ('మ', '|'), ('ణి', '|'), ('కి', '|'), ('రీ', 'U'), ('ట', '|'), ('ము', '|'), ('బె', 'U'), ('ట్ట', '|'), ('మ', '|'), ('ను', '|'), ('జ', '|'), ('ప', '|'), ('తి', '|'), ('వె', '|'), ('గ', '|'), ('ళ', '|'), ('ము', '|'), ('న', '|'), ('వ', '|'), ('న', '|'), ('మా', 'U'), ('లి', '|'), ('క', '|'), ('లు', '|'), ('పూ', 'U'), ('న', '|'), ('వ', '|'), ('లె', '|'), ('గా', 'U'), ('ని', '|'), ('హా', 'U'), ('ర', '|'), ('ము', 'U'), ('న్వే', 'U'), ('య', '|'), ('దే', 'U'), ('శా', 'U'), ('ధి', '|'), ('ప', '|'), ('తి', '|'), ('వె', '|'), ('క', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('ము', '|'), ('ర', '|'), ('ళి', '|'), ('చ', 'U'), ('క్క', '|'), ('గ', '|'), ('బూ', 'U'), ('న', '|'), ('వ', '|'), ('లె', '|'), ('గా', 'U'), ('ని', '|'), ('శా', 'U'), ('తా', 'U'), ('సి', '|'), ('బూ', 'U'), ('నం', 'U'), ('గ', 'U'), ('క్ష', 'U'), ('త్రి', '|'), ('యు', '|'), ('డ', '|'), ('వె', '|'), ('త', '|'), ('ను', '|'), ('వు', '|'), ('గో', 'U'), ('క్షీ', 'U'), ('ర', '|'), ('వా', 'U'), ('స', '|'), ('న', '|'), ('గు', 'U'), ('ప్ప', '|'), ('వ', '|'), ('లె', '|'), ('గా', 'U'), ('ని', '|'), ('చం', 'U'), ('ద', '|'), ('నం', 'U'), ('బ', '|'), ('ల', '|'), ('ద', '|'), ('రా', 'U'), ('జ', '|'), ('వె', '|'), ('త', '|'), ('లం', 'U'), ('ప', '|')]</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నెల్లలోక మెఱింగిన గొల్లవాఁడ-వేది కుల మింత రాజస మేమి నీకు
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>నెల్లలోక మెఱింగిన గొల్లవాఁడ-వేది కుల మింత రాజస మేమి నీకు
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
           <t>[('నె', 'U'), ('ల్ల', '|'), ('లో', 'U'), ('క', '|'), ('మె', '|'), ('ఱిం', 'U'), ('గి', '|'), ('న', '|'), ('గొ', 'U'), ('ల్ల', '|'), ('వా', 'U'), ('డ', '|'), ('వే', 'U'), ('ది', '|'), ('కు', '|'), ('ల', '|'), ('మిం', 'U'), ('త', '|'), ('రా', 'U'), ('జ', '|'), ('స', '|'), ('మే', 'U'), ('మి', '|'), ('నీ', 'U'), ('కు', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B40" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
         <is>
           <t>కన్నవారల మున్ను గారాగృహంబున- విడిచి పాఱితివి నీ కడిమి యేమి?
 పగవాఁడు పురిటిలోఁ బట్టి నెత్తుకపోవఁ- దమకించుచున్న నీ ధైర్య మేమి?
@@ -1693,63 +1576,57 @@
 వైరిధాటికి నోడి వనధి మధ్యమునందు- నిలు గట్టుకొన్న నీ బలిమి యేమి?</t>
         </is>
       </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
           <t>[('క', 'U'), ('న్న', '|'), ('వా', 'U'), ('ర', '|'), ('ల', '|'), ('ము', 'U'), ('న్ను', '|'), ('గా', 'U'), ('రా', 'U'), ('గృ', '|'), ('హం', 'U'), ('బు', '|'), ('న', '|'), ('వి', '|'), ('డి', '|'), ('చి', '|'), ('పా', 'U'), ('ఱి', '|'), ('తి', '|'), ('వి', '|'), ('నీ', 'U'), ('క', '|'), ('డి', '|'), ('మి', '|'), ('యే', 'U'), ('మి', '|'), ('ప', '|'), ('గ', '|'), ('వా', 'U'), ('డు', '|'), ('పు', '|'), ('రి', '|'), ('టి', '|'), ('లో', 'U'), ('బ', 'U'), ('ట్టి', '|'), ('నె', 'U'), ('త్తు', '|'), ('క', '|'), ('పో', 'U'), ('వ', '|'), ('ద', '|'), ('మ', '|'), ('కిం', 'U'), ('చు', '|'), ('చు', 'U'), ('న్న', '|'), ('నీ', 'U'), ('ధై', 'U'), ('ర్య', '|'), ('మే', 'U'), ('మి', '|'), ('ము', 'U'), ('ద్దు', '|'), ('మ', 'U'), ('న్మ', '|'), ('ని', '|'), ('గో', 'U'), ('ప్య', '|'), ('ము', '|'), ('గ', '|'), ('నొం', 'U'), ('డు', '|'), ('బం', 'U'), ('ధిం', 'U'), ('ప', '|'), ('దె', '|'), ('లి', '|'), ('య', '|'), ('న', 'U'), ('ట్లు', 'U'), ('న్న', '|'), ('నీ', 'U'), ('తె', '|'), ('గు', '|'), ('వ', '|'), ('యే', 'U'), ('మి', '|'), ('వై', 'U'), ('రి', '|'), ('ధా', 'U'), ('టి', '|'), ('కి', '|'), ('నో', 'U'), ('డి', '|'), ('వ', '|'), ('న', '|'), ('ధి', '|'), ('మ', 'U'), ('ధ్య', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('ని', '|'), ('లు', '|'), ('గ', 'U'), ('ట్టు', '|'), ('కొ', 'U'), ('న్న', '|'), ('నీ', 'U'), ('బ', '|'), ('లి', '|'), ('మి', '|'), ('యే', 'U'), ('మి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>విఱిగి తిరి గెన్నఁడెన్నఁడో తఱి యెఱింగి-యొరుల నడఁచితి వది యేమి భరము నీకు?
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>విఱిగి తిరి గెన్నఁడెన్నఁడో తఱి యెఱింగి-యొరుల నడఁచితి వది యేమి భరము నీకు?
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
           <t>[('వి', '|'), ('ఱి', '|'), ('గి', '|'), ('తి', '|'), ('రి', '|'), ('గె', 'U'), ('న్న', '|'), ('డె', 'U'), ('న్న', '|'), ('డో', 'U'), ('త', '|'), ('ఱి', '|'), ('యె', '|'), ('ఱిం', 'U'), ('గి', '|'), ('యొ', '|'), ('రు', '|'), ('ల', '|'), ('న', '|'), ('డ', '|'), ('చి', '|'), ('తి', '|'), ('వ', '|'), ('ది', '|'), ('యే', 'U'), ('మి', '|'), ('భ', '|'), ('ర', '|'), ('ము', '|'), ('నీ', 'U'), ('కు', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B42" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
         <is>
           <t>భిల్లాంగనాదంతపీడిత ఫలభుక్తి- హేయంబు దోఁచలే దింత నీకు
 సంక్రందనాత్మజ స్యందన సారథ్య- మెరుసుగాఁ దోఁచలే దింత నీకు
@@ -1757,63 +1634,57 @@
 వ్రజబాలికా ముక్తవస్త్రాపహరణము- హీనమై తోఁచలే దింత నీకు</t>
         </is>
       </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
           <t>[('భి', 'U'), ('ల్లాం', 'U'), ('గ', '|'), ('నా', 'U'), ('దం', 'U'), ('త', '|'), ('పీ', 'U'), ('డి', '|'), ('త', '|'), ('ఫ', '|'), ('ల', '|'), ('భు', 'U'), ('క్తి', '|'), ('హే', 'U'), ('యం', 'U'), ('బు', '|'), ('దో', 'U'), ('చ', '|'), ('లే', 'U'), ('దిం', 'U'), ('త', '|'), ('నీ', 'U'), ('కు', '|'), ('సం', 'U'), ('క్రం', 'U'), ('ద', '|'), ('నా', 'U'), ('త్మ', '|'), ('జ', 'U'), ('స్యం', 'U'), ('ద', '|'), ('న', '|'), ('సా', 'U'), ('ర', 'U'), ('థ్య', '|'), ('మె', '|'), ('రు', '|'), ('సు', '|'), ('గా', 'U'), ('దో', 'U'), ('చ', '|'), ('లే', 'U'), ('దిం', 'U'), ('త', '|'), ('నీ', 'U'), ('కు', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('కా', 'U'), ('నే', 'U'), ('క', '|'), ('గో', 'U'), ('వ', 'U'), ('త్స', '|'), ('పా', 'U'), ('ల', '|'), ('నం', 'U'), ('బె', 'U'), ('గ్గు', '|'), ('గా', 'U'), ('దో', 'U'), ('చ', '|'), ('లే', 'U'), ('దిం', 'U'), ('త', '|'), ('నీ', 'U'), ('కు', 'U'), ('వ్ర', '|'), ('జ', '|'), ('బా', 'U'), ('లి', '|'), ('కా', 'U'), ('ము', 'U'), ('క్త', '|'), ('వ', 'U'), ('స్త్రా', 'U'), ('ప', '|'), ('హ', '|'), ('ర', '|'), ('ణ', '|'), ('ము', '|'), ('హీ', 'U'), ('న', '|'), ('మై', 'U'), ('తో', 'U'), ('చ', '|'), ('లే', 'U'), ('దిం', 'U'), ('త', '|'), ('నీ', 'U'), ('కు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నుచ్చనీచంబు లెఱుఁగక యిచ్చఁ జేయు-చేష్ట లివి భక్తహితమతిఁ జేసి తండ్రు
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>నుచ్చనీచంబు లెఱుఁగక యిచ్చఁ జేయు-చేష్ట లివి భక్తహితమతిఁ జేసి తండ్రు
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
           <t>[('ను', 'U'), ('చ్చ', '|'), ('నీ', 'U'), ('చం', 'U'), ('బు', '|'), ('లె', '|'), ('ఱు', '|'), ('గ', '|'), ('క', '|'), ('యి', 'U'), ('చ్చ', '|'), ('జే', 'U'), ('యు', '|'), ('చే', 'U'), ('ష్ట', '|'), ('లి', '|'), ('వి', '|'), ('భ', 'U'), ('క్త', '|'), ('హి', '|'), ('త', '|'), ('మ', '|'), ('తి', '|'), ('జే', 'U'), ('సి', '|'), ('తం', 'U'), ('డ్రు', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B44" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
         <is>
           <t>విమతభూపతు లెట్లు విముఖులై పాఱిరో- రాజపీఠం బెక్కరాని నీకు
 కుంభినీధవు లెట్లు కూఁతుండ్ర నిచ్చిరో- కుల మొల్లకయె నీకు గోపకునకు
@@ -1821,63 +1692,57 @@
 దాసజనం బెట్లు దాస్యంబు సలిపిరో- తిరియువానిని మారు తిరియు నీకు</t>
         </is>
       </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
           <t>[('వి', '|'), ('మ', '|'), ('త', '|'), ('భూ', 'U'), ('ప', '|'), ('తు', '|'), ('లె', 'U'), ('ట్లు', '|'), ('వి', '|'), ('ము', '|'), ('ఖు', '|'), ('లై', 'U'), ('పా', 'U'), ('ఱి', '|'), ('రో', 'U'), ('రా', 'U'), ('జ', '|'), ('పీ', 'U'), ('ఠం', 'U'), ('బె', 'U'), ('క్క', '|'), ('రా', 'U'), ('ని', '|'), ('నీ', 'U'), ('కు', '|'), ('కుం', 'U'), ('భి', '|'), ('నీ', 'U'), ('ధ', '|'), ('వు', '|'), ('లె', 'U'), ('ట్లు', '|'), ('కూ', 'U'), ('తుం', 'U'), ('డ్ర', '|'), ('ని', 'U'), ('చ్చి', '|'), ('రో', 'U'), ('కు', '|'), ('ల', '|'), ('మొ', 'U'), ('ల్ల', '|'), ('క', '|'), ('యె', '|'), ('నీ', 'U'), ('కు', '|'), ('గో', 'U'), ('ప', '|'), ('కు', '|'), ('న', '|'), ('కు', '|'), ('సుం', 'U'), ('ద', '|'), ('రీ', 'U'), ('మ', '|'), ('ణు', '|'), ('లె', 'U'), ('ట్లు', '|'), ('చూ', 'U'), ('చి', '|'), ('మో', 'U'), ('హిం', 'U'), ('చి', '|'), ('రో', 'U'), ('క', 'U'), ('ప్ప', '|'), ('గు', '|'), ('మై', 'U'), ('చా', 'U'), ('య', '|'), ('గ', '|'), ('లు', '|'), ('గు', '|'), ('నీ', 'U'), ('కు', '|'), ('దా', 'U'), ('స', '|'), ('జ', '|'), ('నం', 'U'), ('బె', 'U'), ('ట్లు', '|'), ('దా', 'U'), ('స్యం', 'U'), ('బు', '|'), ('స', '|'), ('లి', '|'), ('పి', '|'), ('రో', 'U'), ('తి', '|'), ('రి', '|'), ('యు', '|'), ('వా', 'U'), ('ని', '|'), ('ని', '|'), ('మా', 'U'), ('రు', '|'), ('తి', '|'), ('రి', '|'), ('యు', '|'), ('నీ', 'U'), ('కు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>మమత నీలీల లటు సూచి బ్రమసి రేమె-తగుదువే యిట్టిఘనతకు దంభభూప
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>మమత నీలీల లటు సూచి బ్రమసి రేమె-తగుదువే యిట్టిఘనతకు దంభభూప
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('మ', '|'), ('త', '|'), ('నీ', 'U'), ('లీ', 'U'), ('ల', '|'), ('ల', '|'), ('టు', '|'), ('సూ', 'U'), ('చి', 'U'), ('బ్ర', '|'), ('మ', '|'), ('సి', '|'), ('రే', 'U'), ('మె', '|'), ('త', '|'), ('గు', '|'), ('దు', '|'), ('వే', 'U'), ('యి', 'U'), ('ట్టి', '|'), ('ఘ', '|'), ('న', '|'), ('త', '|'), ('కు', '|'), ('దం', 'U'), ('భ', '|'), ('భూ', 'U'), ('ప', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B46" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
         <is>
           <t>విక్రమాక్రమిత భూచక్రుఁ డౌ హేమాక్షు- పొం గణంచుటలు కోణంగితనము
 కరగతామృతకుంభ గర్వితాసురకోటిఁ- దూలఁగొట్టుటలు గయ్యాళితనము
@@ -1885,63 +1750,57 @@
 కంసపురీ ద్వారగమనావరోధి యౌ- మదకరి నీడ్చుట మకురుతనము</t>
         </is>
       </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
           <t>[('వి', 'U'), ('క్ర', '|'), ('మా', 'U'), ('క్ర', '|'), ('మి', '|'), ('త', '|'), ('భూ', 'U'), ('చ', 'U'), ('క్రు', '|'), ('డౌ', 'U'), ('హే', 'U'), ('మా', 'U'), ('క్షు', '|'), ('పొం', 'U'), ('గ', '|'), ('ణం', 'U'), ('చు', '|'), ('ట', '|'), ('లు', '|'), ('కో', 'U'), ('ణం', 'U'), ('గి', '|'), ('త', '|'), ('న', '|'), ('ము', '|'), ('క', '|'), ('ర', '|'), ('గ', '|'), ('తా', 'U'), ('మృ', '|'), ('త', '|'), ('కుం', 'U'), ('భ', '|'), ('గ', 'U'), ('ర్వి', '|'), ('తా', 'U'), ('సు', '|'), ('ర', '|'), ('కో', 'U'), ('టి', '|'), ('దూ', 'U'), ('ల', '|'), ('గొ', 'U'), ('ట్టు', '|'), ('ట', '|'), ('లు', '|'), ('గ', 'U'), ('య్యా', 'U'), ('ళి', '|'), ('త', '|'), ('న', '|'), ('ము', '|'), ('కు', '|'), ('చ', '|'), ('పూ', 'U'), ('ర్ణ', '|'), ('వి', '|'), ('ష', '|'), ('దు', 'U'), ('గ్ధ', '|'), ('కు', '|'), ('టి', '|'), ('ల', '|'), ('యౌ', 'U'), ('పూ', 'U'), ('త', '|'), ('న', '|'), ('పే', 'U'), ('రు', '|'), ('మా', 'U'), ('యిం', 'U'), ('చు', '|'), ('ట', '|'), ('పి', 'U'), ('ల్ల', '|'), ('త', '|'), ('న', '|'), ('ము', '|'), ('కం', 'U'), ('స', '|'), ('పు', '|'), ('రీ', 'U'), ('ద్వా', 'U'), ('ర', '|'), ('గ', '|'), ('మ', '|'), ('నా', 'U'), ('వ', '|'), ('రో', 'U'), ('ధి', '|'), ('యౌ', 'U'), ('మ', '|'), ('ద', '|'), ('క', '|'), ('రి', '|'), ('నీ', 'U'), ('డ్చు', '|'), ('ట', '|'), ('మ', '|'), ('కు', '|'), ('రు', '|'), ('త', '|'), ('న', '|'), ('ము', '|')]</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>వడిగలతనంబులా యివి? గడన యేమి-కొద్దిపను లివి నీ కిది పెద్దతనమె?
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>వడిగలతనంబులా యివి? గడన యేమి-కొద్దిపను లివి నీ కిది పెద్దతనమె?
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
           <t>[('వ', '|'), ('డి', '|'), ('గ', '|'), ('ల', '|'), ('త', '|'), ('నం', 'U'), ('బు', '|'), ('లా', 'U'), ('యి', '|'), ('వి', '|'), ('గ', '|'), ('డ', '|'), ('న', '|'), ('యే', 'U'), ('మి', '|'), ('కొ', 'U'), ('ద్ది', '|'), ('ప', '|'), ('ను', '|'), ('లి', '|'), ('వి', '|'), ('నీ', 'U'), ('కి', '|'), ('ది', '|'), ('పె', 'U'), ('ద్ద', '|'), ('త', '|'), ('న', '|'), ('మె', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B48" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
         <is>
           <t>కెరలి కంసుఁడు నిన్ను నఱకఁ గాచినవాని- బారి సోదరిఁ ద్రోచి పాఱినావు
 సరిపోర నరకు నొంచఁగ లేక చేతివి- ల్లాలిచే నిడి దండ నలరినావు
@@ -1949,63 +1808,57 @@
 దర్పకోద్ధతి కెంతొ తత్తరపడి నిజ- స్త్రీ పదాబ్జములఁ జే మోపినావు</t>
         </is>
       </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
           <t>[('కె', '|'), ('ర', '|'), ('లి', '|'), ('కం', 'U'), ('సు', '|'), ('డు', '|'), ('ని', 'U'), ('న్ను', '|'), ('న', '|'), ('ఱ', '|'), ('క', '|'), ('గా', 'U'), ('చి', '|'), ('న', '|'), ('వా', 'U'), ('ని', '|'), ('బా', 'U'), ('రి', '|'), ('సో', 'U'), ('ద', '|'), ('రి', '|'), ('ద్రో', 'U'), ('చి', '|'), ('పా', 'U'), ('ఱి', '|'), ('నా', 'U'), ('వు', '|'), ('స', '|'), ('రి', '|'), ('పో', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('కు', '|'), ('నొం', 'U'), ('చ', '|'), ('గ', '|'), ('లే', 'U'), ('క', '|'), ('చే', 'U'), ('తి', '|'), ('వి', 'U'), ('ల్లా', 'U'), ('లి', '|'), ('చే', 'U'), ('ని', '|'), ('డి', '|'), ('దం', 'U'), ('డ', '|'), ('న', '|'), ('ల', '|'), ('రి', '|'), ('నా', 'U'), ('వు', '|'), ('తె', '|'), ('గ', '|'), ('డి', '|'), ('బం', 'U'), ('ధు', '|'), ('వు', '|'), ('లా', 'U'), ('జి', '|'), ('ది', 'U'), ('ట్టి', '|'), ('కొ', 'U'), ('ట్ట', '|'), ('గ', '|'), ('నో', 'U'), ('ర్చి', '|'), ('వై', 'U'), ('ద', 'U'), ('ర్భి', '|'), ('జే', 'U'), ('ప', 'U'), ('ట్టి', '|'), ('వ', 'U'), ('చ్చి', '|'), ('నా', 'U'), ('వు', '|'), ('ద', 'U'), ('ర్ప', '|'), ('కో', 'U'), ('ద్ధ', '|'), ('తి', '|'), ('కెం', 'U'), ('తొ', '|'), ('త', 'U'), ('త్త', '|'), ('ర', '|'), ('ప', '|'), ('డి', '|'), ('ని', '|'), ('జ', 'U'), ('స్త్రీ', 'U'), ('ప', '|'), ('దా', 'U'), ('బ్జ', '|'), ('ము', '|'), ('ల', '|'), ('జే', 'U'), ('మో', 'U'), ('పి', '|'), ('నా', 'U'), ('వు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నీ పరాక్రమ మిట్టిది నిఖిలజగము-లాజ్ఞ మీఱక నిల్చుట యద్భుతంబు
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>నీ పరాక్రమ మిట్టిది నిఖిలజగము-లాజ్ఞ మీఱక నిల్చుట యద్భుతంబు
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('ప', '|'), ('రా', 'U'), ('క్ర', '|'), ('మ', '|'), ('మి', 'U'), ('ట్టి', '|'), ('ది', '|'), ('ని', '|'), ('ఖి', '|'), ('ల', '|'), ('జ', '|'), ('గ', '|'), ('ము', '|'), ('లా', 'U'), ('జ్ఞ', '|'), ('మీ', 'U'), ('ఱ', '|'), ('క', '|'), ('ని', 'U'), ('ల్చు', '|'), ('ట', '|'), ('య', 'U'), ('ద్భు', '|'), ('తం', 'U'), ('బు', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B50" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
         <is>
           <t>వ్రేపల్లెలో గొల్లవెలఁదులు గొట్ట రా- దొడిదొడి యిల్లిల్లుఁ దూఱలేదొ
 రాసకేళికయందు రమణులా యెందఱో- చుట్టి పట్టినఁ బాఱఁ జూడలేదొ
@@ -2013,63 +1866,57 @@
 ప్రణయవాదంబున భార్య లా యెనమండ్రు- గసరివేసినఁ గూర్మిఁ గొసరలేదొ</t>
         </is>
       </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
           <t>[('వ్రే', 'U'), ('ప', 'U'), ('ల్లె', '|'), ('లో', 'U'), ('గొ', 'U'), ('ల్ల', '|'), ('వె', '|'), ('ల', '|'), ('దు', '|'), ('లు', '|'), ('గొ', 'U'), ('ట్ట', '|'), ('రా', 'U'), ('దొ', '|'), ('డి', '|'), ('దొ', '|'), ('డి', '|'), ('యి', 'U'), ('ల్లి', 'U'), ('ల్లు', '|'), ('దూ', 'U'), ('ఱ', '|'), ('లే', 'U'), ('దొ', '|'), ('రా', 'U'), ('స', '|'), ('కే', 'U'), ('ళి', '|'), ('క', '|'), ('యం', 'U'), ('దు', '|'), ('ర', '|'), ('మ', '|'), ('ణు', '|'), ('లా', 'U'), ('యెం', 'U'), ('ద', '|'), ('ఱో', 'U'), ('చు', 'U'), ('ట్టి', '|'), ('ప', 'U'), ('ట్టి', '|'), ('న', '|'), ('బా', 'U'), ('ఱ', '|'), ('జూ', 'U'), ('డ', '|'), ('లే', 'U'), ('దొ', '|'), ('ప', '|'), ('ది', '|'), ('యా', 'U'), ('ఱు', '|'), ('వే', 'U'), ('ల', '|'), ('గో', 'U'), ('ప', '|'), ('కు', '|'), ('మా', 'U'), ('రి', '|'), ('క', '|'), ('లు', '|'), ('తే', 'U'), ('రి', '|'), ('పా', 'U'), ('ఱ', '|'), ('జూ', 'U'), ('చి', '|'), ('న', '|'), ('మ', '|'), ('తి', 'U'), ('బ్ర', '|'), ('మ', '|'), ('య', '|'), ('లే', 'U'), ('దొ', 'U'), ('ప్ర', '|'), ('ణ', '|'), ('య', '|'), ('వా', 'U'), ('దం', 'U'), ('బు', '|'), ('న', '|'), ('భా', 'U'), ('ర్య', '|'), ('లా', 'U'), ('యె', '|'), ('న', '|'), ('మం', 'U'), ('డ్రు', '|'), ('గ', '|'), ('స', '|'), ('రి', '|'), ('వే', 'U'), ('సి', '|'), ('న', '|'), ('గూ', 'U'), ('ర్మి', '|'), ('గొ', '|'), ('స', '|'), ('ర', '|'), ('లే', 'U'), ('దొ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>తలిరుబోఁ డుల యెదుటఁ దత్తరము గలుగ-నేవు పరరాజముఖమున నిలువ గలవె
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>తలిరుబోఁ డుల యెదుటఁ దత్తరము గలుగ-నేవు పరరాజముఖమున నిలువ గలవె
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('లి', '|'), ('రు', '|'), ('బో', 'U'), ('డు', '|'), ('ల', '|'), ('యె', '|'), ('దు', '|'), ('ట', '|'), ('ద', 'U'), ('త్త', '|'), ('ర', '|'), ('ము', '|'), ('గ', '|'), ('లు', '|'), ('గ', '|'), ('నే', 'U'), ('వు', '|'), ('ప', '|'), ('ర', '|'), ('రా', 'U'), ('జ', '|'), ('ము', '|'), ('ఖ', '|'), ('ము', '|'), ('న', '|'), ('ని', '|'), ('లు', '|'), ('వ', '|'), ('గ', '|'), ('ల', '|'), ('వె', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B52" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
         <is>
           <t>ఆలు నిర్వాహకురాలు భూదేవి యై- యఖిలభారకుఁ డనునాఖ్యఁ దెచ్చె
 నిష్టసంపన్నురా లిందిర భార్యయై- కామితార్థదుఁ డన్న ఘనతఁ దెచ్చెఁ
@@ -2077,63 +1924,57 @@
 గలుషవిధ్వంసిని గంగ కుమారి యై- బతితపావనుఁ డన్న ప్రతిభఁ దెచ్చె</t>
         </is>
       </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
           <t>[('ఆ', 'U'), ('లు', '|'), ('ని', 'U'), ('ర్వా', 'U'), ('హ', '|'), ('కు', '|'), ('రా', 'U'), ('లు', '|'), ('భూ', 'U'), ('దే', 'U'), ('వి', '|'), ('యై', 'U'), ('య', '|'), ('ఖి', '|'), ('ల', '|'), ('భా', 'U'), ('ర', '|'), ('కు', '|'), ('డ', '|'), ('ను', '|'), ('నా', 'U'), ('ఖ్య', '|'), ('దె', 'U'), ('చ్చె', '|'), ('ని', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('ప', 'U'), ('న్ను', '|'), ('రా', 'U'), ('లిం', 'U'), ('ది', '|'), ('ర', '|'), ('భా', 'U'), ('ర్య', '|'), ('యై', 'U'), ('కా', 'U'), ('మి', '|'), ('తా', 'U'), ('ర్థ', '|'), ('దు', '|'), ('డ', 'U'), ('న్న', '|'), ('ఘ', '|'), ('న', '|'), ('త', '|'), ('దె', 'U'), ('చ్చె', '|'), ('గ', '|'), ('మ', '|'), ('ల', '|'), ('గ', 'U'), ('ర్భు', '|'), ('డు', '|'), ('సృ', 'U'), ('ష్టి', '|'), ('క', 'U'), ('ర్త', '|'), ('త', '|'), ('నూ', 'U'), ('జు', '|'), ('డై', 'U'), ('బ', '|'), ('హు', '|'), ('కు', '|'), ('టుం', 'U'), ('బ', '|'), ('కు', '|'), ('డ', 'U'), ('న్న', '|'), ('బ', '|'), ('లి', '|'), ('మి', '|'), ('దె', 'U'), ('చ్చె', '|'), ('గ', '|'), ('లు', '|'), ('ష', '|'), ('వి', 'U'), ('ధ్వం', 'U'), ('సి', '|'), ('ని', '|'), ('గం', 'U'), ('గ', '|'), ('కు', '|'), ('మా', 'U'), ('రి', '|'), ('యై', 'U'), ('బ', '|'), ('తి', '|'), ('త', '|'), ('పా', 'U'), ('వ', '|'), ('ను', '|'), ('డ', 'U'), ('న్న', 'U'), ('ప్ర', '|'), ('తి', '|'), ('భ', '|'), ('దె', 'U'), ('చ్చె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నాండ్రు బిడ్డలు దెచ్చుప్రఖ్యాతి గాని-మొదటినుండియు నీవు దామోదరుఁడవె
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>నాండ్రు బిడ్డలు దెచ్చుప్రఖ్యాతి గాని-మొదటినుండియు నీవు దామోదరుఁడవె
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
           <t>[('నాం', 'U'), ('డ్రు', '|'), ('బి', 'U'), ('డ్డ', '|'), ('లు', '|'), ('దె', 'U'), ('చ్చు', 'U'), ('ప్ర', 'U'), ('ఖ్యా', 'U'), ('తి', '|'), ('గా', 'U'), ('ని', '|'), ('మొ', '|'), ('ద', '|'), ('టి', '|'), ('నుం', 'U'), ('డి', '|'), ('యు', '|'), ('నీ', 'U'), ('వు', '|'), ('దా', 'U'), ('మో', 'U'), ('ద', '|'), ('రు', '|'), ('డ', '|'), ('వె', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B54" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
         <is>
           <t>కడలి రాయనిముద్దుకన్నియఁ బెండ్లాడి- యూఁచఁగా నిల్లట ముండు టేమి
 సహజ నొక్కర్తెను షండ పాండవునకుఁ- బెండ్లిఁ జేసితి నీవు పెద్ద వేమి
@@ -2141,63 +1982,57 @@
 యుగములనాటి పెన్మగువను ముసలన్న- కొగిఁ జేసితివి తగుం దగు మఱేమి</t>
         </is>
       </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('డ', '|'), ('లి', '|'), ('రా', 'U'), ('య', '|'), ('ని', '|'), ('ము', 'U'), ('ద్దు', '|'), ('క', 'U'), ('న్ని', '|'), ('య', '|'), ('బెం', 'U'), ('డ్లా', 'U'), ('డి', '|'), ('యూ', 'U'), ('చ', '|'), ('గా', 'U'), ('ని', 'U'), ('ల్ల', '|'), ('ట', '|'), ('ముం', 'U'), ('డు', '|'), ('టే', 'U'), ('మి', '|'), ('స', '|'), ('హ', '|'), ('జ', '|'), ('నొ', 'U'), ('క్క', 'U'), ('ర్తె', '|'), ('ను', '|'), ('షం', 'U'), ('డ', '|'), ('పాం', 'U'), ('డ', '|'), ('వు', '|'), ('న', '|'), ('కు', '|'), ('బెం', 'U'), ('డ్లి', '|'), ('జే', 'U'), ('సి', '|'), ('తి', '|'), ('నీ', 'U'), ('వు', '|'), ('పె', 'U'), ('ద్ద', '|'), ('వే', 'U'), ('మి', '|'), ('చి', '|'), ('ర', '|'), ('ర', '|'), ('తి', 'U'), ('ప్రౌ', 'U'), ('ఢ', '|'), ('ను', '|'), ('జి', 'U'), ('న్న', '|'), ('బి', 'U'), ('డ్డ', '|'), ('ని', '|'), ('కీ', 'U'), ('వు', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('తి', '|'), ('వా', 'U'), ('రీ', 'U'), ('తి', '|'), ('గూ', 'U'), ('డు', '|'), ('నే', 'U'), ('మి', '|'), ('యు', '|'), ('గ', '|'), ('ము', '|'), ('ల', '|'), ('నా', 'U'), ('టి', '|'), ('పె', 'U'), ('న్మ', '|'), ('గు', '|'), ('వ', '|'), ('ను', '|'), ('ము', '|'), ('స', '|'), ('ల', 'U'), ('న్న', '|'), ('కొ', '|'), ('గి', '|'), ('జే', 'U'), ('సి', '|'), ('తి', '|'), ('వి', '|'), ('త', '|'), ('గుం', 'U'), ('ద', '|'), ('గు', '|'), ('మ', '|'), ('ఱే', 'U'), ('మి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>తెలియ నవ్యక్తుఁడవు గావు తెలిసికొన్న-నిట్టివాఁ డని తెలియలే దెవ్వరికిని
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>తెలియ నవ్యక్తుఁడవు గావు తెలిసికొన్న-నిట్టివాఁ డని తెలియలే దెవ్వరికిని
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
           <t>[('తె', '|'), ('లి', '|'), ('య', '|'), ('న', 'U'), ('వ్య', 'U'), ('క్తు', '|'), ('డ', '|'), ('వు', '|'), ('గా', 'U'), ('వు', '|'), ('తె', '|'), ('లి', '|'), ('సి', '|'), ('కొ', 'U'), ('న్న', '|'), ('ని', 'U'), ('ట్టి', '|'), ('వా', 'U'), ('డ', '|'), ('ని', '|'), ('తె', '|'), ('లి', '|'), ('య', '|'), ('లే', 'U'), ('దె', 'U'), ('వ్వ', '|'), ('రి', '|'), ('కి', '|'), ('ని', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B56" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
         <is>
           <t>నీ జ్యేష్ఠపుత్త్రుఁ డెన్నికకు రాని యశాశ్వ- తపుఁ బను ల్సేయు సంతతము జగతి
 వేరొక ముద్దుకుమారుఁడందఱిమోహ- లతల స్త్రీపురుషుల లంకెఁ బెట్టు
@@ -2205,63 +2040,57 @@
 నీ వనన్యకృతాది నిబిడమాయావిధా- నుల జేయు దెవ్వరిఁ దొలఁగనీక</t>
         </is>
       </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('జ్యే', 'U'), ('ష్ఠ', '|'), ('పు', 'U'), ('త్త్రు', '|'), ('డె', 'U'), ('న్ని', '|'), ('క', '|'), ('కు', '|'), ('రా', 'U'), ('ని', '|'), ('య', '|'), ('శా', 'U'), ('శ్వ', '|'), ('త', '|'), ('పు', '|'), ('బ', '|'), ('ను', 'U'), ('ల్సే', 'U'), ('యు', '|'), ('సం', 'U'), ('త', '|'), ('త', '|'), ('ము', '|'), ('జ', '|'), ('గ', '|'), ('తి', '|'), ('వే', 'U'), ('రొ', '|'), ('క', '|'), ('ము', 'U'), ('ద్దు', '|'), ('కు', '|'), ('మా', 'U'), ('రు', '|'), ('డం', 'U'), ('ద', '|'), ('ఱి', '|'), ('మో', 'U'), ('హ', '|'), ('ల', '|'), ('త', '|'), ('ల', 'U'), ('స్త్రీ', 'U'), ('పు', '|'), ('రు', '|'), ('షు', '|'), ('ల', '|'), ('లం', 'U'), ('కె', '|'), ('బె', 'U'), ('ట్టు', '|'), ('నీ', 'U'), ('త', '|'), ('లో', 'U'), ('ద', '|'), ('రి', '|'), ('లో', 'U'), ('క', '|'), ('మా', 'U'), ('త', '|'), ('ప', 'U'), ('క్షా', 'U'), ('ప', 'U'), ('క్ష', '|'), ('దృ', 'U'), ('ష్టి', '|'), ('జం', 'U'), ('చ', '|'), ('ల', '|'), ('వృ', 'U'), ('త్తి', '|'), ('ది', '|'), ('రు', '|'), ('గు', '|'), ('చుం', 'U'), ('డు', '|'), ('నీ', 'U'), ('వ', '|'), ('న', 'U'), ('న్య', '|'), ('కృ', '|'), ('తా', 'U'), ('ది', '|'), ('ని', '|'), ('బి', '|'), ('డ', '|'), ('మా', 'U'), ('యా', 'U'), ('వి', '|'), ('ధా', 'U'), ('ను', '|'), ('ల', '|'), ('జే', 'U'), ('యు', '|'), ('దె', 'U'), ('వ్వ', '|'), ('రి', '|'), ('దొ', '|'), ('ల', '|'), ('గ', '|'), ('నీ', 'U'), ('క', '|')]</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నొకరికంటె గుణాధికు లొకరు మీరు-ఇంతచక్కన దెలిసె మీయింటివరుస
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>నొకరికంటె గుణాధికు లొకరు మీరు-ఇంతచక్కన దెలిసె మీయింటివరుస
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
           <t>[('నొ', '|'), ('క', '|'), ('రి', '|'), ('కం', 'U'), ('టె', '|'), ('గు', '|'), ('ణా', 'U'), ('ధి', '|'), ('కు', '|'), ('లొ', '|'), ('క', '|'), ('రు', '|'), ('మీ', 'U'), ('రు', '|'), ('ఇం', 'U'), ('త', '|'), ('చ', 'U'), ('క్క', '|'), ('న', '|'), ('దె', '|'), ('లి', '|'), ('సె', '|'), ('మీ', 'U'), ('యిం', 'U'), ('టి', '|'), ('వ', '|'), ('రు', '|'), ('స', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B58" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
         <is>
           <t>సకలంబు నీవ యై మొకమఱ్ఱియాకుపై- నిచ్చఁ బరుండునాఁ డెంత గలవొ!
 తన బిడ్డఁ డని యశోదాదేవి పొత్తుల- నిడుక ముద్దాడునాఁ డెంత గలవొ!
@@ -2269,63 +2098,57 @@
 భయలేశ మెఱుఁగక బల్పాముపడగపై- గంతులు వైచునాఁ డెంత గలవొ!</t>
         </is>
       </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
           <t>[('స', '|'), ('క', '|'), ('లం', 'U'), ('బు', '|'), ('నీ', 'U'), ('వ', '|'), ('యై', 'U'), ('మొ', '|'), ('క', '|'), ('మ', 'U'), ('ఱ్ఱి', '|'), ('యా', 'U'), ('కు', '|'), ('పై', 'U'), ('ని', 'U'), ('చ్చ', '|'), ('బ', '|'), ('రుం', 'U'), ('డు', '|'), ('నా', 'U'), ('డెం', 'U'), ('త', '|'), ('గ', '|'), ('ల', '|'), ('వొ', '|'), ('త', '|'), ('న', '|'), ('బి', 'U'), ('డ్డ', '|'), ('డ', '|'), ('ని', '|'), ('య', '|'), ('శో', 'U'), ('దా', 'U'), ('దే', 'U'), ('వి', '|'), ('పొ', 'U'), ('త్తు', '|'), ('ల', '|'), ('ని', '|'), ('డు', '|'), ('క', '|'), ('ము', 'U'), ('ద్దా', 'U'), ('డు', '|'), ('నా', 'U'), ('డెం', 'U'), ('త', '|'), ('గ', '|'), ('ల', '|'), ('వొ', '|'), ('త', 'U'), ('క్కు', '|'), ('ల', '|'), ('మా', 'U'), ('ర', 'U'), ('త్త', '|'), ('ద', 'U'), ('క్కిం', 'U'), ('చు', '|'), ('కొ', '|'), ('న', '|'), ('గ', '|'), ('ని', 'U'), ('న్నె', 'U'), ('త్తు', '|'), ('క', '|'), ('పెం', 'U'), ('చు', '|'), ('నా', 'U'), ('డెం', 'U'), ('త', '|'), ('గ', '|'), ('ల', '|'), ('వొ', '|'), ('భ', '|'), ('య', '|'), ('లే', 'U'), ('శ', '|'), ('మె', '|'), ('ఱు', '|'), ('గ', '|'), ('క', '|'), ('బ', 'U'), ('ల్పా', 'U'), ('ము', '|'), ('ప', '|'), ('డ', '|'), ('గ', '|'), ('పై', 'U'), ('గం', 'U'), ('తు', '|'), ('లు', '|'), ('వై', 'U'), ('చు', '|'), ('నా', 'U'), ('డెం', 'U'), ('త', '|'), ('గ', '|'), ('ల', '|'), ('వొ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>పరువు గలవాఁడ వేమి ప్రాఁబల్కు లంచు-దెలియ వరిముక్కు ముల్లంత తలవొ! లేవొ!
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>పరువు గలవాఁడ వేమి ప్రాఁబల్కు లంచు-దెలియ వరిముక్కు ముల్లంత తలవొ! లేవొ!
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('రు', '|'), ('వు', '|'), ('గ', '|'), ('ల', '|'), ('వా', 'U'), ('డ', '|'), ('వే', 'U'), ('మి', 'U'), ('ప్రా', 'U'), ('బ', 'U'), ('ల్కు', '|'), ('లం', 'U'), ('చు', '|'), ('దె', '|'), ('లి', '|'), ('య', '|'), ('వ', '|'), ('రి', '|'), ('ము', 'U'), ('క్కు', '|'), ('ము', 'U'), ('ల్లం', 'U'), ('త', '|'), ('త', '|'), ('ల', '|'), ('వొ', '|'), ('లే', 'U'), ('వొ', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B60" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
         <is>
           <t>కల్లరు ల్గాని వ్రేపల్లెవా రందఱు- హర్షింప నచట నీయాట సాగె
 మధురాపురీవరమనుజు లామోదించి- మన్నింప నచట నీయాట సాగె
@@ -2333,63 +2156,57 @@
 గరిపురధర్మజుం డురురాజసభ నిన్ను- భూషింప నచట నీముర్వు సాగె</t>
         </is>
       </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
           <t>[('క', 'U'), ('ల్ల', '|'), ('రు', 'U'), ('ల్గా', 'U'), ('ని', 'U'), ('వ్రే', 'U'), ('ప', 'U'), ('ల్లె', '|'), ('వా', 'U'), ('రం', 'U'), ('ద', '|'), ('ఱు', '|'), ('హ', 'U'), ('ర్షిం', 'U'), ('ప', '|'), ('న', '|'), ('చ', '|'), ('ట', '|'), ('నీ', 'U'), ('యా', 'U'), ('ట', '|'), ('సా', 'U'), ('గె', '|'), ('మ', '|'), ('ధు', '|'), ('రా', 'U'), ('పు', '|'), ('రీ', 'U'), ('వ', '|'), ('ర', '|'), ('మ', '|'), ('ను', '|'), ('జు', '|'), ('లా', 'U'), ('మో', 'U'), ('దిం', 'U'), ('చి', '|'), ('మ', 'U'), ('న్నిం', 'U'), ('ప', '|'), ('న', '|'), ('చ', '|'), ('ట', '|'), ('నీ', 'U'), ('యా', 'U'), ('ట', '|'), ('సా', 'U'), ('గె', 'U'), ('ద్వా', 'U'), ('ర', '|'), ('కా', 'U'), ('ప', 'U'), ('ట్ట', '|'), ('ణ', '|'), ('ధ', 'U'), ('న్యు', '|'), ('లు', '|'), ('ని', '|'), ('ను', '|'), ('గో', 'U'), ('రి', '|'), ('కొ', 'U'), ('ల్వ', '|'), ('గా', 'U'), ('న', '|'), ('చ', '|'), ('ట', '|'), ('నీ', 'U'), ('కొ', 'U'), ('ల్వు', '|'), ('సా', 'U'), ('గె', '|'), ('గ', '|'), ('రి', '|'), ('పు', '|'), ('ర', '|'), ('ధ', '|'), ('ర్మ', '|'), ('జుం', 'U'), ('డు', '|'), ('రు', '|'), ('రా', 'U'), ('జ', '|'), ('స', '|'), ('భ', '|'), ('ని', 'U'), ('న్ను', '|'), ('భూ', 'U'), ('షిం', 'U'), ('ప', '|'), ('న', '|'), ('చ', '|'), ('ట', '|'), ('నీ', 'U'), ('ము', 'U'), ('ర్వు', '|'), ('సా', 'U'), ('గె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నెరుక మాలినవారుఁ నీపరువు దలఁతు-రేమి నీపొంకములు సాగు నేమి యచట?
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>నెరుక మాలినవారుఁ నీపరువు దలఁతు-రేమి నీపొంకములు సాగు నేమి యచట?
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
           <t>[('నె', '|'), ('రు', '|'), ('క', '|'), ('మా', 'U'), ('లి', '|'), ('న', '|'), ('వా', 'U'), ('రు', '|'), ('నీ', 'U'), ('ప', '|'), ('రు', '|'), ('వు', '|'), ('ద', '|'), ('ల', '|'), ('తు', '|'), ('రే', 'U'), ('మి', '|'), ('నీ', 'U'), ('పొం', 'U'), ('క', '|'), ('ము', '|'), ('లు', '|'), ('సా', 'U'), ('గు', '|'), ('నే', 'U'), ('మి', '|'), ('య', '|'), ('చ', '|'), ('ట', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B62" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
         <is>
           <t>దూడలలోఁ బెరదూడ మేయఁగఁజూచి- యట్టె పట్టుక చావఁగొట్టవలెనె
 పొడవ రా వేగ నాబోఁతుకొమ్ములు పట్టి- విడువక దానిపే రుడుపవలెనె
@@ -2397,63 +2214,57 @@
 తన్నుఁ బో తని మృగాధమ మంచు నెంచక- తొడరి గార్ధభమును ద్రుంపవలెనె</t>
         </is>
       </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
           <t>[('దూ', 'U'), ('డ', '|'), ('ల', '|'), ('లో', 'U'), ('బె', '|'), ('ర', '|'), ('దూ', 'U'), ('డ', '|'), ('మే', 'U'), ('య', '|'), ('గ', '|'), ('జూ', 'U'), ('చి', '|'), ('య', 'U'), ('ట్టె', '|'), ('ప', 'U'), ('ట్టు', '|'), ('క', '|'), ('చా', 'U'), ('వ', '|'), ('గొ', 'U'), ('ట్ట', '|'), ('వ', '|'), ('లె', '|'), ('నె', '|'), ('పొ', '|'), ('డ', '|'), ('వ', '|'), ('రా', 'U'), ('వే', 'U'), ('గ', '|'), ('నా', 'U'), ('బో', 'U'), ('తు', '|'), ('కొ', 'U'), ('మ్ము', '|'), ('లు', '|'), ('ప', 'U'), ('ట్టి', '|'), ('వి', '|'), ('డు', '|'), ('వ', '|'), ('క', '|'), ('దా', 'U'), ('ని', '|'), ('పే', 'U'), ('రు', '|'), ('డు', '|'), ('ప', '|'), ('వ', '|'), ('లె', '|'), ('నె', '|'), ('ము', 'U'), ('క్కు', '|'), ('తో', 'U'), ('జె', '|'), ('న', '|'), ('కి', '|'), ('న', '|'), ('కొ', 'U'), ('క్కె', '|'), ('రా', 'U'), ('య', '|'), ('ని', '|'), ('బ', 'U'), ('ట్టి', '|'), ('వె', '|'), ('ర', '|'), ('వొ', 'U'), ('ప్ప', '|'), ('గా', 'U'), ('మె', '|'), ('డ', '|'), ('వి', '|'), ('ఱు', '|'), ('వ', '|'), ('వ', '|'), ('లె', '|'), ('నె', '|'), ('త', 'U'), ('న్ను', '|'), ('బో', 'U'), ('త', '|'), ('ని', '|'), ('మృ', '|'), ('గా', 'U'), ('ధ', '|'), ('మ', '|'), ('మం', 'U'), ('చు', '|'), ('నెం', 'U'), ('చ', '|'), ('క', '|'), ('తొ', '|'), ('డ', '|'), ('రి', '|'), ('గా', 'U'), ('ర్ధ', '|'), ('భ', '|'), ('ము', '|'), ('ను', '|'), ('ద్రుం', 'U'), ('ప', '|'), ('వ', '|'), ('లె', '|'), ('నె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>మేమి ఘనకార్యములు చేసి తిద్ధరిత్రి-నెన్నటికి నీ వొనర్చిన విట్టిపనులె
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>మేమి ఘనకార్యములు చేసి తిద్ధరిత్రి-నెన్నటికి నీ వొనర్చిన విట్టిపనులె
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
           <t>[('మే', 'U'), ('మి', '|'), ('ఘ', '|'), ('న', '|'), ('కా', 'U'), ('ర్య', '|'), ('ము', '|'), ('లు', '|'), ('చే', 'U'), ('సి', '|'), ('తి', 'U'), ('ద్ధ', '|'), ('రి', 'U'), ('త్రి', '|'), ('నె', 'U'), ('న్న', '|'), ('టి', '|'), ('కి', '|'), ('నీ', 'U'), ('వొ', '|'), ('న', 'U'), ('ర్చి', '|'), ('న', '|'), ('వి', 'U'), ('ట్టి', '|'), ('ప', '|'), ('ను', '|'), ('లె', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B64" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
         <is>
           <t>కవ్వడి కెంత చక్కఁగ బోధ చేసిన- నితరహింసాకర్మ మిష్టపఱుప
 రాయబారం బెంత రసికత నడిపిన- ననికి భారతుల నాయత్త పఱుప
@@ -2461,63 +2272,57 @@
 విలుఁ బట్ట నని యెంతొ చెలిమిగఁ బలికిన- నవల సుయోధను నాసపఱుప</t>
         </is>
       </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
           <t>[('క', 'U'), ('వ్వ', '|'), ('డి', '|'), ('కెం', 'U'), ('త', '|'), ('చ', 'U'), ('క్క', '|'), ('గ', '|'), ('బో', 'U'), ('ధ', '|'), ('చే', 'U'), ('సి', '|'), ('న', '|'), ('ని', '|'), ('త', '|'), ('ర', '|'), ('హిం', 'U'), ('సా', 'U'), ('క', '|'), ('ర్మ', '|'), ('మి', 'U'), ('ష్ట', '|'), ('ప', '|'), ('ఱు', '|'), ('ప', '|'), ('రా', 'U'), ('య', '|'), ('బా', 'U'), ('రం', 'U'), ('బెం', 'U'), ('త', '|'), ('ర', '|'), ('సి', '|'), ('క', '|'), ('త', '|'), ('న', '|'), ('డి', '|'), ('పి', '|'), ('న', '|'), ('న', '|'), ('ని', '|'), ('కి', '|'), ('భా', 'U'), ('ర', '|'), ('తు', '|'), ('ల', '|'), ('నా', 'U'), ('య', 'U'), ('త్త', '|'), ('ప', '|'), ('ఱు', '|'), ('ప', '|'), ('వి', 'U'), ('శ్వ', '|'), ('రూ', 'U'), ('పం', 'U'), ('బెం', 'U'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('ల', '|'), ('త', '|'), ('జూ', 'U'), ('పి', '|'), ('న', '|'), ('నో', 'U'), ('ర్వ', '|'), ('ని', '|'), ('కు', '|'), ('రు', '|'), ('రా', 'U'), ('జు', '|'), ('ను', '|'), ('లు', '|'), ('కు', '|'), ('ప', '|'), ('ఱు', '|'), ('ప', '|'), ('వి', '|'), ('లు', '|'), ('బ', 'U'), ('ట్ట', '|'), ('న', '|'), ('ని', '|'), ('యెం', 'U'), ('తొ', '|'), ('చె', '|'), ('లి', '|'), ('మి', '|'), ('గ', '|'), ('బ', '|'), ('లి', '|'), ('కి', '|'), ('న', '|'), ('న', '|'), ('వ', '|'), ('ల', '|'), ('సు', '|'), ('యో', 'U'), ('ధ', '|'), ('ను', '|'), ('నా', 'U'), ('స', '|'), ('ప', '|'), ('ఱు', '|'), ('ప', '|')]</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>పోరు చంపక చుట్టముల్‌ పోర నీల్గఁ-జూచుచుంటివి యేనాఁటి చుట్ట మీవు?
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>పోరు చంపక చుట్టముల్‌ పోర నీల్గఁ-జూచుచుంటివి యేనాఁటి చుట్ట మీవు?
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
           <t>[('పో', 'U'), ('రు', '|'), ('చం', 'U'), ('ప', '|'), ('క', '|'), ('చు', 'U'), ('ట్ట', '|'), ('ముల్', 'U'), ('పో', 'U'), ('ర', '|'), ('నీ', 'U'), ('ల్గ', '|'), ('జూ', 'U'), ('చు', '|'), ('చుం', 'U'), ('టి', '|'), ('వి', '|'), ('యే', 'U'), ('నా', 'U'), ('టి', '|'), ('చు', 'U'), ('ట్ట', '|'), ('మీ', 'U'), ('వు', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B66" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
         <is>
           <t>శ్రీమద్వికుంఠపురీ వరేశుఁడ వయ్యు- గొల్లపల్లెల నుండఁ గోరు టేమి
 యక్షీణలక్ష్మీ కటాక్షవీక్షుఁడ వయ్యుఁ- ద్రోవ లే కింటింటఁ దోఁచ నేమి
@@ -2525,63 +2330,57 @@
 సన్మునిదేవతా సంభావితుఁడ వయ్యు- నాలగావరులతో నాడ నేమి?</t>
         </is>
       </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
           <t>[('శ్రీ', 'U'), ('మ', 'U'), ('ద్వి', '|'), ('కుం', 'U'), ('ఠ', '|'), ('పు', '|'), ('రీ', 'U'), ('వ', '|'), ('రే', 'U'), ('శు', '|'), ('డ', '|'), ('వ', 'U'), ('య్యు', '|'), ('గొ', 'U'), ('ల్ల', '|'), ('ప', 'U'), ('ల్లె', '|'), ('ల', '|'), ('నుం', 'U'), ('డ', '|'), ('గో', 'U'), ('రు', '|'), ('టే', 'U'), ('మి', '|'), ('య', 'U'), ('క్షీ', 'U'), ('ణ', '|'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('క', '|'), ('టా', 'U'), ('క్ష', '|'), ('వీ', 'U'), ('క్షు', '|'), ('డ', '|'), ('వ', 'U'), ('య్యు', '|'), ('ద్రో', 'U'), ('వ', '|'), ('లే', 'U'), ('కిం', 'U'), ('టిం', 'U'), ('ట', '|'), ('దో', 'U'), ('చ', '|'), ('నే', 'U'), ('మి', '|'), ('భూ', 'U'), ('రి', '|'), ('చ', '|'), ('తు', '|'), ('ర్ద', '|'), ('శ', '|'), ('భు', '|'), ('వ', '|'), ('నా', 'U'), ('వ', '|'), ('ను', '|'), ('డ', '|'), ('వ', 'U'), ('య్యు', '|'), ('గ', '|'), ('డు', '|'), ('వే', 'U'), ('డ్క', '|'), ('దొ', 'U'), ('ఱ్ఱు', '|'), ('ల', '|'), ('గా', 'U'), ('య', '|'), ('నే', 'U'), ('మి', '|'), ('స', 'U'), ('న్ము', '|'), ('ని', '|'), ('దే', 'U'), ('వ', '|'), ('తా', 'U'), ('సం', 'U'), ('భా', 'U'), ('వి', '|'), ('తు', '|'), ('డ', '|'), ('వ', 'U'), ('య్యు', '|'), ('నా', 'U'), ('ల', '|'), ('గా', 'U'), ('వ', '|'), ('రు', '|'), ('ల', '|'), ('తో', 'U'), ('నా', 'U'), ('డ', '|'), ('నే', 'U'), ('మి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>గొప్పలో గొప్పవాఁడవు కొలదిలోనఁ-గొలదివాఁడవు ని న్నెట్లు గొలువ వచ్చు?
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>గొప్పలో గొప్పవాఁడవు కొలదిలోనఁ-గొలదివాఁడవు ని న్నెట్లు గొలువ వచ్చు?
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
           <t>[('గొ', 'U'), ('ప్ప', '|'), ('లో', 'U'), ('గొ', 'U'), ('ప్ప', '|'), ('వా', 'U'), ('డ', '|'), ('వు', '|'), ('కొ', '|'), ('ల', '|'), ('ది', '|'), ('లో', 'U'), ('న', '|'), ('గొ', '|'), ('ల', '|'), ('ది', '|'), ('వా', 'U'), ('డ', '|'), ('వు', '|'), ('ని', 'U'), ('న్నె', 'U'), ('ట్లు', '|'), ('గొ', '|'), ('లు', '|'), ('వ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B68" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
         <is>
           <t>దుర్యోధనుం డవధ్యుఁడ వంచు మానెఁ గా- కలుక బంధింపఁగాఁ దలఁప లేదె?
 గోపాలుఁడవు పూజఁ గొందువేరా యని- సభ నిన్నుఁ దిట్టఁడే చైద్యుఁ డెదిరి?
@@ -2589,63 +2388,57 @@
 డెవ్వరుఁ బట్టలే రేను బట్టెద నంచు- యవనుండు దరుమఁడే యాహవమున</t>
         </is>
       </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
           <t>[('దు', 'U'), ('ర్యో', 'U'), ('ధ', '|'), ('నుం', 'U'), ('డ', '|'), ('వ', 'U'), ('ధ్యు', '|'), ('డ', '|'), ('వం', 'U'), ('చు', '|'), ('మా', 'U'), ('నె', '|'), ('గా', 'U'), ('క', '|'), ('లు', '|'), ('క', '|'), ('బం', 'U'), ('ధిం', 'U'), ('ప', '|'), ('గా', 'U'), ('ద', '|'), ('ల', '|'), ('ప', '|'), ('లే', 'U'), ('దె', '|'), ('గో', 'U'), ('పా', 'U'), ('లు', '|'), ('డ', '|'), ('వు', '|'), ('పూ', 'U'), ('జ', '|'), ('గొం', 'U'), ('దు', '|'), ('వే', 'U'), ('రా', 'U'), ('య', '|'), ('ని', '|'), ('స', '|'), ('భ', '|'), ('ని', 'U'), ('న్ను', '|'), ('ది', 'U'), ('ట్ట', '|'), ('డే', 'U'), ('చై', 'U'), ('ద్యు', '|'), ('డె', '|'), ('ది', '|'), ('రి', '|'), ('నీ', 'U'), ('లాం', 'U'), ('ఛ', '|'), ('నం', 'U'), ('బు', '|'), ('ల', '|'), ('బో', 'U'), ('లు', '|'), ('చి', 'U'), ('హ్న', '|'), ('లు', '|'), ('దా', 'U'), ('ల్చి', '|'), ('తా', 'U'), ('నె', '|'), ('నీ', 'U'), ('వ', '|'), ('న', '|'), ('డె', '|'), ('యు', 'U'), ('ద్ధ', '|'), ('తి', '|'), ('ని', '|'), ('బౌం', 'U'), ('డ్రు', '|'), ('డె', 'U'), ('వ్వ', '|'), ('రు', '|'), ('బ', 'U'), ('ట్ట', '|'), ('లే', 'U'), ('రే', 'U'), ('ను', '|'), ('బ', 'U'), ('ట్టె', '|'), ('ద', '|'), ('నం', 'U'), ('చు', '|'), ('య', '|'), ('వ', '|'), ('నుం', 'U'), ('డు', '|'), ('ద', '|'), ('రు', '|'), ('మ', '|'), ('డే', 'U'), ('యా', 'U'), ('హ', '|'), ('వ', '|'), ('ము', '|'), ('న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నృపులు కొందఱు వెఱచిరే నీకు మున్ను-ప్రాణముల కాసపడరేని భండమున
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>నృపులు కొందఱు వెఱచిరే నీకు మున్ను-ప్రాణముల కాసపడరేని భండమున
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
           <t>[('నృ', '|'), ('పు', '|'), ('లు', '|'), ('కొం', 'U'), ('ద', '|'), ('ఱు', '|'), ('వె', '|'), ('ఱ', '|'), ('చి', '|'), ('రే', 'U'), ('నీ', 'U'), ('కు', '|'), ('ము', 'U'), ('న్ను', 'U'), ('ప్రా', 'U'), ('ణ', '|'), ('ము', '|'), ('ల', '|'), ('కా', 'U'), ('స', '|'), ('ప', '|'), ('డ', '|'), ('రే', 'U'), ('ని', '|'), ('భం', 'U'), ('డ', '|'), ('ము', '|'), ('న', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B70" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
         <is>
           <t>రాజు లెవ్వరుఁ బఙ్క్తిభోజన మిడకున్న- దాసునింట భుజించి తనియలేదొ?
 బంధువు లెవ్వరు గంధ మీ కుండిన- మువ్వంకలది పూయ మురియలేదొ?
@@ -2653,63 +2446,57 @@
 ప్రభువు లెవ్వరు వస్త్రబహుమాన మీ కున్నఁ- దెచ్చి యిచ్చిన చాకి మెచ్చలేదొ?</t>
         </is>
       </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
           <t>[('రా', 'U'), ('జు', '|'), ('లె', 'U'), ('వ్వ', '|'), ('రు', '|'), ('బ', 'U'), ('ఙ్క్తి', '|'), ('భో', 'U'), ('జ', '|'), ('న', '|'), ('మి', '|'), ('డ', '|'), ('కు', 'U'), ('న్న', '|'), ('దా', 'U'), ('సు', '|'), ('నిం', 'U'), ('ట', '|'), ('భు', '|'), ('జిం', 'U'), ('చి', '|'), ('త', '|'), ('ని', '|'), ('య', '|'), ('లే', 'U'), ('దొ', '|'), ('బం', 'U'), ('ధు', '|'), ('వు', '|'), ('లె', 'U'), ('వ్వ', '|'), ('రు', '|'), ('గం', 'U'), ('ధ', '|'), ('మీ', 'U'), ('కుం', 'U'), ('డి', '|'), ('న', '|'), ('ము', 'U'), ('వ్వం', 'U'), ('క', '|'), ('ల', '|'), ('ది', '|'), ('పూ', 'U'), ('య', '|'), ('ము', '|'), ('రి', '|'), ('య', '|'), ('లే', 'U'), ('దొ', '|'), ('దొ', '|'), ('ర', '|'), ('లె', 'U'), ('వ్వ', '|'), ('రు', '|'), ('ను', '|'), ('బూ', 'U'), ('ల', '|'), ('స', '|'), ('ర', '|'), ('ము', '|'), ('లీ', 'U'), ('కుం', 'U'), ('డి', '|'), ('న', '|'), ('దె', '|'), ('లి', '|'), ('సి', '|'), ('మా', 'U'), ('లి', '|'), ('కు', '|'), ('డీ', 'U'), ('గ', '|'), ('న', '|'), ('ల', '|'), ('ర', '|'), ('లే', 'U'), ('దొ', 'U'), ('ప్ర', '|'), ('భు', '|'), ('వు', '|'), ('లె', 'U'), ('వ్వ', '|'), ('రు', '|'), ('వ', 'U'), ('స్త్ర', '|'), ('బ', '|'), ('హు', '|'), ('మా', 'U'), ('న', '|'), ('మీ', 'U'), ('కు', 'U'), ('న్న', '|'), ('దె', 'U'), ('చ్చి', '|'), ('యి', 'U'), ('చ్చి', '|'), ('న', '|'), ('చా', 'U'), ('కి', '|'), ('మె', 'U'), ('చ్చ', '|'), ('లే', 'U'), ('దొ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>పాటి సేయంగ నేరాజు బంధుగుఁడవొ?-మున్నె నీపస దెలిసిన దెన్న నేమి?
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>పాటి సేయంగ నేరాజు బంధుగుఁడవొ?-మున్నె నీపస దెలిసిన దెన్న నేమి?
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
           <t>[('పా', 'U'), ('టి', '|'), ('సే', 'U'), ('యం', 'U'), ('గ', '|'), ('నే', 'U'), ('రా', 'U'), ('జు', '|'), ('బం', 'U'), ('ధు', '|'), ('గు', '|'), ('డ', '|'), ('వొ', '|'), ('ము', 'U'), ('న్నె', '|'), ('నీ', 'U'), ('ప', '|'), ('స', '|'), ('దె', '|'), ('లి', '|'), ('సి', '|'), ('న', '|'), ('దె', 'U'), ('న్న', '|'), ('నే', 'U'), ('మి', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B72" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
         <is>
           <t>నాఁగలి రోఁక లన్నకు నిచ్చి శంఖాది- పంచాయుధము లీవు పట్టినావు
 తాఱిటెక్కెంబు కోల్తల పెద్ద కెత్తించి- గరుడధ్వజం బీవు గట్టినావు
@@ -2717,63 +2504,57 @@
 మద్య మగ్రజునకు మత్తిలఁ దావించి- జున్ను బాల్‌ పెరుఁ గీవు జుఱ్ఱినావు</t>
         </is>
       </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
           <t>[('నా', 'U'), ('గ', '|'), ('లి', '|'), ('రో', 'U'), ('క', '|'), ('ల', 'U'), ('న్న', '|'), ('కు', '|'), ('ని', 'U'), ('చ్చి', '|'), ('శం', 'U'), ('ఖా', 'U'), ('ది', '|'), ('పం', 'U'), ('చా', 'U'), ('యు', '|'), ('ధ', '|'), ('ము', '|'), ('లీ', 'U'), ('వు', '|'), ('ప', 'U'), ('ట్టి', '|'), ('నా', 'U'), ('వు', '|'), ('తా', 'U'), ('ఱి', '|'), ('టె', 'U'), ('క్కెం', 'U'), ('బు', '|'), ('కో', 'U'), ('ల్త', '|'), ('ల', '|'), ('పె', 'U'), ('ద్ద', '|'), ('కె', 'U'), ('త్తిం', 'U'), ('చి', '|'), ('గ', '|'), ('రు', '|'), ('డ', 'U'), ('ధ్వ', '|'), ('జం', 'U'), ('బీ', 'U'), ('వు', '|'), ('గ', 'U'), ('ట్టి', '|'), ('నా', 'U'), ('వు', '|'), ('వె', '|'), ('ల', '|'), ('రా', 'U'), ('ని', '|'), ('క', '|'), ('ఱ', '|'), ('వో', 'U'), ('ని', '|'), ('వ', '|'), ('లు', '|'), ('వ', 'U'), ('జ్యే', 'U'), ('ష్ఠు', '|'), ('న', '|'), ('కి', 'U'), ('చ్చి', '|'), ('క', '|'), ('న', '|'), ('కాం', 'U'), ('బ', '|'), ('రం', 'U'), ('బీ', 'U'), ('వు', '|'), ('గ', 'U'), ('ట్టి', '|'), ('నా', 'U'), ('వు', '|'), ('మ', 'U'), ('ద్య', '|'), ('మ', 'U'), ('గ్ర', '|'), ('జు', '|'), ('న', '|'), ('కు', '|'), ('మ', 'U'), ('త్తి', '|'), ('ల', '|'), ('దా', 'U'), ('విం', 'U'), ('చి', '|'), ('జు', 'U'), ('న్ను', '|'), ('బాల్', 'U'), ('పె', '|'), ('రు', '|'), ('గీ', 'U'), ('వు', '|'), ('జు', 'U'), ('ఱ్ఱి', '|'), ('నా', 'U'), ('వు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>తగువరివె యన్నదమ్ముల ధర్మ మీవె-తీర్చవలెఁ గాని మఱియొండు తీర్పఁగలఁడె
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>తగువరివె యన్నదమ్ముల ధర్మ మీవె-తీర్చవలెఁ గాని మఱియొండు తీర్పఁగలఁడె
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('గు', '|'), ('వ', '|'), ('రి', '|'), ('వె', '|'), ('య', 'U'), ('న్న', '|'), ('ద', 'U'), ('మ్ము', '|'), ('ల', '|'), ('ధ', '|'), ('ర్మ', '|'), ('మీ', 'U'), ('వె', '|'), ('తీ', 'U'), ('ర్చ', '|'), ('వ', '|'), ('లె', '|'), ('గా', 'U'), ('ని', '|'), ('మ', '|'), ('ఱి', '|'), ('యొం', 'U'), ('డు', '|'), ('తీ', 'U'), ('ర్ప', '|'), ('గ', '|'), ('ల', '|'), ('డె', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B74" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
         <is>
           <t>అప్పనంబులు గొన్ను నఖిలదిఙ్మండలే- శ్వరులచే వేంకటాచలనివాసుఁ
 డరుదుగా నరువదా ఱవసరంబులు మహా- భోగంబుఁ గొనునీలభూధ్రవరుఁడు
@@ -2781,63 +2562,57 @@
 పుట్టకొలంది మైపూఁతఁగాఁ గొను మంచి- గంధంబు సింహనగ ప్రభుండు</t>
         </is>
       </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
           <t>[('అ', 'U'), ('ప్ప', '|'), ('నం', 'U'), ('బు', '|'), ('లు', '|'), ('గొ', 'U'), ('న్ను', '|'), ('న', '|'), ('ఖి', '|'), ('ల', '|'), ('ది', 'U'), ('ఙ్మం', 'U'), ('డ', '|'), ('లే', 'U'), ('శ్వ', '|'), ('రు', '|'), ('ల', '|'), ('చే', 'U'), ('వేం', 'U'), ('క', '|'), ('టా', 'U'), ('చ', '|'), ('ల', '|'), ('ని', '|'), ('వా', 'U'), ('సు', '|'), ('డ', '|'), ('రు', '|'), ('దు', '|'), ('గా', 'U'), ('న', '|'), ('రు', '|'), ('వ', '|'), ('దా', 'U'), ('ఱ', '|'), ('వ', '|'), ('స', '|'), ('రం', 'U'), ('బు', '|'), ('లు', '|'), ('మ', '|'), ('హా', 'U'), ('భో', 'U'), ('గం', 'U'), ('బు', '|'), ('గొ', '|'), ('ను', '|'), ('నీ', 'U'), ('ల', '|'), ('భూ', 'U'), ('ధ్ర', '|'), ('వ', '|'), ('రు', '|'), ('డు', '|'), ('పా', 'U'), ('న', '|'), ('కం', 'U'), ('బా', 'U'), ('లు', '|'), ('సా', 'U'), ('బా', 'U'), ('లు', '|'), ('భ', 'U'), ('క్తు', '|'), ('ల', '|'), ('కి', 'U'), ('చ్చి', '|'), ('మె', '|'), ('స', '|'), ('గు', '|'), ('ను', '|'), ('మం', 'U'), ('గ', '|'), ('ళా', 'U'), ('ద్రీ', 'U'), ('శ్వ', '|'), ('రుం', 'U'), ('డు', '|'), ('పు', 'U'), ('ట్ట', '|'), ('కొ', '|'), ('లం', 'U'), ('ది', '|'), ('మై', 'U'), ('పూ', 'U'), ('త', '|'), ('గా', 'U'), ('గొ', '|'), ('ను', '|'), ('మం', 'U'), ('చి', '|'), ('గం', 'U'), ('ధం', 'U'), ('బు', '|'), ('సిం', 'U'), ('హ', '|'), ('న', '|'), ('గ', 'U'), ('ప్ర', '|'), ('భుం', 'U'), ('డు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>సాటిసాములరీతి నిచ్చోట నీవు-మూర్తిమంతంబుఁ జూపక కీర్తి గలదె?
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>సాటిసాములరీతి నిచ్చోట నీవు-మూర్తిమంతంబుఁ జూపక కీర్తి గలదె?
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
           <t>[('సా', 'U'), ('టి', '|'), ('సా', 'U'), ('ము', '|'), ('ల', '|'), ('రీ', 'U'), ('తి', '|'), ('ని', 'U'), ('చ్చో', 'U'), ('ట', '|'), ('నీ', 'U'), ('వు', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('మం', 'U'), ('తం', 'U'), ('బు', '|'), ('జూ', 'U'), ('ప', '|'), ('క', '|'), ('కీ', 'U'), ('ర్తి', '|'), ('గ', '|'), ('ల', '|'), ('దె', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B76" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
         <is>
           <t>బొచ్చెచేఁపకు నైన మచ్చరం బున్నది- తాఁబేటి కైన సత్త్వంబు గలదు
 డీకొన్న నడవిపందికిఁ గల్గు రోసంబు- తెరనోటినరుఁడైనఁ దెగువ సేయుఁ
@@ -2845,63 +2620,57 @@
 చుంచురాజున కైన శూరత్వ మున్నది- ముసలికి నైనఁ జేపుష్టి గలదు</t>
         </is>
       </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
           <t>[('బొ', 'U'), ('చ్చె', '|'), ('చే', 'U'), ('ప', '|'), ('కు', '|'), ('నై', 'U'), ('న', '|'), ('మ', 'U'), ('చ్చ', '|'), ('రం', 'U'), ('బు', 'U'), ('న్న', '|'), ('ది', '|'), ('తా', 'U'), ('బే', 'U'), ('టి', '|'), ('కై', 'U'), ('న', '|'), ('స', 'U'), ('త్త్వం', 'U'), ('బు', '|'), ('గ', '|'), ('ల', '|'), ('దు', '|'), ('డీ', 'U'), ('కొ', 'U'), ('న్న', '|'), ('న', '|'), ('డ', '|'), ('వి', '|'), ('పం', 'U'), ('ది', '|'), ('కి', '|'), ('గ', 'U'), ('ల్గు', '|'), ('రో', 'U'), ('సం', 'U'), ('బు', '|'), ('తె', '|'), ('ర', '|'), ('నో', 'U'), ('టి', '|'), ('న', '|'), ('రు', '|'), ('డై', 'U'), ('న', '|'), ('దె', '|'), ('గు', '|'), ('వ', '|'), ('సే', 'U'), ('యు', '|'), ('బొ', 'U'), ('ట్టి', '|'), ('వా', 'U'), ('ని', '|'), ('కి', '|'), ('నై', 'U'), ('న', '|'), ('ది', 'U'), ('ట్ట', '|'), ('త', '|'), ('నం', 'U'), ('బుం', 'U'), ('డు', '|'), ('బా', 'U'), ('ప', '|'), ('ని', '|'), ('కై', 'U'), ('న', '|'), ('ద', 'U'), ('ర్పం', 'U'), ('బు', '|'), ('గ', '|'), ('ల', '|'), ('దు', '|'), ('చుం', 'U'), ('చు', '|'), ('రా', 'U'), ('జు', '|'), ('న', '|'), ('కై', 'U'), ('న', '|'), ('శూ', 'U'), ('ర', 'U'), ('త్వ', '|'), ('ము', 'U'), ('న్న', '|'), ('ది', '|'), ('ము', '|'), ('స', '|'), ('లి', '|'), ('కి', '|'), ('నై', 'U'), ('న', '|'), ('జే', 'U'), ('పు', 'U'), ('ష్టి', '|'), ('గ', '|'), ('ల', '|'), ('దు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>సిద్ధ మాభీరుఁడవు నీవె బుద్ధి నెంచఁ-గలికి వై యేమి సేయఁ గలవొ కాని
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>సిద్ధ మాభీరుఁడవు నీవె బుద్ధి నెంచఁ-గలికి వై యేమి సేయఁ గలవొ కాని
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
           <t>[('సి', 'U'), ('ద్ధ', '|'), ('మా', 'U'), ('భీ', 'U'), ('రు', '|'), ('డ', '|'), ('వు', '|'), ('నీ', 'U'), ('వె', '|'), ('బు', 'U'), ('ద్ధి', '|'), ('నెం', 'U'), ('చ', '|'), ('గ', '|'), ('లి', '|'), ('కి', '|'), ('వై', 'U'), ('యే', 'U'), ('మి', '|'), ('సే', 'U'), ('య', '|'), ('గ', '|'), ('ల', '|'), ('వొ', '|'), ('కా', 'U'), ('ని', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B78" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
         <is>
           <t>మును నందగోవత్సములఁ గాయునప్పుడు- సనునయించిరె కంజజాది సురలు?
 విటచోరచేష్టల వ్రేపల్లెఁ దిరుగు నీ- దగుమ్రోల నచ్చర లాడినారె?
@@ -2909,63 +2678,57 @@
 మగధేశుదాడికి మథుర వీడిననాఁడు- దేవర్షు లెల్లఁ గీర్తించినారె?</t>
         </is>
       </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
           <t>[('ము', '|'), ('ను', '|'), ('నం', 'U'), ('ద', '|'), ('గో', 'U'), ('వ', 'U'), ('త్స', '|'), ('ము', '|'), ('ల', '|'), ('గా', 'U'), ('యు', '|'), ('న', 'U'), ('ప్పు', '|'), ('డు', '|'), ('స', '|'), ('ను', '|'), ('న', '|'), ('యిం', 'U'), ('చి', '|'), ('రె', '|'), ('కం', 'U'), ('జ', '|'), ('జా', 'U'), ('ది', '|'), ('సు', '|'), ('ర', '|'), ('లు', '|'), ('వి', '|'), ('ట', '|'), ('చో', 'U'), ('ర', '|'), ('చే', 'U'), ('ష్ట', '|'), ('ల', 'U'), ('వ్రే', 'U'), ('ప', 'U'), ('ల్లె', '|'), ('ది', '|'), ('రు', '|'), ('గు', '|'), ('నీ', 'U'), ('ద', '|'), ('గు', '|'), ('మ్రో', 'U'), ('ల', '|'), ('న', 'U'), ('చ్చ', '|'), ('ర', '|'), ('లా', 'U'), ('డి', '|'), ('నా', 'U'), ('రె', '|'), ('న', '|'), ('ర', '|'), ('ర', '|'), ('థా', 'U'), ('శ్వ', '|'), ('ము', '|'), ('ల', '|'), ('సం', 'U'), ('గ', '|'), ('ర', '|'), ('వీ', 'U'), ('థి', '|'), ('దో', 'U'), ('లు', '|'), ('నా', 'U'), ('డెం', 'U'), ('చి', '|'), ('ది', 'U'), ('క్ప', '|'), ('తు', '|'), ('లు', '|'), ('భా', 'U'), ('విం', 'U'), ('చి', '|'), ('నా', 'U'), ('రె', '|'), ('మ', '|'), ('గ', '|'), ('ధే', 'U'), ('శు', '|'), ('దా', 'U'), ('డి', '|'), ('కి', '|'), ('మ', '|'), ('థు', '|'), ('ర', '|'), ('వీ', 'U'), ('డి', '|'), ('న', '|'), ('నా', 'U'), ('డు', '|'), ('దే', 'U'), ('వ', 'U'), ('ర్షు', '|'), ('లె', 'U'), ('ల్ల', '|'), ('గీ', 'U'), ('ర్తిం', 'U'), ('చి', '|'), ('నా', 'U'), ('రె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>యల్పునిగ నెంచినారె లోకైకనాథ-నాథునిఁగ నెంచినారె ము న్దరణిఁ? జెపుమ
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>యల్పునిగ నెంచినారె లోకైకనాథ-నాథునిఁగ నెంచినారె ము న్దరణిఁ? జెపుమ
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
           <t>[('య', 'U'), ('ల్పు', '|'), ('ని', '|'), ('గ', '|'), ('నెం', 'U'), ('చి', '|'), ('నా', 'U'), ('రె', '|'), ('లో', 'U'), ('కై', 'U'), ('క', '|'), ('నా', 'U'), ('థ', '|'), ('నా', 'U'), ('థు', '|'), ('ని', '|'), ('గ', '|'), ('నెం', 'U'), ('చి', '|'), ('నా', 'U'), ('రె', '|'), ('ము', 'U'), ('న్ద', '|'), ('ర', '|'), ('ణి', '|'), ('జె', '|'), ('పు', '|'), ('మ', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B80" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
         <is>
           <t>పూతనాకుచకుంభపూర్ణ విషస్తన్య- పాయివై బ్రదికిన భాగ్య మేమి?
 కాళియాశీవిషగ్రసన ప్రమాదంబు గడచి జీవించిన ఘనత యేమి?
@@ -2973,63 +2736,57 @@
 సాళ్వరాజామోఘ శక్తిప్రయోగంబు- మరలించుకొనిన సామర్ధ్యమేమి?</t>
         </is>
       </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
           <t>[('పూ', 'U'), ('త', '|'), ('నా', 'U'), ('కు', '|'), ('చ', '|'), ('కుం', 'U'), ('భ', '|'), ('పూ', 'U'), ('ర్ణ', '|'), ('వి', '|'), ('ష', 'U'), ('స్త', 'U'), ('న్య', '|'), ('పా', 'U'), ('యి', '|'), ('వై', 'U'), ('బ్ర', '|'), ('ది', '|'), ('కి', '|'), ('న', '|'), ('భా', 'U'), ('గ్య', '|'), ('మే', 'U'), ('మి', '|'), ('కా', 'U'), ('ళి', '|'), ('యా', 'U'), ('శీ', 'U'), ('వి', '|'), ('ష', 'U'), ('గ్ర', '|'), ('స', '|'), ('న', 'U'), ('ప్ర', '|'), ('మా', 'U'), ('దం', 'U'), ('బు', '|'), ('గ', '|'), ('డ', '|'), ('చి', '|'), ('జీ', 'U'), ('విం', 'U'), ('చి', '|'), ('న', '|'), ('ఘ', '|'), ('న', '|'), ('త', '|'), ('యే', 'U'), ('మి', '|'), ('చా', 'U'), ('ణూ', 'U'), ('ర', '|'), ('మ', 'U'), ('ల్ల', '|'), ('దో', 'U'), ('స్తం', 'U'), ('భ', '|'), ('ఘ', 'U'), ('ట్ట', '|'), ('న', '|'), ('కో', 'U'), ('ర్చి', '|'), ('ల', 'U'), ('బ్ధ', '|'), ('జ', '|'), ('యు', '|'), ('డ', '|'), ('వై', 'U'), ('న', '|'), ('లా', 'U'), ('భ', '|'), ('మే', 'U'), ('మి', '|'), ('సా', 'U'), ('ళ్వ', '|'), ('రా', 'U'), ('జా', 'U'), ('మో', 'U'), ('ఘ', '|'), ('శ', 'U'), ('క్తి', 'U'), ('ప్ర', '|'), ('యో', 'U'), ('గం', 'U'), ('బు', '|'), ('మ', '|'), ('ర', '|'), ('లిం', 'U'), ('చు', '|'), ('కొ', '|'), ('ని', '|'), ('న', '|'), ('సా', 'U'), ('మ', 'U'), ('ర్ధ్య', '|'), ('మే', 'U'), ('మి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>బడుగుదాసరివలె నన్నవస్త్రములకుఁ-బరుల కాశింతు విచట నీపంత మేమి?
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>బడుగుదాసరివలె నన్నవస్త్రములకుఁ-బరుల కాశింతు విచట నీపంత మేమి?
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
           <t>[('బ', '|'), ('డు', '|'), ('గు', '|'), ('దా', 'U'), ('స', '|'), ('రి', '|'), ('వ', '|'), ('లె', '|'), ('న', 'U'), ('న్న', '|'), ('వ', 'U'), ('స్త్ర', '|'), ('ము', '|'), ('ల', '|'), ('కు', '|'), ('బ', '|'), ('రు', '|'), ('ల', '|'), ('కా', 'U'), ('శిం', 'U'), ('తు', '|'), ('వి', '|'), ('చ', '|'), ('ట', '|'), ('నీ', 'U'), ('పం', 'U'), ('త', '|'), ('మే', 'U'), ('మి', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B82" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
         <is>
           <t>పట్టి గొల్లది రోఁట గట్ట నోపిననీకుఁ- రోసంబు లే దన్న నీసు గలదె?
 జారచోరాదిచేష్టలఁ బ్రవర్తిల్లు నీ- కపకీర్తి యన్న భయంబు గలదె?
@@ -3037,63 +2794,57 @@
 కుండంటు లే దని కొసరి మెక్కిన నీకు- హీనత లెంచిన న్యూన మగునె?</t>
         </is>
       </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
           <t>[('ప', 'U'), ('ట్టి', '|'), ('గొ', 'U'), ('ల్ల', '|'), ('ది', '|'), ('రో', 'U'), ('ట', '|'), ('గ', 'U'), ('ట్ట', '|'), ('నో', 'U'), ('పి', '|'), ('న', '|'), ('నీ', 'U'), ('కు', '|'), ('రో', 'U'), ('సం', 'U'), ('బు', '|'), ('లే', 'U'), ('ద', 'U'), ('న్న', '|'), ('నీ', 'U'), ('సు', '|'), ('గ', '|'), ('ల', '|'), ('దె', '|'), ('జా', 'U'), ('ర', '|'), ('చో', 'U'), ('రా', 'U'), ('ది', '|'), ('చే', 'U'), ('ష్ట', '|'), ('ల', 'U'), ('బ్ర', '|'), ('వ', 'U'), ('ర్తి', 'U'), ('ల్లు', '|'), ('నీ', 'U'), ('క', '|'), ('ప', '|'), ('కీ', 'U'), ('ర్తి', '|'), ('య', 'U'), ('న్న', '|'), ('భ', '|'), ('యం', 'U'), ('బు', '|'), ('గ', '|'), ('ల', '|'), ('దె', '|'), ('భా', 'U'), ('ర్య', '|'), ('చే', 'U'), ('ద', 'U'), ('న్ను', '|'), ('లు', '|'), ('బ', 'U'), ('డ్డ', '|'), ('వా', 'U'), ('ని', '|'), ('కి', '|'), ('నీ', 'U'), ('కు', '|'), ('ల', 'U'), ('జ్జ', '|'), ('లే', 'U'), ('ద', '|'), ('ని', '|'), ('య', 'U'), ('న్న', '|'), ('లా', 'U'), ('ఘ', '|'), ('వం', 'U'), ('బె', '|'), ('కుం', 'U'), ('డం', 'U'), ('టు', '|'), ('లే', 'U'), ('ద', '|'), ('ని', '|'), ('కొ', '|'), ('స', '|'), ('రి', '|'), ('మె', 'U'), ('క్కి', '|'), ('న', '|'), ('నీ', 'U'), ('కు', '|'), ('హీ', 'U'), ('న', '|'), ('త', '|'), ('లెం', 'U'), ('చి', '|'), ('న', 'U'), ('న్యూ', 'U'), ('న', '|'), ('మ', '|'), ('గు', '|'), ('నె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>కోరి దాసులు ని న్నెంత దూరుచున్నఁ-బంత మున్నదె నీ కిసుమంత యైన?
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>కోరి దాసులు ని న్నెంత దూరుచున్నఁ-బంత మున్నదె నీ కిసుమంత యైన?
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
           <t>[('కో', 'U'), ('రి', '|'), ('దా', 'U'), ('సు', '|'), ('లు', '|'), ('ని', 'U'), ('న్నెం', 'U'), ('త', '|'), ('దూ', 'U'), ('రు', '|'), ('చు', 'U'), ('న్న', '|'), ('బం', 'U'), ('త', '|'), ('ము', 'U'), ('న్న', '|'), ('దె', '|'), ('నీ', 'U'), ('కి', '|'), ('సు', '|'), ('మం', 'U'), ('త', '|'), ('యై', 'U'), ('న', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B84" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
         <is>
           <t>కడు దొంగతనమునఁ గని తల్లి వైచినఁ- దనబిడ్డనిగ బెంచె నిను యశోద
 జనని గర్భము దించుకొనిన వేఱొకతల్లి- కడుపుఁ జేసికొనంగ గలిగెనన్న
@@ -3101,63 +2852,57 @@
 యన్న రారాజు కీనున్న నీసోదరి- యింటికి జోగిరా నంటుకొనియె</t>
         </is>
       </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('డు', '|'), ('దొం', 'U'), ('గ', '|'), ('త', '|'), ('న', '|'), ('ము', '|'), ('న', '|'), ('గ', '|'), ('ని', '|'), ('త', 'U'), ('ల్లి', '|'), ('వై', 'U'), ('చి', '|'), ('న', '|'), ('ద', '|'), ('న', '|'), ('బి', 'U'), ('డ్డ', '|'), ('ని', '|'), ('గ', '|'), ('బెం', 'U'), ('చె', '|'), ('ని', '|'), ('ను', '|'), ('య', '|'), ('శో', 'U'), ('ద', '|'), ('జ', '|'), ('న', '|'), ('ని', '|'), ('గ', 'U'), ('ర్భ', '|'), ('ము', '|'), ('దిం', 'U'), ('చు', '|'), ('కొ', '|'), ('ని', '|'), ('న', '|'), ('వే', 'U'), ('ఱొ', '|'), ('క', '|'), ('త', 'U'), ('ల్లి', '|'), ('క', '|'), ('డు', '|'), ('పు', '|'), ('జే', 'U'), ('సి', '|'), ('కొ', '|'), ('నం', 'U'), ('గ', '|'), ('గ', '|'), ('లి', '|'), ('గె', '|'), ('న', 'U'), ('న్న', '|'), ('తం', 'U'), ('డ్రి', '|'), ('వి', '|'), ('వా', 'U'), ('హ', '|'), ('య', 'U'), ('త్న', '|'), ('ము', '|'), ('సే', 'U'), ('య', '|'), ('నొ', 'U'), ('ల్ల', '|'), ('క', '|'), ('త', '|'), ('గు', '|'), ('లు', '|'), ('క', '|'), ('వ', 'U'), ('చ్చె', '|'), ('నీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('ప', 'U'), ('త్ని', '|'), ('య', 'U'), ('న్న', '|'), ('రా', 'U'), ('రా', 'U'), ('జు', '|'), ('కీ', 'U'), ('ను', 'U'), ('న్న', '|'), ('నీ', 'U'), ('సో', 'U'), ('ద', '|'), ('రి', '|'), ('యిం', 'U'), ('టి', '|'), ('కి', '|'), ('జో', 'U'), ('గి', '|'), ('రా', 'U'), ('నం', 'U'), ('టు', '|'), ('కొ', '|'), ('ని', '|'), ('యె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నిట్టి నీ సంప్రదాయంబు గుట్టు బెట్టు-రట్టు సేయుదుఁ గనుము నా భట్టుతనము
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>నిట్టి నీ సంప్రదాయంబు గుట్టు బెట్టు-రట్టు సేయుదుఁ గనుము నా భట్టుతనము
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
           <t>[('ని', 'U'), ('ట్టి', '|'), ('నీ', 'U'), ('సం', 'U'), ('ప్ర', '|'), ('దా', 'U'), ('యం', 'U'), ('బు', '|'), ('గు', 'U'), ('ట్టు', '|'), ('బె', 'U'), ('ట్టు', '|'), ('ర', 'U'), ('ట్టు', '|'), ('సే', 'U'), ('యు', '|'), ('దు', '|'), ('గ', '|'), ('ను', '|'), ('ము', '|'), ('నా', 'U'), ('భ', 'U'), ('ట్టు', '|'), ('త', '|'), ('న', '|'), ('ము', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B86" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
         <is>
           <t>పక్షంబు గల దండ్రు పాండుపుత్రులయందు- పాండవుల్‌ పడినట్టి పాటులేమి!
 పూర్వజన్మమునందుఁ బూజించె గజ మండ్రు- గజరాజు పొందిన గాసి యేమి!
@@ -3165,63 +2910,57 @@
 ప్రహ్లాదుఁ డాజన్మభక్తియుక్తుం డండ్రు- ప్రహ్లాదుఁ డొందిన బాధ లేమి!</t>
         </is>
       </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
           <t>[('ప', 'U'), ('క్షం', 'U'), ('బు', '|'), ('గ', '|'), ('ల', '|'), ('దం', 'U'), ('డ్రు', '|'), ('పాం', 'U'), ('డు', '|'), ('పు', 'U'), ('త్రు', '|'), ('ల', '|'), ('యం', 'U'), ('దు', '|'), ('పాం', 'U'), ('డ', '|'), ('వుల్', 'U'), ('ప', '|'), ('డి', '|'), ('న', 'U'), ('ట్టి', '|'), ('పా', 'U'), ('టు', '|'), ('లే', 'U'), ('మి', '|'), ('పూ', 'U'), ('ర్వ', '|'), ('జ', 'U'), ('న్మ', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('బూ', 'U'), ('జిం', 'U'), ('చె', '|'), ('గ', '|'), ('జ', '|'), ('మం', 'U'), ('డ్రు', '|'), ('గ', '|'), ('జ', '|'), ('రా', 'U'), ('జు', '|'), ('పొం', 'U'), ('ది', '|'), ('న', '|'), ('గా', 'U'), ('సి', '|'), ('యే', 'U'), ('మి', '|'), ('య', '|'), ('ల', '|'), ('కు', '|'), ('చే', 'U'), ('లు', '|'), ('న', '|'), ('కు', '|'), ('బా', 'U'), ('ల్య', 'U'), ('స్నే', 'U'), ('హి', '|'), ('తు', '|'), ('డ', '|'), ('వం', 'U'), ('డ్రు', '|'), ('నె', '|'), ('ఱి', '|'), ('గు', '|'), ('చే', 'U'), ('లు', '|'), ('డు', '|'), ('ప', 'U'), ('డ్డ', '|'), ('నె', 'U'), ('వ్వ', '|'), ('లే', 'U'), ('మి', 'U'), ('ప్ర', 'U'), ('హ్లా', 'U'), ('దు', '|'), ('డా', 'U'), ('జ', 'U'), ('న్మ', '|'), ('భ', 'U'), ('క్తి', '|'), ('యు', 'U'), ('క్తుం', 'U'), ('డం', 'U'), ('డ్రు', 'U'), ('ప్ర', 'U'), ('హ్లా', 'U'), ('దు', '|'), ('డొం', 'U'), ('ది', '|'), ('న', '|'), ('బా', 'U'), ('ధ', '|'), ('లే', 'U'), ('మి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>యెంతయాలస్యమున వారి నేలినాఁడ-విట్టిదే నీ దయారసం బెంచి చూద
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>యెంతయాలస్యమున వారి నేలినాఁడ-విట్టిదే నీ దయారసం బెంచి చూద
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
           <t>[('యెం', 'U'), ('త', '|'), ('యా', 'U'), ('ల', 'U'), ('స్య', '|'), ('ము', '|'), ('న', '|'), ('వా', 'U'), ('రి', '|'), ('నే', 'U'), ('లి', '|'), ('నా', 'U'), ('డ', '|'), ('వి', 'U'), ('ట్టి', '|'), ('దే', 'U'), ('నీ', 'U'), ('ద', '|'), ('యా', 'U'), ('ర', '|'), ('సం', 'U'), ('బెం', 'U'), ('చి', '|'), ('చూ', 'U'), ('ద', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B88" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
         <is>
           <t>అనఘ మౌ విప్రసత్రాన్న మెంగిలిఁ జేసి- తీవె మున్‌ క్రతుభోక్త నేనే యనుచు
 సవతికొమాళ్ళ సమయించి తందఱిఁ- దరుగని రాక్షసాంతకుఁడ ననుచు
@@ -3229,63 +2968,57 @@
 బలిమి నన్య స్త్రీలఁ బట్టితి వెందఱి- నస్ఖలద్బ్రహ్మచర్యమతి ననుచు</t>
         </is>
       </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('న', '|'), ('ఘ', '|'), ('మౌ', 'U'), ('వి', 'U'), ('ప్ర', '|'), ('స', 'U'), ('త్రా', 'U'), ('న్న', '|'), ('మెం', 'U'), ('గి', '|'), ('లి', '|'), ('జే', 'U'), ('సి', '|'), ('తీ', 'U'), ('వె', '|'), ('మున్', 'U'), ('క్ర', '|'), ('తు', '|'), ('భో', 'U'), ('క్త', '|'), ('నే', 'U'), ('నే', 'U'), ('య', '|'), ('ను', '|'), ('చు', '|'), ('స', '|'), ('వ', '|'), ('తి', '|'), ('కొ', '|'), ('మా', 'U'), ('ళ్ళ', '|'), ('స', '|'), ('మ', '|'), ('యిం', 'U'), ('చి', '|'), ('తం', 'U'), ('ద', '|'), ('ఱి', '|'), ('ద', '|'), ('రు', '|'), ('గ', '|'), ('ని', '|'), ('రా', 'U'), ('క్ష', '|'), ('సాం', 'U'), ('త', '|'), ('కు', '|'), ('డ', '|'), ('న', '|'), ('ను', '|'), ('చు', '|'), ('బం', 'U'), ('ధు', '|'), ('వు', '|'), ('ల', 'U'), ('న్యో', 'U'), ('న్య', '|'), ('వై', 'U'), ('రా', 'U'), ('ను', '|'), ('హ', '|'), ('తు', '|'), ('లు', '|'), ('గా', 'U'), ('న', '|'), ('డ', '|'), ('చి', '|'), ('తి', '|'), ('భూ', 'U'), ('భా', 'U'), ('ర', '|'), ('హా', 'U'), ('రి', '|'), ('న', '|'), ('ను', '|'), ('చు', '|'), ('బ', '|'), ('లి', '|'), ('మి', '|'), ('న', 'U'), ('న్య', 'U'), ('స్త్రీ', 'U'), ('ల', '|'), ('బ', 'U'), ('ట్టి', '|'), ('తి', '|'), ('వెం', 'U'), ('ద', '|'), ('ఱి', '|'), ('న', 'U'), ('స్ఖ', '|'), ('ల', '|'), ('ద్బ్ర', 'U'), ('హ్మ', '|'), ('చ', 'U'), ('ర్య', '|'), ('మ', '|'), ('తి', '|'), ('న', '|'), ('ను', '|'), ('చు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>లోకమున నడ్డ మెవ్వరు లేకయునికి-హద్దు లే కిట్లు నడచితి వళుకు మాలి
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>లోకమున నడ్డ మెవ్వరు లేకయునికి-హద్దు లే కిట్లు నడచితి వళుకు మాలి
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
           <t>[('లో', 'U'), ('క', '|'), ('ము', '|'), ('న', '|'), ('న', 'U'), ('డ్డ', '|'), ('మె', 'U'), ('వ్వ', '|'), ('రు', '|'), ('లే', 'U'), ('క', '|'), ('యు', '|'), ('ని', '|'), ('కి', '|'), ('హ', 'U'), ('ద్దు', '|'), ('లే', 'U'), ('కి', 'U'), ('ట్లు', '|'), ('న', '|'), ('డ', '|'), ('చి', '|'), ('తి', '|'), ('వ', '|'), ('ళు', '|'), ('కు', '|'), ('మా', 'U'), ('లి', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B90" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
         <is>
           <t>అది యోగ్యంతరం గాలానబంధంబు- వదలించుకొని నీకు వశము గాదొ!
 వేదాంత సకృద చుంబితల మంత్రావర్ణ- నల గుహలుండి రా నలవి గాదొ!
@@ -3293,63 +3026,57 @@
 వక్రకంటక పంకవత్క్రూరజనమనః- కాపథంబులను గా ల్మోపరాదొ!</t>
         </is>
       </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('ది', '|'), ('యో', 'U'), ('గ్యం', 'U'), ('త', '|'), ('రం', 'U'), ('గా', 'U'), ('లా', 'U'), ('న', '|'), ('బం', 'U'), ('ధం', 'U'), ('బు', '|'), ('వ', '|'), ('ద', '|'), ('లిం', 'U'), ('చు', '|'), ('కొ', '|'), ('ని', '|'), ('నీ', 'U'), ('కు', '|'), ('వ', '|'), ('శ', '|'), ('ము', '|'), ('గా', 'U'), ('దొ', '|'), ('వే', 'U'), ('దాం', 'U'), ('త', '|'), ('స', '|'), ('కృ', '|'), ('ద', '|'), ('చుం', 'U'), ('బి', '|'), ('త', '|'), ('ల', '|'), ('మం', 'U'), ('త్రా', 'U'), ('వ', 'U'), ('ర్ణ', '|'), ('న', '|'), ('ల', '|'), ('గు', '|'), ('హ', '|'), ('లుం', 'U'), ('డి', '|'), ('రా', 'U'), ('న', '|'), ('ల', '|'), ('వి', '|'), ('గా', 'U'), ('దొ', '|'), ('ని', '|'), ('మి', '|'), ('షా', 'U'), ('ర్ధ', '|'), ('ని', '|'), ('మి', '|'), ('షా', 'U'), ('ది', '|'), ('ని', 'U'), ('త్య', '|'), ('వే', 'U'), ('ళా', 'U'), ('చ', 'U'), ('క్ర', '|'), ('గ', '|'), ('తి', '|'), ('ని', '|'), ('రో', 'U'), ('ధిం', 'U'), ('చి', '|'), ('రా', 'U'), ('గ్ర', '|'), ('మ', '|'), ('ము', '|'), ('గా', 'U'), ('దొ', '|'), ('వ', 'U'), ('క్ర', '|'), ('కం', 'U'), ('ట', '|'), ('క', '|'), ('పం', 'U'), ('క', '|'), ('వ', 'U'), ('త్క్రూ', 'U'), ('ర', '|'), ('జ', '|'), ('న', '|'), ('మ', '|'), ('నః', 'U'), ('కా', 'U'), ('ప', '|'), ('థం', 'U'), ('బు', '|'), ('ల', '|'), ('ను', '|'), ('గా', 'U'), ('ల్మో', 'U'), ('ప', '|'), ('రా', 'U'), ('దొ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>యేమి యాలస్య మిది నీకు నేల సకల-జంతుసంతాన రక్షావిచక్షణునకు
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>యేమి యాలస్య మిది నీకు నేల సకల-జంతుసంతాన రక్షావిచక్షణునకు
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
           <t>[('యే', 'U'), ('మి', '|'), ('యా', 'U'), ('ల', 'U'), ('స్య', '|'), ('మి', '|'), ('ది', '|'), ('నీ', 'U'), ('కు', '|'), ('నే', 'U'), ('ల', '|'), ('స', '|'), ('క', '|'), ('ల', '|'), ('జం', 'U'), ('తు', '|'), ('సం', 'U'), ('తా', 'U'), ('న', '|'), ('ర', 'U'), ('క్షా', 'U'), ('వి', '|'), ('చ', 'U'), ('క్ష', '|'), ('ణు', '|'), ('న', '|'), ('కు', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B92" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
         <is>
           <t>కఠిన స్తనంబుల ఘట్టించి దట్టించి- జడలచే మోది నున్దొడల నదిమి
 పలుగంట్లు చేసి గోరుల నాటి దొమ్మిగా- యువతీసహస్రంబు లుపరతాది
@@ -3357,63 +3084,57 @@
 బడలిక దీర నాపఁగ రాని సుఖనిద్ర- బవళించియున్నట్టి భావ మిచటఁ</t>
         </is>
       </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('ఠి', '|'), ('న', 'U'), ('స్త', '|'), ('నం', 'U'), ('బు', '|'), ('ల', '|'), ('ఘ', 'U'), ('ట్టిం', 'U'), ('చి', '|'), ('ద', 'U'), ('ట్టిం', 'U'), ('చి', '|'), ('జ', '|'), ('డ', '|'), ('ల', '|'), ('చే', 'U'), ('మో', 'U'), ('ది', '|'), ('ను', 'U'), ('న్దొ', '|'), ('డ', '|'), ('ల', '|'), ('న', '|'), ('ది', '|'), ('మి', '|'), ('ప', '|'), ('లు', '|'), ('గం', 'U'), ('ట్లు', '|'), ('చే', 'U'), ('సి', '|'), ('గో', 'U'), ('రు', '|'), ('ల', '|'), ('నా', 'U'), ('టి', '|'), ('దొ', 'U'), ('మ్మి', '|'), ('గా', 'U'), ('యు', '|'), ('వ', '|'), ('తీ', 'U'), ('స', '|'), ('హ', 'U'), ('స్రం', 'U'), ('బు', '|'), ('లు', '|'), ('ప', '|'), ('ర', '|'), ('తా', 'U'), ('ది', '|'), ('బం', 'U'), ('ధ', '|'), ('నం', 'U'), ('బు', '|'), ('ల', '|'), ('ని', 'U'), ('న్ను', '|'), ('బై', 'U'), ('కొ', '|'), ('ని', '|'), ('త', '|'), ('మి', '|'), ('రే', 'U'), ('చి', '|'), ('ర', '|'), ('మి', '|'), ('యిం', 'U'), ('ప', '|'), ('ని', '|'), ('దు', '|'), ('రిం', 'U'), ('ప', '|'), ('రా', 'U'), ('క', '|'), ('నా', 'U'), ('టి', '|'), ('బ', '|'), ('డ', '|'), ('లి', '|'), ('క', '|'), ('దీ', 'U'), ('ర', '|'), ('నా', 'U'), ('ప', '|'), ('గ', '|'), ('రా', 'U'), ('ని', '|'), ('సు', '|'), ('ఖ', '|'), ('ని', '|'), ('ద్ర', '|'), ('బ', '|'), ('వ', '|'), ('ళిం', 'U'), ('చి', '|'), ('యు', 'U'), ('న్న', 'U'), ('ట్టి', '|'), ('భా', 'U'), ('వ', '|'), ('మి', '|'), ('చ', '|'), ('ట', '|')]</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>దోఁచుచున్నది సంఫుల్లతోయజాక్ష!-మేల్‌ బళా! యింత జా గేమి మేలుకొనవె!
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>దోఁచుచున్నది సంఫుల్లతోయజాక్ష!-మేల్‌ బళా! యింత జా గేమి మేలుకొనవె!
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
           <t>[('దో', 'U'), ('చు', '|'), ('చు', 'U'), ('న్న', '|'), ('ది', '|'), ('సం', 'U'), ('ఫు', 'U'), ('ల్ల', '|'), ('తో', 'U'), ('య', '|'), ('జా', 'U'), ('క్ష', '|'), ('మేల్', 'U'), ('బ', '|'), ('ళా', 'U'), ('యిం', 'U'), ('త', '|'), ('జా', 'U'), ('గే', 'U'), ('మి', '|'), ('మే', 'U'), ('లు', '|'), ('కొ', '|'), ('న', '|'), ('వె', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B94" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
         <is>
           <t>నీ బొడ్డుదమ్మి లోనికిఁ జొచ్చి చూచిన- నలువకు నీలోఁతు దెలియకున్నె?
 బహుసహస్రాంగనా గృహముల నినుఁ గన్న- మునిరాజు నీమాయఁ గనకయున్నె?
@@ -3421,63 +3142,57 @@
 తనమనఃపీఠి ని న్ననిశ మారాధించు- హరుఁడు భవత్తత్త్వం బరయకున్నె?</t>
         </is>
       </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('బొ', 'U'), ('డ్డు', '|'), ('ద', 'U'), ('మ్మి', '|'), ('లో', 'U'), ('ని', '|'), ('కి', '|'), ('జొ', 'U'), ('చ్చి', '|'), ('చూ', 'U'), ('చి', '|'), ('న', '|'), ('న', '|'), ('లు', '|'), ('వ', '|'), ('కు', '|'), ('నీ', 'U'), ('లో', 'U'), ('తు', '|'), ('దె', '|'), ('లి', '|'), ('య', '|'), ('కు', 'U'), ('న్నె', '|'), ('బ', '|'), ('హు', '|'), ('స', '|'), ('హ', 'U'), ('స్రాం', 'U'), ('గ', '|'), ('నా', 'U'), ('గృ', '|'), ('హ', '|'), ('ము', '|'), ('ల', '|'), ('ని', '|'), ('ను', '|'), ('గ', 'U'), ('న్న', '|'), ('ము', '|'), ('ని', '|'), ('రా', 'U'), ('జు', '|'), ('నీ', 'U'), ('మా', 'U'), ('య', '|'), ('గ', '|'), ('న', '|'), ('క', '|'), ('యు', 'U'), ('న్నె', '|'), ('నీ', 'U'), ('వి', 'U'), ('శ్వ', '|'), ('రూ', 'U'), ('ప', '|'), ('మె', 'U'), ('న్ని', '|'), ('క', '|'), ('జే', 'U'), ('సి', '|'), ('పొ', '|'), ('డ', '|'), ('గ', 'U'), ('న్న', '|'), ('న', '|'), ('రు', '|'), ('డు', '|'), ('నీ', 'U'), ('యు', '|'), ('రు', '|'), ('వు', '|'), ('దా', 'U'), ('నె', '|'), ('ఱు', '|'), ('గ', '|'), ('కు', 'U'), ('న్నె', '|'), ('త', '|'), ('న', '|'), ('మ', '|'), ('నః', 'U'), ('పీ', 'U'), ('ఠి', '|'), ('ని', 'U'), ('న్న', '|'), ('ని', '|'), ('శ', '|'), ('మా', 'U'), ('రా', 'U'), ('ధిం', 'U'), ('చు', '|'), ('హ', '|'), ('రు', '|'), ('డు', '|'), ('భ', '|'), ('వ', 'U'), ('త్త', 'U'), ('త్త్వం', 'U'), ('బ', '|'), ('ర', '|'), ('య', '|'), ('కు', 'U'), ('న్నె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>గరువ మేటికి నీ మర్మ మెఱుఁగ రనుచుఁ-దెలిసినమహాత్ములకు నైనఁ దెలియకున్నె
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>గరువ మేటికి నీ మర్మ మెఱుఁగ రనుచుఁ-దెలిసినమహాత్ములకు నైనఁ దెలియకున్నె
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
           <t>[('గ', '|'), ('రు', '|'), ('వ', '|'), ('మే', 'U'), ('టి', '|'), ('కి', '|'), ('నీ', 'U'), ('మ', '|'), ('ర్మ', '|'), ('మె', '|'), ('ఱు', '|'), ('గ', '|'), ('ర', '|'), ('ను', '|'), ('చు', '|'), ('దె', '|'), ('లి', '|'), ('సి', '|'), ('న', '|'), ('మ', '|'), ('హా', 'U'), ('త్ము', '|'), ('ల', '|'), ('కు', '|'), ('నై', 'U'), ('న', '|'), ('దె', '|'), ('లి', '|'), ('య', '|'), ('కు', 'U'), ('న్నె', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B96" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
         <is>
           <t>పురుషాకృతిగ నిన్ను గురుతుఁ బట్టఁగ రాదు- స్త్రీమూర్తి వనుచును జెప్ప రాదు
 పరఁగ నపుంసకభావ మెన్నఁగ రాదు- రూపంబు గల్గు టెఱుంగ రాదు
@@ -3485,63 +3200,57 @@
 కులజుఁడ వనుచు నిక్కువముఁ జెప్పఁగ రాదు- స్థల మెక్కడనొ కాని తెలియరాదు</t>
         </is>
       </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
           <t>[('పు', '|'), ('రు', '|'), ('షా', 'U'), ('కృ', '|'), ('తి', '|'), ('గ', '|'), ('ని', 'U'), ('న్ను', '|'), ('గు', '|'), ('రు', '|'), ('తు', '|'), ('బ', 'U'), ('ట్ట', '|'), ('గ', '|'), ('రా', 'U'), ('దు', 'U'), ('స్త్రీ', 'U'), ('మూ', 'U'), ('ర్తి', '|'), ('వ', '|'), ('ను', '|'), ('చు', '|'), ('ను', '|'), ('జె', 'U'), ('ప్ప', '|'), ('రా', 'U'), ('దు', '|'), ('ప', '|'), ('ర', '|'), ('గ', '|'), ('న', '|'), ('పుం', 'U'), ('స', '|'), ('క', '|'), ('భా', 'U'), ('వ', '|'), ('మె', 'U'), ('న్న', '|'), ('గ', '|'), ('రా', 'U'), ('దు', '|'), ('రూ', 'U'), ('పం', 'U'), ('బు', '|'), ('గ', 'U'), ('ల్గు', '|'), ('టె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('రా', 'U'), ('దు', '|'), ('గు', '|'), ('ణ', '|'), ('వం', 'U'), ('తు', '|'), ('డ', '|'), ('వ', '|'), ('టం', 'U'), ('చు', '|'), ('గ', '|'), ('ణు', '|'), ('తిం', 'U'), ('ప', '|'), ('గా', 'U'), ('రా', 'U'), ('దు', '|'), ('మ', 'U'), ('ర్యా', 'U'), ('ద', '|'), ('దె', '|'), ('లి', '|'), ('య', '|'), ('నే', 'U'), ('మ', '|'), ('తి', '|'), ('కి', '|'), ('రా', 'U'), ('దు', '|'), ('కు', '|'), ('ల', '|'), ('జు', '|'), ('డ', '|'), ('వ', '|'), ('ను', '|'), ('చు', '|'), ('ని', 'U'), ('క్కు', '|'), ('వ', '|'), ('ము', '|'), ('జె', 'U'), ('ప్ప', '|'), ('గ', '|'), ('రా', 'U'), ('దు', 'U'), ('స్థ', '|'), ('ల', '|'), ('మె', 'U'), ('క్క', '|'), ('డ', '|'), ('నొ', '|'), ('కా', 'U'), ('ని', '|'), ('తె', '|'), ('లి', '|'), ('య', '|'), ('రా', 'U'), ('దు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>వస్తునిర్దేశ మొనరింప వశము గాని-నిన్ను వర్ణింపరా దయా నిశ్చితముగ
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>వస్తునిర్దేశ మొనరింప వశము గాని-నిన్ను వర్ణింపరా దయా నిశ్చితముగ
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
           <t>[('వ', 'U'), ('స్తు', '|'), ('ని', '|'), ('ర్దే', 'U'), ('శ', '|'), ('మొ', '|'), ('న', '|'), ('రిం', 'U'), ('ప', '|'), ('వ', '|'), ('శ', '|'), ('ము', '|'), ('గా', 'U'), ('ని', '|'), ('ని', 'U'), ('న్ను', '|'), ('వ', 'U'), ('ర్ణిం', 'U'), ('ప', '|'), ('రా', 'U'), ('ద', '|'), ('యా', 'U'), ('ని', 'U'), ('శ్చి', '|'), ('త', '|'), ('ము', '|'), ('గ', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B98" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
         <is>
           <t>నమ్ముదు రేరీతి నారదు నాత్మజు- మానిని జేసిన మాయవానిఁ?
 దలఁతు రేరీతి నల్‌దలలదయము నోలి- బొడ్డుదమ్మినిఁ గన్న పురుషమణిని?
@@ -3549,63 +3258,57 @@
 భాషింతు రేరీతి బ్రహ్మాదిమశకప- ర్యంతంబు గలిగిన వింతవాని?</t>
         </is>
       </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
           <t>[('న', 'U'), ('మ్ము', '|'), ('దు', '|'), ('రే', 'U'), ('రీ', 'U'), ('తి', '|'), ('నా', 'U'), ('ర', '|'), ('దు', '|'), ('నా', 'U'), ('త్మ', '|'), ('జు', '|'), ('మా', 'U'), ('ని', '|'), ('ని', '|'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('మా', 'U'), ('య', '|'), ('వా', 'U'), ('ని', '|'), ('ద', '|'), ('ల', '|'), ('తు', '|'), ('రే', 'U'), ('రీ', 'U'), ('తి', '|'), ('న', 'U'), ('ల్ద', '|'), ('ల', '|'), ('ల', '|'), ('ద', '|'), ('య', '|'), ('ము', '|'), ('నో', 'U'), ('లి', '|'), ('బొ', 'U'), ('డ్డు', '|'), ('ద', 'U'), ('మ్మి', '|'), ('ని', '|'), ('గ', 'U'), ('న్న', '|'), ('పు', '|'), ('రు', '|'), ('ష', '|'), ('మ', '|'), ('ణి', '|'), ('ని', '|'), ('భూ', 'U'), ('షిం', 'U'), ('తు', '|'), ('రే', 'U'), ('రీ', 'U'), ('తి', '|'), ('పు', 'U'), ('ష్ప', '|'), ('బా', 'U'), ('ణ', '|'), ('వి', '|'), ('రో', 'U'), ('ధి', '|'), ('వి', '|'), ('ష', '|'), ('య', 'U'), ('భ్ర', '|'), ('మి', '|'), ('తు', '|'), ('జే', 'U'), ('యు', '|'), ('వే', 'U'), ('స', '|'), ('గా', 'U'), ('ని', '|'), ('భా', 'U'), ('షిం', 'U'), ('తు', '|'), ('రే', 'U'), ('రీ', 'U'), ('తి', 'U'), ('బ్ర', 'U'), ('హ్మా', 'U'), ('ది', '|'), ('మ', '|'), ('శ', '|'), ('క', '|'), ('ప', 'U'), ('ర్యం', 'U'), ('తం', 'U'), ('బు', '|'), ('గ', '|'), ('లి', '|'), ('గి', '|'), ('న', '|'), ('విం', 'U'), ('త', '|'), ('వా', 'U'), ('ని', '|')]</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>ని న్నెఱిఁ గెఱింగి యందఱు నన్నుతింతు-రెవ్వరికి నీవు కావలె నెంచి చూడ?
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>ని న్నెఱిఁ గెఱింగి యందఱు నన్నుతింతు-రెవ్వరికి నీవు కావలె నెంచి చూడ?
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
           <t>[('ని', 'U'), ('న్నె', '|'), ('ఱి', '|'), ('గె', '|'), ('ఱిం', 'U'), ('గి', '|'), ('యం', 'U'), ('ద', '|'), ('ఱు', '|'), ('న', 'U'), ('న్ను', '|'), ('తిం', 'U'), ('తు', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రి', '|'), ('కి', '|'), ('నీ', 'U'), ('వు', '|'), ('కా', 'U'), ('వ', '|'), ('లె', '|'), ('నెం', 'U'), ('చి', '|'), ('చూ', 'U'), ('డ', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B100" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
         <is>
           <t>ఎక్కడ నీకన్న దిక్కు లేనట్ల ని- న్నర్చింతు రబ్జగర్భాది సురలు
 మఱి యెందు గతి లేనిమాడ్కి మహామును- ల్నీయందె లక్ష్యము ల్నిలుపు కొందు
@@ -3613,63 +3316,57 @@
 పగతుర మెయ్యెడ బ్రతికెద మన్నట్లు- దునిసిరి నీచేత దనుజు లెల్ల</t>
         </is>
       </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
           <t>[('ఎ', 'U'), ('క్క', '|'), ('డ', '|'), ('నీ', 'U'), ('క', 'U'), ('న్న', '|'), ('ది', 'U'), ('క్కు', '|'), ('లే', 'U'), ('న', 'U'), ('ట్ల', '|'), ('ని', 'U'), ('న్న', 'U'), ('ర్చిం', 'U'), ('తు', '|'), ('ర', 'U'), ('బ్జ', '|'), ('గ', 'U'), ('ర్భా', 'U'), ('ది', '|'), ('సు', '|'), ('ర', '|'), ('లు', '|'), ('మ', '|'), ('ఱి', '|'), ('యెం', 'U'), ('దు', '|'), ('గ', '|'), ('తి', '|'), ('లే', 'U'), ('ని', '|'), ('మా', 'U'), ('డ్కి', '|'), ('మ', '|'), ('హా', 'U'), ('ము', '|'), ('ను', 'U'), ('ల్నీ', 'U'), ('యం', 'U'), ('దె', '|'), ('ల', 'U'), ('క్ష్య', '|'), ('ము', 'U'), ('ల్ని', '|'), ('లు', '|'), ('పు', '|'), ('కొం', 'U'), ('దు', '|'), ('రి', '|'), ('ల', '|'), ('ద', '|'), ('ర', '|'), ('ణో', 'U'), ('పా', 'U'), ('య', '|'), ('మెం', 'U'), ('దు', '|'), ('న', '|'), ('లే', 'U'), ('న', 'U'), ('ట్లు', '|'), ('స', 'U'), ('జ్జ', '|'), ('నుల్', 'U'), ('నీ', 'U'), ('క', '|'), ('థల్', 'U'), ('చ', '|'), ('దు', '|'), ('వు', '|'), ('కొం', 'U'), ('డ్రు', '|'), ('ప', '|'), ('గ', '|'), ('తు', '|'), ('ర', '|'), ('మె', 'U'), ('య్యె', '|'), ('డ', 'U'), ('బ్ర', '|'), ('తి', '|'), ('కె', '|'), ('ద', '|'), ('మ', 'U'), ('న్న', 'U'), ('ట్లు', '|'), ('దు', '|'), ('ని', '|'), ('సి', '|'), ('రి', '|'), ('నీ', 'U'), ('చే', 'U'), ('త', '|'), ('ద', '|'), ('ను', '|'), ('జు', '|'), ('లె', 'U'), ('ల్ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>దత్త్వ మరసిన శుద్ధబుద్ధస్వరూప-మింత మధికార మెన్నటి దేమి చెపుమ
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>దత్త్వ మరసిన శుద్ధబుద్ధస్వరూప-మింత మధికార మెన్నటి దేమి చెపుమ
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
           <t>[('ద', 'U'), ('త్త్వ', '|'), ('మ', '|'), ('ర', '|'), ('సి', '|'), ('న', '|'), ('శు', 'U'), ('ద్ధ', '|'), ('బు', 'U'), ('ద్ధ', 'U'), ('స్వ', '|'), ('రూ', 'U'), ('ప', '|'), ('మిం', 'U'), ('త', '|'), ('మ', '|'), ('ధి', '|'), ('కా', 'U'), ('ర', '|'), ('మె', 'U'), ('న్న', '|'), ('టి', '|'), ('దే', 'U'), ('మి', '|'), ('చె', '|'), ('పు', '|'), ('మ', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B102" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
         <is>
           <t>ఆడించెదవు బొమ్మలాటవాఁడును బోలె- సర్వచరాచరజంతువులను
 కనుకట్టు గట్టెదు గారడీఁడును బోలె- మిథ్యాప్రపంచంబు తథ్యముగను
@@ -3677,63 +3374,57 @@
 దెలివి మాన్పుదువు జక్కులవాని చందానఁ- బ్రజల సంపద్రంగవల్లిఁ జేర్చి</t>
         </is>
       </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
           <t>[('ఆ', 'U'), ('డిం', 'U'), ('చె', '|'), ('ద', '|'), ('వు', '|'), ('బొ', 'U'), ('మ్మ', '|'), ('లా', 'U'), ('ట', '|'), ('వా', 'U'), ('డు', '|'), ('ను', '|'), ('బో', 'U'), ('లె', '|'), ('స', 'U'), ('ర్వ', '|'), ('చ', '|'), ('రా', 'U'), ('చ', '|'), ('ర', '|'), ('జం', 'U'), ('తు', '|'), ('వు', '|'), ('ల', '|'), ('ను', '|'), ('క', '|'), ('ను', '|'), ('క', 'U'), ('ట్టు', '|'), ('గ', 'U'), ('ట్టె', '|'), ('దు', '|'), ('గా', 'U'), ('ర', '|'), ('డీ', 'U'), ('డు', '|'), ('ను', '|'), ('బో', 'U'), ('లె', '|'), ('మి', 'U'), ('థ్యా', 'U'), ('ప్ర', '|'), ('పం', 'U'), ('చం', 'U'), ('బు', '|'), ('త', 'U'), ('థ్య', '|'), ('ము', '|'), ('గ', '|'), ('ను', '|'), ('వే', 'U'), ('ర్వే', 'U'), ('ఱ', '|'), ('దో', 'U'), ('తు', '|'), ('వు', '|'), ('వే', 'U'), ('ష', '|'), ('ధా', 'U'), ('రి', '|'), ('యు', '|'), ('బో', 'U'), ('లె', '|'), ('బ', '|'), ('హు', '|'), ('వి', '|'), ('ధ', '|'), ('దే', 'U'), ('వ', '|'), ('తా', 'U'), ('భ', '|'), ('ద్ర', '|'), ('క', '|'), ('ళ', '|'), ('ల', '|'), ('దె', '|'), ('లి', '|'), ('వి', '|'), ('మా', 'U'), ('న్పు', '|'), ('దు', '|'), ('వు', '|'), ('జ', 'U'), ('క్కు', '|'), ('ల', '|'), ('వా', 'U'), ('ని', '|'), ('చం', 'U'), ('దా', 'U'), ('న', 'U'), ('బ్ర', '|'), ('జ', '|'), ('ల', '|'), ('సం', 'U'), ('ప', '|'), ('ద్రం', 'U'), ('గ', '|'), ('వ', 'U'), ('ల్లి', '|'), ('జే', 'U'), ('ర్చి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>యిట్టివే కద నీవిద్య లెన్ని యైన-నింక నేమిట ఘనుఁడవో యెఱుఁగరాదు
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>యిట్టివే కద నీవిద్య లెన్ని యైన-నింక నేమిట ఘనుఁడవో యెఱుఁగరాదు
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
           <t>[('యి', 'U'), ('ట్టి', '|'), ('వే', 'U'), ('క', '|'), ('ద', '|'), ('నీ', 'U'), ('వి', 'U'), ('ద్య', '|'), ('లె', 'U'), ('న్ని', '|'), ('యై', 'U'), ('న', '|'), ('నిం', 'U'), ('క', '|'), ('నే', 'U'), ('మి', '|'), ('ట', '|'), ('ఘ', '|'), ('ను', '|'), ('డ', '|'), ('వో', 'U'), ('యె', '|'), ('ఱు', '|'), ('గ', '|'), ('రా', 'U'), ('దు', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B104" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
         <is>
           <t>కూరిమి నల తంతెగొట్టు సన్న్యాసితో- ముచ్చటించెద వేమి పుణ్యమూర్తి
 సాటిగా వెలిగొండవీటి జంగముచెల్మిఁ- బచరింతు వేనాఁటి బాంధవుండు
@@ -3741,63 +3432,57 @@
 పొరుగిండ్ల కేప్రొద్దుఁ బో రాఁ దలఁచునింతిఁ- బాయకుండెద వేమి భాగ్యలక్ష్మి</t>
         </is>
       </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
           <t>[('కూ', 'U'), ('రి', '|'), ('మి', '|'), ('న', '|'), ('ల', '|'), ('తం', 'U'), ('తె', '|'), ('గొ', 'U'), ('ట్టు', '|'), ('స', 'U'), ('న్న్యా', 'U'), ('సి', '|'), ('తో', 'U'), ('ము', 'U'), ('చ్చ', '|'), ('టిం', 'U'), ('చె', '|'), ('ద', '|'), ('వే', 'U'), ('మి', '|'), ('పు', 'U'), ('ణ్య', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('సా', 'U'), ('టి', '|'), ('గా', 'U'), ('వె', '|'), ('లి', '|'), ('గొం', 'U'), ('డ', '|'), ('వీ', 'U'), ('టి', '|'), ('జం', 'U'), ('గ', '|'), ('ము', '|'), ('చె', 'U'), ('ల్మి', '|'), ('బ', '|'), ('చ', '|'), ('రిం', 'U'), ('తు', '|'), ('వే', 'U'), ('నా', 'U'), ('టి', '|'), ('బాం', 'U'), ('ధ', '|'), ('వుం', 'U'), ('డు', '|'), ('వె', '|'), ('లి', '|'), ('పా', 'U'), ('ప', '|'), ('పా', 'U'), ('న్పు', '|'), ('పై', 'U'), ('వే', 'U'), ('డ్క', '|'), ('తో', 'U'), ('బ', '|'), ('వ', '|'), ('ళిం', 'U'), ('తు', '|'), ('వ', '|'), ('ది', '|'), ('యే', 'U'), ('మి', '|'), ('భో', 'U'), ('గి', '|'), ('భో', 'U'), ('గాం', 'U'), ('త', '|'), ('రం', 'U'), ('బు', '|'), ('పొ', '|'), ('రు', '|'), ('గిం', 'U'), ('డ్ల', '|'), ('కే', 'U'), ('ప్రొ', 'U'), ('ద్దు', '|'), ('బో', 'U'), ('రా', 'U'), ('ద', '|'), ('ల', '|'), ('చు', '|'), ('నిం', 'U'), ('తి', '|'), ('బా', 'U'), ('య', '|'), ('కుం', 'U'), ('డె', '|'), ('ద', '|'), ('వే', 'U'), ('మి', '|'), ('భా', 'U'), ('గ్య', '|'), ('ల', 'U'), ('క్ష్మి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>మంచి సహవాసములు గల్గె నెంచి చూడ-నీకె తగు నట్టివారితో బెనరు నెఱివ
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>మంచి సహవాసములు గల్గె నెంచి చూడ-నీకె తగు నట్టివారితో బెనరు నెఱివ
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
           <t>[('మం', 'U'), ('చి', '|'), ('స', '|'), ('హ', '|'), ('వా', 'U'), ('స', '|'), ('ము', '|'), ('లు', '|'), ('గ', 'U'), ('ల్గె', '|'), ('నెం', 'U'), ('చి', '|'), ('చూ', 'U'), ('డ', '|'), ('నీ', 'U'), ('కె', '|'), ('త', '|'), ('గు', '|'), ('న', 'U'), ('ట్టి', '|'), ('వా', 'U'), ('రి', '|'), ('తో', 'U'), ('బె', '|'), ('న', '|'), ('రు', '|'), ('నె', '|'), ('ఱి', '|'), ('వ', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B106" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
         <is>
           <t>అఖిలపోషకుఁడ వ న్నాఖ్య మాత్రమె కాని- కర్తవు నీవె భోక్తవును నీవె
 యక్షరుండ వను ప్రఖ్యాతి మాత్రమె కాని- చర్చింప వేఱొండు సాక్షి గలఁడె
@@ -3805,63 +3490,57 @@
 విశ్వాత్ముఁడ వటంచు వినుతించుటయే కాని- చొచ్చి ని న్నెవ్వఁడు చూచినాఁడు</t>
         </is>
       </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('ఖి', '|'), ('ల', '|'), ('పో', 'U'), ('ష', '|'), ('కు', '|'), ('డ', '|'), ('వ', 'U'), ('న్నా', 'U'), ('ఖ్య', '|'), ('మా', 'U'), ('త్ర', '|'), ('మె', '|'), ('కా', 'U'), ('ని', '|'), ('క', 'U'), ('ర్త', '|'), ('వు', '|'), ('నీ', 'U'), ('వె', '|'), ('భో', 'U'), ('క్త', '|'), ('వు', '|'), ('ను', '|'), ('నీ', 'U'), ('వె', '|'), ('య', 'U'), ('క్ష', '|'), ('రుం', 'U'), ('డ', '|'), ('వ', '|'), ('ను', 'U'), ('ప్ర', 'U'), ('ఖ్యా', 'U'), ('తి', '|'), ('మా', 'U'), ('త్ర', '|'), ('మె', '|'), ('కా', 'U'), ('ని', '|'), ('చ', 'U'), ('ర్చిం', 'U'), ('ప', '|'), ('వే', 'U'), ('ఱొం', 'U'), ('డు', '|'), ('సా', 'U'), ('క్షి', '|'), ('గ', '|'), ('ల', '|'), ('డె', '|'), ('సు', '|'), ('గు', '|'), ('ణా', 'U'), ('బ్ధి', '|'), ('వ', '|'), ('ని', '|'), ('ని', 'U'), ('న్ను', 'U'), ('స్తు', '|'), ('తి', '|'), ('యొ', '|'), ('న', 'U'), ('ర్చు', '|'), ('టె', '|'), ('కా', 'U'), ('ని', '|'), ('ని', 'U'), ('ర్గు', '|'), ('ణుం', 'U'), ('డె', 'U'), ('వ్వ', '|'), ('డు', '|'), ('నీ', 'U'), ('కు', '|'), ('మిం', 'U'), ('చ', '|'), ('వి', 'U'), ('శ్వా', 'U'), ('త్ము', '|'), ('డ', '|'), ('వ', '|'), ('టం', 'U'), ('చు', '|'), ('వి', '|'), ('ను', '|'), ('తిం', 'U'), ('చు', '|'), ('ట', '|'), ('యే', 'U'), ('కా', 'U'), ('ని', '|'), ('చొ', 'U'), ('చ్చి', '|'), ('ని', 'U'), ('న్నె', 'U'), ('వ్వ', '|'), ('డు', '|'), ('చూ', 'U'), ('చి', '|'), ('నా', 'U'), ('డు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>వినుకలులె గాని నిన్ను నీవిశ్వములను-మొద లెఱుంగుదురే నిజంబునకుఁ బిల్వ
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>వినుకలులె గాని నిన్ను నీవిశ్వములను-మొద లెఱుంగుదురే నిజంబునకుఁ బిల్వ
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
           <t>[('వి', '|'), ('ను', '|'), ('క', '|'), ('లు', '|'), ('లె', '|'), ('గా', 'U'), ('ని', '|'), ('ని', 'U'), ('న్ను', '|'), ('నీ', 'U'), ('వి', 'U'), ('శ్వ', '|'), ('ము', '|'), ('ల', '|'), ('ను', '|'), ('మొ', '|'), ('ద', '|'), ('లె', '|'), ('ఱుం', 'U'), ('గు', '|'), ('దు', '|'), ('రే', 'U'), ('ని', '|'), ('జం', 'U'), ('బు', '|'), ('న', '|'), ('కు', '|'), ('బి', 'U'), ('ల్వ', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B108" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
         <is>
           <t>ఒక గుణంబున నీవె సకల ప్రపంచంబుఁ- గల్పించితి వభూతకల్పనముగ
 వేఱొకగుణముచే విశ్వవిశ్వప్రాణ- రక్షణం బొనరింతు వక్షయముగ
@@ -3869,63 +3548,57 @@
 నిర్గుణంబున నీవె నిరవకాశంబుగాఁ- బట్టక యుందువు బయలు మెఱసి</t>
         </is>
       </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
           <t>[('ఒ', '|'), ('క', '|'), ('గు', '|'), ('ణం', 'U'), ('బు', '|'), ('న', '|'), ('నీ', 'U'), ('వె', '|'), ('స', '|'), ('క', '|'), ('ల', 'U'), ('ప్ర', '|'), ('పం', 'U'), ('చం', 'U'), ('బు', '|'), ('గ', 'U'), ('ల్పిం', 'U'), ('చి', '|'), ('తి', '|'), ('వ', '|'), ('భూ', 'U'), ('త', '|'), ('క', 'U'), ('ల్ప', '|'), ('న', '|'), ('ము', '|'), ('గ', '|'), ('వే', 'U'), ('ఱొ', '|'), ('క', '|'), ('గు', '|'), ('ణ', '|'), ('ము', '|'), ('చే', 'U'), ('వి', 'U'), ('శ్వ', '|'), ('వి', 'U'), ('శ్వ', 'U'), ('ప్రా', 'U'), ('ణ', '|'), ('ర', 'U'), ('క్ష', '|'), ('ణం', 'U'), ('బొ', '|'), ('న', '|'), ('రిం', 'U'), ('తు', '|'), ('వ', 'U'), ('క్ష', '|'), ('య', '|'), ('ము', '|'), ('గ', '|'), ('మ', '|'), ('ఱి', '|'), ('యొం', 'U'), ('డు', '|'), ('గు', '|'), ('ణ', '|'), ('ము', '|'), ('చే', 'U'), ('మం', 'U'), ('డ', '|'), ('లం', 'U'), ('బు', '|'), ('లు', '|'), ('గూ', 'U'), ('డ', '|'), ('జె', '|'), ('ఱ', '|'), ('పి', '|'), ('వే', 'U'), ('యు', '|'), ('దు', '|'), ('వు', '|'), ('ని', 'U'), ('శ్శే', 'U'), ('ష', '|'), ('ము', '|'), ('గ', '|'), ('ను', '|'), ('ని', 'U'), ('ర్గు', '|'), ('ణం', 'U'), ('బు', '|'), ('న', '|'), ('నీ', 'U'), ('వె', '|'), ('ని', '|'), ('ర', '|'), ('వ', '|'), ('కా', 'U'), ('శం', 'U'), ('బు', '|'), ('గా', 'U'), ('బ', 'U'), ('ట్ట', '|'), ('క', '|'), ('యుం', 'U'), ('దు', '|'), ('వు', '|'), ('బ', '|'), ('య', '|'), ('లు', '|'), ('మె', '|'), ('ఱ', '|'), ('సి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>గుణ మొకటి గాదు తెలిసినగుణము లేదు-చేరి నినుఁ గొల్వరాదు వచింపరాదు
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>గుణ మొకటి గాదు తెలిసినగుణము లేదు-చేరి నినుఁ గొల్వరాదు వచింపరాదు
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
           <t>[('గు', '|'), ('ణ', '|'), ('మొ', '|'), ('క', '|'), ('టి', '|'), ('గా', 'U'), ('దు', '|'), ('తె', '|'), ('లి', '|'), ('సి', '|'), ('న', '|'), ('గు', '|'), ('ణ', '|'), ('ము', '|'), ('లే', 'U'), ('దు', '|'), ('చే', 'U'), ('రి', '|'), ('ని', '|'), ('ను', '|'), ('గొ', 'U'), ('ల్వ', '|'), ('రా', 'U'), ('దు', '|'), ('వ', '|'), ('చిం', 'U'), ('ప', '|'), ('రా', 'U'), ('దు', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B110" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
         <is>
           <t>జీవిని జీవి భక్షింపఁ జేసితి వింతె- కొని పెట్టినావె చేతనుల కెల్లఁ?
 జేసినంత భుజింపఁ జేసినా వింతె కా- కెక్కువ లెవ్వరి కిచ్చినావు?
@@ -3933,63 +3606,57 @@
 వెసంబృథక్ప్రతుల వేఱుఁబెట్టితివి గా- కందఱి కైకమత్య మిడినావె?</t>
         </is>
       </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
           <t>[('జీ', 'U'), ('వి', '|'), ('ని', '|'), ('జీ', 'U'), ('వి', '|'), ('భ', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('జే', 'U'), ('సి', '|'), ('తి', '|'), ('విం', 'U'), ('తె', '|'), ('కొ', '|'), ('ని', '|'), ('పె', 'U'), ('ట్టి', '|'), ('నా', 'U'), ('వె', '|'), ('చే', 'U'), ('త', '|'), ('ను', '|'), ('ల', '|'), ('కె', 'U'), ('ల్ల', '|'), ('జే', 'U'), ('సి', '|'), ('నం', 'U'), ('త', '|'), ('భు', '|'), ('జిం', 'U'), ('ప', '|'), ('జే', 'U'), ('సి', '|'), ('నా', 'U'), ('విం', 'U'), ('తె', '|'), ('కా', 'U'), ('కె', 'U'), ('క్కు', '|'), ('వ', '|'), ('లె', 'U'), ('వ్వ', '|'), ('రి', '|'), ('కి', 'U'), ('చ్చి', '|'), ('నా', 'U'), ('వు', '|'), ('క', '|'), ('ర్మ', '|'), ('సూ', 'U'), ('త్రం', 'U'), ('బు', '|'), ('న', '|'), ('గ', 'U'), ('ట్టి', 'U'), ('త్రి', 'U'), ('ప్పె', '|'), ('ద', '|'), ('వు', '|'), ('గా', 'U'), ('కి', 'U'), ('చ్చ', '|'), ('నొ', 'U'), ('క్క', '|'), ('ని', '|'), ('బో', 'U'), ('వ', '|'), ('ని', 'U'), ('చ్చి', '|'), ('నా', 'U'), ('వె', '|'), ('వె', '|'), ('సం', 'U'), ('బృ', '|'), ('థ', 'U'), ('క్ప్ర', '|'), ('తు', '|'), ('ల', '|'), ('వే', 'U'), ('ఱు', '|'), ('బె', 'U'), ('ట్టి', '|'), ('తి', '|'), ('వి', '|'), ('గా', 'U'), ('కం', 'U'), ('ద', '|'), ('ఱి', '|'), ('కై', 'U'), ('క', '|'), ('మ', 'U'), ('త్య', '|'), ('మి', '|'), ('డి', '|'), ('నా', 'U'), ('వె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>తెలిసె నీరక్షకత్వంబు దేవదేవ!-వేఱె గతి లేక నిన్ను సేవింప వలసె?
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>తెలిసె నీరక్షకత్వంబు దేవదేవ!-వేఱె గతి లేక నిన్ను సేవింప వలసె?
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
           <t>[('తె', '|'), ('లి', '|'), ('సె', '|'), ('నీ', 'U'), ('ర', 'U'), ('క్ష', '|'), ('క', 'U'), ('త్వం', 'U'), ('బు', '|'), ('దే', 'U'), ('వ', '|'), ('దే', 'U'), ('వ', '|'), ('వే', 'U'), ('ఱె', '|'), ('గ', '|'), ('తి', '|'), ('లే', 'U'), ('క', '|'), ('ని', 'U'), ('న్ను', '|'), ('సే', 'U'), ('విం', 'U'), ('ప', '|'), ('వ', '|'), ('ల', '|'), ('సె', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B112" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
         <is>
           <t>నీరుపట్టుగ నుంట నారాయణుఁడ వండ్రు- నారాయణాఖ్యాధికార మేమి?
 బలిసి యంతట నీవె గలుగ విష్ణుఁడ వందు- రావిష్ణునామప్రభావ వేమి?
@@ -3997,63 +3664,57 @@
 సిరికి మగఁడ వై మెరయ శ్రీపతి వండ్రు- శ్రీపతినామప్రసిద్ధి యేమి?</t>
         </is>
       </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('రు', '|'), ('ప', 'U'), ('ట్టు', '|'), ('గ', '|'), ('నుం', 'U'), ('ట', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణు', '|'), ('డ', '|'), ('వం', 'U'), ('డ్రు', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U'), ('ఖ్యా', 'U'), ('ధి', '|'), ('కా', 'U'), ('ర', '|'), ('మే', 'U'), ('మి', '|'), ('బ', '|'), ('లి', '|'), ('సి', '|'), ('యం', 'U'), ('త', '|'), ('ట', '|'), ('నీ', 'U'), ('వె', '|'), ('గ', '|'), ('లు', '|'), ('గ', '|'), ('వి', 'U'), ('ష్ణు', '|'), ('డ', '|'), ('వం', 'U'), ('దు', '|'), ('రా', 'U'), ('వి', 'U'), ('ష్ణు', '|'), ('నా', 'U'), ('మ', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('వే', 'U'), ('మి', '|'), ('ము', '|'), ('గు', '|'), ('రు', '|'), ('నీ', 'U'), ('వై', 'U'), ('వె', '|'), ('లుం', 'U'), ('గ', '|'), ('గ', '|'), ('గే', 'U'), ('శ', '|'), ('వు', '|'), ('డ', '|'), ('వం', 'U'), ('డ్రు', '|'), ('కే', 'U'), ('శ', '|'), ('వా', 'U'), ('భి', 'U'), ('ఖ్యా', 'U'), ('ప్ర', '|'), ('కా', 'U'), ('శ', '|'), ('మే', 'U'), ('మి', '|'), ('సి', '|'), ('రి', '|'), ('కి', '|'), ('మ', '|'), ('గ', '|'), ('డ', '|'), ('వై', 'U'), ('మె', '|'), ('ర', '|'), ('య', 'U'), ('శ్రీ', 'U'), ('ప', '|'), ('తి', '|'), ('వం', 'U'), ('డ్రు', 'U'), ('శ్రీ', 'U'), ('ప', '|'), ('తి', '|'), ('నా', 'U'), ('మ', 'U'), ('ప్ర', '|'), ('సి', 'U'), ('ద్ధి', '|'), ('యే', 'U'), ('మి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>పెట్టుపేరు లనేకముల్‌ పుట్టుపేరు-గుఱు తెఱింగిన నీమూల మెఱుఁగవచ్చు
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>పెట్టుపేరు లనేకముల్‌ పుట్టుపేరు-గుఱు తెఱింగిన నీమూల మెఱుఁగవచ్చు
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
           <t>[('పె', 'U'), ('ట్టు', '|'), ('పే', 'U'), ('రు', '|'), ('ల', '|'), ('నే', 'U'), ('క', '|'), ('ముల్', 'U'), ('పు', 'U'), ('ట్టు', '|'), ('పే', 'U'), ('రు', '|'), ('గు', '|'), ('ఱు', '|'), ('తె', '|'), ('ఱిం', 'U'), ('గి', '|'), ('న', '|'), ('నీ', 'U'), ('మూ', 'U'), ('ల', '|'), ('మె', '|'), ('ఱు', '|'), ('గ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B114" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
         <is>
           <t>వేఁడని చూదక విపినవహ్నిజ్వాలఁ- ద్రావెదో తేనియఁ ద్రావినట్లు
 భార మం చనక గోవర్ధనపర్వతం- బెత్తెదో పూబంతి యెత్తినట్లు
@@ -4061,63 +3722,57 @@
 పెస నసాధ్యుండని వెరవక నరకుని- నఱికెదో పార్వేఁట నఱికినట్లు</t>
         </is>
       </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
           <t>[('వే', 'U'), ('డ', '|'), ('ని', '|'), ('చూ', 'U'), ('ద', '|'), ('క', '|'), ('వి', '|'), ('పి', '|'), ('న', '|'), ('వ', 'U'), ('హ్ని', 'U'), ('జ్వా', 'U'), ('ల', '|'), ('ద్రా', 'U'), ('వె', '|'), ('దో', 'U'), ('తే', 'U'), ('ని', '|'), ('య', '|'), ('ద్రా', 'U'), ('వి', '|'), ('న', 'U'), ('ట్లు', '|'), ('భా', 'U'), ('ర', '|'), ('మం', 'U'), ('చ', '|'), ('న', '|'), ('క', '|'), ('గో', 'U'), ('వ', 'U'), ('ర్ధ', '|'), ('న', '|'), ('ప', 'U'), ('ర్వ', '|'), ('తం', 'U'), ('బె', 'U'), ('త్తె', '|'), ('దో', 'U'), ('పూ', 'U'), ('బం', 'U'), ('తి', '|'), ('యె', 'U'), ('త్తి', '|'), ('న', 'U'), ('ట్లు', '|'), ('వి', '|'), ('ష', '|'), ('పుం', 'U'), ('జ', '|'), ('మ', '|'), ('న', '|'), ('క', '|'), ('నా', 'U'), ('భీ', 'U'), ('లా', 'U'), ('జ', '|'), ('గ', '|'), ('ర', '|'), ('జి', 'U'), ('హ్వ', '|'), ('జిం', 'U'), ('పె', '|'), ('దో', 'U'), ('ప్రా', 'U'), ('బ', 'U'), ('ట్ట', '|'), ('జిం', 'U'), ('పి', '|'), ('న', 'U'), ('ట్లు', '|'), ('పె', '|'), ('స', '|'), ('న', '|'), ('సా', 'U'), ('ధ్యుం', 'U'), ('డ', '|'), ('ని', '|'), ('వె', '|'), ('ర', '|'), ('వ', '|'), ('క', '|'), ('న', '|'), ('ర', '|'), ('కు', '|'), ('ని', '|'), ('న', '|'), ('ఱి', '|'), ('కె', '|'), ('దో', 'U'), ('పా', 'U'), ('ర్వే', 'U'), ('ట', '|'), ('న', '|'), ('ఱి', '|'), ('కి', '|'), ('న', 'U'), ('ట్లు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>భక్తసంరక్షణ త్వరా పరవశతను-జేసినా వేమొ యూరక సేయఁగలవె?
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>భక్తసంరక్షణ త్వరా పరవశతను-జేసినా వేమొ యూరక సేయఁగలవె?
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
           <t>[('భ', 'U'), ('క్త', '|'), ('సం', 'U'), ('ర', 'U'), ('క్ష', '|'), ('ణ', 'U'), ('త్వ', '|'), ('రా', 'U'), ('ప', '|'), ('ర', '|'), ('వ', '|'), ('శ', '|'), ('త', '|'), ('ను', '|'), ('జే', 'U'), ('సి', '|'), ('నా', 'U'), ('వే', 'U'), ('మొ', '|'), ('యూ', 'U'), ('ర', '|'), ('క', '|'), ('సే', 'U'), ('య', '|'), ('గ', '|'), ('ల', '|'), ('వె', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B116" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
         <is>
           <t>వత్సాపహరణగర్వము మాని యజుఁడు దా- నపరాధి ననుచు సాష్టాంగ మెఱఁగె
 భవుఁడు బాణున కాజి బాసట యై వచ్చి- భక్తునిఁ బట్టిచ్చి ప్రణుతిఁ జేసె
@@ -4125,63 +3780,57 @@
 సమవర్తి భీతి నంజలిఁ జేసి యాత్మలో- కస్థితు గురుపుత్రుఁ గాను కిచ్చె</t>
         </is>
       </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
           <t>[('వ', 'U'), ('త్సా', 'U'), ('ప', '|'), ('హ', '|'), ('ర', '|'), ('ణ', '|'), ('గ', 'U'), ('ర్వ', '|'), ('ము', '|'), ('మా', 'U'), ('ని', '|'), ('య', '|'), ('జు', '|'), ('డు', '|'), ('దా', 'U'), ('న', '|'), ('ప', '|'), ('రా', 'U'), ('ధి', '|'), ('న', '|'), ('ను', '|'), ('చు', '|'), ('సా', 'U'), ('ష్టాం', 'U'), ('గ', '|'), ('మె', '|'), ('ఱ', '|'), ('గె', '|'), ('భ', '|'), ('వు', '|'), ('డు', '|'), ('బా', 'U'), ('ణు', '|'), ('న', '|'), ('కా', 'U'), ('జి', '|'), ('బా', 'U'), ('స', '|'), ('ట', '|'), ('యై', 'U'), ('వ', 'U'), ('చ్చి', '|'), ('భ', 'U'), ('క్తు', '|'), ('ని', '|'), ('బ', 'U'), ('ట్టి', 'U'), ('చ్చి', 'U'), ('ప్ర', '|'), ('ణు', '|'), ('తి', '|'), ('జే', 'U'), ('సె', '|'), ('వ', 'U'), ('జ్రి', '|'), ('శి', '|'), ('లా', 'U'), ('వృ', 'U'), ('ష్టి', '|'), ('వ', 'U'), ('ర్షిం', 'U'), ('చి', '|'), ('ల', 'U'), ('జ్జిం', 'U'), ('చి', '|'), ('త', 'U'), ('ప్పు', '|'), ('జే', 'U'), ('సి', '|'), ('తి', '|'), ('నం', 'U'), ('చు', '|'), ('దం', 'U'), ('డ', '|'), ('మి', '|'), ('డి', '|'), ('యె', '|'), ('స', '|'), ('మ', '|'), ('వ', 'U'), ('ర్తి', '|'), ('భీ', 'U'), ('తి', '|'), ('నం', 'U'), ('జ', '|'), ('లి', '|'), ('జే', 'U'), ('సి', '|'), ('యా', 'U'), ('త్మ', '|'), ('లో', 'U'), ('క', 'U'), ('స్థి', '|'), ('తు', '|'), ('గు', '|'), ('రు', '|'), ('పు', 'U'), ('త్రు', '|'), ('గా', 'U'), ('ను', '|'), ('కి', 'U'), ('చ్చె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>క్షోణిఁ బుట్టుక మాలిన గొల్లవాని-నిన్ను నావేల్పు లోడింప నేర రేమి?
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>క్షోణిఁ బుట్టుక మాలిన గొల్లవాని-నిన్ను నావేల్పు లోడింప నేర రేమి?
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
           <t>[('క్షో', 'U'), ('ణి', '|'), ('బు', 'U'), ('ట్టు', '|'), ('క', '|'), ('మా', 'U'), ('లి', '|'), ('న', '|'), ('గొ', 'U'), ('ల్ల', '|'), ('వా', 'U'), ('ని', '|'), ('ని', 'U'), ('న్ను', '|'), ('నా', 'U'), ('వే', 'U'), ('ల్పు', '|'), ('లో', 'U'), ('డిం', 'U'), ('ప', '|'), ('నే', 'U'), ('ర', '|'), ('రే', 'U'), ('మి', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B118" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
         <is>
           <t>కొనముట్ట హెచ్చుతగ్గుల ప్రాతఁసుద్దుల- తాతపుస్తక మొకఁ డాతతాయి
 మ్రుచ్చిలి నీటిలోఁ జొచ్చి డాఁగిన వాని- పావన మేమి వెంబడిగఁ బెద్ద
@@ -4189,63 +3838,57 @@
 డొక్క వ్రక్కలుగాఁ గఱుక్కున బరిఁ గోసి- కడ లేనినుడువు లెక్కటికి నోట</t>
         </is>
       </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
           <t>[('కొ', '|'), ('న', '|'), ('ము', 'U'), ('ట్ట', '|'), ('హె', 'U'), ('చ్చు', '|'), ('త', 'U'), ('గ్గు', '|'), ('ల', 'U'), ('ప్రా', 'U'), ('త', '|'), ('సు', 'U'), ('ద్దు', '|'), ('ల', '|'), ('తా', 'U'), ('త', '|'), ('పు', 'U'), ('స్త', '|'), ('క', '|'), ('మొ', '|'), ('క', '|'), ('డా', 'U'), ('త', '|'), ('తా', 'U'), ('యి', '|'), ('మ్రు', 'U'), ('చ్చి', '|'), ('లి', '|'), ('నీ', 'U'), ('టి', '|'), ('లో', 'U'), ('జొ', 'U'), ('చ్చి', '|'), ('డా', 'U'), ('గి', '|'), ('న', '|'), ('వా', 'U'), ('ని', '|'), ('పా', 'U'), ('వ', '|'), ('న', '|'), ('మే', 'U'), ('మి', '|'), ('వెం', 'U'), ('బ', '|'), ('డి', '|'), ('గ', '|'), ('బె', 'U'), ('ద్ద', '|'), ('కో', 'U'), ('ఱ', '|'), ('మీ', 'U'), ('నం', 'U'), ('బ', '|'), ('వై', 'U'), ('యా', 'U'), ('ఱొం', 'U'), ('డు', '|'), ('సం', 'U'), ('ద్ర', '|'), ('ము', 'U'), ('ల్ని', '|'), ('ము', '|'), ('సం', 'U'), ('బు', '|'), ('లో', 'U'), ('నీ', 'U'), ('ది', '|'), ('నె', '|'), ('మ', '|'), ('కి', '|'), ('వా', 'U'), ('ని', '|'), ('డొ', 'U'), ('క్క', 'U'), ('వ్ర', 'U'), ('క్క', '|'), ('లు', '|'), ('గా', 'U'), ('గ', '|'), ('ఱు', 'U'), ('క్కు', '|'), ('న', '|'), ('బ', '|'), ('రి', '|'), ('గో', 'U'), ('సి', '|'), ('క', '|'), ('డ', '|'), ('లే', 'U'), ('ని', '|'), ('ను', '|'), ('డు', '|'), ('వు', '|'), ('లె', 'U'), ('క్క', '|'), ('టి', '|'), ('కి', '|'), ('నో', 'U'), ('ట', '|')]</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>మాట వెళ్ళనివానికి మగుడ నిచ్చి-యింతపనికిని నవతార మెత్తి తీవు
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>మాట వెళ్ళనివానికి మగుడ నిచ్చి-యింతపనికిని నవతార మెత్తి తీవు
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
           <t>[('మా', 'U'), ('ట', '|'), ('వె', 'U'), ('ళ్ళ', '|'), ('ని', '|'), ('వా', 'U'), ('ని', '|'), ('కి', '|'), ('మ', '|'), ('గు', '|'), ('డ', '|'), ('ని', 'U'), ('చ్చి', '|'), ('యిం', 'U'), ('త', '|'), ('ప', '|'), ('ని', '|'), ('కి', '|'), ('ని', '|'), ('న', '|'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('మె', 'U'), ('త్తి', '|'), ('తీ', 'U'), ('వు', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B120" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
         <is>
           <t>అబ్ధిపయఃపాత్ర మద్రికాణంధాన- మహిరాజగుణము దా రమరఁ గూర్చి
 యమృతాభిలాష దేవతాసురుల్‌ మథియింప- గిరి మున్గం గచ్ఛపాకృతి వహించి
@@ -4253,63 +3896,57 @@
 కొల్పి దైత్యులనోరుఁ గొట్టి యాదిత్యుల- కమృతాన్న మిడితి వాయమరులందుఁ</t>
         </is>
       </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
           <t>[('అ', 'U'), ('బ్ధి', '|'), ('ప', '|'), ('యః', 'U'), ('పా', 'U'), ('త్ర', '|'), ('మ', '|'), ('ద్రి', '|'), ('కా', 'U'), ('ణం', 'U'), ('ధా', 'U'), ('న', '|'), ('మ', '|'), ('హి', '|'), ('రా', 'U'), ('జ', '|'), ('గు', '|'), ('ణ', '|'), ('ము', '|'), ('దా', 'U'), ('ర', '|'), ('మ', '|'), ('ర', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('య', '|'), ('మృ', '|'), ('తా', 'U'), ('భి', '|'), ('లా', 'U'), ('ష', '|'), ('దే', 'U'), ('వ', '|'), ('తా', 'U'), ('సు', '|'), ('రుల్', 'U'), ('మ', '|'), ('థి', '|'), ('యిం', 'U'), ('ప', '|'), ('గి', '|'), ('రి', '|'), ('ము', 'U'), ('న్గం', 'U'), ('గ', 'U'), ('చ్ఛ', '|'), ('పా', 'U'), ('కృ', '|'), ('తి', '|'), ('వ', '|'), ('హిం', 'U'), ('చి', '|'), ('ని', 'U'), ('ర్వ', '|'), ('హిం', 'U'), ('చు', '|'), ('ట', '|'), ('గా', 'U'), ('ని', '|'), ('స', 'U'), ('ర్వ', '|'), ('కా', 'U'), ('శ్య', '|'), ('పు', '|'), ('ల', '|'), ('లో', 'U'), ('బ', 'U'), ('ఙ్క్తి', '|'), ('భే', 'U'), ('ద', '|'), ('ము', '|'), ('జే', 'U'), ('సి', '|'), ('ప', 'U'), ('ల్మ', '|'), ('ఱా', 'U'), ('స', '|'), ('కొ', 'U'), ('ల్పి', '|'), ('దై', 'U'), ('త్యు', '|'), ('ల', '|'), ('నో', 'U'), ('రు', '|'), ('గొ', 'U'), ('ట్టి', '|'), ('యా', 'U'), ('ది', 'U'), ('త్యు', '|'), ('ల', '|'), ('క', '|'), ('మృ', '|'), ('తా', 'U'), ('న్న', '|'), ('మి', '|'), ('డి', '|'), ('తి', '|'), ('వా', 'U'), ('య', '|'), ('మ', '|'), ('రు', '|'), ('లం', 'U'), ('దు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>బక్షపాతివి గావె? యభక్తిఁ బడిరి-నమ్ముదురె యానిశాటు లెన్నటికి నిన్ను
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>బక్షపాతివి గావె? యభక్తిఁ బడిరి-నమ్ముదురె యానిశాటు లెన్నటికి నిన్ను
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
           <t>[('బ', 'U'), ('క్ష', '|'), ('పా', 'U'), ('తి', '|'), ('వి', '|'), ('గా', 'U'), ('వె', '|'), ('య', '|'), ('భ', 'U'), ('క్తి', '|'), ('బ', '|'), ('డి', '|'), ('రి', '|'), ('న', 'U'), ('మ్ము', '|'), ('దు', '|'), ('రె', '|'), ('యా', 'U'), ('ని', '|'), ('శా', 'U'), ('టు', '|'), ('లె', 'U'), ('న్న', '|'), ('టి', '|'), ('కి', '|'), ('ని', 'U'), ('న్ను', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B122" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
         <is>
           <t>ఉక్కునఁ బసిఁడికన్‌ రక్కసుఁ డొకఁడు ప- ల్దిక్కు లోరిచి బొల్లిపక్కి మావు
 నెక్కు రౌ తెక్కడఁ జిక్కెడు నంచు నీ- యిక్కువ లరయంగఁ గిక్కురించి
@@ -4317,63 +3954,57 @@
 మొక్కరింపఁగఁ జొరఁ బొక్కతే కట వాని- డొక్కగఱుక్కునఁ జెక్కిపట్టి</t>
         </is>
       </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
           <t>[('ఉ', 'U'), ('క్కు', '|'), ('న', '|'), ('బ', '|'), ('సి', '|'), ('డి', '|'), ('కన్', 'U'), ('ర', 'U'), ('క్క', '|'), ('సు', '|'), ('డొ', '|'), ('క', '|'), ('డు', '|'), ('ప', 'U'), ('ల్ది', 'U'), ('క్కు', '|'), ('లో', 'U'), ('రి', '|'), ('చి', '|'), ('బొ', 'U'), ('ల్లి', '|'), ('ప', 'U'), ('క్కి', '|'), ('మా', 'U'), ('వు', '|'), ('నె', 'U'), ('క్కు', '|'), ('రౌ', 'U'), ('తె', 'U'), ('క్క', '|'), ('డ', '|'), ('జి', 'U'), ('క్కె', '|'), ('డు', '|'), ('నం', 'U'), ('చు', '|'), ('నీ', 'U'), ('యి', 'U'), ('క్కు', '|'), ('వ', '|'), ('ల', '|'), ('ర', '|'), ('యం', 'U'), ('గ', '|'), ('గి', 'U'), ('క్కు', '|'), ('రిం', 'U'), ('చి', '|'), ('న', 'U'), ('క్కి', '|'), ('తి', '|'), ('వి', '|'), ('ల', 'U'), ('క్రిం', 'U'), ('ద', '|'), ('జొ', 'U'), ('క్క', '|'), ('పు', '|'), ('బం', 'U'), ('ది', '|'), ('వై', 'U'), ('కొ', 'U'), ('క్క', '|'), ('రిం', 'U'), ('పు', '|'), ('చు', '|'), ('నా', 'U'), ('త', '|'), ('డ', 'U'), ('క్క', '|'), ('డి', '|'), ('కి', '|'), ('ని', '|'), ('మొ', 'U'), ('క్క', '|'), ('రిం', 'U'), ('ప', '|'), ('గ', '|'), ('జొ', '|'), ('ర', '|'), ('బొ', 'U'), ('క్క', '|'), ('తే', 'U'), ('క', '|'), ('ట', '|'), ('వా', 'U'), ('ని', '|'), ('డొ', 'U'), ('క్క', '|'), ('గ', '|'), ('ఱు', 'U'), ('క్కు', '|'), ('న', '|'), ('జె', 'U'), ('క్కి', '|'), ('ప', 'U'), ('ట్టి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నొక్కి పుడ మింత నీటిపై కెక్కఁదీయ-మక్కువ దనర్ప నది యేమి రక్కరింపు
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>నొక్కి పుడ మింత నీటిపై కెక్కఁదీయ-మక్కువ దనర్ప నది యేమి రక్కరింపు
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
           <t>[('నొ', 'U'), ('క్కి', '|'), ('పు', '|'), ('డ', '|'), ('మిం', 'U'), ('త', '|'), ('నీ', 'U'), ('టి', '|'), ('పై', 'U'), ('కె', 'U'), ('క్క', '|'), ('దీ', 'U'), ('య', '|'), ('మ', 'U'), ('క్కు', '|'), ('వ', '|'), ('ద', '|'), ('న', 'U'), ('ర్ప', '|'), ('న', '|'), ('ది', '|'), ('యే', 'U'), ('మి', '|'), ('ర', 'U'), ('క్క', '|'), ('రిం', 'U'), ('పు', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B124" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
         <is>
           <t>అయవారు చదివించినట్లుగాఁ జదువక- మఱి కొట్టి తిట్టక వెఱపుఁ గొనక
 తనయుఁ డెంతో పరధ్యానంబుగా నున్నఁ- దండ్రి వల్దని చెప్పఁ దగఁడె ధాత్రి
@@ -4381,63 +4012,57 @@
 దంష్ట్రానఖప్రభ దహనకీలలఁ బోలి- భగ్గు రనంగఁ బైఁబడి హిరణ్య</t>
         </is>
       </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('య', '|'), ('వా', 'U'), ('రు', '|'), ('చ', '|'), ('ది', '|'), ('విం', 'U'), ('చి', '|'), ('న', 'U'), ('ట్లు', '|'), ('గా', 'U'), ('జ', '|'), ('దు', '|'), ('వ', '|'), ('క', '|'), ('మ', '|'), ('ఱి', '|'), ('కొ', 'U'), ('ట్టి', '|'), ('తి', 'U'), ('ట్ట', '|'), ('క', '|'), ('వె', '|'), ('ఱ', '|'), ('పు', '|'), ('గొ', '|'), ('న', '|'), ('క', '|'), ('త', '|'), ('న', '|'), ('యు', '|'), ('డెం', 'U'), ('తో', 'U'), ('ప', '|'), ('ర', 'U'), ('ధ్యా', 'U'), ('నం', 'U'), ('బు', '|'), ('గా', 'U'), ('ను', 'U'), ('న్న', '|'), ('దం', 'U'), ('డ్రి', '|'), ('వ', 'U'), ('ల్ద', '|'), ('ని', '|'), ('చె', 'U'), ('ప్ప', '|'), ('ద', '|'), ('గ', '|'), ('డె', '|'), ('ధా', 'U'), ('త్రి', '|'), ('నీ', 'U'), ('కు', '|'), ('గో', 'U'), ('పం', 'U'), ('బే', 'U'), ('మి', '|'), ('నృ', '|'), ('హ', '|'), ('రి', '|'), ('రూ', 'U'), ('పం', 'U'), ('బు', '|'), ('న', 'U'), ('స్తం', 'U'), ('భం', 'U'), ('బు', '|'), ('లో', 'U'), ('బు', 'U'), ('ట్టి', '|'), ('చ', '|'), ('టు', '|'), ('ల', '|'), ('నే', 'U'), ('త్ర', '|'), ('దం', 'U'), ('ష్ట్రా', 'U'), ('న', '|'), ('ఖ', 'U'), ('ప్ర', '|'), ('భ', '|'), ('ద', '|'), ('హ', '|'), ('న', '|'), ('కీ', 'U'), ('ల', '|'), ('ల', '|'), ('బో', 'U'), ('లి', '|'), ('భ', 'U'), ('గ్గు', '|'), ('ర', '|'), ('నం', 'U'), ('గ', '|'), ('బై', 'U'), ('బ', '|'), ('డి', '|'), ('హి', '|'), ('ర', 'U'), ('ణ్య', '|')]</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>కశిపుఁ దునుమాడి ప్రహ్లాదుఁ గరుణ నేలి-తందఱి కసహ్య మయ్యె ని న్నపుడె కనఁగ
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>కశిపుఁ దునుమాడి ప్రహ్లాదుఁ గరుణ నేలి-తందఱి కసహ్య మయ్యె ని న్నపుడె కనఁగ
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('శి', '|'), ('పు', '|'), ('దు', '|'), ('ను', '|'), ('మా', 'U'), ('డి', 'U'), ('ప్ర', 'U'), ('హ్లా', 'U'), ('దు', '|'), ('గ', '|'), ('రు', '|'), ('ణ', '|'), ('నే', 'U'), ('లి', '|'), ('తం', 'U'), ('ద', '|'), ('ఱి', '|'), ('క', '|'), ('స', 'U'), ('హ్య', '|'), ('మ', 'U'), ('య్యె', '|'), ('ని', 'U'), ('న్న', '|'), ('పు', '|'), ('డె', '|'), ('క', '|'), ('న', '|'), ('గ', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B126" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
         <is>
           <t>కశ్యపుఁ డదితి ని న్గన్నవారలు గారె- పెంచిరే మరుగుజ్జుబిడ్డ వనుచుఁ
 గుండిక దండంబు గోఁచితో వచ్చిన- కపటవటుండు నిక్కముగ భూమి
@@ -4445,63 +4070,57 @@
 మొసగంగ నభివృద్ధి నొంది మే లొర్వక- ధర్మంబు నాల్గుపాదముల జరుపు</t>
         </is>
       </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
           <t>[('క', 'U'), ('శ్య', '|'), ('పు', '|'), ('డ', '|'), ('ది', '|'), ('తి', '|'), ('ని', 'U'), ('న్గ', 'U'), ('న్న', '|'), ('వా', 'U'), ('ర', '|'), ('లు', '|'), ('గా', 'U'), ('రె', '|'), ('పెం', 'U'), ('చి', '|'), ('రే', 'U'), ('మ', '|'), ('రు', '|'), ('గు', 'U'), ('జ్జు', '|'), ('బి', 'U'), ('డ్డ', '|'), ('వ', '|'), ('ను', '|'), ('చు', '|'), ('గుం', 'U'), ('డి', '|'), ('క', '|'), ('దం', 'U'), ('డం', 'U'), ('బు', '|'), ('గో', 'U'), ('చి', '|'), ('తో', 'U'), ('వ', 'U'), ('చ్చి', '|'), ('న', '|'), ('క', '|'), ('ప', '|'), ('ట', '|'), ('వ', '|'), ('టుం', 'U'), ('డు', '|'), ('ని', 'U'), ('క్క', '|'), ('ము', '|'), ('గ', '|'), ('భూ', 'U'), ('మి', '|'), ('సు', '|'), ('రు', '|'), ('డు', '|'), ('గా', 'U'), ('డ', '|'), ('ని', '|'), ('యా', 'U'), ('త్మ', '|'), ('గు', '|'), ('రు', '|'), ('డీ', 'U'), ('య', '|'), ('వ', '|'), ('ల', '|'), ('ద', '|'), ('న', '|'), ('గ', '|'), ('రు', '|'), ('ణిం', 'U'), ('చి', '|'), ('బ', '|'), ('లి', '|'), ('దా', 'U'), ('త', '|'), ('కా', 'U'), ('మి', '|'), ('తా', 'U'), ('ర్థ', '|'), ('మొ', '|'), ('స', '|'), ('గం', 'U'), ('గ', '|'), ('న', '|'), ('భి', '|'), ('వృ', 'U'), ('ద్ధి', '|'), ('నొం', 'U'), ('ది', '|'), ('మే', 'U'), ('లొ', 'U'), ('ర్వ', '|'), ('క', '|'), ('ధ', '|'), ('ర్మం', 'U'), ('బు', '|'), ('నా', 'U'), ('ల్గు', '|'), ('పా', 'U'), ('ద', '|'), ('ము', '|'), ('ల', '|'), ('జ', '|'), ('రు', '|'), ('పు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నట్టిదాతను దిగఁద్రొక్కి యతనిసిరులు-దెచ్చి కులగోత్రభేది కీ నిచ్చకంబో
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>నట్టిదాతను దిగఁద్రొక్కి యతనిసిరులు-దెచ్చి కులగోత్రభేది కీ నిచ్చకంబో
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
           <t>[('న', 'U'), ('ట్టి', '|'), ('దా', 'U'), ('త', '|'), ('ను', '|'), ('ది', '|'), ('గ', '|'), ('ద్రొ', 'U'), ('క్కి', '|'), ('య', '|'), ('త', '|'), ('ని', '|'), ('సి', '|'), ('రు', '|'), ('లు', '|'), ('దె', 'U'), ('చ్చి', '|'), ('కు', '|'), ('ల', '|'), ('గో', 'U'), ('త్ర', '|'), ('భే', 'U'), ('ది', '|'), ('కీ', 'U'), ('ని', 'U'), ('చ్చ', '|'), ('కం', 'U'), ('బో', 'U'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B128" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
         <is>
           <t>జపతపోనిష్ఠుఁడౌ జమదగ్ని కుదయించి- కరము దారుణవృత్తిఁ గత్తి కట్టి
 కినుక రాజద్రోహమునకు శంకింపక- సకలభూపతుల గొంతుకలు గోసి
@@ -4509,63 +4128,57 @@
 వసుధపై రక్తప్రవాహంబు లొనరించి- తజ్జలంబులఁ బితృతర్పణములు</t>
         </is>
       </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
           <t>[('జ', '|'), ('ప', '|'), ('త', '|'), ('పో', 'U'), ('ని', 'U'), ('ష్ఠు', '|'), ('డౌ', 'U'), ('జ', '|'), ('మ', '|'), ('ద', 'U'), ('గ్ని', '|'), ('కు', '|'), ('ద', '|'), ('యిం', 'U'), ('చి', '|'), ('క', '|'), ('ర', '|'), ('ము', '|'), ('దా', 'U'), ('రు', '|'), ('ణ', '|'), ('వృ', 'U'), ('త్తి', '|'), ('గ', 'U'), ('త్తి', '|'), ('క', 'U'), ('ట్టి', '|'), ('కి', '|'), ('ను', '|'), ('క', '|'), ('రా', 'U'), ('జ', '|'), ('ద్రో', 'U'), ('హ', '|'), ('ము', '|'), ('న', '|'), ('కు', '|'), ('శం', 'U'), ('కిం', 'U'), ('ప', '|'), ('క', '|'), ('స', '|'), ('క', '|'), ('ల', '|'), ('భూ', 'U'), ('ప', '|'), ('తు', '|'), ('ల', '|'), ('గొం', 'U'), ('తు', '|'), ('క', '|'), ('లు', '|'), ('గో', 'U'), ('సి', '|'), ('కా', 'U'), ('ర్త', '|'), ('వీ', 'U'), ('ర్యా', 'U'), ('ర్జు', '|'), ('ను', '|'), ('క', '|'), ('ర', '|'), ('స', '|'), ('హ', 'U'), ('స్రం', 'U'), ('బొం', 'U'), ('డు', '|'), ('త', '|'), ('ఱి', '|'), ('గం', 'U'), ('డ్ర', '|'), ('గొ', 'U'), ('డ్డం', 'U'), ('ట', '|'), ('న', '|'), ('ఱి', '|'), ('కి', '|'), ('వై', 'U'), ('చి', '|'), ('వ', '|'), ('సు', '|'), ('ధ', '|'), ('పై', 'U'), ('ర', 'U'), ('క్త', 'U'), ('ప్ర', '|'), ('వా', 'U'), ('హం', 'U'), ('బు', '|'), ('లొ', '|'), ('న', '|'), ('రిం', 'U'), ('చి', '|'), ('త', 'U'), ('జ్జ', '|'), ('లం', 'U'), ('బు', '|'), ('ల', '|'), ('బి', '|'), ('తృ', '|'), ('త', 'U'), ('ర్ప', '|'), ('ణ', '|'), ('ము', '|'), ('లు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>సేసి యిల విప్రులకు ధారఁ బోసినట్టి-కీర్తియే కాని బ్రహ్మణ్యకృత్య మగునె
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>సేసి యిల విప్రులకు ధారఁ బోసినట్టి-కీర్తియే కాని బ్రహ్మణ్యకృత్య మగునె
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
           <t>[('సే', 'U'), ('సి', '|'), ('యి', '|'), ('ల', '|'), ('వి', 'U'), ('ప్రు', '|'), ('ల', '|'), ('కు', '|'), ('ధా', 'U'), ('ర', '|'), ('బో', 'U'), ('సి', '|'), ('న', 'U'), ('ట్టి', '|'), ('కీ', 'U'), ('ర్తి', '|'), ('యే', 'U'), ('కా', 'U'), ('ని', 'U'), ('బ్ర', 'U'), ('హ్మ', 'U'), ('ణ్య', '|'), ('కృ', 'U'), ('త్య', '|'), ('మ', '|'), ('గు', '|'), ('నె', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B130" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
         <is>
           <t>తా వచ్చెద నటంచు ధైర్యలక్ష్మి మహీజ- వెంట రా నడవికి వెడలినావు
 సుగ్రీవుఁ డున్నచో సొమ్ము దా నిడ సీత- యాజాడ నతనిపొం దతికినావు
@@ -4573,63 +4186,57 @@
 వైదేహి భవదంకవసతిఁ గూర్చున్నచో- భువనసామ్రాజ్యముల్‌ పొందినావు</t>
         </is>
       </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
           <t>[('తా', 'U'), ('వ', 'U'), ('చ్చె', '|'), ('ద', '|'), ('న', '|'), ('టం', 'U'), ('చు', '|'), ('ధై', 'U'), ('ర్య', '|'), ('ల', 'U'), ('క్ష్మి', '|'), ('మ', '|'), ('హీ', 'U'), ('జ', '|'), ('వెం', 'U'), ('ట', '|'), ('రా', 'U'), ('న', '|'), ('డ', '|'), ('వి', '|'), ('కి', '|'), ('వె', '|'), ('డ', '|'), ('లి', '|'), ('నా', 'U'), ('వు', '|'), ('సు', 'U'), ('గ్రీ', 'U'), ('వు', '|'), ('డు', 'U'), ('న్న', '|'), ('చో', 'U'), ('సొ', 'U'), ('మ్ము', '|'), ('దా', 'U'), ('ని', '|'), ('డ', '|'), ('సీ', 'U'), ('త', '|'), ('యా', 'U'), ('జా', 'U'), ('డ', '|'), ('న', '|'), ('త', '|'), ('ని', '|'), ('పొం', 'U'), ('ద', '|'), ('తి', '|'), ('కి', '|'), ('నా', 'U'), ('వు', '|'), ('ముం', 'U'), ('దు', '|'), ('జా', 'U'), ('న', '|'), ('కి', '|'), ('లం', 'U'), ('క', '|'), ('మూ', 'U'), ('ర్ఖిం', 'U'), ('చి', '|'), ('చొ', 'U'), ('చ్చి', '|'), ('ని', 'U'), ('న్దె', 'U'), ('చ్చి', '|'), ('న', '|'), ('రి', '|'), ('పు', '|'), ('ల', '|'), ('సా', 'U'), ('ధిం', 'U'), ('చి', '|'), ('నా', 'U'), ('వు', '|'), ('వై', 'U'), ('దే', 'U'), ('హి', '|'), ('భ', '|'), ('వ', '|'), ('దం', 'U'), ('క', '|'), ('వ', '|'), ('స', '|'), ('తి', '|'), ('గూ', 'U'), ('ర్చు', 'U'), ('న్న', '|'), ('చో', 'U'), ('భు', '|'), ('వ', '|'), ('న', '|'), ('సా', 'U'), ('మ్రా', 'U'), ('జ్య', '|'), ('ముల్', 'U'), ('పొం', 'U'), ('ది', '|'), ('నా', 'U'), ('వు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>గట్టిగా మైథిలినిఁ జెట్టఁ బట్టినట్టి-పౌరుషము లబ్బె నేనాఁటి పూరుషుఁడవొ
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>గట్టిగా మైథిలినిఁ జెట్టఁ బట్టినట్టి-పౌరుషము లబ్బె నేనాఁటి పూరుషుఁడవొ
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
           <t>[('గ', 'U'), ('ట్టి', '|'), ('గా', 'U'), ('మై', 'U'), ('థి', '|'), ('లి', '|'), ('ని', '|'), ('జె', 'U'), ('ట్ట', '|'), ('బ', 'U'), ('ట్టి', '|'), ('న', 'U'), ('ట్టి', '|'), ('పౌ', 'U'), ('రు', '|'), ('ష', '|'), ('ము', '|'), ('ల', 'U'), ('బ్బె', '|'), ('నే', 'U'), ('నా', 'U'), ('టి', '|'), ('పూ', 'U'), ('రు', '|'), ('షు', '|'), ('డ', '|'), ('వొ', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B132" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
         <is>
           <t>ధర్మవిఘాత మిద్ధర నీ వొనర్చిన- మూఁడులోకంబులు మ్రోసె నపుడె
 జనకునికూఁతు నిచ్చను బెండ్లి యాడంగ- నరనాథకోటులు నవ్వి రపుడె
@@ -4637,63 +4244,57 @@
 సంతతాశ్రిత విభీషణు రాజుఁ జేయంగ- నల రవీంద్రులు సాక్షి నిలిచి రపుడె</t>
         </is>
       </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
           <t>[('ధ', '|'), ('ర్మ', '|'), ('వి', '|'), ('ఘా', 'U'), ('త', '|'), ('మి', 'U'), ('ద్ధ', '|'), ('ర', '|'), ('నీ', 'U'), ('వొ', '|'), ('న', 'U'), ('ర్చి', '|'), ('న', '|'), ('మూ', 'U'), ('డు', '|'), ('లో', 'U'), ('కం', 'U'), ('బు', '|'), ('లు', '|'), ('మ్రో', 'U'), ('సె', '|'), ('న', '|'), ('పు', '|'), ('డె', '|'), ('జ', '|'), ('న', '|'), ('కు', '|'), ('ని', '|'), ('కూ', 'U'), ('తు', '|'), ('ని', 'U'), ('చ్చ', '|'), ('ను', '|'), ('బెం', 'U'), ('డ్లి', '|'), ('యా', 'U'), ('డం', 'U'), ('గ', '|'), ('న', '|'), ('ర', '|'), ('నా', 'U'), ('థ', '|'), ('కో', 'U'), ('టు', '|'), ('లు', '|'), ('న', 'U'), ('వ్వి', '|'), ('ర', '|'), ('పు', '|'), ('డె', '|'), ('పు', 'U'), ('ణ్య', '|'), ('జ', '|'), ('నం', 'U'), ('బు', '|'), ('ల', '|'), ('బో', 'U'), ('రి', '|'), ('బా', 'U'), ('ధిం', 'U'), ('పం', 'U'), ('గ', '|'), ('సు', '|'), ('ర', '|'), ('ల', 'U'), ('ద్భు', '|'), ('త', '|'), ('ము', '|'), ('నొం', 'U'), ('ది', '|'), ('చూ', 'U'), ('చి', '|'), ('ర', '|'), ('పు', '|'), ('డె', '|'), ('సం', 'U'), ('త', '|'), ('తా', 'U'), ('శ్రి', '|'), ('త', '|'), ('వి', '|'), ('భీ', 'U'), ('ష', '|'), ('ణు', '|'), ('రా', 'U'), ('జు', '|'), ('జే', 'U'), ('యం', 'U'), ('గ', '|'), ('న', '|'), ('ల', '|'), ('ర', '|'), ('వీం', 'U'), ('ద్రు', '|'), ('లు', '|'), ('సా', 'U'), ('క్షి', '|'), ('ని', '|'), ('లి', '|'), ('చి', '|'), ('ర', '|'), ('పు', '|'), ('డె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>మంచినడవడి నడిచినా పెంచి చూడఁ-గీర్తి గల మూర్తివే యిట్టి వార్త లరయ
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>మంచినడవడి నడిచినా పెంచి చూడఁ-గీర్తి గల మూర్తివే యిట్టి వార్త లరయ
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
           <t>[('మం', 'U'), ('చి', '|'), ('న', '|'), ('డ', '|'), ('వ', '|'), ('డి', '|'), ('న', '|'), ('డి', '|'), ('చి', '|'), ('నా', 'U'), ('పెం', 'U'), ('చి', '|'), ('చూ', 'U'), ('డ', '|'), ('గీ', 'U'), ('ర్తి', '|'), ('గ', '|'), ('ల', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('వే', 'U'), ('యి', 'U'), ('ట్టి', '|'), ('వా', 'U'), ('ర్త', '|'), ('ల', '|'), ('ర', '|'), ('య', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B134" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
         <is>
           <t>నన్ముని నధ్వరసాఫల్యుఁ గావింప- జానకీపరిణయోత్సవము గలిగె
 రవినందనునిఁ గీశరాజ్యాధిపతిఁ జేయ- సేతుబంధనకీర్తిఁ జెందఁ గలిగె
@@ -4701,63 +4302,57 @@
 నలవిభీషణుని లంకాధినాథునిఁ జేయ- నెలమి నయోధ్య నీ వేలఁ గలిగె</t>
         </is>
       </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
           <t>[('న', 'U'), ('న్ము', '|'), ('ని', '|'), ('న', 'U'), ('ధ్వ', '|'), ('ర', '|'), ('సా', 'U'), ('ఫ', 'U'), ('ల్యు', '|'), ('గా', 'U'), ('విం', 'U'), ('ప', '|'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('ప', '|'), ('రి', '|'), ('ణ', '|'), ('యో', 'U'), ('త్స', '|'), ('వ', '|'), ('ము', '|'), ('గ', '|'), ('లి', '|'), ('గె', '|'), ('ర', '|'), ('వి', '|'), ('నం', 'U'), ('ద', '|'), ('ను', '|'), ('ని', '|'), ('గీ', 'U'), ('శ', '|'), ('రా', 'U'), ('జ్యా', 'U'), ('ధి', '|'), ('ప', '|'), ('తి', '|'), ('జే', 'U'), ('య', '|'), ('సే', 'U'), ('తు', '|'), ('బం', 'U'), ('ధ', '|'), ('న', '|'), ('కీ', 'U'), ('ర్తి', '|'), ('జెం', 'U'), ('ద', '|'), ('గ', '|'), ('లి', '|'), ('గె', '|'), ('బ', '|'), ('హు', '|'), ('దే', 'U'), ('వ', '|'), ('తా', 'U'), ('స్త్రీ', 'U'), ('ల', '|'), ('బం', 'U'), ('ది', '|'), ('గం', 'U'), ('బు', '|'), ('ల', '|'), ('బా', 'U'), ('ప', '|'), ('జె', '|'), ('ఱ', '|'), ('ను', 'U'), ('న్న', '|'), ('వై', 'U'), ('దే', 'U'), ('హి', '|'), ('జెం', 'U'), ('ద', '|'), ('గ', '|'), ('లి', '|'), ('గె', '|'), ('న', '|'), ('ల', '|'), ('వి', '|'), ('భీ', 'U'), ('ష', '|'), ('ణు', '|'), ('ని', '|'), ('లం', 'U'), ('కా', 'U'), ('ధి', '|'), ('నా', 'U'), ('థు', '|'), ('ని', '|'), ('జే', 'U'), ('య', '|'), ('నె', '|'), ('ల', '|'), ('మి', '|'), ('న', '|'), ('యో', 'U'), ('ధ్య', '|'), ('నీ', 'U'), ('వే', 'U'), ('ల', '|'), ('గ', '|'), ('లి', '|'), ('గె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నబ్బె నీకుఁ బరోపకారైన ఫలము-లంతియే కాక నీచేత నైన దేమి?
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>నబ్బె నీకుఁ బరోపకారైన ఫలము-లంతియే కాక నీచేత నైన దేమి?
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
           <t>[('న', 'U'), ('బ్బె', '|'), ('నీ', 'U'), ('కు', '|'), ('బ', '|'), ('రో', 'U'), ('ప', '|'), ('కా', 'U'), ('రై', 'U'), ('న', '|'), ('ఫ', '|'), ('ల', '|'), ('ము', '|'), ('లం', 'U'), ('తి', '|'), ('యే', 'U'), ('కా', 'U'), ('క', '|'), ('నీ', 'U'), ('చే', 'U'), ('త', '|'), ('నై', 'U'), ('న', '|'), ('దే', 'U'), ('మి', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B136" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
         <is>
           <t>ఒకపినతల్లి మే లోర్వలే కనిచిన- విపినంబులకుఁ బోవు వెఱ్ఱి గలఁడె?
 తండ్రి మృతుండైనఁ దనరాజ్య మత్తఱి- నేల రాకుండిన బేల గలఁడె?
@@ -4765,63 +4360,57 @@
 పరదేశమున నుండి బలవద్విరోధంబు- బలిపించుకొన్న వెంగలియు గలఁడె?</t>
         </is>
       </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
           <t>[('ఒ', '|'), ('క', '|'), ('పి', '|'), ('న', '|'), ('త', 'U'), ('ల్లి', '|'), ('మే', 'U'), ('లో', 'U'), ('ర్వ', '|'), ('లే', 'U'), ('క', '|'), ('ని', '|'), ('చి', '|'), ('న', '|'), ('వి', '|'), ('పి', '|'), ('నం', 'U'), ('బు', '|'), ('ల', '|'), ('కు', '|'), ('బో', 'U'), ('వు', '|'), ('వె', 'U'), ('ఱ్ఱి', '|'), ('గ', '|'), ('ల', '|'), ('డె', '|'), ('తం', 'U'), ('డ్రి', '|'), ('మృ', '|'), ('తుం', 'U'), ('డై', 'U'), ('న', '|'), ('ద', '|'), ('న', '|'), ('రా', 'U'), ('జ్య', '|'), ('మ', 'U'), ('త్త', '|'), ('ఱి', '|'), ('నే', 'U'), ('ల', '|'), ('రా', 'U'), ('కుం', 'U'), ('డి', '|'), ('న', '|'), ('బే', 'U'), ('ల', '|'), ('గ', '|'), ('ల', '|'), ('డె', '|'), ('య', '|'), ('ను', '|'), ('జుం', 'U'), ('డు', '|'), ('వ', '|'), ('ల', '|'), ('ద', '|'), ('న', '|'), ('నా', 'U'), ('లి', '|'), ('మా', 'U'), ('ట', '|'), ('లు', '|'), ('వి', '|'), ('ని', '|'), ('చె', '|'), ('డు', '|'), ('గి', 'U'), ('ఱ్ఱి', '|'), ('బ', 'U'), ('ట్ట', '|'), ('బో', 'U'), ('వె', '|'), ('డ', '|'), ('గు', '|'), ('గ', '|'), ('ల', '|'), ('డె', '|'), ('ప', '|'), ('ర', '|'), ('దే', 'U'), ('శ', '|'), ('ము', '|'), ('న', '|'), ('నుం', 'U'), ('డి', '|'), ('బ', '|'), ('ల', '|'), ('వ', 'U'), ('ద్వి', '|'), ('రో', 'U'), ('ధం', 'U'), ('బు', '|'), ('బ', '|'), ('లి', '|'), ('పిం', 'U'), ('చు', '|'), ('కొ', 'U'), ('న్న', '|'), ('వెం', 'U'), ('గ', '|'), ('లి', '|'), ('యు', '|'), ('గ', '|'), ('ల', '|'), ('డె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నీవు సేసినపను లిట్టి నేరుపరివె-జగదుపద్రవ మెట్లు పోఁ జఱచినావొ?
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>నీవు సేసినపను లిట్టి నేరుపరివె-జగదుపద్రవ మెట్లు పోఁ జఱచినావొ?
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('వు', '|'), ('సే', 'U'), ('సి', '|'), ('న', '|'), ('ప', '|'), ('ను', '|'), ('లి', 'U'), ('ట్టి', '|'), ('నే', 'U'), ('రు', '|'), ('ప', '|'), ('రి', '|'), ('వె', '|'), ('జ', '|'), ('గ', '|'), ('దు', '|'), ('ప', '|'), ('ద్ర', '|'), ('వ', '|'), ('మె', 'U'), ('ట్లు', '|'), ('పో', 'U'), ('జ', '|'), ('ఱ', '|'), ('చి', '|'), ('నా', 'U'), ('వొ', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B138" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
         <is>
           <t>నినుఁ గోరి కన్నతండ్రిని నీనిమిత్త మై- చింతించి మృతిఁ బొందఁ జేసినావు
 నిను వని న్సేవింప ననుజు నాఁకటి కేమి- యొసఁగ కీవే పండ్లు మెసఁగినావు
@@ -4829,63 +4418,57 @@
 నిన్నుఁ బాయ కడవికిఁ జనుదేర నిల్లాలి- నొరుపంచఁ గొన్నాళు లుంచినావు</t>
         </is>
       </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
           <t>[('ని', '|'), ('ను', '|'), ('గో', 'U'), ('రి', '|'), ('క', 'U'), ('న్న', '|'), ('తం', 'U'), ('డ్రి', '|'), ('ని', '|'), ('నీ', 'U'), ('ని', '|'), ('మి', 'U'), ('త్త', '|'), ('మై', 'U'), ('చిం', 'U'), ('తిం', 'U'), ('చి', '|'), ('మృ', '|'), ('తి', '|'), ('బొం', 'U'), ('ద', '|'), ('జే', 'U'), ('సి', '|'), ('నా', 'U'), ('వు', '|'), ('ని', '|'), ('ను', '|'), ('వ', '|'), ('ని', 'U'), ('న్సే', 'U'), ('విం', 'U'), ('ప', '|'), ('న', '|'), ('ను', '|'), ('జు', '|'), ('నా', 'U'), ('క', '|'), ('టి', '|'), ('కే', 'U'), ('మి', '|'), ('యొ', '|'), ('స', '|'), ('గ', '|'), ('కీ', 'U'), ('వే', 'U'), ('పం', 'U'), ('డ్లు', '|'), ('మె', '|'), ('స', '|'), ('గి', '|'), ('నా', 'U'), ('వు', '|'), ('ని', '|'), ('ను', '|'), ('గ', '|'), ('పు', 'U'), ('ల్గొ', 'U'), ('ల్చి', '|'), ('త', 'U'), ('ల్చి', '|'), ('న', '|'), ('కా', 'U'), ('ర్య', '|'), ('మీ', 'U'), ('డే', 'U'), ('ర్ప', '|'), ('బి', '|'), ('ద', '|'), ('ప', '|'), ('వా', 'U'), ('ర', '|'), ('ల', '|'), ('జె', 'U'), ('ట్ల', '|'), ('బె', 'U'), ('ట్టి', '|'), ('నా', 'U'), ('వు', '|'), ('ని', 'U'), ('న్ను', '|'), ('బా', 'U'), ('య', '|'), ('క', '|'), ('డ', '|'), ('వి', '|'), ('కి', '|'), ('జ', '|'), ('ను', '|'), ('దే', 'U'), ('ర', '|'), ('ని', 'U'), ('ల్లా', 'U'), ('లి', '|'), ('నొ', '|'), ('రు', '|'), ('పం', 'U'), ('చ', '|'), ('గొ', 'U'), ('న్నా', 'U'), ('ళు', '|'), ('లుం', 'U'), ('చి', '|'), ('నా', 'U'), ('వు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>రాజకళఁ జూచి ని న్నొక రాజు వనిన-మానుషం బేది? యిది యంత మాయ గాని
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>రాజకళఁ జూచి ని న్నొక రాజు వనిన-మానుషం బేది? యిది యంత మాయ గాని
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
           <t>[('రా', 'U'), ('జ', '|'), ('క', '|'), ('ళ', '|'), ('జూ', 'U'), ('చి', '|'), ('ని', 'U'), ('న్నొ', '|'), ('క', '|'), ('రా', 'U'), ('జు', '|'), ('వ', '|'), ('ని', '|'), ('న', '|'), ('మా', 'U'), ('ను', '|'), ('షం', 'U'), ('బే', 'U'), ('ది', '|'), ('యి', '|'), ('ది', '|'), ('యం', 'U'), ('త', '|'), ('మా', 'U'), ('య', '|'), ('గా', 'U'), ('ని', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B140" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
         <is>
           <t>కులగురుద్వేషి నొజ్జలుగ పెన్కొని కాచి- నిష్ఠురమంత్రము ల్నేర్చినావు
 పూర్వదేవతలు కాపుర మున్నపురియందు- వంచించి యగ్గిఁ బెట్టించినావు
@@ -4893,63 +4476,57 @@
 మోస మౌ టెఱుఁగక మోహించి వచ్చిన- యెలనాగముక్కుఁ గోయించినావు</t>
         </is>
       </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
           <t>[('కు', '|'), ('ల', '|'), ('గు', '|'), ('రు', 'U'), ('ద్వే', 'U'), ('షి', '|'), ('నొ', 'U'), ('జ్జ', '|'), ('లు', '|'), ('గ', '|'), ('పె', 'U'), ('న్కొ', '|'), ('ని', '|'), ('కా', 'U'), ('చి', '|'), ('ని', 'U'), ('ష్ఠు', '|'), ('ర', '|'), ('మం', 'U'), ('త్ర', '|'), ('ము', 'U'), ('ల్నే', 'U'), ('ర్చి', '|'), ('నా', 'U'), ('వు', '|'), ('పూ', 'U'), ('ర్వ', '|'), ('దే', 'U'), ('వ', '|'), ('త', '|'), ('లు', '|'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('ము', 'U'), ('న్న', '|'), ('పు', '|'), ('రి', '|'), ('యం', 'U'), ('దు', '|'), ('వం', 'U'), ('చిం', 'U'), ('చి', '|'), ('య', 'U'), ('గ్గి', '|'), ('బె', 'U'), ('ట్టిం', 'U'), ('చి', '|'), ('నా', 'U'), ('వు', '|'), ('తా', 'U'), ('త', '|'), ('ల', '|'), ('త', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('ద్ర', 'U'), ('వ్విం', 'U'), ('చి', '|'), ('న', '|'), ('ప', '|'), ('యో', 'U'), ('ధి', '|'), ('పే', 'U'), ('రు', '|'), ('గా', 'U'), ('గొం', 'U'), ('త', '|'), ('పూ', 'U'), ('డ్పిం', 'U'), ('చి', '|'), ('నా', 'U'), ('వు', '|'), ('మో', 'U'), ('స', '|'), ('మౌ', 'U'), ('టె', '|'), ('ఱు', '|'), ('గ', '|'), ('క', '|'), ('మో', 'U'), ('హిం', 'U'), ('చి', '|'), ('వ', 'U'), ('చ్చి', '|'), ('న', '|'), ('యె', '|'), ('ల', '|'), ('నా', 'U'), ('గ', '|'), ('ము', 'U'), ('క్కు', '|'), ('గో', 'U'), ('యిం', 'U'), ('చి', '|'), ('నా', 'U'), ('వు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>బళిర! నీవంటిధార్మికుఁ బ్రస్తుతింపఁ-గొదువ లింకేమి కైవల్య మెదుట వచ్చు
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>బళిర! నీవంటిధార్మికుఁ బ్రస్తుతింపఁ-గొదువ లింకేమి కైవల్య మెదుట వచ్చు
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
           <t>[('బ', '|'), ('ళి', '|'), ('ర', '|'), ('నీ', 'U'), ('వం', 'U'), ('టి', '|'), ('ధా', 'U'), ('ర్మి', '|'), ('కు', 'U'), ('బ్ర', 'U'), ('స్తు', '|'), ('తిం', 'U'), ('ప', '|'), ('గొ', '|'), ('దు', '|'), ('వ', '|'), ('లిం', 'U'), ('కే', 'U'), ('మి', '|'), ('కై', 'U'), ('వ', 'U'), ('ల్య', '|'), ('మె', '|'), ('దు', '|'), ('ట', '|'), ('వ', 'U'), ('చ్చు', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B142" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
         <is>
           <t>శౌర్య మెక్కించి విశ్వామిత్రుఁ డూరకఁ- దొడరింపఁ దాటకఁ దునిమినావు
 వైదేహి వాక్యనిర్భంధంబుఁ ద్రోయలే- కఱిముఱి మారీచు నఱికినావు
@@ -4957,63 +4534,57 @@
 మొఱ్ఱో యనుచు దేవమునులు వా రెన్నాళ్ళో- యనుసరింప దశాస్యుఁ దునిమినావు</t>
         </is>
       </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
           <t>[('శౌ', 'U'), ('ర్య', '|'), ('మె', 'U'), ('క్కిం', 'U'), ('చి', '|'), ('వి', 'U'), ('శ్వా', 'U'), ('మి', 'U'), ('త్రు', '|'), ('డూ', 'U'), ('ర', '|'), ('క', '|'), ('దొ', '|'), ('డ', '|'), ('రిం', 'U'), ('ప', '|'), ('దా', 'U'), ('ట', '|'), ('క', '|'), ('దు', '|'), ('ని', '|'), ('మి', '|'), ('నా', 'U'), ('వు', '|'), ('వై', 'U'), ('దే', 'U'), ('హి', '|'), ('వా', 'U'), ('క్య', '|'), ('ని', 'U'), ('ర్భం', 'U'), ('ధం', 'U'), ('బు', '|'), ('ద్రో', 'U'), ('య', '|'), ('లే', 'U'), ('క', '|'), ('ఱి', '|'), ('ము', '|'), ('ఱి', '|'), ('మా', 'U'), ('రీ', 'U'), ('చు', '|'), ('న', '|'), ('ఱి', '|'), ('కి', '|'), ('నా', 'U'), ('వు', '|'), ('వె', '|'), ('ను', '|'), ('కం', 'U'), ('జ', '|'), ('వై', 'U'), ('చి', '|'), ('న', '|'), ('వి', '|'), ('డు', '|'), ('వ', '|'), ('క', '|'), ('పై', 'U'), ('కి', '|'), ('రా', 'U'), ('న', '|'), ('రు', '|'), ('దు', '|'), ('గా', 'U'), ('ఖ', '|'), ('రు', '|'), ('త', '|'), ('ల', '|'), ('ద', '|'), ('రి', '|'), ('గి', '|'), ('నా', 'U'), ('వు', '|'), ('మొ', 'U'), ('ఱ్ఱో', 'U'), ('య', '|'), ('ను', '|'), ('చు', '|'), ('దే', 'U'), ('వ', '|'), ('ము', '|'), ('ను', '|'), ('లు', '|'), ('వా', 'U'), ('రె', 'U'), ('న్నా', 'U'), ('ళ్ళో', 'U'), ('య', '|'), ('ను', '|'), ('స', '|'), ('రిం', 'U'), ('ప', '|'), ('ద', '|'), ('శా', 'U'), ('స్యు', '|'), ('దు', '|'), ('ని', '|'), ('మి', '|'), ('నా', 'U'), ('వు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>కాని రోసంబు గలదె నిక్కముగ నీకు?-మనసు మెత్తనివాఁడ నే మనఁగ వచ్చు
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>కాని రోసంబు గలదె నిక్కముగ నీకు?-మనసు మెత్తనివాఁడ నే మనఁగ వచ్చు
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
           <t>[('కా', 'U'), ('ని', '|'), ('రో', 'U'), ('సం', 'U'), ('బు', '|'), ('గ', '|'), ('ల', '|'), ('దె', '|'), ('ని', 'U'), ('క్క', '|'), ('ము', '|'), ('గ', '|'), ('నీ', 'U'), ('కు', '|'), ('మ', '|'), ('న', '|'), ('సు', '|'), ('మె', 'U'), ('త్త', '|'), ('ని', '|'), ('వా', 'U'), ('డ', '|'), ('నే', 'U'), ('మ', '|'), ('న', '|'), ('గ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B144" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
         <is>
           <t>కొంచెపుఁ బని దాసి నించుక దండింపఁ- బగబట్టి యది యెన్నిపాట్లు వెట్టె
 బలిమినిఁ బట్టి శూర్పణఖ నాసికఁ గోయ- నది నీకుఁ బిదప నెం తలఁతఁ దెచ్చె
@@ -5021,63 +4592,57 @@
 నిరపరాధుని వాలి నురుశరాహతిఁ గూల్ప- వానియిల్లా లెంత వగచి తిట్టె</t>
         </is>
       </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
           <t>[('కొం', 'U'), ('చె', '|'), ('పు', '|'), ('బ', '|'), ('ని', '|'), ('దా', 'U'), ('సి', '|'), ('నిం', 'U'), ('చు', '|'), ('క', '|'), ('దం', 'U'), ('డిం', 'U'), ('ప', '|'), ('బ', '|'), ('గ', '|'), ('బ', 'U'), ('ట్టి', '|'), ('య', '|'), ('ది', '|'), ('యె', 'U'), ('న్ని', '|'), ('పా', 'U'), ('ట్లు', '|'), ('వె', 'U'), ('ట్టె', '|'), ('బ', '|'), ('లి', '|'), ('మి', '|'), ('ని', '|'), ('బ', 'U'), ('ట్టి', '|'), ('శూ', 'U'), ('ర్ప', '|'), ('ణ', '|'), ('ఖ', '|'), ('నా', 'U'), ('సి', '|'), ('క', '|'), ('గో', 'U'), ('య', '|'), ('న', '|'), ('ది', '|'), ('నీ', 'U'), ('కు', '|'), ('బి', '|'), ('ద', '|'), ('ప', '|'), ('నెం', 'U'), ('త', '|'), ('ల', '|'), ('త', '|'), ('దె', 'U'), ('చ్చె', '|'), ('జి', 'U'), ('న్న', '|'), ('త', '|'), ('నం', 'U'), ('బు', '|'), ('న', '|'), ('జె', '|'), ('న', '|'), ('కి', '|'), ('పో', 'U'), ('దో', 'U'), ('లి', '|'), ('న', '|'), ('మా', 'U'), ('రీ', 'U'), ('చు', '|'), ('డొ', '|'), ('న', '|'), ('రిం', 'U'), ('చె', '|'), ('మా', 'U'), ('య', '|'), ('లె', 'U'), ('న్ని', '|'), ('ని', '|'), ('ర', '|'), ('ప', '|'), ('రా', 'U'), ('ధు', '|'), ('ని', '|'), ('వా', 'U'), ('లి', '|'), ('ను', '|'), ('రు', '|'), ('శ', '|'), ('రా', 'U'), ('హ', '|'), ('తి', '|'), ('గూ', 'U'), ('ల్ప', '|'), ('వా', 'U'), ('ని', '|'), ('యి', 'U'), ('ల్లా', 'U'), ('లెం', 'U'), ('త', '|'), ('వ', '|'), ('గ', '|'), ('చి', '|'), ('తి', 'U'), ('ట్టె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>స్వామి వై యేమి యెఱుఁగవు స్వల్పకార్య-కారణంబున నెన్నెన్ని కతలు పుట్టె
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>స్వామి వై యేమి యెఱుఁగవు స్వల్పకార్య-కారణంబున నెన్నెన్ని కతలు పుట్టె
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
           <t>[('స్వా', 'U'), ('మి', '|'), ('వై', 'U'), ('యే', 'U'), ('మి', '|'), ('యె', '|'), ('ఱు', '|'), ('గ', '|'), ('వు', 'U'), ('స్వ', 'U'), ('ల్ప', '|'), ('కా', 'U'), ('ర్య', '|'), ('కా', 'U'), ('ర', '|'), ('ణం', 'U'), ('బు', '|'), ('న', '|'), ('నె', 'U'), ('న్నె', 'U'), ('న్ని', '|'), ('క', '|'), ('త', '|'), ('లు', '|'), ('పు', 'U'), ('ట్టె', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B146" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
         <is>
           <t>నీపేరు వినుటకే యోపక చెవిఁ గంట- గట్టుకున్నాతనిఁ గావ నేమి?
 కలన నీతోఁ గత్తిఁ గట్టుక పోరాడు- వాని సోదరుని బ్రోవఁగ బ నేమి?
@@ -5085,63 +4650,57 @@
 మాయవేసముల నీ మర్మ మారయుచున్న- విమత ధూతల బట్టి విడువ నేమి?</t>
         </is>
       </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('పే', 'U'), ('రు', '|'), ('వి', '|'), ('ను', '|'), ('ట', '|'), ('కే', 'U'), ('యో', 'U'), ('ప', '|'), ('క', '|'), ('చె', '|'), ('వి', '|'), ('గం', 'U'), ('ట', '|'), ('గ', 'U'), ('ట్టు', '|'), ('కు', 'U'), ('న్నా', 'U'), ('త', '|'), ('ని', '|'), ('గా', 'U'), ('వ', '|'), ('నే', 'U'), ('మి', '|'), ('క', '|'), ('ల', '|'), ('న', '|'), ('నీ', 'U'), ('తో', 'U'), ('గ', 'U'), ('త్తి', '|'), ('గ', 'U'), ('ట్టు', '|'), ('క', '|'), ('పో', 'U'), ('రా', 'U'), ('డు', '|'), ('వా', 'U'), ('ని', '|'), ('సో', 'U'), ('ద', '|'), ('రు', '|'), ('ని', 'U'), ('బ్రో', 'U'), ('వ', '|'), ('గ', '|'), ('బ', '|'), ('నే', 'U'), ('మి', '|'), ('బా', 'U'), ('ధిం', 'U'), ('ప', '|'), ('ద', '|'), ('గు', '|'), ('మ', '|'), ('హా', 'U'), ('పా', 'U'), ('త', '|'), ('కుం', 'U'), ('డ', '|'), ('టు', '|'), ('చే', 'U'), ('రి', '|'), ('నీ', 'U'), ('వా', 'U'), ('డ', '|'), ('నం', 'U'), ('టె', '|'), ('మ', 'U'), ('న్నిం', 'U'), ('ప', '|'), ('నే', 'U'), ('మి', '|'), ('మా', 'U'), ('య', '|'), ('వే', 'U'), ('స', '|'), ('ము', '|'), ('ల', '|'), ('నీ', 'U'), ('మ', '|'), ('ర్మ', '|'), ('మా', 'U'), ('ర', '|'), ('యు', '|'), ('చు', 'U'), ('న్న', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('ధూ', 'U'), ('త', '|'), ('ల', '|'), ('బ', 'U'), ('ట్టి', '|'), ('వి', '|'), ('డు', '|'), ('వ', '|'), ('నే', 'U'), ('మి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>పతిత శరణాగతావన ప్రకటదీక్ష-లోకముల కబ్బురంబుగ నీకె గలదొ?
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>పతిత శరణాగతావన ప్రకటదీక్ష-లోకముల కబ్బురంబుగ నీకె గలదొ?
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('తి', '|'), ('త', '|'), ('శ', '|'), ('ర', '|'), ('ణా', 'U'), ('గ', '|'), ('తా', 'U'), ('వ', '|'), ('న', 'U'), ('ప్ర', '|'), ('క', '|'), ('ట', '|'), ('దీ', 'U'), ('క్ష', '|'), ('లో', 'U'), ('క', '|'), ('ము', '|'), ('ల', '|'), ('క', 'U'), ('బ్బు', '|'), ('రం', 'U'), ('బు', '|'), ('గ', '|'), ('నీ', 'U'), ('కె', '|'), ('గ', '|'), ('ల', '|'), ('దొ', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B148" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
         <is>
           <t>పఱపిన శస్త్రంబె బహుముఖంబుల దైత్య- వాహినీమర్మము ల్వ్రచ్చి వెడల
 ముందు దూసిన బాణమునకన్న సరి మించి- వెనుకమ్ము దైత్యుల విఱుగఁ బొడువ
@@ -5149,63 +4708,57 @@
 నిగిడించిన శరంబె నిర్జరారులఁ ద్రుంచి- తొడిఁదొడిఁ దనకుఁ దా దొసకుఁ జేరఁ</t>
         </is>
       </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('ఱ', '|'), ('పి', '|'), ('న', '|'), ('శ', 'U'), ('స్త్రం', 'U'), ('బె', '|'), ('బ', '|'), ('హు', '|'), ('ము', '|'), ('ఖం', 'U'), ('బు', '|'), ('ల', '|'), ('దై', 'U'), ('త్య', '|'), ('వా', 'U'), ('హి', '|'), ('నీ', 'U'), ('మ', '|'), ('ర్మ', '|'), ('ము', 'U'), ('ల్వ్ర', 'U'), ('చ్చి', '|'), ('వె', '|'), ('డ', '|'), ('ల', '|'), ('ముం', 'U'), ('దు', '|'), ('దూ', 'U'), ('సి', '|'), ('న', '|'), ('బా', 'U'), ('ణ', '|'), ('ము', '|'), ('న', '|'), ('క', 'U'), ('న్న', '|'), ('స', '|'), ('రి', '|'), ('మిం', 'U'), ('చి', '|'), ('వె', '|'), ('ను', '|'), ('క', 'U'), ('మ్ము', '|'), ('దై', 'U'), ('త్యు', '|'), ('ల', '|'), ('వి', '|'), ('ఱు', '|'), ('గ', '|'), ('బొ', '|'), ('డు', '|'), ('వ', '|'), ('నే', 'U'), ('సి', '|'), ('న', '|'), ('మా', 'U'), ('ర్గ', '|'), ('ణం', 'U'), ('బె', '|'), ('దు', '|'), ('రె', 'U'), ('క్కి', '|'), ('యి', '|'), ('త', '|'), ('రా', 'U'), ('స్త్ర', '|'), ('మ', '|'), ('డ', '|'), ('చి', 'U'), ('క్ర', 'U'), ('వ్యా', 'U'), ('దు', '|'), ('ల', '|'), ('మ', '|'), ('గు', '|'), ('డ', '|'), ('జే', 'U'), ('య', '|'), ('ని', '|'), ('గి', '|'), ('డిం', 'U'), ('చి', '|'), ('న', '|'), ('శ', '|'), ('రం', 'U'), ('బె', '|'), ('ని', 'U'), ('ర్జ', '|'), ('రా', 'U'), ('రు', '|'), ('ల', '|'), ('ద్రుం', 'U'), ('చి', '|'), ('తొ', '|'), ('డి', '|'), ('దొ', '|'), ('డి', '|'), ('ద', '|'), ('న', '|'), ('కు', '|'), ('దా', 'U'), ('దొ', '|'), ('స', '|'), ('కు', '|'), ('జే', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>దొలఁగి రసురులు కొంత నీబలిమి దెలిసె-ముష్టి నీ దెంత నీయస్త్రములదె వింత
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>దొలఁగి రసురులు కొంత నీబలిమి దెలిసె-ముష్టి నీ దెంత నీయస్త్రములదె వింత
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
           <t>[('దొ', '|'), ('ల', '|'), ('గి', '|'), ('ర', '|'), ('సు', '|'), ('రు', '|'), ('లు', '|'), ('కొం', 'U'), ('త', '|'), ('నీ', 'U'), ('బ', '|'), ('లి', '|'), ('మి', '|'), ('దె', '|'), ('లి', '|'), ('సె', '|'), ('ము', 'U'), ('ష్టి', '|'), ('నీ', 'U'), ('దెం', 'U'), ('త', '|'), ('నీ', 'U'), ('య', 'U'), ('స్త్ర', '|'), ('ము', '|'), ('ల', '|'), ('దె', '|'), ('విం', 'U'), ('త', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B150" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
         <is>
           <t>అడవిలోఁ దెరువర్ల నుడుగక తినుచున్న- యాఁడుదాని వధించు టర్హ మగునె?
 చిక్కినవారికిఁ జేతు లెంతయుఁ జాఁచు- మొండివాని వధించ ముఖ్య మగునె?
@@ -5213,63 +4766,57 @@
 కడు వ్రేటుఁ బడి గడ్డి కఱచినఁ మారీచుఁ- దఱిమి బాధించుట నెఱతనంబె?</t>
         </is>
       </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('డ', '|'), ('వి', '|'), ('లో', 'U'), ('దె', '|'), ('రు', '|'), ('వ', 'U'), ('ర్ల', '|'), ('ను', '|'), ('డు', '|'), ('గ', '|'), ('క', '|'), ('తి', '|'), ('ను', '|'), ('చు', 'U'), ('న్న', '|'), ('యా', 'U'), ('డు', '|'), ('దా', 'U'), ('ని', '|'), ('వ', '|'), ('ధిం', 'U'), ('చు', '|'), ('ట', 'U'), ('ర్హ', '|'), ('మ', '|'), ('గు', '|'), ('నె', '|'), ('చి', 'U'), ('క్కి', '|'), ('న', '|'), ('వా', 'U'), ('రి', '|'), ('కి', '|'), ('జే', 'U'), ('తు', '|'), ('లెం', 'U'), ('త', '|'), ('యు', '|'), ('జా', 'U'), ('చు', '|'), ('మొం', 'U'), ('డి', '|'), ('వా', 'U'), ('ని', '|'), ('వ', '|'), ('ధిం', 'U'), ('చ', '|'), ('ము', 'U'), ('ఖ్య', '|'), ('మ', '|'), ('గు', '|'), ('నె', '|'), ('యె', 'U'), ('క్క', '|'), ('డె', 'U'), ('క్క', '|'), ('డ', '|'), ('నై', 'U'), ('న', '|'), ('నే', 'U'), ('ఱు', '|'), ('క', '|'), ('తి', '|'), ('ను', '|'), ('కా', 'U'), ('కి', '|'), ('క', 'U'), ('న్ను', '|'), ('బో', 'U'), ('బొ', '|'), ('డు', '|'), ('చు', '|'), ('ట', '|'), ('ఘ', '|'), ('న', '|'), ('గు', '|'), ('ణం', 'U'), ('బె', '|'), ('క', '|'), ('డు', 'U'), ('వ్రే', 'U'), ('టు', '|'), ('బ', '|'), ('డి', '|'), ('గ', 'U'), ('డ్డి', '|'), ('క', '|'), ('ఱ', '|'), ('చి', '|'), ('న', '|'), ('మా', 'U'), ('రీ', 'U'), ('చు', '|'), ('ద', '|'), ('ఱి', '|'), ('మి', '|'), ('బా', 'U'), ('ధిం', 'U'), ('చు', '|'), ('ట', '|'), ('నె', '|'), ('ఱ', '|'), ('త', '|'), ('నం', 'U'), ('బె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>యెవ్వ రేరాజు లొనరించి రిట్టిపనులు?-చేసితివి యింక నె ద్దేని సేయఁగలవు!
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>యెవ్వ రేరాజు లొనరించి రిట్టిపనులు?-చేసితివి యింక నె ద్దేని సేయఁగలవు!
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
           <t>[('యె', 'U'), ('వ్వ', '|'), ('రే', 'U'), ('రా', 'U'), ('జు', '|'), ('లొ', '|'), ('న', '|'), ('రిం', 'U'), ('చి', '|'), ('రి', 'U'), ('ట్టి', '|'), ('ప', '|'), ('ను', '|'), ('లు', '|'), ('చే', 'U'), ('సి', '|'), ('తి', '|'), ('వి', '|'), ('యిం', 'U'), ('క', '|'), ('నె', 'U'), ('ద్దే', 'U'), ('ని', '|'), ('సే', 'U'), ('య', '|'), ('గ', '|'), ('ల', '|'), ('వు', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B152" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
         <is>
           <t>రాజకార్యపరుండు తేజోబలాధికుఁ- డాంజనేయుఁడు భృత్యుఁ డగుటఁ జేసి
 యమితశౌర్యుఁడు ప్లవంగమకులేశుఁ డినజుఁ- డఱ లేని స్నేహితుఁడగుటఁ జేసి
@@ -5277,63 +4824,57 @@
 సుమనస్కు లమనస్కు లమృతవాక్యంబులన్‌- బొసఁగ నాశీర్వదించుట జేసి</t>
         </is>
       </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
           <t>[('రా', 'U'), ('జ', '|'), ('కా', 'U'), ('ర్య', '|'), ('ప', '|'), ('రుం', 'U'), ('డు', '|'), ('తే', 'U'), ('జో', 'U'), ('బ', '|'), ('లా', 'U'), ('ధి', '|'), ('కు', '|'), ('డాం', 'U'), ('జ', '|'), ('నే', 'U'), ('యు', '|'), ('డు', '|'), ('భృ', 'U'), ('త్యు', '|'), ('డ', '|'), ('గు', '|'), ('ట', '|'), ('జే', 'U'), ('సి', '|'), ('య', '|'), ('మి', '|'), ('త', '|'), ('శౌ', 'U'), ('ర్యు', '|'), ('డు', 'U'), ('ప్ల', '|'), ('వం', 'U'), ('గ', '|'), ('మ', '|'), ('కు', '|'), ('లే', 'U'), ('శు', '|'), ('డి', '|'), ('న', '|'), ('జు', '|'), ('డ', '|'), ('ఱ', '|'), ('లే', 'U'), ('ని', 'U'), ('స్నే', 'U'), ('హి', '|'), ('తు', '|'), ('డ', '|'), ('గు', '|'), ('ట', '|'), ('జే', 'U'), ('సి', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('మ', '|'), ('ర్మ', 'U'), ('జ్ఞుం', 'U'), ('డు', '|'), ('వి', 'U'), ('శ్వా', 'U'), ('స', '|'), ('భ', '|'), ('రి', '|'), ('తా', 'U'), ('త్ము', '|'), ('డ', '|'), ('ల', '|'), ('వి', '|'), ('భీ', 'U'), ('ష', '|'), ('ణు', '|'), ('డా', 'U'), ('ప్తు', '|'), ('డ', '|'), ('గు', '|'), ('ట', '|'), ('జే', 'U'), ('సి', '|'), ('సు', '|'), ('మ', '|'), ('న', 'U'), ('స్కు', '|'), ('ల', '|'), ('మ', '|'), ('న', 'U'), ('స్కు', '|'), ('ల', '|'), ('మృ', '|'), ('త', '|'), ('వా', 'U'), ('క్యం', 'U'), ('బు', '|'), ('ల', 'U'), ('న్బొ', '|'), ('స', '|'), ('గ', '|'), ('నా', 'U'), ('శీ', 'U'), ('ర్వ', '|'), ('దిం', 'U'), ('చు', '|'), ('ట', '|'), ('జే', 'U'), ('సి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>లంక సాధించితివి గాని లావుచేత-నిర్జరారుల గెలువంగ నీతరంబె?
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>లంక సాధించితివి గాని లావుచేత-నిర్జరారుల గెలువంగ నీతరంబె?
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
           <t>[('లం', 'U'), ('క', '|'), ('సా', 'U'), ('ధిం', 'U'), ('చి', '|'), ('తి', '|'), ('వి', '|'), ('గా', 'U'), ('ని', '|'), ('లా', 'U'), ('వు', '|'), ('చే', 'U'), ('త', '|'), ('ని', 'U'), ('ర్జ', '|'), ('రా', 'U'), ('రు', '|'), ('ల', '|'), ('గె', '|'), ('లు', '|'), ('వం', 'U'), ('గ', '|'), ('నీ', 'U'), ('త', '|'), ('రం', 'U'), ('బె', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B154" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
         <is>
           <t>నడువఁజాల దని జానకి నెత్తుకొని ముందు- నడచు విరాధుని నఱకు టేమి?
 చనవున వైదేహి చనుబిడ్డవలెఁ నోటఁ- బట్టిన యైంద్రికన్గొట్టు టేమి?
@@ -5341,63 +4882,57 @@
 తల్లినివలెఁ దెచ్చి ధరణీజను నశోక- వని నిల్ప రావఁణు దునుము టేమి?</t>
         </is>
       </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('డు', '|'), ('వ', '|'), ('జా', 'U'), ('ల', '|'), ('ద', '|'), ('ని', '|'), ('జా', 'U'), ('న', '|'), ('కి', '|'), ('నె', 'U'), ('త్తు', '|'), ('కొ', '|'), ('ని', '|'), ('ముం', 'U'), ('దు', '|'), ('న', '|'), ('డ', '|'), ('చు', '|'), ('వి', '|'), ('రా', 'U'), ('ధు', '|'), ('ని', '|'), ('న', '|'), ('ఱ', '|'), ('కు', '|'), ('టే', 'U'), ('మి', '|'), ('చ', '|'), ('న', '|'), ('వు', '|'), ('న', '|'), ('వై', 'U'), ('దే', 'U'), ('హి', '|'), ('చ', '|'), ('ను', '|'), ('బి', 'U'), ('డ్డ', '|'), ('వ', '|'), ('లె', '|'), ('నో', 'U'), ('ట', '|'), ('బ', 'U'), ('ట్టి', '|'), ('న', '|'), ('యైం', 'U'), ('ద్రి', '|'), ('క', 'U'), ('న్గొ', 'U'), ('ట్టు', '|'), ('టే', 'U'), ('మి', '|'), ('సీ', 'U'), ('త', '|'), ('సం', 'U'), ('తో', 'U'), ('షిం', 'U'), ('ప', '|'), ('జి', 'U'), ('త్ర', '|'), ('వే', 'U'), ('ష', '|'), ('ము', '|'), ('దా', 'U'), ('ల్చి', '|'), ('తి', '|'), ('రు', '|'), ('గు', '|'), ('మా', 'U'), ('రీ', 'U'), ('చు', '|'), ('ని', '|'), ('న', '|'), ('రు', '|'), ('కు', '|'), ('టే', 'U'), ('మి', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('వ', '|'), ('లె', '|'), ('దె', 'U'), ('చ్చి', '|'), ('ధ', '|'), ('ర', '|'), ('ణీ', 'U'), ('జ', '|'), ('ను', '|'), ('న', '|'), ('శో', 'U'), ('క', '|'), ('వ', '|'), ('ని', '|'), ('ని', 'U'), ('ల్ప', '|'), ('రా', 'U'), ('వ', '|'), ('ణు', '|'), ('దు', '|'), ('ను', '|'), ('ము', '|'), ('టే', 'U'), ('మి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>కోప మిటు లేమి? వారు మహాపరాధు-లైన ముక్తిప్రసాదార్హు లగుట యేమి?
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>కోప మిటు లేమి? వారు మహాపరాధు-లైన ముక్తిప్రసాదార్హు లగుట యేమి?
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
           <t>[('కో', 'U'), ('ప', '|'), ('మి', '|'), ('టు', '|'), ('లే', 'U'), ('మి', '|'), ('వా', 'U'), ('రు', '|'), ('మ', '|'), ('హా', 'U'), ('ప', '|'), ('రా', 'U'), ('ధు', '|'), ('లై', 'U'), ('న', '|'), ('ము', 'U'), ('క్తి', 'U'), ('ప్ర', '|'), ('సా', 'U'), ('దా', 'U'), ('ర్హు', '|'), ('ల', '|'), ('గు', '|'), ('ట', '|'), ('యే', 'U'), ('మి', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B156" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
         <is>
           <t>వరరాజ్యకాంక్షలోఁ బట్టకుండెద వైన- సుగ్రీవునగరంబుఁ జూడరాదె?
 పరధనంబున కాస పడక యుండెద వైన- నాలంక నొకరాయి యంటరాదె?
@@ -5405,63 +4940,57 @@
 పరదానవులఁ ద్రుంపఁ బంతగించెద వైన- మూల దైత్యులఁ దోలి పుచ్చరాదె?</t>
         </is>
       </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
           <t>[('వ', '|'), ('ర', '|'), ('రా', 'U'), ('జ్య', '|'), ('కాం', 'U'), ('క్ష', '|'), ('లో', 'U'), ('బ', 'U'), ('ట్ట', '|'), ('కుం', 'U'), ('డె', '|'), ('ద', '|'), ('వై', 'U'), ('న', '|'), ('సు', 'U'), ('గ్రీ', 'U'), ('వు', '|'), ('న', '|'), ('గ', '|'), ('రం', 'U'), ('బు', '|'), ('జూ', 'U'), ('డ', '|'), ('రా', 'U'), ('దె', '|'), ('ప', '|'), ('ర', '|'), ('ధ', '|'), ('నం', 'U'), ('బు', '|'), ('న', '|'), ('కా', 'U'), ('స', '|'), ('ప', '|'), ('డ', '|'), ('క', '|'), ('యుం', 'U'), ('డె', '|'), ('ద', '|'), ('వై', 'U'), ('న', '|'), ('నా', 'U'), ('లం', 'U'), ('క', '|'), ('నొ', '|'), ('క', '|'), ('రా', 'U'), ('యి', '|'), ('యం', 'U'), ('ట', '|'), ('రా', 'U'), ('దె', '|'), ('ప', '|'), ('ర', '|'), ('యో', 'U'), ('ష', '|'), ('పై', 'U'), ('ని', 'U'), ('చ్చ', '|'), ('బా', 'U'), ('య', '|'), ('కుం', 'U'), ('డె', '|'), ('ద', '|'), ('వై', 'U'), ('న', '|'), ('న', '|'), ('ల', '|'), ('శూ', 'U'), ('ర్ప', '|'), ('ణ', '|'), ('ఖ', '|'), ('ము', 'U'), ('క్కు', '|'), ('ని', '|'), ('లు', '|'), ('ప', '|'), ('రా', 'U'), ('దె', '|'), ('ప', '|'), ('ర', '|'), ('దా', 'U'), ('న', '|'), ('వు', '|'), ('ల', '|'), ('ద్రుం', 'U'), ('ప', '|'), ('బం', 'U'), ('త', '|'), ('గిం', 'U'), ('చె', '|'), ('ద', '|'), ('వై', 'U'), ('న', '|'), ('మూ', 'U'), ('ల', '|'), ('దై', 'U'), ('త్యు', '|'), ('ల', '|'), ('దో', 'U'), ('లి', '|'), ('పు', 'U'), ('చ్చ', '|'), ('రా', 'U'), ('దె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>చేసిన ప్రతిజ్ఞలో నొండు వీస మైనఁ-దప్పు వోకుండ నడచిన ధార్మికుఁడవొ!
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>చేసిన ప్రతిజ్ఞలో నొండు వీస మైనఁ-దప్పు వోకుండ నడచిన ధార్మికుఁడవొ!
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
           <t>[('చే', 'U'), ('సి', '|'), ('న', 'U'), ('ప్ర', '|'), ('తి', 'U'), ('జ్ఞ', '|'), ('లో', 'U'), ('నొం', 'U'), ('డు', '|'), ('వీ', 'U'), ('స', '|'), ('మై', 'U'), ('న', '|'), ('ద', 'U'), ('ప్పు', '|'), ('వో', 'U'), ('కుం', 'U'), ('డ', '|'), ('న', '|'), ('డ', '|'), ('చి', '|'), ('న', '|'), ('ధా', 'U'), ('ర్మి', '|'), ('కు', '|'), ('డ', '|'), ('వొ', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B158" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
         <is>
           <t>నిర్దయాత్ములె కాని నిత్యాగ్ని హోత్రాది- కర్మనైష్ఠికులైన ఘనులు గారె?
 శుచిశూన్యులే కాని శ్రుత్యాదిపాఠక- ప్రకటవేదార్థబోధకులు గారె?
@@ -5469,63 +4998,57 @@
 మాయికులే గాని మంత్ర ప్రయోగోప- సంహరణ క్రియాచణులు గారె?</t>
         </is>
       </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
           <t>[('ని', '|'), ('ర్ద', '|'), ('యా', 'U'), ('త్ము', '|'), ('లె', '|'), ('కా', 'U'), ('ని', '|'), ('ని', 'U'), ('త్యా', 'U'), ('గ్ని', '|'), ('హో', 'U'), ('త్రా', 'U'), ('ది', '|'), ('క', '|'), ('ర్మ', '|'), ('నై', 'U'), ('ష్ఠి', '|'), ('కు', '|'), ('లై', 'U'), ('న', '|'), ('ఘ', '|'), ('ను', '|'), ('లు', '|'), ('గా', 'U'), ('రె', '|'), ('శు', '|'), ('చి', '|'), ('శూ', 'U'), ('న్యు', '|'), ('లే', 'U'), ('కా', 'U'), ('ని', 'U'), ('శ్రు', 'U'), ('త్యా', 'U'), ('ది', '|'), ('పా', 'U'), ('ఠ', '|'), ('క', 'U'), ('ప్ర', '|'), ('క', '|'), ('ట', '|'), ('వే', 'U'), ('దా', 'U'), ('ర్థ', '|'), ('బో', 'U'), ('ధ', '|'), ('కు', '|'), ('లు', '|'), ('గా', 'U'), ('రె', '|'), ('స', 'U'), ('త్య', '|'), ('హీ', 'U'), ('ను', '|'), ('లె', '|'), ('కా', 'U'), ('ని', '|'), ('చం', 'U'), ('ద్ర', '|'), ('శే', 'U'), ('ఖ', '|'), ('ర', '|'), ('పా', 'U'), ('ద', '|'), ('ప', 'U'), ('ద్మ', '|'), ('పూ', 'U'), ('జా', 'U'), ('నం', 'U'), ('ద', '|'), ('ప', '|'), ('రు', '|'), ('లు', '|'), ('గా', 'U'), ('రె', '|'), ('మా', 'U'), ('యి', '|'), ('కు', '|'), ('లే', 'U'), ('గా', 'U'), ('ని', '|'), ('మం', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('యో', 'U'), ('గో', 'U'), ('ప', '|'), ('సం', 'U'), ('హ', '|'), ('ర', '|'), ('ణ', 'U'), ('క్రి', '|'), ('యా', 'U'), ('చ', '|'), ('ణు', '|'), ('లు', '|'), ('గా', 'U'), ('రె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>కులము బ్రాహ్మణ్య మగు దైత్యకులము నెట్లు-గూల్చితివి బ్రహ్మహత్యకు గొంక కహహ?
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>కులము బ్రాహ్మణ్య మగు దైత్యకులము నెట్లు-గూల్చితివి బ్రహ్మహత్యకు గొంక కహహ?
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
           <t>[('కు', '|'), ('ల', '|'), ('ము', 'U'), ('బ్రా', 'U'), ('హ్మ', 'U'), ('ణ్య', '|'), ('మ', '|'), ('గు', '|'), ('దై', 'U'), ('త్య', '|'), ('కు', '|'), ('ల', '|'), ('ము', '|'), ('నె', 'U'), ('ట్లు', '|'), ('గూ', 'U'), ('ల్చి', '|'), ('తి', '|'), ('వి', 'U'), ('బ్ర', 'U'), ('హ్మ', '|'), ('హ', 'U'), ('త్య', '|'), ('కు', '|'), ('గొం', 'U'), ('క', '|'), ('క', '|'), ('హ', '|'), ('హ', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B160" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
         <is>
           <t>ఒక్కవ్రేటునఁ గూలునో వాలి బలశాలి- చెట్లుమా టొగ్గి వేసితివి గాని
 మొనసి నీల్గునె పఙ్క్తిముఖుఁడు తన్నాభికా- మృతకుంభ పగలఁ గొట్టితివి గాని
@@ -5533,63 +5056,57 @@
 చిక్కునే యింద్రజి త్తుక్కున సోదరుం- డశననిద్రలు మాని యఁడఁచె గాని</t>
         </is>
       </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
           <t>[('ఒ', 'U'), ('క్క', 'U'), ('వ్రే', 'U'), ('టు', '|'), ('న', '|'), ('గూ', 'U'), ('లు', '|'), ('నో', 'U'), ('వా', 'U'), ('లి', '|'), ('బ', '|'), ('ల', '|'), ('శా', 'U'), ('లి', '|'), ('చె', 'U'), ('ట్లు', '|'), ('మా', 'U'), ('టొ', 'U'), ('గ్గి', '|'), ('వే', 'U'), ('సి', '|'), ('తి', '|'), ('వి', '|'), ('గా', 'U'), ('ని', '|'), ('మొ', '|'), ('న', '|'), ('సి', '|'), ('నీ', 'U'), ('ల్గు', '|'), ('నె', '|'), ('ప', 'U'), ('ఙ్క్తి', '|'), ('ము', '|'), ('ఖు', '|'), ('డు', '|'), ('త', 'U'), ('న్నా', 'U'), ('భి', '|'), ('కా', 'U'), ('మృ', '|'), ('త', '|'), ('కుం', 'U'), ('భ', '|'), ('ప', '|'), ('గ', '|'), ('ల', '|'), ('గొ', 'U'), ('ట్టి', '|'), ('తి', '|'), ('వి', '|'), ('గా', 'U'), ('ని', '|'), ('కుం', 'U'), ('భ', '|'), ('క', 'U'), ('ర్ణు', '|'), ('డు', '|'), ('ర', '|'), ('ణ', 'U'), ('క్షో', 'U'), ('ణి', '|'), ('లో', 'U'), ('దీ', 'U'), ('రు', '|'), ('నే', 'U'), ('తీ', 'U'), ('ఱ', '|'), ('ని', '|'), ('ని', '|'), ('ద్ర', '|'), ('నె', '|'), ('ది', 'U'), ('ర్చె', '|'), ('గా', 'U'), ('ని', '|'), ('చి', 'U'), ('క్కు', '|'), ('నే', 'U'), ('యిం', 'U'), ('ద్ర', '|'), ('జి', 'U'), ('త్తు', 'U'), ('క్కు', '|'), ('న', '|'), ('సో', 'U'), ('ద', '|'), ('రుం', 'U'), ('డ', '|'), ('శ', '|'), ('న', '|'), ('ని', '|'), ('ద్ర', '|'), ('లు', '|'), ('మా', 'U'), ('ని', '|'), ('య', '|'), ('డ', '|'), ('చె', '|'), ('గా', 'U'), ('ని', '|')]</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>యింద ఱాయంబు లెరుగుదు వందువలన-మడిసి రసురులు నీచేత మడియువారె?
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>యింద ఱాయంబు లెరుగుదు వందువలన-మడిసి రసురులు నీచేత మడియువారె?
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
           <t>[('యిం', 'U'), ('ద', '|'), ('ఱా', 'U'), ('యం', 'U'), ('బు', '|'), ('లె', '|'), ('రు', '|'), ('గు', '|'), ('దు', '|'), ('వం', 'U'), ('దు', '|'), ('వ', '|'), ('ల', '|'), ('న', '|'), ('మ', '|'), ('డి', '|'), ('సి', '|'), ('ర', '|'), ('సు', '|'), ('రు', '|'), ('లు', '|'), ('నీ', 'U'), ('చే', 'U'), ('త', '|'), ('మ', '|'), ('డి', '|'), ('యు', '|'), ('వా', 'U'), ('రె', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B162" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
         <is>
           <t>మొసలిఁ బెట్టినకస్తి మొఱ్ఱ బెట్టినహస్తి- రక్కరించితి నన్నరంబె మేమి?
 తులువ పల్వురిలోన వలువ నిప్పంగ జాన- సిగ్గుఁ గాచితి నన్నపగ్గె యేమి?
@@ -5597,63 +5114,57 @@
 పెద్ద మోదినభీతి బెగడి వచ్చినకోఁతి- కండ జేసితి నన్న యంద మేమి?</t>
         </is>
       </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
           <t>[('మొ', '|'), ('స', '|'), ('లి', '|'), ('బె', 'U'), ('ట్టి', '|'), ('న', '|'), ('క', 'U'), ('స్తి', '|'), ('మొ', 'U'), ('ఱ్ఱ', '|'), ('బె', 'U'), ('ట్టి', '|'), ('న', '|'), ('హ', 'U'), ('స్తి', '|'), ('ర', 'U'), ('క్క', '|'), ('రిం', 'U'), ('చి', '|'), ('తి', '|'), ('న', 'U'), ('న్న', '|'), ('రం', 'U'), ('బె', '|'), ('మే', 'U'), ('మి', '|'), ('తు', '|'), ('లు', '|'), ('వ', '|'), ('ప', 'U'), ('ల్వు', '|'), ('రి', '|'), ('లో', 'U'), ('న', '|'), ('వ', '|'), ('లు', '|'), ('వ', '|'), ('ని', 'U'), ('ప్పం', 'U'), ('గ', '|'), ('జా', 'U'), ('న', '|'), ('సి', 'U'), ('గ్గు', '|'), ('గా', 'U'), ('చి', '|'), ('తి', '|'), ('న', 'U'), ('న్న', '|'), ('ప', 'U'), ('గ్గె', '|'), ('యే', 'U'), ('మి', '|'), ('బ', '|'), ('లు', '|'), ('వు', '|'), ('శా', 'U'), ('ప', '|'), ('ము', '|'), ('చే', 'U'), ('త', '|'), ('బం', 'U'), ('డ', '|'), ('పా', 'U'), ('ఱి', '|'), ('న', '|'), ('నా', 'U'), ('తి', '|'), ('ఱం', 'U'), ('కు', '|'), ('బా', 'U'), ('పి', '|'), ('తి', '|'), ('న', 'U'), ('న్న', '|'), ('బిం', 'U'), ('క', '|'), ('మే', 'U'), ('మి', '|'), ('పె', 'U'), ('ద్ద', '|'), ('మో', 'U'), ('ది', '|'), ('న', '|'), ('భీ', 'U'), ('తి', '|'), ('బె', '|'), ('గ', '|'), ('డి', '|'), ('వ', 'U'), ('చ్చి', '|'), ('న', '|'), ('కో', 'U'), ('తి', '|'), ('కం', 'U'), ('డ', '|'), ('జే', 'U'), ('సి', '|'), ('తి', '|'), ('న', 'U'), ('న్న', '|'), ('యం', 'U'), ('ద', '|'), ('మే', 'U'), ('మి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>భవభయంబున నిన్నెంత ప్రస్తుతింపఁ-గరుణఁ జేపట్ట లేని నీ ఘనత యేమి?
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>భవభయంబున నిన్నెంత ప్రస్తుతింపఁ-గరుణఁ జేపట్ట లేని నీ ఘనత యేమి?
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
           <t>[('భ', '|'), ('వ', '|'), ('భ', '|'), ('యం', 'U'), ('బు', '|'), ('న', '|'), ('ని', 'U'), ('న్నెం', 'U'), ('త', 'U'), ('ప్ర', 'U'), ('స్తు', '|'), ('తిం', 'U'), ('ప', '|'), ('గ', '|'), ('రు', '|'), ('ణ', '|'), ('జే', 'U'), ('ప', 'U'), ('ట్ట', '|'), ('లే', 'U'), ('ని', '|'), ('నీ', 'U'), ('ఘ', '|'), ('న', '|'), ('త', '|'), ('యే', 'U'), ('మి', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B164" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
         <is>
           <t>నీచువాసనచేత నీటిలో నుండుట- యెక్కువప్పులను రా యెత్తుకొనుట
 కడుపాఁకటికిఁ దుంగకాయలు మెక్కుట- యని నోరు దెఱచి పెల్లఱచుచుంట
@@ -5661,63 +5172,57 @@
 పట్టణప్రజకుఁ జెప్పక పాఱిపోవుట- కలు ద్రావి నిను నీవె దెలియకుంట</t>
         </is>
       </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('చు', '|'), ('వా', 'U'), ('స', '|'), ('న', '|'), ('చే', 'U'), ('త', '|'), ('నీ', 'U'), ('టి', '|'), ('లో', 'U'), ('నుం', 'U'), ('డు', '|'), ('ట', '|'), ('యె', 'U'), ('క్కు', '|'), ('వ', 'U'), ('ప్పు', '|'), ('ల', '|'), ('ను', '|'), ('రా', 'U'), ('యె', 'U'), ('త్తు', '|'), ('కొ', '|'), ('ను', '|'), ('ట', '|'), ('క', '|'), ('డు', '|'), ('పా', 'U'), ('క', '|'), ('టి', '|'), ('కి', '|'), ('దుం', 'U'), ('గ', '|'), ('కా', 'U'), ('య', '|'), ('లు', '|'), ('మె', 'U'), ('క్కు', '|'), ('ట', '|'), ('య', '|'), ('ని', '|'), ('నో', 'U'), ('రు', '|'), ('దె', '|'), ('ఱ', '|'), ('చి', '|'), ('పె', 'U'), ('ల్ల', '|'), ('ఱ', '|'), ('చు', '|'), ('చుం', 'U'), ('ట', '|'), ('సి', '|'), ('రి', '|'), ('గ', 'U'), ('ల్గి', '|'), ('బి', 'U'), ('చ్చ', '|'), ('పు', '|'), ('జి', 'U'), ('ప్ప', '|'), ('జే', 'U'), ('ప', 'U'), ('ట్టు', '|'), ('ట', '|'), ('చే', 'U'), ('క', 'U'), ('త్తి', '|'), ('ప', '|'), ('ర', '|'), ('రా', 'U'), ('జు', '|'), ('చే', 'U'), ('తి', '|'), ('కి', '|'), ('డు', '|'), ('ట', '|'), ('ప', 'U'), ('ట్ట', '|'), ('ణ', 'U'), ('ప్ర', '|'), ('జ', '|'), ('కు', '|'), ('జె', 'U'), ('ప్ప', '|'), ('క', '|'), ('పా', 'U'), ('ఱి', '|'), ('పో', 'U'), ('వు', '|'), ('ట', '|'), ('క', '|'), ('లు', '|'), ('ద్రా', 'U'), ('వి', '|'), ('ని', '|'), ('ను', '|'), ('నీ', 'U'), ('వె', '|'), ('దె', '|'), ('లి', '|'), ('య', '|'), ('కుం', 'U'), ('ట', '|')]</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>మ్రానువై యుంట గుఱ్ఱపుమనిసి వంట-పుడమి నాడిక సేయక విడువ నిన్ను
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>మ్రానువై యుంట గుఱ్ఱపుమనిసి వంట-పుడమి నాడిక సేయక విడువ నిన్ను
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
           <t>[('మ్రా', 'U'), ('ను', '|'), ('వై', 'U'), ('యుం', 'U'), ('ట', '|'), ('గు', 'U'), ('ఱ్ఱ', '|'), ('పు', '|'), ('మ', '|'), ('ని', '|'), ('సి', '|'), ('వం', 'U'), ('ట', '|'), ('పు', '|'), ('డ', '|'), ('మి', '|'), ('నా', 'U'), ('డి', '|'), ('క', '|'), ('సే', 'U'), ('య', '|'), ('క', '|'), ('వి', '|'), ('డు', '|'), ('వ', '|'), ('ని', 'U'), ('న్ను', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B166" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
         <is>
           <t>ఖరు నాజిలోఁ జొచ్చి శర ముచ్చి పో నేయ- వెనుకకు లంఘించి వెఱచె ననిరి
 యనిఁ బాఱునో కోఁతి యతి మ్రానిమాటున- నేయ వాలినిఁ బొంచి యేసె ననిరి
@@ -5725,63 +5230,57 @@
 బలినిఁ జంపఁగ రానివరమున యాచింప- వృత్తి నాతని భిక్ష మెత్తె ననిరి</t>
         </is>
       </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
           <t>[('ఖ', '|'), ('రు', '|'), ('నా', 'U'), ('జి', '|'), ('లో', 'U'), ('జొ', 'U'), ('చ్చి', '|'), ('శ', '|'), ('ర', '|'), ('ము', 'U'), ('చ్చి', '|'), ('పో', 'U'), ('నే', 'U'), ('య', '|'), ('వె', '|'), ('ను', '|'), ('క', '|'), ('కు', '|'), ('లం', 'U'), ('ఘిం', 'U'), ('చి', '|'), ('వె', '|'), ('ఱ', '|'), ('చె', '|'), ('న', '|'), ('ని', '|'), ('రి', '|'), ('య', '|'), ('ని', '|'), ('బా', 'U'), ('ఱు', '|'), ('నో', 'U'), ('కో', 'U'), ('తి', '|'), ('య', '|'), ('తి', '|'), ('మ్రా', 'U'), ('ని', '|'), ('మా', 'U'), ('టు', '|'), ('న', '|'), ('నే', 'U'), ('య', '|'), ('వా', 'U'), ('లి', '|'), ('ని', '|'), ('బొం', 'U'), ('చి', '|'), ('యే', 'U'), ('సె', '|'), ('న', '|'), ('ని', '|'), ('రి', '|'), ('గ', '|'), ('రు', '|'), ('డ', 'U'), ('ధ్వ', '|'), ('జుం', 'U'), ('డ', 'U'), ('న్న', '|'), ('గు', '|'), ('రు', '|'), ('తు', '|'), ('దె', 'U'), ('ల్పు', '|'), ('ట', '|'), ('కు', 'U'), ('న్న', '|'), ('బ', '|'), ('ల', '|'), ('భీ', 'U'), ('తి', '|'), ('శ', 'U'), ('స్త్రా', 'U'), ('హి', '|'), ('బ', 'U'), ('ద్ధు', '|'), ('డ', '|'), ('ని', '|'), ('రి', '|'), ('బ', '|'), ('లి', '|'), ('ని', '|'), ('జం', 'U'), ('ప', '|'), ('గ', '|'), ('రా', 'U'), ('ని', '|'), ('వ', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('యా', 'U'), ('చిం', 'U'), ('ప', '|'), ('వృ', 'U'), ('త్తి', '|'), ('నా', 'U'), ('త', '|'), ('ని', '|'), ('భి', 'U'), ('క్ష', '|'), ('మె', 'U'), ('త్తె', '|'), ('న', '|'), ('ని', '|'), ('రి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>యశ మదెంతొ ప్రయాస లభ్యంబె కాని-యెంతలో వచ్చు నపకీర్తి యెఱుఁగ వేమి
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>యశ మదెంతొ ప్రయాస లభ్యంబె కాని-యెంతలో వచ్చు నపకీర్తి యెఱుఁగ వేమి
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
           <t>[('య', '|'), ('శ', '|'), ('మ', '|'), ('దెం', 'U'), ('తొ', 'U'), ('ప్ర', '|'), ('యా', 'U'), ('స', '|'), ('ల', 'U'), ('భ్యం', 'U'), ('బె', '|'), ('కా', 'U'), ('ని', '|'), ('యెం', 'U'), ('త', '|'), ('లో', 'U'), ('వ', 'U'), ('చ్చు', '|'), ('న', '|'), ('ప', '|'), ('కీ', 'U'), ('ర్తి', '|'), ('యె', '|'), ('ఱు', '|'), ('గ', '|'), ('వే', 'U'), ('మి', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B168" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
         <is>
           <t>ఘోరకబంధుదీర్ఘోరుదోర్దండముల్‌- తరిగి వచ్చిన మాట తథ్య మేని
 పంఙ్క్తికంఠాత్మజ ఫణిరాజబంధమో- చనుఁడ వై వచ్చుట సత్యమేని
@@ -5789,63 +5288,57 @@
 మారీచు దుస్తరమాయాభ్రమతఁ బాసి- విజయ మొందినసుద్ధి నిజమ యేని</t>
         </is>
       </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
           <t>[('ఘో', 'U'), ('ర', '|'), ('క', '|'), ('బం', 'U'), ('ధు', '|'), ('దీ', 'U'), ('ర్ఘో', 'U'), ('రు', '|'), ('దో', 'U'), ('ర్దం', 'U'), ('డ', '|'), ('ము', 'U'), ('ల్త', '|'), ('రి', '|'), ('గి', '|'), ('వ', 'U'), ('చ్చి', '|'), ('న', '|'), ('మా', 'U'), ('ట', '|'), ('త', 'U'), ('థ్య', '|'), ('మే', 'U'), ('ని', '|'), ('పం', 'U'), ('ఙ్క్తి', '|'), ('కం', 'U'), ('ఠా', 'U'), ('త్మ', '|'), ('జ', '|'), ('ఫ', '|'), ('ణి', '|'), ('రా', 'U'), ('జ', '|'), ('బం', 'U'), ('ధ', '|'), ('మో', 'U'), ('చ', '|'), ('ను', '|'), ('డ', '|'), ('వై', 'U'), ('వ', 'U'), ('చ్చు', '|'), ('ట', '|'), ('స', 'U'), ('త్య', '|'), ('మే', 'U'), ('ని', '|'), ('మై', 'U'), ('రా', 'U'), ('వ', '|'), ('ణా', 'U'), ('భే', 'U'), ('ద్య', '|'), ('కా', 'U'), ('రా', 'U'), ('గృ', '|'), ('హ', '|'), ('ము', '|'), ('గూ', 'U'), ('ల్చి', 'U'), ('బ్ర', '|'), ('ది', '|'), ('కి', '|'), ('వ', 'U'), ('చ్చి', '|'), ('న', '|'), ('ప', 'U'), ('ల్కు', '|'), ('భ', '|'), ('ద్ర', '|'), ('మే', 'U'), ('ని', '|'), ('మా', 'U'), ('రీ', 'U'), ('చు', '|'), ('దు', 'U'), ('స్త', '|'), ('ర', '|'), ('మా', 'U'), ('యా', 'U'), ('భ్ర', '|'), ('మ', '|'), ('త', '|'), ('బా', 'U'), ('సి', '|'), ('వి', '|'), ('జ', '|'), ('య', '|'), ('మొం', 'U'), ('ది', '|'), ('న', '|'), ('సు', 'U'), ('ద్ధి', '|'), ('ని', '|'), ('జ', '|'), ('మ', '|'), ('యే', 'U'), ('ని', '|')]</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>కలిత రాజోపచార భోగములఁ గీర్తి-శాలి పై యిందు మెఱయుట సాక్షి జగతి
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>కలిత రాజోపచార భోగములఁ గీర్తి-శాలి పై యిందు మెఱయుట సాక్షి జగతి
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('లి', '|'), ('త', '|'), ('రా', 'U'), ('జో', 'U'), ('ప', '|'), ('చా', 'U'), ('ర', '|'), ('భో', 'U'), ('గ', '|'), ('ము', '|'), ('ల', '|'), ('గీ', 'U'), ('ర్తి', '|'), ('శా', 'U'), ('లి', '|'), ('పై', 'U'), ('యిం', 'U'), ('దు', '|'), ('మె', '|'), ('ఱ', '|'), ('యు', '|'), ('ట', '|'), ('సా', 'U'), ('క్షి', '|'), ('జ', '|'), ('గ', '|'), ('తి', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B170" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
         <is>
           <t>నీ శాంతి యంభోధి నిర్భరాంబువులు బా- ణముఖంబునకుఁ దెచ్చు నాఁడె తెలిసె
 నీ కోప మరి రావణైకానుజన్ము నా- నగరి రాజుగఁ జేయు నాఁడె తెలిసె
@@ -5853,63 +5346,57 @@
 నీయభిజ్ఞత యవినిందిత నీతన్వి- నగ్నినిఁ జొరు మన్న యపుడె తెలిసె</t>
         </is>
       </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('శాం', 'U'), ('తి', '|'), ('యం', 'U'), ('భో', 'U'), ('ధి', '|'), ('ని', 'U'), ('ర్భ', '|'), ('రాం', 'U'), ('బు', '|'), ('వు', '|'), ('లు', '|'), ('బా', 'U'), ('ణ', '|'), ('ము', '|'), ('ఖం', 'U'), ('బు', '|'), ('న', '|'), ('కు', '|'), ('దె', 'U'), ('చ్చు', '|'), ('నా', 'U'), ('డె', '|'), ('తె', '|'), ('లి', '|'), ('సె', '|'), ('నీ', 'U'), ('కో', 'U'), ('ప', '|'), ('మ', '|'), ('రి', '|'), ('రా', 'U'), ('వ', '|'), ('ణై', 'U'), ('కా', 'U'), ('ను', '|'), ('జ', 'U'), ('న్ము', '|'), ('నా', 'U'), ('న', '|'), ('గ', '|'), ('రి', '|'), ('రా', 'U'), ('జు', '|'), ('గ', '|'), ('జే', 'U'), ('యు', '|'), ('నా', 'U'), ('డె', '|'), ('తె', '|'), ('లి', '|'), ('సె', '|'), ('నీ', 'U'), ('కీ', 'U'), ('ర్తి', '|'), ('క', '|'), ('ప', '|'), ('ట', '|'), ('దు', 'U'), ('ర్ని', '|'), ('తు', '|'), ('డౌ', 'U'), ('ధ్వాం', 'U'), ('క్ష', '|'), ('దా', 'U'), ('న', '|'), ('వు', '|'), ('త', 'U'), ('ప్పు', '|'), ('గా', 'U'), ('చి', '|'), ('న', '|'), ('నా', 'U'), ('డె', '|'), ('తె', '|'), ('లి', '|'), ('సె', '|'), ('నీ', 'U'), ('య', '|'), ('భి', 'U'), ('జ్ఞ', '|'), ('త', '|'), ('య', '|'), ('వి', '|'), ('నిం', 'U'), ('ది', '|'), ('త', '|'), ('నీ', 'U'), ('త', 'U'), ('న్వి', '|'), ('న', 'U'), ('గ్ని', '|'), ('ని', '|'), ('జొ', '|'), ('రు', '|'), ('మ', 'U'), ('న్న', '|'), ('య', '|'), ('పు', '|'), ('డె', '|'), ('తె', '|'), ('లి', '|'), ('సె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నెంచరాని గుణాఢ్యుఁడ వీవె యనుచుఁ-దెలిసి మ్రొక్కెద నితర మౌ దిక్కు లేక
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>నెంచరాని గుణాఢ్యుఁడ వీవె యనుచుఁ-దెలిసి మ్రొక్కెద నితర మౌ దిక్కు లేక
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
           <t>[('నెం', 'U'), ('చ', '|'), ('రా', 'U'), ('ని', '|'), ('గు', '|'), ('ణా', 'U'), ('ఢ్యు', '|'), ('డ', '|'), ('వీ', 'U'), ('వె', '|'), ('య', '|'), ('ను', '|'), ('చు', '|'), ('దె', '|'), ('లి', '|'), ('సి', '|'), ('మ్రొ', 'U'), ('క్కె', '|'), ('ద', '|'), ('ని', '|'), ('త', '|'), ('ర', '|'), ('మౌ', 'U'), ('ది', 'U'), ('క్కు', '|'), ('లే', 'U'), ('క', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B172" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
         <is>
           <t>జనకువాక్యమున రాజ్యవిసర్జనమె కాని- యడరు శౌర్య మొకింత విడిచినావె?
 దీక్ష నాభరణము ల్దివియు మాత్రమె కాని- వర ధనుర్బాణము ల్వదలినావె?
@@ -5917,63 +5404,57 @@
 ప్రతినఁ బరార్థమే మితర మొల్లవు గాని- యభిమానధనముపై నలిగినావె?</t>
         </is>
       </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
           <t>[('జ', '|'), ('న', '|'), ('కు', '|'), ('వా', 'U'), ('క్య', '|'), ('ము', '|'), ('న', '|'), ('రా', 'U'), ('జ్య', '|'), ('వి', '|'), ('స', 'U'), ('ర్జ', '|'), ('న', '|'), ('మె', '|'), ('కా', 'U'), ('ని', '|'), ('య', '|'), ('డ', '|'), ('రు', '|'), ('శౌ', 'U'), ('ర్య', '|'), ('మొ', '|'), ('కిం', 'U'), ('త', '|'), ('వి', '|'), ('డి', '|'), ('చి', '|'), ('నా', 'U'), ('వె', '|'), ('దీ', 'U'), ('క్ష', '|'), ('నా', 'U'), ('భ', '|'), ('ర', '|'), ('ణ', '|'), ('ము', 'U'), ('ల్ది', '|'), ('వి', '|'), ('యు', '|'), ('మా', 'U'), ('త్ర', '|'), ('మె', '|'), ('కా', 'U'), ('ని', '|'), ('వ', '|'), ('ర', '|'), ('ధ', '|'), ('ను', 'U'), ('ర్బా', 'U'), ('ణ', '|'), ('ము', 'U'), ('ల్వ', '|'), ('ద', '|'), ('లి', '|'), ('నా', 'U'), ('వె', 'U'), ('వ్ర', '|'), ('త', '|'), ('మ', '|'), ('ని', '|'), ('కాం', 'U'), ('చ', '|'), ('నాం', 'U'), ('బ', '|'), ('ర', '|'), ('ము', '|'), ('గ', 'U'), ('ట్ట', '|'), ('వు', '|'), ('గా', 'U'), ('ని', '|'), ('బి', '|'), ('గు', '|'), ('వు', '|'), ('వ', 'U'), ('జ్రాం', 'U'), ('గి', '|'), ('మై', 'U'), ('వి', '|'), ('ద', '|'), ('చి', '|'), ('నా', 'U'), ('వె', 'U'), ('ప్ర', '|'), ('తి', '|'), ('న', '|'), ('బ', '|'), ('రా', 'U'), ('ర్థ', '|'), ('మే', 'U'), ('మి', '|'), ('త', '|'), ('ర', '|'), ('మొ', 'U'), ('ల్ల', '|'), ('వు', '|'), ('గా', 'U'), ('ని', '|'), ('య', '|'), ('భి', '|'), ('మా', 'U'), ('న', '|'), ('ధ', '|'), ('న', '|'), ('ము', '|'), ('పై', 'U'), ('న', '|'), ('లి', '|'), ('గి', '|'), ('నా', 'U'), ('వె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నిఖిల రక్షోవిదారణ నిర్భయాంక-వేషధారివి నీ మునివృత్తి యేమి?
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>నిఖిల రక్షోవిదారణ నిర్భయాంక-వేషధారివి నీ మునివృత్తి యేమి?
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
           <t>[('ని', '|'), ('ఖి', '|'), ('ల', '|'), ('ర', 'U'), ('క్షో', 'U'), ('వి', '|'), ('దా', 'U'), ('ర', '|'), ('ణ', '|'), ('ని', 'U'), ('ర్భ', '|'), ('యాం', 'U'), ('క', '|'), ('వే', 'U'), ('ష', '|'), ('ధా', 'U'), ('రి', '|'), ('వి', '|'), ('నీ', 'U'), ('ము', '|'), ('ని', '|'), ('వృ', 'U'), ('త్తి', '|'), ('యే', 'U'), ('మి', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B174" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
         <is>
           <t>వెఱపించఁ గలవొ చేవిలు నీ కొసంగి తా- విగతరోషుం డైన విప్రవరునిఁ
 గట్టించఁ గలవొ సాగరముపై సేతువు- మలలఁ గోఁతులమూక లలరఁ బట్టి
@@ -5981,63 +5462,57 @@
 వేంచేయఁ గలవొ విన్వీథిఁ దేరగ నున్న- పుష్పకం బెక్కి నీపురికి మరల</t>
         </is>
       </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
           <t>[('వె', '|'), ('ఱ', '|'), ('పిం', 'U'), ('చ', '|'), ('గ', '|'), ('ల', '|'), ('వొ', '|'), ('చే', 'U'), ('వి', '|'), ('లు', '|'), ('నీ', 'U'), ('కొ', '|'), ('సం', 'U'), ('గి', '|'), ('తా', 'U'), ('వి', '|'), ('గ', '|'), ('త', '|'), ('రో', 'U'), ('షుం', 'U'), ('డై', 'U'), ('న', '|'), ('వి', 'U'), ('ప్ర', '|'), ('వ', '|'), ('రు', '|'), ('ని', '|'), ('గ', 'U'), ('ట్టిం', 'U'), ('చ', '|'), ('గ', '|'), ('ల', '|'), ('వొ', '|'), ('సా', 'U'), ('గ', '|'), ('ర', '|'), ('ము', '|'), ('పై', 'U'), ('సే', 'U'), ('తు', '|'), ('వు', '|'), ('మ', '|'), ('ల', '|'), ('ల', '|'), ('గో', 'U'), ('తు', '|'), ('ల', '|'), ('మూ', 'U'), ('క', '|'), ('ల', '|'), ('ల', '|'), ('ర', '|'), ('బ', 'U'), ('ట్టి', '|'), ('ఘ', '|'), ('న', '|'), ('త', '|'), ('నీ', 'U'), ('గ', '|'), ('ల', '|'), ('వొ', '|'), ('య', 'U'), ('న్న', '|'), ('ను', '|'), ('గొ', 'U'), ('ట్టి', '|'), ('త', 'U'), ('మ్ము', '|'), ('న', '|'), ('కా', 'U'), ('రా', 'U'), ('జ్య', '|'), ('మా', 'U'), ('చం', 'U'), ('ద్ర', '|'), ('తా', 'U'), ('ర', '|'), ('క', '|'), ('ము', '|'), ('గ', '|'), ('వేం', 'U'), ('చే', 'U'), ('య', '|'), ('గ', '|'), ('ల', '|'), ('వొ', '|'), ('వి', 'U'), ('న్వీ', 'U'), ('థి', '|'), ('దే', 'U'), ('ర', '|'), ('గ', '|'), ('ను', 'U'), ('న్న', '|'), ('పు', 'U'), ('ష్ప', '|'), ('కం', 'U'), ('బె', 'U'), ('క్కి', '|'), ('నీ', 'U'), ('పు', '|'), ('రి', '|'), ('కి', '|'), ('మ', '|'), ('ర', '|'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>జగతి నిటు సంతతోత్సాహచరణమునకు-యుక్తి సేయుదు వోహొ నీ శక్తి దెలిసె
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>జగతి నిటు సంతతోత్సాహచరణమునకు-యుక్తి సేయుదు వోహొ నీ శక్తి దెలిసె
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
           <t>[('జ', '|'), ('గ', '|'), ('తి', '|'), ('ని', '|'), ('టు', '|'), ('సం', 'U'), ('త', '|'), ('తో', 'U'), ('త్సా', 'U'), ('హ', '|'), ('చ', '|'), ('ర', '|'), ('ణ', '|'), ('ము', '|'), ('న', '|'), ('కు', '|'), ('యు', 'U'), ('క్తి', '|'), ('సే', 'U'), ('యు', '|'), ('దు', '|'), ('వో', 'U'), ('హొ', '|'), ('నీ', 'U'), ('శ', 'U'), ('క్తి', '|'), ('దె', '|'), ('లి', '|'), ('సె', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B176" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
         <is>
           <t>ని న్నెదుర్కొన రాని నెపమునఁ గోపించి- గోపితహితు నూతుఁ గొట్టవలెనె?
 సంబంధినోటఁ గొంచెపుమాట రా వాని- కరిపురం బలుకఁ బెకల్పవలెనె?
@@ -6045,63 +5520,57 @@
 చెలికానివలె నొద్దఁ చేరి యెత్తుకొనంగఁ- గినుకఁ ప్రలంబునిఁ దునుమవలెనె?</t>
         </is>
       </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F176" t="inlineStr">
-        <is>
           <t>[('ని', 'U'), ('న్నె', '|'), ('దు', 'U'), ('ర్కొ', '|'), ('న', '|'), ('రా', 'U'), ('ని', '|'), ('నె', '|'), ('ప', '|'), ('ము', '|'), ('న', '|'), ('గో', 'U'), ('పిం', 'U'), ('చి', '|'), ('గో', 'U'), ('పి', '|'), ('త', '|'), ('హి', '|'), ('తు', '|'), ('నూ', 'U'), ('తు', '|'), ('గొ', 'U'), ('ట్ట', '|'), ('వ', '|'), ('లె', '|'), ('నె', '|'), ('సం', 'U'), ('బం', 'U'), ('ధి', '|'), ('నో', 'U'), ('ట', '|'), ('గొం', 'U'), ('చె', '|'), ('పు', '|'), ('మా', 'U'), ('ట', '|'), ('రా', 'U'), ('వా', 'U'), ('ని', '|'), ('క', '|'), ('రి', '|'), ('పు', '|'), ('రం', 'U'), ('బ', '|'), ('లు', '|'), ('క', '|'), ('బె', '|'), ('క', 'U'), ('ల్ప', '|'), ('వ', '|'), ('లె', '|'), ('నె', '|'), ('ని', '|'), ('ను', '|'), ('జూ', 'U'), ('చి', '|'), ('వే', 'U'), ('డ్క', '|'), ('నొం', 'U'), ('ది', '|'), ('న', '|'), ('గ', 'U'), ('ర్వ', '|'), ('ము', '|'), ('గ', '|'), ('నెం', 'U'), ('చి', '|'), ('నిం', 'U'), ('డి', '|'), ('పా', 'U'), ('ఱె', '|'), ('డు', '|'), ('నీ', 'U'), ('రు', '|'), ('ని', '|'), ('లు', '|'), ('ప', '|'), ('వ', '|'), ('లె', '|'), ('నె', '|'), ('చె', '|'), ('లి', '|'), ('కా', 'U'), ('ని', '|'), ('వ', '|'), ('లె', '|'), ('నొ', 'U'), ('ద్ద', '|'), ('చే', 'U'), ('రి', '|'), ('యె', 'U'), ('త్తు', '|'), ('కొ', '|'), ('నం', 'U'), ('గ', '|'), ('గి', '|'), ('ను', '|'), ('క', 'U'), ('ప్ర', '|'), ('లం', 'U'), ('బు', '|'), ('ని', '|'), ('దు', '|'), ('ను', '|'), ('మ', '|'), ('వ', '|'), ('లె', '|'), ('నె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>ఎంతరోసంబు గలవాఁడ వేమి నీవు-తెలివికాఁడవె బలరామ! తెలిసె నిందు
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>ఎంతరోసంబు గలవాఁడ వేమి నీవు-తెలివికాఁడవె బలరామ! తెలిసె నిందు
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
           <t>[('ఎం', 'U'), ('త', '|'), ('రో', 'U'), ('సం', 'U'), ('బు', '|'), ('గ', '|'), ('ల', '|'), ('వా', 'U'), ('డ', '|'), ('వే', 'U'), ('మి', '|'), ('నీ', 'U'), ('వు', '|'), ('తె', '|'), ('లి', '|'), ('వి', '|'), ('కా', 'U'), ('డ', '|'), ('వె', '|'), ('బ', '|'), ('ల', '|'), ('రా', 'U'), ('మ', '|'), ('తె', '|'), ('లి', '|'), ('సె', '|'), ('నిం', 'U'), ('దు', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B178" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
         <is>
           <t>పరపురుషాకృత గురుతుగాఁ జూడక- త్రిపుర పతివ్రతాతిలకములను
 విటపయుక్తి భ్రమించి విఫలభ్రమతఁజేసి- తత్సతీపతుల దుర్దాంతబలుల
@@ -6109,63 +5578,57 @@
 గుణనిషంగాస్త్రము ల్కోరినట్లుండు నే- సమకూర్చి యసురుల సంహరించి</t>
         </is>
       </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('ర', '|'), ('పు', '|'), ('రు', '|'), ('షా', 'U'), ('కృ', '|'), ('త', '|'), ('గు', '|'), ('రు', '|'), ('తు', '|'), ('గా', 'U'), ('జూ', 'U'), ('డ', '|'), ('క', 'U'), ('త్రి', '|'), ('పు', '|'), ('ర', '|'), ('ప', '|'), ('తి', 'U'), ('వ్ర', '|'), ('తా', 'U'), ('తి', '|'), ('ల', '|'), ('క', '|'), ('ము', '|'), ('ల', '|'), ('ను', '|'), ('వి', '|'), ('ట', '|'), ('ప', '|'), ('యు', 'U'), ('క్తి', 'U'), ('భ్ర', '|'), ('మిం', 'U'), ('చి', '|'), ('వి', '|'), ('ఫ', '|'), ('ల', 'U'), ('భ్ర', '|'), ('మ', '|'), ('త', '|'), ('జే', 'U'), ('సి', '|'), ('త', 'U'), ('త్స', '|'), ('తీ', 'U'), ('ప', '|'), ('తు', '|'), ('ల', '|'), ('దు', '|'), ('ర్దాం', 'U'), ('త', '|'), ('బ', '|'), ('లు', '|'), ('ల', '|'), ('హ', '|'), ('త', '|'), ('ము', '|'), ('సే', 'U'), ('యిం', 'U'), ('చి', '|'), ('తి', '|'), ('వ', '|'), ('ల', '|'), ('మ', '|'), ('హా', 'U'), ('న', '|'), ('టు', '|'), ('ని', '|'), ('చే', 'U'), ('ర', '|'), ('థా', 'U'), ('ర', '|'), ('ధాం', 'U'), ('గా', 'U'), ('శ్వ', '|'), ('సా', 'U'), ('ర', '|'), ('థి', '|'), ('శ', '|'), ('రా', 'U'), ('న', '|'), ('గు', '|'), ('ణ', '|'), ('ని', '|'), ('షం', 'U'), ('గా', 'U'), ('స్త్ర', '|'), ('ము', 'U'), ('ల్కో', 'U'), ('రి', '|'), ('న', 'U'), ('ట్లుం', 'U'), ('డు', '|'), ('నే', 'U'), ('స', '|'), ('మ', '|'), ('కూ', 'U'), ('ర్చి', '|'), ('య', '|'), ('సు', '|'), ('రు', '|'), ('ల', '|'), ('సం', 'U'), ('హ', '|'), ('రిం', 'U'), ('చి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>సాహసుఁడ వైతిని న్నుంచి శంకరుండు-త్రిపురసంహరుఁ డను నాఖ్యఁ దెచ్చుకొనియె
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>సాహసుఁడ వైతిని న్నుంచి శంకరుండు-త్రిపురసంహరుఁ డను నాఖ్యఁ దెచ్చుకొనియె
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
           <t>[('సా', 'U'), ('హ', '|'), ('సు', '|'), ('డ', '|'), ('వై', 'U'), ('తి', '|'), ('ని', 'U'), ('న్నుం', 'U'), ('చి', '|'), ('శం', 'U'), ('క', '|'), ('రుం', 'U'), ('డు', 'U'), ('త్రి', '|'), ('పు', '|'), ('ర', '|'), ('సం', 'U'), ('హ', '|'), ('రు', '|'), ('డ', '|'), ('ను', '|'), ('నా', 'U'), ('ఖ్య', '|'), ('దె', 'U'), ('చ్చు', '|'), ('కొ', '|'), ('ని', '|'), ('యె', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B180" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
         <is>
           <t>సకల వర్ణంబులు సంకరంబులు జేసి- యఖిల ధర్మములు శూన్యములు సేసి
 భూతలంబును బాపభూయిష్ఠముగఁ సేసి-పరగఁ బ్రపంచంబు భ్రష్టు సేసి
@@ -6173,63 +5636,57 @@
 ఖడ్గచంచద్ధారఁ గలుషాత్ముల వధించి- శిష్టసంరక్షణ సేయు టెల్ల</t>
         </is>
       </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
           <t>[('స', '|'), ('క', '|'), ('ల', '|'), ('వ', 'U'), ('ర్ణం', 'U'), ('బు', '|'), ('లు', '|'), ('సం', 'U'), ('క', '|'), ('రం', 'U'), ('బు', '|'), ('లు', '|'), ('జే', 'U'), ('సి', '|'), ('య', '|'), ('ఖి', '|'), ('ల', '|'), ('ధ', '|'), ('ర్మ', '|'), ('ము', '|'), ('లు', '|'), ('శూ', 'U'), ('న్య', '|'), ('ము', '|'), ('లు', '|'), ('సే', 'U'), ('సి', '|'), ('భూ', 'U'), ('త', '|'), ('లం', 'U'), ('బు', '|'), ('ను', '|'), ('బా', 'U'), ('ప', '|'), ('భూ', 'U'), ('యి', 'U'), ('ష్ఠ', '|'), ('ము', '|'), ('గ', '|'), ('సే', 'U'), ('సి', '|'), ('ప', '|'), ('ర', '|'), ('గ', 'U'), ('బ్ర', '|'), ('పం', 'U'), ('చం', 'U'), ('బు', 'U'), ('భ్ర', 'U'), ('ష్టు', '|'), ('సే', 'U'), ('సి', '|'), ('క', '|'), ('లి', '|'), ('వి', '|'), ('జృం', 'U'), ('భిం', 'U'), ('చి', '|'), ('న', '|'), ('క', '|'), ('డ', '|'), ('ప', '|'), ('ట', '|'), ('నా', 'U'), ('నీ', 'U'), ('వు', '|'), ('తు', '|'), ('ర', '|'), ('గ', '|'), ('వా', 'U'), ('హ', '|'), ('ను', '|'), ('డ', '|'), ('వై', 'U'), ('దో', 'U'), ('ర్వి', '|'), ('రా', 'U'), ('జి', '|'), ('ఖ', 'U'), ('డ్గ', '|'), ('చం', 'U'), ('చ', 'U'), ('ద్ధా', 'U'), ('ర', '|'), ('గ', '|'), ('లు', '|'), ('షా', 'U'), ('త్ము', '|'), ('ల', '|'), ('వ', '|'), ('ధిం', 'U'), ('చి', '|'), ('శి', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('ర', 'U'), ('క్ష', '|'), ('ణ', '|'), ('సే', 'U'), ('యు', '|'), ('టె', 'U'), ('ల్ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>ననిశము చరాచరాది జీవావనైక-జాగరూకుఁడవా నీవు జాగు దెలిసె
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>ననిశము చరాచరాది జీవావనైక-జాగరూకుఁడవా నీవు జాగు దెలిసె
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('ని', '|'), ('శ', '|'), ('ము', '|'), ('చ', '|'), ('రా', 'U'), ('చ', '|'), ('రా', 'U'), ('ది', '|'), ('జీ', 'U'), ('వా', 'U'), ('వ', '|'), ('నై', 'U'), ('క', '|'), ('జా', 'U'), ('గ', '|'), ('రూ', 'U'), ('కు', '|'), ('డ', '|'), ('వా', 'U'), ('నీ', 'U'), ('వు', '|'), ('జా', 'U'), ('గు', '|'), ('దె', '|'), ('లి', '|'), ('సె', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B182" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
         <is>
           <t>భువనమోహన! కృష్ణమూర్తివి నీ వేని- ఆలీల లిచ్చట నాడవలదె?
 బలసముజ్జ్వల కామపాలుఁడ వీ వేని- దీపించి యాబల్మిఁ జూపవలదె?
@@ -6237,63 +5694,57 @@
 సత్యవిక్రమ! రామచంద్రుఁడ వీ వేని- ఆపౌరుష మొకింత చూపవలదె?</t>
         </is>
       </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
           <t>[('భు', '|'), ('వ', '|'), ('న', '|'), ('మో', 'U'), ('హ', '|'), ('న', '|'), ('కృ', 'U'), ('ష్ణ', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('వి', '|'), ('నీ', 'U'), ('వే', 'U'), ('ని', '|'), ('ఆ', 'U'), ('లీ', 'U'), ('ల', '|'), ('లి', 'U'), ('చ్చ', '|'), ('ట', '|'), ('నా', 'U'), ('డ', '|'), ('వ', '|'), ('ల', '|'), ('దె', '|'), ('బ', '|'), ('ల', '|'), ('స', '|'), ('ము', 'U'), ('జ్జ్వ', '|'), ('ల', '|'), ('కా', 'U'), ('మ', '|'), ('పా', 'U'), ('లు', '|'), ('డ', '|'), ('వీ', 'U'), ('వే', 'U'), ('ని', '|'), ('దీ', 'U'), ('పిం', 'U'), ('చి', '|'), ('యా', 'U'), ('బ', 'U'), ('ల్మి', '|'), ('జూ', 'U'), ('ప', '|'), ('వ', '|'), ('ల', '|'), ('దె', '|'), ('వీ', 'U'), ('ర', '|'), ('నృ', '|'), ('సిం', 'U'), ('హా', 'U'), ('వ', '|'), ('తా', 'U'), ('రు', '|'), ('డ', '|'), ('వీ', 'U'), ('వే', 'U'), ('ని', '|'), ('ద', 'U'), ('త్తే', 'U'), ('జ', '|'), ('మిం', 'U'), ('తై', 'U'), ('న', '|'), ('దా', 'U'), ('ల్ప', '|'), ('వ', '|'), ('ల', '|'), ('దె', '|'), ('స', 'U'), ('త్య', '|'), ('వి', 'U'), ('క్ర', '|'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('చం', 'U'), ('ద్రు', '|'), ('డ', '|'), ('వీ', 'U'), ('వే', 'U'), ('ని', '|'), ('ఆ', 'U'), ('పౌ', 'U'), ('రు', '|'), ('ష', '|'), ('మొ', '|'), ('కిం', 'U'), ('త', '|'), ('చూ', 'U'), ('ప', '|'), ('వ', '|'), ('ల', '|'), ('దె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>యెంచ దేవర దైవమో యీవె కాని-చూపఱకు నీదు మహిమను జూపవలదె?
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>యెంచ దేవర దైవమో యీవె కాని-చూపఱకు నీదు మహిమను జూపవలదె?
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
           <t>[('యెం', 'U'), ('చ', '|'), ('దే', 'U'), ('వ', '|'), ('ర', '|'), ('దై', 'U'), ('వ', '|'), ('మో', 'U'), ('యీ', 'U'), ('వె', '|'), ('కా', 'U'), ('ని', '|'), ('చూ', 'U'), ('ప', '|'), ('ఱ', '|'), ('కు', '|'), ('నీ', 'U'), ('దు', '|'), ('మ', '|'), ('హి', '|'), ('మ', '|'), ('ను', '|'), ('జూ', 'U'), ('ప', '|'), ('వ', '|'), ('ల', '|'), ('దె', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B184" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
         <is>
           <t>ఆలగాపరివాఁడ వనక నిన్నఖిలవే- దాంతమార్గ విహారి వందు నేమి?
 హలముఁ బట్టివవాఁడ వనక న్బహువిధా- జాండనిర్వాహుఁడ వందు నేమి?
@@ -6301,63 +5752,57 @@
 యడవి ద్రిమ్మరివాఁడ వనక నిన్సకల లో- కాపన్నివారుఁడ వందు నేమి?</t>
         </is>
       </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
           <t>[('ఆ', 'U'), ('ల', '|'), ('గా', 'U'), ('ప', '|'), ('రి', '|'), ('వా', 'U'), ('డ', '|'), ('వ', '|'), ('న', '|'), ('క', '|'), ('ని', 'U'), ('న్న', '|'), ('ఖి', '|'), ('ల', '|'), ('వే', 'U'), ('దాం', 'U'), ('త', '|'), ('మా', 'U'), ('ర్గ', '|'), ('వి', '|'), ('హా', 'U'), ('రి', '|'), ('వం', 'U'), ('దు', '|'), ('నే', 'U'), ('మి', '|'), ('హ', '|'), ('ల', '|'), ('ము', '|'), ('బ', 'U'), ('ట్టి', '|'), ('వ', '|'), ('వా', 'U'), ('డ', '|'), ('వ', '|'), ('న', '|'), ('క', 'U'), ('న్బ', '|'), ('హు', '|'), ('వి', '|'), ('ధా', 'U'), ('జాం', 'U'), ('డ', '|'), ('ని', 'U'), ('ర్వా', 'U'), ('హు', '|'), ('డ', '|'), ('వం', 'U'), ('దు', '|'), ('నే', 'U'), ('మి', '|'), ('య', '|'), ('ల', '|'), ('సా', 'U'), ('రి', '|'), ('వా', 'U'), ('డ', '|'), ('వం', 'U'), ('చ', '|'), ('న', '|'), ('క', '|'), ('ని', 'U'), ('న్ను', '|'), ('స', '|'), ('మ', 'U'), ('స్త', '|'), ('శా', 'U'), ('స్త్ర', 'U'), ('ప్ర', '|'), ('పూ', 'U'), ('ర్ణు', '|'), ('డ', '|'), ('వం', 'U'), ('దు', '|'), ('నే', 'U'), ('మి', '|'), ('య', '|'), ('డ', '|'), ('వి', '|'), ('ద్రి', 'U'), ('మ్మ', '|'), ('రి', '|'), ('వా', 'U'), ('డ', '|'), ('వ', '|'), ('న', '|'), ('క', '|'), ('ని', 'U'), ('న్స', '|'), ('క', '|'), ('ల', '|'), ('లో', 'U'), ('కా', 'U'), ('ప', 'U'), ('న్ని', '|'), ('వా', 'U'), ('రు', '|'), ('డ', '|'), ('వం', 'U'), ('దు', '|'), ('నే', 'U'), ('మి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>పుడమి నీ దగు కొంచెపునడత లెంచ-కభినుతింతునె లోకైక విభుఁడ వనుచు
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>పుడమి నీ దగు కొంచెపునడత లెంచ-కభినుతింతునె లోకైక విభుఁడ వనుచు
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
           <t>[('పు', '|'), ('డ', '|'), ('మి', '|'), ('నీ', 'U'), ('ద', '|'), ('గు', '|'), ('కొం', 'U'), ('చె', '|'), ('పు', '|'), ('న', '|'), ('డ', '|'), ('త', '|'), ('లెం', 'U'), ('చ', '|'), ('క', '|'), ('భి', '|'), ('ను', '|'), ('తిం', 'U'), ('తు', '|'), ('నె', '|'), ('లో', 'U'), ('కై', 'U'), ('క', '|'), ('వి', '|'), ('భు', '|'), ('డ', '|'), ('వ', '|'), ('ను', '|'), ('చు', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B186" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
         <is>
           <t>మామయింటికిఁ బోవ మంచితీర్థము పుట్ట- దతఁ డంత కారువాఁడతఁడె సుమ్ము
 పునుక కంచము తోలుపుట్టంబు గలమిత్రుఁ- డెందు నన్నముఁ జెట్టు నేమి గప్పు
@@ -6365,63 +5810,57 @@
 యన్నది మేషాండ మున్న దిచ్చే దొక్క- తొఱ్ఱిగొ డ్డది నీకుఁ దోలు నేమి</t>
         </is>
       </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
           <t>[('మా', 'U'), ('మ', '|'), ('యిం', 'U'), ('టి', '|'), ('కి', '|'), ('బో', 'U'), ('వ', '|'), ('మం', 'U'), ('చి', '|'), ('తీ', 'U'), ('ర్థ', '|'), ('ము', '|'), ('పు', 'U'), ('ట్ట', '|'), ('ద', '|'), ('త', '|'), ('డం', 'U'), ('త', '|'), ('కా', 'U'), ('రు', '|'), ('వా', 'U'), ('డ', '|'), ('త', '|'), ('డె', '|'), ('సు', 'U'), ('మ్ము', '|'), ('పు', '|'), ('ను', '|'), ('క', '|'), ('కం', 'U'), ('చ', '|'), ('ము', '|'), ('తో', 'U'), ('లు', '|'), ('పు', 'U'), ('ట్టం', 'U'), ('బు', '|'), ('గ', '|'), ('ల', '|'), ('మి', 'U'), ('త్రు', '|'), ('డెం', 'U'), ('దు', '|'), ('న', 'U'), ('న్న', '|'), ('ము', '|'), ('జె', 'U'), ('ట్టు', '|'), ('నే', 'U'), ('మి', '|'), ('గ', 'U'), ('ప్పు', '|'), ('మా', 'U'), ('ట', '|'), ('మా', 'U'), ('త్రం', 'U'), ('బై', 'U'), ('న', '|'), ('మ', '|'), ('గు', '|'), ('వ', '|'), ('నో', 'U'), ('రా', 'U'), ('ప', '|'), ('దు', '|'), ('కొ', '|'), ('డు', '|'), ('కు', '|'), ('పె', 'U'), ('ట్తు', '|'), ('నె', '|'), ('త', '|'), ('ల', '|'), ('గొ', 'U'), ('ట్ల', '|'), ('మా', 'U'), ('రి', '|'), ('య', 'U'), ('న్న', '|'), ('ది', '|'), ('మే', 'U'), ('షాం', 'U'), ('డ', '|'), ('ము', 'U'), ('న్న', '|'), ('ది', 'U'), ('చ్చే', 'U'), ('దొ', 'U'), ('క్క', '|'), ('తొ', 'U'), ('ఱ్ఱి', '|'), ('గొ', 'U'), ('డ్డ', '|'), ('ది', '|'), ('నీ', 'U'), ('కు', '|'), ('దో', 'U'), ('లు', '|'), ('నే', 'U'), ('మి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>ఎవ్వరింటికిఁ బోయిన నేమి ఫలము-ఉన్నచో నుండి సిరులఁ బెంపొందు మయ్య
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>ఎవ్వరింటికిఁ బోయిన నేమి ఫలము-ఉన్నచో నుండి సిరులఁ బెంపొందు మయ్య
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
           <t>[('ఎ', 'U'), ('వ్వ', '|'), ('రిం', 'U'), ('టి', '|'), ('కి', '|'), ('బో', 'U'), ('యి', '|'), ('న', '|'), ('నే', 'U'), ('మి', '|'), ('ఫ', '|'), ('ల', '|'), ('ము', '|'), ('ఉ', 'U'), ('న్న', '|'), ('చో', 'U'), ('నుం', 'U'), ('డి', '|'), ('సి', '|'), ('రు', '|'), ('ల', '|'), ('బెం', 'U'), ('పొం', 'U'), ('దు', '|'), ('మ', 'U'), ('య్య', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B188" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
         <is>
           <t>దుర్జనభంజనోర్యుక్త సుదర్శన- ధారివే నీవు యదార్థముగను
 శాత్రవభయద విస్వన పాంచజన్య భూ- షిత కరాంబుజుఁడవే సిద్ధముగను
@@ -6429,63 +5868,57 @@
 ఘోరవిద్విడ్రక్త ధారార్ధ్రనందక- సంధానపాణివే సత్యముగను</t>
         </is>
       </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
           <t>[('దు', 'U'), ('ర్జ', '|'), ('న', '|'), ('భం', 'U'), ('జ', '|'), ('నో', 'U'), ('ర్యు', 'U'), ('క్త', '|'), ('సు', '|'), ('ద', 'U'), ('ర్శ', '|'), ('న', '|'), ('ధా', 'U'), ('రి', '|'), ('వే', 'U'), ('నీ', 'U'), ('వు', '|'), ('య', '|'), ('దా', 'U'), ('ర్థ', '|'), ('ము', '|'), ('గ', '|'), ('ను', '|'), ('శా', 'U'), ('త్ర', '|'), ('వ', '|'), ('భ', '|'), ('య', '|'), ('ద', '|'), ('వి', 'U'), ('స్వ', '|'), ('న', '|'), ('పాం', 'U'), ('చ', '|'), ('జ', 'U'), ('న్య', '|'), ('భూ', 'U'), ('షి', '|'), ('త', '|'), ('క', '|'), ('రాం', 'U'), ('బు', '|'), ('జు', '|'), ('డ', '|'), ('వే', 'U'), ('సి', 'U'), ('ద్ధ', '|'), ('ము', '|'), ('గ', '|'), ('ను', '|'), ('మ', 'U'), ('త్తా', 'U'), ('రి', '|'), ('భే', 'U'), ('ద', '|'), ('నా', 'U'), ('య', 'U'), ('త్త', '|'), ('కౌ', 'U'), ('మో', 'U'), ('ద', '|'), ('కి', '|'), ('ని', '|'), ('జ', '|'), ('క', '|'), ('ర', '|'), ('భ', '|'), ('రి', '|'), ('త', '|'), ('మే', 'U'), ('ని', 'U'), ('శ్చ', '|'), ('య', '|'), ('ము', '|'), ('గ', '|'), ('ఘో', 'U'), ('ర', '|'), ('వి', 'U'), ('ద్వి', 'U'), ('డ్ర', 'U'), ('క్త', '|'), ('ధా', 'U'), ('రా', 'U'), ('ర్ధ్ర', '|'), ('నం', 'U'), ('ద', '|'), ('క', '|'), ('సం', 'U'), ('ధా', 'U'), ('న', '|'), ('పా', 'U'), ('ణి', '|'), ('వే', 'U'), ('స', 'U'), ('త్య', '|'), ('ము', '|'), ('గ', '|'), ('ను', '|')]</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>సన్నుతామోఘ బాణైకశార్ఞ్గచక్ర-శయుఁడవే నమ్మవచ్చునే స్వామి! నిన్ను?
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>సన్నుతామోఘ బాణైకశార్ఞ్గచక్ర-శయుఁడవే నమ్మవచ్చునే స్వామి! నిన్ను?
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
           <t>[('స', 'U'), ('న్ను', '|'), ('తా', 'U'), ('మో', 'U'), ('ఘ', '|'), ('బా', 'U'), ('ణై', 'U'), ('క', '|'), ('శా', 'U'), ('ర్ఞ్గ', '|'), ('చ', 'U'), ('క్ర', '|'), ('శ', '|'), ('యు', '|'), ('డ', '|'), ('వే', 'U'), ('న', 'U'), ('మ్మ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('నే', 'U'), ('స్వా', 'U'), ('మి', '|'), ('ని', 'U'), ('న్ను', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B190" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
         <is>
           <t>ఇల్లు రత్నాకరం బెన్నాళ్ళకును జాలు- జీవనం బొరుల యాచింపవలెనె?
 ఇంట మహాలక్ష్మి యెప్పుడు దాండవం- బొనరించు నొకఁడు నీ కొసఁగవలెనె?
@@ -6493,63 +5926,57 @@
 పంటపైరులకాఁపు కంటఁ గాయుచునుండు- కోరికఁ బెరసొమ్ము గొనఁగవలెనె?</t>
         </is>
       </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
           <t>[('ఇ', 'U'), ('ల్లు', '|'), ('ర', 'U'), ('త్నా', 'U'), ('క', '|'), ('రం', 'U'), ('బె', 'U'), ('న్నా', 'U'), ('ళ్ళ', '|'), ('కు', '|'), ('ను', '|'), ('జా', 'U'), ('లు', '|'), ('జీ', 'U'), ('వ', '|'), ('నం', 'U'), ('బొ', '|'), ('రు', '|'), ('ల', '|'), ('యా', 'U'), ('చిం', 'U'), ('ప', '|'), ('వ', '|'), ('లె', '|'), ('నె', '|'), ('ఇం', 'U'), ('ట', '|'), ('మ', '|'), ('హా', 'U'), ('ల', 'U'), ('క్ష్మి', '|'), ('యె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('దాం', 'U'), ('డ', '|'), ('వం', 'U'), ('బొ', '|'), ('న', '|'), ('రిం', 'U'), ('చు', '|'), ('నొ', '|'), ('క', '|'), ('డు', '|'), ('నీ', 'U'), ('కొ', '|'), ('స', '|'), ('గ', '|'), ('వ', '|'), ('లె', '|'), ('నె', 'U'), ('స్థి', '|'), ('ర', '|'), ('త', '|'), ('లో', 'U'), ('లో', 'U'), ('న', '|'), ('ని', 'U'), ('క్షే', 'U'), ('పిం', 'U'), ('చు', '|'), ('ధ', '|'), ('న', '|'), ('ము', '|'), ('నెం', 'U'), ('చ', '|'), ('గ', '|'), ('రా', 'U'), ('ని', '|'), ('దొ', '|'), ('క', '|'), ('రి', '|'), ('జే', 'U'), ('జా', 'U'), ('ప', '|'), ('వ', '|'), ('లె', '|'), ('నె', '|'), ('పం', 'U'), ('ట', '|'), ('పై', 'U'), ('రు', '|'), ('ల', '|'), ('కా', 'U'), ('పు', '|'), ('కం', 'U'), ('ట', '|'), ('గా', 'U'), ('యు', '|'), ('చు', '|'), ('నుం', 'U'), ('డు', '|'), ('కో', 'U'), ('రి', '|'), ('క', '|'), ('బె', '|'), ('ర', '|'), ('సొ', 'U'), ('మ్ము', '|'), ('గొ', '|'), ('న', '|'), ('గ', '|'), ('వ', '|'), ('లె', '|'), ('నె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>ధాత్రి నెవ్వరి రక్షించఁ దలఁచినావొ-కోరువారలచేఁ బూజ గొందు వింతె
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>ధాత్రి నెవ్వరి రక్షించఁ దలఁచినావొ-కోరువారలచేఁ బూజ గొందు వింతె
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F191" t="inlineStr">
-        <is>
           <t>[('ధా', 'U'), ('త్రి', '|'), ('నె', 'U'), ('వ్వ', '|'), ('రి', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('చ', '|'), ('ద', '|'), ('ల', '|'), ('చి', '|'), ('నా', 'U'), ('వొ', '|'), ('కో', 'U'), ('రు', '|'), ('వా', 'U'), ('ర', '|'), ('ల', '|'), ('చే', 'U'), ('బూ', 'U'), ('జ', '|'), ('గొం', 'U'), ('దు', '|'), ('విం', 'U'), ('తె', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B192" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
         <is>
           <t>అబ్ధికన్యా వివాహ మహోత్సవము నాఁడుఁ- జూడలే దిచ్చోట జూడఁ గలిగె
 జానకీకల్యాణసంభ్రమం బానాఁడు- జూడలే దిచ్చోట జూడఁ గలిగె
@@ -6557,63 +5984,57 @@
 రేవతీపరిణయ శ్రీవిలాసంబపుడు- చూడలే దిచ్చోటఁ జూడఁ గలిగె</t>
         </is>
       </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F192" t="inlineStr">
-        <is>
           <t>[('అ', 'U'), ('బ్ధి', '|'), ('క', 'U'), ('న్యా', 'U'), ('వి', '|'), ('వా', 'U'), ('హ', '|'), ('మ', '|'), ('హో', 'U'), ('త్స', '|'), ('వ', '|'), ('ము', '|'), ('నా', 'U'), ('డు', '|'), ('జూ', 'U'), ('డ', '|'), ('లే', 'U'), ('ది', 'U'), ('చ్చో', 'U'), ('ట', '|'), ('జూ', 'U'), ('డ', '|'), ('గ', '|'), ('లి', '|'), ('గె', '|'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('క', 'U'), ('ల్యా', 'U'), ('ణ', '|'), ('సం', 'U'), ('భ్ర', '|'), ('మం', 'U'), ('బా', 'U'), ('నా', 'U'), ('డు', '|'), ('జూ', 'U'), ('డ', '|'), ('లే', 'U'), ('ది', 'U'), ('చ్చో', 'U'), ('ట', '|'), ('జూ', 'U'), ('డ', '|'), ('గ', '|'), ('లి', '|'), ('గె', '|'), ('భో', 'U'), ('జ', '|'), ('సు', '|'), ('తో', 'U'), ('ద్వా', 'U'), ('హ', '|'), ('భూ', 'U'), ('రి', '|'), ('వై', 'U'), ('భ', '|'), ('వ', '|'), ('మం', 'U'), ('దు', '|'), ('జూ', 'U'), ('డ', '|'), ('లే', 'U'), ('ది', 'U'), ('చ్చో', 'U'), ('ట', '|'), ('జూ', 'U'), ('డ', '|'), ('గ', '|'), ('లి', '|'), ('గె', '|'), ('రే', 'U'), ('వ', '|'), ('తీ', 'U'), ('ప', '|'), ('రి', '|'), ('ణ', '|'), ('య', 'U'), ('శ్రీ', 'U'), ('వి', '|'), ('లా', 'U'), ('సం', 'U'), ('బ', '|'), ('పు', '|'), ('డు', '|'), ('చూ', 'U'), ('డ', '|'), ('లే', 'U'), ('ది', 'U'), ('చ్చో', 'U'), ('ట', '|'), ('జూ', 'U'), ('డ', '|'), ('గ', '|'), ('లి', '|'), ('గె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>ననుచు నిట రాజ్యరమఁ బెండ్లియాడ-నిన్నుఁ బ్రజలు సేవించి సంతోషభరితులైరి
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>ననుచు నిట రాజ్యరమఁ బెండ్లియాడ-నిన్నుఁ బ్రజలు సేవించి సంతోషభరితులైరి
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F193" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('ను', '|'), ('చు', '|'), ('ని', '|'), ('ట', '|'), ('రా', 'U'), ('జ్య', '|'), ('ర', '|'), ('మ', '|'), ('బెం', 'U'), ('డ్లి', '|'), ('యా', 'U'), ('డ', '|'), ('ని', 'U'), ('న్ను', 'U'), ('బ్ర', '|'), ('జ', '|'), ('లు', '|'), ('సే', 'U'), ('విం', 'U'), ('చి', '|'), ('సం', 'U'), ('తో', 'U'), ('ష', '|'), ('భ', '|'), ('రి', '|'), ('తు', '|'), ('లై', 'U'), ('రి', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B194" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
         <is>
           <t>అఖిలలోక స్థాపనాచార్యమణి వయ్యు- నిజభక్తగురునిచే నిలుపుకొన్న
 గర్భస్థితానేక కమలజాండుఁడ వయ్యు- నొండుకోవెలని జెల్వొందుచున్న
@@ -6621,63 +6042,57 @@
 హరచతుర్ముఖ దేవతాగోచరుఁడ వయ్యు- నెప్పుడు దర్శనం బిచ్చుచున్న</t>
         </is>
       </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('ఖి', '|'), ('ల', '|'), ('లో', 'U'), ('క', 'U'), ('స్థా', 'U'), ('ప', '|'), ('నా', 'U'), ('చా', 'U'), ('ర్య', '|'), ('మ', '|'), ('ణి', '|'), ('వ', 'U'), ('య్యు', '|'), ('ని', '|'), ('జ', '|'), ('భ', 'U'), ('క్త', '|'), ('గు', '|'), ('రు', '|'), ('ని', '|'), ('చే', 'U'), ('ని', '|'), ('లు', '|'), ('పు', '|'), ('కొ', 'U'), ('న్న', '|'), ('గ', 'U'), ('ర్భ', 'U'), ('స్థి', '|'), ('తా', 'U'), ('నే', 'U'), ('క', '|'), ('క', '|'), ('మ', '|'), ('ల', '|'), ('జాం', 'U'), ('డు', '|'), ('డ', '|'), ('వ', 'U'), ('య్యు', '|'), ('నొం', 'U'), ('డు', '|'), ('కో', 'U'), ('వె', '|'), ('ల', '|'), ('ని', '|'), ('జె', 'U'), ('ల్వొం', 'U'), ('దు', '|'), ('చు', 'U'), ('న్న', '|'), ('బ', '|'), ('హు', '|'), ('చ', '|'), ('రా', 'U'), ('చ', '|'), ('ర', '|'), ('భూ', 'U'), ('త', '|'), ('ప', '|'), ('రి', '|'), ('పా', 'U'), ('ల', '|'), ('కు', '|'), ('డ', '|'), ('వ', 'U'), ('య్యు', '|'), ('భ', 'U'), ('క్తా', 'U'), ('ర్పి', '|'), ('తా', 'U'), ('ర్థ', '|'), ('ము', 'U'), ('ల్ప', 'U'), ('ట్టు', '|'), ('చు', 'U'), ('న్న', '|'), ('హ', '|'), ('ర', '|'), ('చ', '|'), ('తు', '|'), ('ర్ము', '|'), ('ఖ', '|'), ('దే', 'U'), ('వ', '|'), ('తా', 'U'), ('గో', 'U'), ('చ', '|'), ('రు', '|'), ('డ', '|'), ('వ', 'U'), ('య్యు', '|'), ('నె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('ద', 'U'), ('ర్శ', '|'), ('నం', 'U'), ('బి', 'U'), ('చ్చు', '|'), ('చు', 'U'), ('న్న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నిన్ను సేవింప రెవ్వరో పెన్నిధాన-మెదుట నుండంగఁ గనిమూసి యేఁగువారె
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>నిన్ను సేవింప రెవ్వరో పెన్నిధాన-మెదుట నుండంగఁ గనిమూసి యేఁగువారె
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
           <t>[('ని', 'U'), ('న్ను', '|'), ('సే', 'U'), ('విం', 'U'), ('ప', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రో', 'U'), ('పె', 'U'), ('న్ని', '|'), ('ధా', 'U'), ('న', '|'), ('మె', '|'), ('దు', '|'), ('ట', '|'), ('నుం', 'U'), ('డం', 'U'), ('గ', '|'), ('గ', '|'), ('ని', '|'), ('మూ', 'U'), ('సి', '|'), ('యే', 'U'), ('గు', '|'), ('వా', 'U'), ('రె', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B196" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
         <is>
           <t>కైలాస మేరు సంకాశ నాగాశన- స్కంధంబుపై రథోత్సవము గల్గఁ
 జందనమందార సంతానకల్పక- వనముల మృగయోత్సవమ్ము గల్గ
@@ -6685,63 +6100,57 @@
 బహుఫణారత్న శుంభద్భుజంగమ భోగ- వసతిఁ బర్యంకోత్సవంబు గల్గ</t>
         </is>
       </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
           <t>[('కై', 'U'), ('లా', 'U'), ('స', '|'), ('మే', 'U'), ('రు', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('నా', 'U'), ('గా', 'U'), ('శ', '|'), ('న', 'U'), ('స్కం', 'U'), ('ధం', 'U'), ('బు', '|'), ('పై', 'U'), ('ర', '|'), ('థో', 'U'), ('త్స', '|'), ('వ', '|'), ('ము', '|'), ('గ', 'U'), ('ల్గ', '|'), ('జం', 'U'), ('ద', '|'), ('న', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('సం', 'U'), ('తా', 'U'), ('న', '|'), ('క', 'U'), ('ల్ప', '|'), ('క', '|'), ('వ', '|'), ('న', '|'), ('ము', '|'), ('ల', '|'), ('మృ', '|'), ('గ', '|'), ('యో', 'U'), ('త్స', '|'), ('వ', 'U'), ('మ్ము', '|'), ('గ', 'U'), ('ల్గ', '|'), ('రం', 'U'), ('గ', 'U'), ('త్ప', '|'), ('యః', 'U'), ('ప', '|'), ('యో', 'U'), ('రా', 'U'), ('శి', '|'), ('వీ', 'U'), ('చి', '|'), ('క', '|'), ('ల', '|'), ('పై', 'U'), ('వ', 'U'), ('ర్ణిం', 'U'), ('ప', '|'), ('డో', 'U'), ('లో', 'U'), ('త్స', '|'), ('వం', 'U'), ('బు', '|'), ('గ', 'U'), ('ల్గ', '|'), ('బ', '|'), ('హు', '|'), ('ఫ', '|'), ('ణా', 'U'), ('ర', 'U'), ('త్న', '|'), ('శుం', 'U'), ('భ', 'U'), ('ద్భు', '|'), ('జం', 'U'), ('గ', '|'), ('మ', '|'), ('భో', 'U'), ('గ', '|'), ('వ', '|'), ('స', '|'), ('తి', '|'), ('బ', 'U'), ('ర్యం', 'U'), ('కో', 'U'), ('త్స', '|'), ('వం', 'U'), ('బు', '|'), ('గ', 'U'), ('ల్గ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>బరకృతోత్సవ మిచ్చట బ్రాఁతె నీకు-భక్త జనులకు నేత్రోత్సవంబె కాని
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>బరకృతోత్సవ మిచ్చట బ్రాఁతె నీకు-భక్త జనులకు నేత్రోత్సవంబె కాని
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
           <t>[('బ', '|'), ('ర', '|'), ('కృ', '|'), ('తో', 'U'), ('త్స', '|'), ('వ', '|'), ('మి', 'U'), ('చ్చ', '|'), ('ట', 'U'), ('బ్రా', 'U'), ('తె', '|'), ('నీ', 'U'), ('కు', '|'), ('భ', 'U'), ('క్త', '|'), ('జ', '|'), ('ను', '|'), ('ల', '|'), ('కు', '|'), ('నే', 'U'), ('త్రో', 'U'), ('త్స', '|'), ('వం', 'U'), ('బె', '|'), ('కా', 'U'), ('ని', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B198" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
         <is>
           <t>కోరిక లీను వైకుంఠంబులోని- లోననగరిలో నామూల నవ్యదివ్య
 సౌధంబుదాపలి సరసమందారవ- నాంతరామృత సరఃప్రాంతచంద్ర
@@ -6749,63 +6158,57 @@
 లక్ష్మీమనోజ్ఞ విలాసివశీకృత- సంభోగసామ్రాజ్యసంతతాభి</t>
         </is>
       </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr">
-        <is>
           <t>[('కో', 'U'), ('రి', '|'), ('క', '|'), ('లీ', 'U'), ('ను', '|'), ('వై', 'U'), ('కుం', 'U'), ('ఠం', 'U'), ('బు', '|'), ('లో', 'U'), ('ని', '|'), ('లో', 'U'), ('న', '|'), ('న', '|'), ('గ', '|'), ('రి', '|'), ('లో', 'U'), ('నా', 'U'), ('మూ', 'U'), ('ల', '|'), ('న', 'U'), ('వ్య', '|'), ('ది', 'U'), ('వ్య', '|'), ('సౌ', 'U'), ('ధం', 'U'), ('బు', '|'), ('దా', 'U'), ('ప', '|'), ('లి', '|'), ('స', '|'), ('ర', '|'), ('స', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('వ', '|'), ('నాం', 'U'), ('త', '|'), ('రా', 'U'), ('మృ', '|'), ('త', '|'), ('స', '|'), ('రః', 'U'), ('ప్రాం', 'U'), ('త', '|'), ('చం', 'U'), ('ద్ర', '|'), ('కాం', 'U'), ('తో', 'U'), ('ప', '|'), ('లో', 'U'), ('త్ప', '|'), ('ల', '|'), ('క', 'U'), ('ల్పి', '|'), ('త', '|'), ('ప', 'U'), ('ర్యం', 'U'), ('క', '|'), ('స', '|'), ('క', '|'), ('ల', '|'), ('సౌ', 'U'), ('భా', 'U'), ('గ్య', '|'), ('ల', 'U'), ('క్ష', '|'), ('ణ', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('మ', '|'), ('నో', 'U'), ('జ్ఞ', '|'), ('వి', '|'), ('లా', 'U'), ('సి', '|'), ('వ', '|'), ('శీ', 'U'), ('కృ', '|'), ('త', '|'), ('సం', 'U'), ('భో', 'U'), ('గ', '|'), ('సా', 'U'), ('మ్రా', 'U'), ('జ్య', '|'), ('సం', 'U'), ('త', '|'), ('తా', 'U'), ('భి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>రామమూర్తికి వాంఛేతర ప్రపంచ-మేమి గావరె లీలార్థ మింతె కాని
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>రామమూర్తికి వాంఛేతర ప్రపంచ-మేమి గావరె లీలార్థ మింతె కాని
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F199" t="inlineStr">
-        <is>
           <t>[('రా', 'U'), ('మ', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('కి', '|'), ('వాం', 'U'), ('ఛే', 'U'), ('త', '|'), ('ర', 'U'), ('ప్ర', '|'), ('పం', 'U'), ('చ', '|'), ('మే', 'U'), ('మి', '|'), ('గా', 'U'), ('వ', '|'), ('రె', '|'), ('లీ', 'U'), ('లా', 'U'), ('ర్థ', '|'), ('మిం', 'U'), ('తె', '|'), ('కా', 'U'), ('ని', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B200" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
         <is>
           <t>గుఱుతుగ సద్భక్తకోటి కీనాఁటికి- విడరాని బహుఋణస్థుఁడవు నీవు
 సేవకు లెన్నెన్ని త్రోవలఁ జనుచున్న- వదలక యనుసరించెదవు నీవు
@@ -6813,63 +6216,57 @@
 శ్రితు లంబలియు నైనఁ జేఁ జూప నది యెంత- యమృతభోగంబుగా నలరె దీవు</t>
         </is>
       </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
           <t>[('గు', '|'), ('ఱు', '|'), ('తు', '|'), ('గ', '|'), ('స', 'U'), ('ద్భ', 'U'), ('క్త', '|'), ('కో', 'U'), ('టి', '|'), ('కీ', 'U'), ('నా', 'U'), ('టి', '|'), ('కి', '|'), ('వి', '|'), ('డ', '|'), ('రా', 'U'), ('ని', '|'), ('బ', '|'), ('హు', '|'), ('ఋ', '|'), ('ణ', 'U'), ('స్థు', '|'), ('డ', '|'), ('వు', '|'), ('నీ', 'U'), ('వు', '|'), ('సే', 'U'), ('వ', '|'), ('కు', '|'), ('లె', 'U'), ('న్నె', 'U'), ('న్ని', 'U'), ('త్రో', 'U'), ('వ', '|'), ('ల', '|'), ('జ', '|'), ('ను', '|'), ('చు', 'U'), ('న్న', '|'), ('వ', '|'), ('ద', '|'), ('ల', '|'), ('క', '|'), ('య', '|'), ('ను', '|'), ('స', '|'), ('రిం', 'U'), ('చె', '|'), ('ద', '|'), ('వు', '|'), ('నీ', 'U'), ('వు', '|'), ('ని', '|'), ('జ', '|'), ('దా', 'U'), ('సు', '|'), ('లా', 'U'), ('త్మే', 'U'), ('చ్ఛ', '|'), ('ని', '|'), ('లి', '|'), ('పి', '|'), ('రె', 'U'), ('చ్చో', 'U'), ('ని', 'U'), ('న్ను', '|'), ('దొ', '|'), ('ల', '|'), ('గ', '|'), ('క', 'U'), ('చ్చో', 'U'), ('ట', '|'), ('నే', 'U'), ('ని', '|'), ('ల', '|'), ('చె', '|'), ('దీ', 'U'), ('వు', 'U'), ('శ్రి', '|'), ('తు', '|'), ('లం', 'U'), ('బ', '|'), ('లి', '|'), ('యు', '|'), ('నై', 'U'), ('న', '|'), ('జే', 'U'), ('జూ', 'U'), ('ప', '|'), ('న', '|'), ('ది', '|'), ('యెం', 'U'), ('త', '|'), ('య', '|'), ('మృ', '|'), ('త', '|'), ('భో', 'U'), ('గం', 'U'), ('బు', '|'), ('గా', 'U'), ('న', '|'), ('ల', '|'), ('రె', '|'), ('దీ', 'U'), ('వు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>జగము లన్నియు నీకు వశ్యము లటంటి-వీవు నిజదాసవశ్యుఁడ వెంత ఘనత?
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>జగము లన్నియు నీకు వశ్యము లటంటి-వీవు నిజదాసవశ్యుఁడ వెంత ఘనత?
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
           <t>[('జ', '|'), ('గ', '|'), ('ము', '|'), ('ల', 'U'), ('న్ని', '|'), ('యు', '|'), ('నీ', 'U'), ('కు', '|'), ('వ', 'U'), ('శ్య', '|'), ('ము', '|'), ('ల', '|'), ('టం', 'U'), ('టి', '|'), ('వీ', 'U'), ('వు', '|'), ('ని', '|'), ('జ', '|'), ('దా', 'U'), ('స', '|'), ('వ', 'U'), ('శ్యు', '|'), ('డ', '|'), ('వెం', 'U'), ('త', '|'), ('ఘ', '|'), ('న', '|'), ('త', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B202" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
         <is>
           <t>వెనుక వేసుకొని యుర్వీనాథకోటులు- సైంథవుఁ గావంగఁ జాలినారె?
 ధర నేయు తనసుతు శిర మెవ్వఁడతఁ డీల్గ- శాపించి సింధురా జోపినాఁడె?
@@ -6877,63 +6274,57 @@
 పరులచే నొవ్వని పంతంబు గలభీష్ము- డర్జునాస్త్రంబుల కాఁగినాఁడె?</t>
         </is>
       </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
           <t>[('వె', '|'), ('ను', '|'), ('క', '|'), ('వే', 'U'), ('సు', '|'), ('కొ', '|'), ('ని', '|'), ('యు', 'U'), ('ర్వీ', 'U'), ('నా', 'U'), ('థ', '|'), ('కో', 'U'), ('టు', '|'), ('లు', '|'), ('సైం', 'U'), ('థ', '|'), ('వు', '|'), ('గా', 'U'), ('వం', 'U'), ('గ', '|'), ('జా', 'U'), ('లి', '|'), ('నా', 'U'), ('రె', '|'), ('ధ', '|'), ('ర', '|'), ('నే', 'U'), ('యు', '|'), ('త', '|'), ('న', '|'), ('సు', '|'), ('తు', '|'), ('శి', '|'), ('ర', '|'), ('మె', 'U'), ('వ్వ', '|'), ('డ', '|'), ('త', '|'), ('డీ', 'U'), ('ల్గ', '|'), ('శా', 'U'), ('పిం', 'U'), ('చి', '|'), ('సిం', 'U'), ('ధు', '|'), ('రా', 'U'), ('జో', 'U'), ('పి', '|'), ('నా', 'U'), ('డె', '|'), ('సా', 'U'), ('టిం', 'U'), ('తు', '|'), ('నా', 'U'), ('స', 'U'), ('ర్వ', '|'), ('సై', 'U'), ('న్యం', 'U'), ('బు', '|'), ('ల', '|'), ('ని', '|'), ('క', 'U'), ('ర్ణు', '|'), ('చే', 'U'), ('శ', 'U'), ('క్తి', '|'), ('న', '|'), ('రు', '|'), ('నే', 'U'), ('య', '|'), ('జె', 'U'), ('ప్పి', '|'), ('నా', 'U'), ('రె', '|'), ('ప', '|'), ('రు', '|'), ('ల', '|'), ('చే', 'U'), ('నొ', 'U'), ('వ్వ', '|'), ('ని', '|'), ('పం', 'U'), ('తం', 'U'), ('బు', '|'), ('గ', '|'), ('ల', '|'), ('భీ', 'U'), ('ష్ము', '|'), ('డ', 'U'), ('ర్జు', '|'), ('నా', 'U'), ('స్త్రం', 'U'), ('బు', '|'), ('ల', '|'), ('కా', 'U'), ('గి', '|'), ('నా', 'U'), ('డె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>మనుజయత్నంబు బల మెంత మాత్ర మీవు-నిజము కరుణించు నాతఁడే విజయుఁ డరయ
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>మనుజయత్నంబు బల మెంత మాత్ర మీవు-నిజము కరుణించు నాతఁడే విజయుఁ డరయ
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('ను', '|'), ('జ', '|'), ('య', 'U'), ('త్నం', 'U'), ('బు', '|'), ('బ', '|'), ('ల', '|'), ('మెం', 'U'), ('త', '|'), ('మా', 'U'), ('త్ర', '|'), ('మీ', 'U'), ('వు', '|'), ('ని', '|'), ('జ', '|'), ('ము', '|'), ('క', '|'), ('రు', '|'), ('ణిం', 'U'), ('చు', '|'), ('నా', 'U'), ('త', '|'), ('డే', 'U'), ('వి', '|'), ('జ', '|'), ('యు', '|'), ('డ', '|'), ('ర', '|'), ('య', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B204" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
         <is>
           <t>ఆగామి సంచిత ప్రారబ్ధము లటుండ- నిజజన్మమందు నే నెల్లవేళ
 నఘములే చేసితి నని యుష్మత్సుధా- సదృశ నిర్హేతుక జాయమాను
@@ -6941,63 +6332,57 @@
 వారధిఁ దరియింపవలెఁ గాని గతి యితః- పర మెఱుంగను భక్తపాలనాంక!</t>
         </is>
       </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
-        <is>
           <t>[('ఆ', 'U'), ('గా', 'U'), ('మి', '|'), ('సం', 'U'), ('చి', '|'), ('త', 'U'), ('ప్రా', 'U'), ('ర', 'U'), ('బ్ధ', '|'), ('ము', '|'), ('ల', '|'), ('టుం', 'U'), ('డ', '|'), ('ని', '|'), ('జ', '|'), ('జ', 'U'), ('న్మ', '|'), ('మం', 'U'), ('దు', '|'), ('నే', 'U'), ('నె', 'U'), ('ల్ల', '|'), ('వే', 'U'), ('ళ', '|'), ('న', '|'), ('ఘ', '|'), ('ము', '|'), ('లే', 'U'), ('చే', 'U'), ('సి', '|'), ('తి', '|'), ('న', '|'), ('ని', '|'), ('యు', 'U'), ('ష్మ', 'U'), ('త్సు', '|'), ('ధా', 'U'), ('స', '|'), ('దృ', '|'), ('శ', '|'), ('ని', 'U'), ('ర్హే', 'U'), ('తు', '|'), ('క', '|'), ('జా', 'U'), ('య', '|'), ('మా', 'U'), ('ను', '|'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('క', '|'), ('టా', 'U'), ('క్ష', '|'), ('వీ', 'U'), ('క్ష', '|'), ('ణ', '|'), ('మెం', 'U'), ('చ', '|'), ('కె', 'U'), ('ప్పు', '|'), ('డో', 'U'), ('ప్ర', '|'), ('స', '|'), ('రిం', 'U'), ('ప', '|'), ('వ', '|'), ('లె', '|'), ('నే', 'U'), ('న', '|'), ('పా', 'U'), ('ర', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('వా', 'U'), ('ర', '|'), ('ధి', '|'), ('ద', '|'), ('రి', '|'), ('యిం', 'U'), ('ప', '|'), ('వ', '|'), ('లె', '|'), ('గా', 'U'), ('ని', '|'), ('గ', '|'), ('తి', '|'), ('యి', '|'), ('తః', 'U'), ('ప', '|'), ('ర', '|'), ('మె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('ను', '|'), ('భ', 'U'), ('క్త', '|'), ('పా', 'U'), ('ల', '|'), ('నాం', 'U'), ('క', '|')]</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>శేషపర్యంక! రాజ్యలక్ష్మీ సహాంక-ప్రధననిశ్శంక! యదుకులాంబుధిశశాంక!
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>శేషపర్యంక! రాజ్యలక్ష్మీ సహాంక-ప్రధననిశ్శంక! యదుకులాంబుధిశశాంక!
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
           <t>[('శే', 'U'), ('ష', '|'), ('ప', 'U'), ('ర్యం', 'U'), ('క', '|'), ('రా', 'U'), ('జ్య', '|'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('స', '|'), ('హాం', 'U'), ('క', 'U'), ('ప్ర', '|'), ('ధ', '|'), ('న', '|'), ('ని', 'U'), ('శ్శం', 'U'), ('క', '|'), ('య', '|'), ('దు', '|'), ('కు', '|'), ('లాం', 'U'), ('బు', '|'), ('ధి', '|'), ('శ', '|'), ('శాం', 'U'), ('క', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B206" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
         <is>
           <t>పూర్వకవీంద్రులు పుణ్యఫలం బేమి- సాక్షాత్కరించి యస్మత్పరంబు
 గా గద్యపద్యముల్‌ గల్పించు మనిన వే- వర మొసంగితి వండ్రు వాంఛఁ జేసి
@@ -7005,63 +6390,57 @@
 జేదోయి యొగ్గిన శ్రీపాదరజ మింత- నామీఁదఁ బాఱ నీ వేమి సామి</t>
         </is>
       </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
           <t>[('పూ', 'U'), ('ర్వ', '|'), ('క', '|'), ('వీం', 'U'), ('ద్రు', '|'), ('లు', '|'), ('పు', 'U'), ('ణ్య', '|'), ('ఫ', '|'), ('లం', 'U'), ('బే', 'U'), ('మి', '|'), ('సా', 'U'), ('క్షా', 'U'), ('త్క', '|'), ('రిం', 'U'), ('చి', '|'), ('య', 'U'), ('స్మ', 'U'), ('త్ప', '|'), ('రం', 'U'), ('బు', '|'), ('గా', 'U'), ('గ', 'U'), ('ద్య', '|'), ('ప', 'U'), ('ద్య', '|'), ('ముల్', 'U'), ('గ', 'U'), ('ల్పిం', 'U'), ('చు', '|'), ('మ', '|'), ('ని', '|'), ('న', '|'), ('వే', 'U'), ('వ', '|'), ('ర', '|'), ('మొ', '|'), ('సం', 'U'), ('గి', '|'), ('తి', '|'), ('వం', 'U'), ('డ్రు', '|'), ('వాం', 'U'), ('ఛ', '|'), ('జే', 'U'), ('సి', '|'), ('నే', 'U'), ('ర్చి', '|'), ('న', 'U'), ('ట్లు', '|'), ('గ', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('నే', 'U'), ('టి', '|'), ('క', '|'), ('వి', 'U'), ('త్వం', 'U'), ('బు', '|'), ('నీ', 'U'), ('కం', 'U'), ('కి', '|'), ('త', '|'), ('ము', '|'), ('జే', 'U'), ('సి', '|'), ('నె', '|'), ('న', '|'), ('రు', '|'), ('దో', 'U'), ('ప', '|'), ('జే', 'U'), ('దో', 'U'), ('యి', '|'), ('యొ', 'U'), ('గ్గి', '|'), ('న', 'U'), ('శ్రీ', 'U'), ('పా', 'U'), ('ద', '|'), ('ర', '|'), ('జ', '|'), ('మిం', 'U'), ('త', '|'), ('నా', 'U'), ('మీ', 'U'), ('ద', '|'), ('బా', 'U'), ('ఱ', '|'), ('నీ', 'U'), ('వే', 'U'), ('మి', '|'), ('సా', 'U'), ('మి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>కృపకుఁ బాత్రముఁ జేయు మక్షీణభాగ్య-లక్షణాంచిత పాదపల్లవకరాబ్జ!
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>కృపకుఁ బాత్రముఁ జేయు మక్షీణభాగ్య-లక్షణాంచిత పాదపల్లవకరాబ్జ!
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
           <t>[('కృ', '|'), ('ప', '|'), ('కు', '|'), ('బా', 'U'), ('త్ర', '|'), ('ము', '|'), ('జే', 'U'), ('యు', '|'), ('మ', 'U'), ('క్షీ', 'U'), ('ణ', '|'), ('భా', 'U'), ('గ్య', '|'), ('ల', 'U'), ('క్ష', '|'), ('ణాం', 'U'), ('చి', '|'), ('త', '|'), ('పా', 'U'), ('ద', '|'), ('ప', 'U'), ('ల్ల', '|'), ('వ', '|'), ('క', '|'), ('రా', 'U'), ('బ్జ', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B208" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
         <is>
           <t>కావ్యదోషము లెఱుంగని మత్కవిత్వంబు- విద్వన్నుతంబుఁ గావించినావు
 బహిరంత రింద్రియ పరిశుద్ధి లేని నా- తలఁపులోపల వచ్చి నిలచినావు
@@ -7069,63 +6448,57 @@
 పురుషప్రయత్నంబు గురు తెఱుంగని నన్ను- భుక్తి గల్గఁగ జేసి ప్రోచినావు</t>
         </is>
       </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
           <t>[('కా', 'U'), ('వ్య', '|'), ('దో', 'U'), ('ష', '|'), ('ము', '|'), ('లె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('ని', '|'), ('మ', 'U'), ('త్క', '|'), ('వి', 'U'), ('త్వం', 'U'), ('బు', '|'), ('వి', 'U'), ('ద్వ', 'U'), ('న్ను', '|'), ('తం', 'U'), ('బు', '|'), ('గా', 'U'), ('విం', 'U'), ('చి', '|'), ('నా', 'U'), ('వు', '|'), ('బ', '|'), ('హి', '|'), ('రం', 'U'), ('త', '|'), ('రిం', 'U'), ('ద్రి', '|'), ('య', '|'), ('ప', '|'), ('రి', '|'), ('శు', 'U'), ('ద్ధి', '|'), ('లే', 'U'), ('ని', '|'), ('నా', 'U'), ('త', '|'), ('ల', '|'), ('పు', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('వ', 'U'), ('చ్చి', '|'), ('ని', '|'), ('ల', '|'), ('చి', '|'), ('నా', 'U'), ('వు', '|'), ('పు', 'U'), ('ణ్య', '|'), ('క', '|'), ('ర్మ', '|'), ('మొ', '|'), ('కిం', 'U'), ('త', '|'), ('పూ', 'U'), ('ని', '|'), ('సే', 'U'), ('య', '|'), ('ని', '|'), ('న', 'U'), ('న్ను', '|'), ('బె', 'U'), ('ద్ద', '|'), ('ల', '|'), ('చే', 'U'), ('త', '|'), ('మె', 'U'), ('ప్పిం', 'U'), ('చి', '|'), ('నా', 'U'), ('వు', '|'), ('పు', '|'), ('రు', '|'), ('ష', 'U'), ('ప్ర', '|'), ('య', 'U'), ('త్నం', 'U'), ('బు', '|'), ('గు', '|'), ('రు', '|'), ('తె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('ని', '|'), ('న', 'U'), ('న్ను', '|'), ('భు', 'U'), ('క్తి', '|'), ('గ', 'U'), ('ల్గ', '|'), ('గ', '|'), ('జే', 'U'), ('సి', 'U'), ('ప్రో', 'U'), ('చి', '|'), ('నా', 'U'), ('వు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>పతితుఁ జేపట్టినావు చేపట్టినావె-యన్యగతిఁ బోవనీయకు మార్తరక్ష!
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>పతితుఁ జేపట్టినావు చేపట్టినావె-యన్యగతిఁ బోవనీయకు మార్తరక్ష!
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F209" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('తి', '|'), ('తు', '|'), ('జే', 'U'), ('ప', 'U'), ('ట్టి', '|'), ('నా', 'U'), ('వు', '|'), ('చే', 'U'), ('ప', 'U'), ('ట్టి', '|'), ('నా', 'U'), ('వె', '|'), ('య', 'U'), ('న్య', '|'), ('గ', '|'), ('తి', '|'), ('బో', 'U'), ('వ', '|'), ('నీ', 'U'), ('య', '|'), ('కు', '|'), ('మా', 'U'), ('ర్త', '|'), ('ర', 'U'), ('క్ష', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B210" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
         <is>
           <t>శబరి యెంగిలిపండ్లు చవిఁజూచు ననుకంప- కుబ్జ గంధము పూఁతఁ గొన్నకరుణ
 పాంచాలి కోర సాపడిన దయారతి- గోపమ్మ యుగ్గుఁబాల్‌ గ్రోలుకృపను
@@ -7133,63 +6506,57 @@
 గుహుఁడు పాదములు బట్టుట కుల్బు నెనరును- నుడుతదాస్యమునకుఁ బొడము ప్రేమ</t>
         </is>
       </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F210" t="inlineStr">
-        <is>
           <t>[('శ', '|'), ('బ', '|'), ('రి', '|'), ('యెం', 'U'), ('గి', '|'), ('లి', '|'), ('పం', 'U'), ('డ్లు', '|'), ('చ', '|'), ('వి', '|'), ('జూ', 'U'), ('చు', '|'), ('న', '|'), ('ను', '|'), ('కం', 'U'), ('ప', '|'), ('కు', 'U'), ('బ్జ', '|'), ('గం', 'U'), ('ధ', '|'), ('ము', '|'), ('పూ', 'U'), ('త', '|'), ('గొ', 'U'), ('న్న', '|'), ('క', '|'), ('రు', '|'), ('ణ', '|'), ('పాం', 'U'), ('చా', 'U'), ('లి', '|'), ('కో', 'U'), ('ర', '|'), ('సా', 'U'), ('ప', '|'), ('డి', '|'), ('న', '|'), ('ద', '|'), ('యా', 'U'), ('ర', '|'), ('తి', '|'), ('గో', 'U'), ('ప', 'U'), ('మ్మ', '|'), ('యు', 'U'), ('గ్గు', '|'), ('బాల్', 'U'), ('గ్రో', 'U'), ('లు', '|'), ('కృ', '|'), ('ప', '|'), ('ను', '|'), ('మా', 'U'), ('లి', '|'), ('కు', '|'), ('డొ', '|'), ('స', '|'), ('గు', '|'), ('తో', 'U'), ('మా', 'U'), ('లె', '|'), ('దా', 'U'), ('ల్చి', '|'), ('న', 'U'), ('ప్రే', 'U'), ('మ', 'U'), ('ద్వి', '|'), ('జు', '|'), ('ని', '|'), ('కొం', 'U'), ('గ', '|'), ('టు', '|'), ('కు', '|'), ('లు', '|'), ('ది', 'U'), ('న్న', '|'), ('కూ', 'U'), ('ర్మి', '|'), ('గు', '|'), ('హు', '|'), ('డు', '|'), ('పా', 'U'), ('ద', '|'), ('ము', '|'), ('లు', '|'), ('బ', 'U'), ('ట్టు', '|'), ('ట', '|'), ('కు', 'U'), ('ల్బు', '|'), ('నె', '|'), ('న', '|'), ('రు', '|'), ('ను', '|'), ('ను', '|'), ('డు', '|'), ('త', '|'), ('దా', 'U'), ('స్య', '|'), ('ము', '|'), ('న', '|'), ('కు', '|'), ('బొ', '|'), ('డ', '|'), ('ము', 'U'), ('ప్రే', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>శతక మంగీకరింపుము జగతి జనకుఁ-డర్భ కావ్యక్త భాషల నలరి నట్లు
+చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>శతక మంగీకరింపుము జగతి జనకుఁ-డర్భ కావ్యక్త భాషల నలరి నట్లు
-చిత్ర చిత్ర ప్రభావ దాక్షిణ్యభావ-హత విమతజీవ శ్రీకాకుళాంధ్రదేవ!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr">
-        <is>
           <t>[('శ', '|'), ('త', '|'), ('క', '|'), ('మం', 'U'), ('గీ', 'U'), ('క', '|'), ('రిం', 'U'), ('పు', '|'), ('ము', '|'), ('జ', '|'), ('గ', '|'), ('తి', '|'), ('జ', '|'), ('న', '|'), ('కు', '|'), ('డ', 'U'), ('ర్భ', '|'), ('కా', 'U'), ('వ్య', 'U'), ('క్త', '|'), ('భా', 'U'), ('ష', '|'), ('ల', '|'), ('న', '|'), ('ల', '|'), ('రి', '|'), ('న', 'U'), ('ట్లు', '|'), ('చి', 'U'), ('త్ర', '|'), ('చి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B212" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
         <is>
           <t>శతక మొకటి 'మనసా హరిపాదము- లాశ్రయించవె' యని యల్లినాఁడఁ
 గరిమ 'రామా! భక్త కల్పద్రుమా!' యని యొప్పగా శతకంబుఁ జెప్పినాఁడ
@@ -7197,48 +6564,45 @@
 యుష్మ దంకితముగా నూహించ శకమ మీ- నంచితంబుగ రచియించినాఁడ</t>
         </is>
       </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F212" t="inlineStr">
-        <is>
           <t>[('శ', '|'), ('త', '|'), ('క', '|'), ('మొ', '|'), ('క', '|'), ('టి', '|'), ('మ', '|'), ('న', '|'), ('సా', 'U'), ('హ', '|'), ('రి', '|'), ('పా', 'U'), ('ద', '|'), ('ము', '|'), ('లా', 'U'), ('శ్ర', '|'), ('యిం', 'U'), ('చ', '|'), ('వె', '|'), ('య', '|'), ('ని', '|'), ('య', 'U'), ('ల్లి', '|'), ('నా', 'U'), ('డ', '|'), ('గ', '|'), ('రి', '|'), ('మ', '|'), ('రా', 'U'), ('మా', 'U'), ('భ', 'U'), ('క్త', '|'), ('క', 'U'), ('ల్ప', '|'), ('ద్రు', '|'), ('మా', 'U'), ('య', '|'), ('ని', '|'), ('యొ', 'U'), ('ప్ప', '|'), ('గా', 'U'), ('శ', '|'), ('త', '|'), ('కం', 'U'), ('బు', '|'), ('జె', 'U'), ('ప్పి', '|'), ('నా', 'U'), ('డ', '|'), ('న', '|'), ('ల', '|'), ('రు', '|'), ('ల', '|'), ('దం', 'U'), ('డ', '|'), ('మీ', 'U'), ('క', '|'), ('న', '|'), ('గ', '|'), ('హం', 'U'), ('స', '|'), ('ల', '|'), ('దీ', 'U'), ('వి', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('శ', '|'), ('త', '|'), ('కం', 'U'), ('బు', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('నా', 'U'), ('డ', '|'), ('యు', 'U'), ('ష్మ', '|'), ('దం', 'U'), ('కి', '|'), ('త', '|'), ('ము', '|'), ('గా', 'U'), ('నూ', 'U'), ('హిం', 'U'), ('చ', '|'), ('శ', '|'), ('క', '|'), ('మ', '|'), ('మీ', 'U'), ('నం', 'U'), ('చి', '|'), ('తం', 'U'), ('బు', '|'), ('గ', '|'), ('ర', '|'), ('చి', '|'), ('యిం', 'U'), ('చి', '|'), ('నా', 'U'), ('డ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B213" t="inlineStr">
-        <is>
-          <t>teytageethi</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
         <is>
           <t>భవదనుగ్రహ కవితచేఁ బ్రబలువాఁడ-నవని గాసుల పురుషోత్త మాఖ్యవాఁడ
 చిత్రజిత్ర ప్రభావ దాక్షిణ్యభావ-హతవిమతజీవ శ్రీ కాకుళాంధ్ర దేవ!</t>
         </is>
       </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>aandhranaayaka</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
-        <is>
-          <t>aandhranaayaka</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr">
         <is>
           <t>[('భ', '|'), ('వ', '|'), ('ద', '|'), ('ను', 'U'), ('గ్ర', '|'), ('హ', '|'), ('క', '|'), ('వి', '|'), ('త', '|'), ('చే', 'U'), ('బ్ర', '|'), ('బ', '|'), ('లు', '|'), ('వా', 'U'), ('డ', '|'), ('న', '|'), ('వ', '|'), ('ని', '|'), ('గా', 'U'), ('సు', '|'), ('ల', '|'), ('పు', '|'), ('రు', '|'), ('షో', 'U'), ('త్త', '|'), ('మా', 'U'), ('ఖ్య', '|'), ('వా', 'U'), ('డ', '|'), ('చి', 'U'), ('త్ర', '|'), ('జి', 'U'), ('త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', 'U'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>

--- a/dataset/lg/aandhranaayaka.xlsx
+++ b/dataset/lg/aandhranaayaka.xlsx
@@ -920,7 +920,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[('ని', '|'), ('ఖి', '|'), ('ల', '|'), ('దై', 'U'), ('వ', '|'), ('త', '|'), ('కా', 'U'), ('ర్య', '|'), ('ముల్', 'U'), ('ని', 'U'), ('ర్వ', '|'), ('హిం', 'U'), ('చు', '|'), ('నీ', 'U'), ('కు', '|'), ('ని', '|'), ('జ', '|'), ('కా', 'U'), ('ర్య', '|'), ('ము', '|'), ('భ', '|'), ('రం', 'U'), ('బె', '|'), ('ని', 'U'), ('ర్వ', '|'), ('హిం', 'U'), ('ప', '|'), ('చి', '|'), ('త్ర', '|'), ('చి', '|'), ('త్ర', '|'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', '|'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
+          <t>[('ని', '|'), ('ఖి', '|'), ('ల', '|'), ('దై', 'U'), ('వ', '|'), ('త', '|'), ('కా', 'U'), ('ర్య', '|'), ('ము', 'U'), ('ల్ని', 'U'), ('ర్వ', '|'), ('హిం', 'U'), ('చు', '|'), ('నీ', 'U'), ('కు', '|'), ('ని', '|'), ('జ', '|'), ('కా', 'U'), ('ర్య', '|'), ('ము', '|'), ('భ', '|'), ('రం', 'U'), ('బె', '|'), ('ని', 'U'), ('ర్వ', '|'), ('హిం', 'U'), ('ప', '|'), ('చి', '|'), ('త్ర', '|'), ('చి', '|'), ('త్ర', '|'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', '|'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[('నీ', 'U'), ('కు', '|'), ('ని', 'U'), ('త్యో', 'U'), ('ప', '|'), ('చా', 'U'), ('ర', '|'), ('ముల్', 'U'), ('లే', 'U'), ('క', '|'), ('యు', 'U'), ('న్న', '|'), ('లో', 'U'), ('కు', '|'), ('లి', 'U'), ('ట్లా', 'U'), ('డు', '|'), ('కొం', 'U'), ('డ్రు', '|'), ('ప', '|'), ('రా', 'U'), ('కి', '|'), ('దే', 'U'), ('మి', '|'), ('చి', '|'), ('త్ర', '|'), ('చి', '|'), ('త్ర', '|'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', '|'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
+          <t>[('నీ', 'U'), ('కు', '|'), ('ని', 'U'), ('త్యో', 'U'), ('ప', '|'), ('చా', 'U'), ('ర', '|'), ('ము', 'U'), ('ల్లే', 'U'), ('క', '|'), ('యు', 'U'), ('న్న', '|'), ('లో', 'U'), ('కు', '|'), ('లి', 'U'), ('ట్లా', 'U'), ('డు', '|'), ('కొం', 'U'), ('డ్రు', '|'), ('ప', '|'), ('రా', 'U'), ('కి', '|'), ('దే', 'U'), ('మి', '|'), ('చి', '|'), ('త్ర', '|'), ('చి', '|'), ('త్ర', '|'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', '|'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[('నిం', 'U'), ('డు', '|'), ('కొ', 'U'), ('న్నా', 'U'), ('వు', '|'), ('గ', '|'), ('డి', '|'), ('యిం', 'U'), ('చు', '|'), ('నే', 'U'), ('రు', '|'), ('ప', '|'), ('రి', '|'), ('వె', '|'), ('ప్రా', 'U'), ('వ', '|'), ('లు', '|'), ('వ', '|'), ('బ్రా', 'U'), ('రు', '|'), ('వా', 'U'), ('ణ', '|'), ('ముల్', 'U'), ('బ్రా', 'U'), ('తి', '|'), ('యే', 'U'), ('మి', '|'), ('చి', '|'), ('త్ర', '|'), ('చి', '|'), ('త్ర', '|'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', '|'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
+          <t>[('నిం', 'U'), ('డు', '|'), ('కొ', 'U'), ('న్నా', 'U'), ('వు', '|'), ('గ', '|'), ('డి', '|'), ('యిం', 'U'), ('చు', '|'), ('నే', 'U'), ('రు', '|'), ('ప', '|'), ('రి', '|'), ('వె', '|'), ('ప్రా', 'U'), ('వ', '|'), ('లు', '|'), ('వ', '|'), ('బ్రా', 'U'), ('రు', '|'), ('వా', 'U'), ('ణ', '|'), ('ము', 'U'), ('ల్బ్రా', 'U'), ('తి', '|'), ('యే', 'U'), ('మి', '|'), ('చి', '|'), ('త్ర', '|'), ('చి', '|'), ('త్ర', '|'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', '|'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
@@ -2312,7 +2312,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>[('పో', 'U'), ('రు', '|'), ('చం', 'U'), ('ప', '|'), ('క', '|'), ('చు', 'U'), ('ట్ట', '|'), ('ముల్', 'U'), ('పో', 'U'), ('ర', '|'), ('నీ', 'U'), ('ల్గ', '|'), ('జూ', 'U'), ('చు', '|'), ('చుం', 'U'), ('టి', '|'), ('వి', '|'), ('యే', 'U'), ('నా', 'U'), ('టి', '|'), ('చు', 'U'), ('ట్ట', '|'), ('మీ', 'U'), ('వు', '|'), ('చి', '|'), ('త్ర', '|'), ('చి', '|'), ('త్ర', '|'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', '|'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
+          <t>[('పో', 'U'), ('రు', '|'), ('చం', 'U'), ('ప', '|'), ('క', '|'), ('చు', 'U'), ('ట్ట', '|'), ('ము', 'U'), ('ల్పో', 'U'), ('ర', '|'), ('నీ', 'U'), ('ల్గ', '|'), ('జూ', 'U'), ('చు', '|'), ('చుం', 'U'), ('టి', '|'), ('వి', '|'), ('యే', 'U'), ('నా', 'U'), ('టి', '|'), ('చు', 'U'), ('ట్ట', '|'), ('మీ', 'U'), ('వు', '|'), ('చి', '|'), ('త్ర', '|'), ('చి', '|'), ('త్ర', '|'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', '|'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
@@ -2516,7 +2516,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>[('నా', 'U'), ('గ', '|'), ('లి', '|'), ('రో', 'U'), ('క', '|'), ('ల', 'U'), ('న్న', '|'), ('కు', '|'), ('ని', 'U'), ('చ్చి', '|'), ('శం', 'U'), ('ఖా', 'U'), ('ది', '|'), ('పం', 'U'), ('చా', 'U'), ('యు', '|'), ('ధ', '|'), ('ము', '|'), ('లీ', 'U'), ('వు', '|'), ('ప', 'U'), ('ట్టి', '|'), ('నా', 'U'), ('వు', '|'), ('తా', 'U'), ('ఱి', '|'), ('టె', 'U'), ('క్కెం', 'U'), ('బు', '|'), ('కో', 'U'), ('ల్త', '|'), ('ల', '|'), ('పె', 'U'), ('ద్ద', '|'), ('కె', 'U'), ('త్తిం', 'U'), ('చి', '|'), ('గ', '|'), ('రు', '|'), ('డ', 'U'), ('ధ్వ', '|'), ('జం', 'U'), ('బీ', 'U'), ('వు', '|'), ('గ', 'U'), ('ట్టి', '|'), ('నా', 'U'), ('వు', '|'), ('వె', '|'), ('ల', '|'), ('రా', 'U'), ('ని', '|'), ('క', '|'), ('ఱ', '|'), ('వో', 'U'), ('ని', '|'), ('వ', '|'), ('లు', '|'), ('వ', 'U'), ('జ్యే', 'U'), ('ష్ఠు', '|'), ('న', '|'), ('కి', 'U'), ('చ్చి', '|'), ('క', '|'), ('న', '|'), ('కాం', 'U'), ('బ', '|'), ('రం', 'U'), ('బీ', 'U'), ('వు', '|'), ('గ', 'U'), ('ట్టి', '|'), ('నా', 'U'), ('వు', '|'), ('మ', 'U'), ('ద్య', '|'), ('మ', '|'), ('గ్ర', '|'), ('జు', '|'), ('న', '|'), ('కు', '|'), ('మ', 'U'), ('త్తి', '|'), ('ల', '|'), ('దా', 'U'), ('విం', 'U'), ('చి', '|'), ('జు', 'U'), ('న్ను', '|'), ('బాల్', 'U'), ('పె', '|'), ('రు', '|'), ('గీ', 'U'), ('వు', '|'), ('జు', 'U'), ('ఱ్ఱి', '|'), ('నా', 'U'), ('వు', '|')]</t>
+          <t>[('నా', 'U'), ('గ', '|'), ('లి', '|'), ('రో', 'U'), ('క', '|'), ('ల', 'U'), ('న్న', '|'), ('కు', '|'), ('ని', 'U'), ('చ్చి', '|'), ('శం', 'U'), ('ఖా', 'U'), ('ది', '|'), ('పం', 'U'), ('చా', 'U'), ('యు', '|'), ('ధ', '|'), ('ము', '|'), ('లీ', 'U'), ('వు', '|'), ('ప', 'U'), ('ట్టి', '|'), ('నా', 'U'), ('వు', '|'), ('తా', 'U'), ('ఱి', '|'), ('టె', 'U'), ('క్కెం', 'U'), ('బు', '|'), ('కో', 'U'), ('ల్త', '|'), ('ల', '|'), ('పె', 'U'), ('ద్ద', '|'), ('కె', 'U'), ('త్తిం', 'U'), ('చి', '|'), ('గ', '|'), ('రు', '|'), ('డ', 'U'), ('ధ్వ', '|'), ('జం', 'U'), ('బీ', 'U'), ('వు', '|'), ('గ', 'U'), ('ట్టి', '|'), ('నా', 'U'), ('వు', '|'), ('వె', '|'), ('ల', '|'), ('రా', 'U'), ('ని', '|'), ('క', '|'), ('ఱ', '|'), ('వో', 'U'), ('ని', '|'), ('వ', '|'), ('లు', '|'), ('వ', 'U'), ('జ్యే', 'U'), ('ష్ఠు', '|'), ('న', '|'), ('కి', 'U'), ('చ్చి', '|'), ('క', '|'), ('న', '|'), ('కాం', 'U'), ('బ', '|'), ('రం', 'U'), ('బీ', 'U'), ('వు', '|'), ('గ', 'U'), ('ట్టి', '|'), ('నా', 'U'), ('వు', '|'), ('మ', 'U'), ('ద్య', '|'), ('మ', '|'), ('గ్ర', '|'), ('జు', '|'), ('న', '|'), ('కు', '|'), ('మ', 'U'), ('త్తి', '|'), ('ల', '|'), ('దా', 'U'), ('విం', 'U'), ('చి', '|'), ('జు', 'U'), ('న్ను', '|'), ('బా', 'U'), ('ల్పె', '|'), ('రు', '|'), ('గీ', 'U'), ('వు', '|'), ('జు', 'U'), ('ఱ్ఱి', '|'), ('నా', 'U'), ('వు', '|')]</t>
         </is>
       </c>
     </row>
@@ -2922,7 +2922,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>[('ప', 'U'), ('క్షం', 'U'), ('బు', '|'), ('గ', '|'), ('ల', '|'), ('దం', 'U'), ('డ్రు', '|'), ('పాం', 'U'), ('డు', '|'), ('పు', '|'), ('త్రు', '|'), ('ల', '|'), ('యం', 'U'), ('దు', '|'), ('పాం', 'U'), ('డ', '|'), ('వుల్', 'U'), ('ప', '|'), ('డి', '|'), ('న', 'U'), ('ట్టి', '|'), ('పా', 'U'), ('టు', '|'), ('లే', 'U'), ('మి', '|'), ('పూ', 'U'), ('ర్వ', '|'), ('జ', 'U'), ('న్మ', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('బూ', 'U'), ('జిం', 'U'), ('చె', '|'), ('గ', '|'), ('జ', '|'), ('మం', 'U'), ('డ్రు', '|'), ('గ', '|'), ('జ', '|'), ('రా', 'U'), ('జు', '|'), ('పొం', 'U'), ('ది', '|'), ('న', '|'), ('గా', 'U'), ('సి', '|'), ('యే', 'U'), ('మి', '|'), ('య', '|'), ('ల', '|'), ('కు', '|'), ('చే', 'U'), ('లు', '|'), ('న', '|'), ('కు', '|'), ('బా', 'U'), ('ల్య', 'U'), ('స్నే', 'U'), ('హి', '|'), ('తు', '|'), ('డ', '|'), ('వం', 'U'), ('డ్రు', '|'), ('నె', '|'), ('ఱి', '|'), ('గు', '|'), ('చే', 'U'), ('లు', '|'), ('డు', '|'), ('ప', 'U'), ('డ్డ', '|'), ('నె', 'U'), ('వ్వ', '|'), ('లే', 'U'), ('మి', '|'), ('ప్ర', 'U'), ('హ్లా', 'U'), ('దు', '|'), ('డా', 'U'), ('జ', 'U'), ('న్మ', '|'), ('భ', 'U'), ('క్తి', '|'), ('యు', 'U'), ('క్తుం', 'U'), ('డం', 'U'), ('డ్రు', '|'), ('ప్ర', 'U'), ('హ్లా', 'U'), ('దు', '|'), ('డొం', 'U'), ('ది', '|'), ('న', '|'), ('బా', 'U'), ('ధ', '|'), ('లే', 'U'), ('మి', '|')]</t>
+          <t>[('ప', 'U'), ('క్షం', 'U'), ('బు', '|'), ('గ', '|'), ('ల', '|'), ('దం', 'U'), ('డ్రు', '|'), ('పాం', 'U'), ('డు', '|'), ('పు', '|'), ('త్రు', '|'), ('ల', '|'), ('యం', 'U'), ('దు', '|'), ('పాం', 'U'), ('డ', '|'), ('వు', 'U'), ('ల్ప', '|'), ('డి', '|'), ('న', 'U'), ('ట్టి', '|'), ('పా', 'U'), ('టు', '|'), ('లే', 'U'), ('మి', '|'), ('పూ', 'U'), ('ర్వ', '|'), ('జ', 'U'), ('న్మ', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('బూ', 'U'), ('జిం', 'U'), ('చె', '|'), ('గ', '|'), ('జ', '|'), ('మం', 'U'), ('డ్రు', '|'), ('గ', '|'), ('జ', '|'), ('రా', 'U'), ('జు', '|'), ('పొం', 'U'), ('ది', '|'), ('న', '|'), ('గా', 'U'), ('సి', '|'), ('యే', 'U'), ('మి', '|'), ('య', '|'), ('ల', '|'), ('కు', '|'), ('చే', 'U'), ('లు', '|'), ('న', '|'), ('కు', '|'), ('బా', 'U'), ('ల్య', 'U'), ('స్నే', 'U'), ('హి', '|'), ('తు', '|'), ('డ', '|'), ('వం', 'U'), ('డ్రు', '|'), ('నె', '|'), ('ఱి', '|'), ('గు', '|'), ('చే', 'U'), ('లు', '|'), ('డు', '|'), ('ప', 'U'), ('డ్డ', '|'), ('నె', 'U'), ('వ్వ', '|'), ('లే', 'U'), ('మి', '|'), ('ప్ర', 'U'), ('హ్లా', 'U'), ('దు', '|'), ('డా', 'U'), ('జ', 'U'), ('న్మ', '|'), ('భ', 'U'), ('క్తి', '|'), ('యు', 'U'), ('క్తుం', 'U'), ('డం', 'U'), ('డ్రు', '|'), ('ప్ర', 'U'), ('హ్లా', 'U'), ('దు', '|'), ('డొం', 'U'), ('ది', '|'), ('న', '|'), ('బా', 'U'), ('ధ', '|'), ('లే', 'U'), ('మి', '|')]</t>
         </is>
       </c>
     </row>
@@ -2980,7 +2980,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('న', '|'), ('ఘ', '|'), ('మౌ', 'U'), ('వి', '|'), ('ప్ర', '|'), ('స', '|'), ('త్రా', 'U'), ('న్న', '|'), ('మెం', 'U'), ('గి', '|'), ('లి', '|'), ('జే', 'U'), ('సి', '|'), ('తీ', 'U'), ('వె', '|'), ('మున్', 'U'), ('క్ర', '|'), ('తు', '|'), ('భో', 'U'), ('క్త', '|'), ('నే', 'U'), ('నే', 'U'), ('య', '|'), ('ను', '|'), ('చు', '|'), ('స', '|'), ('వ', '|'), ('తి', '|'), ('కొ', '|'), ('మా', 'U'), ('ళ్ళ', '|'), ('స', '|'), ('మ', '|'), ('యిం', 'U'), ('చి', '|'), ('తం', 'U'), ('ద', '|'), ('ఱి', '|'), ('ద', '|'), ('రు', '|'), ('గ', '|'), ('ని', '|'), ('రా', 'U'), ('క్ష', '|'), ('సాం', 'U'), ('త', '|'), ('కు', '|'), ('డ', '|'), ('న', '|'), ('ను', '|'), ('చు', '|'), ('బం', 'U'), ('ధు', '|'), ('వు', '|'), ('ల', 'U'), ('న్యో', 'U'), ('న్య', '|'), ('వై', 'U'), ('రా', 'U'), ('ను', '|'), ('హ', '|'), ('తు', '|'), ('లు', '|'), ('గా', 'U'), ('న', '|'), ('డ', '|'), ('చి', '|'), ('తి', '|'), ('భూ', 'U'), ('భా', 'U'), ('ర', '|'), ('హా', 'U'), ('రి', '|'), ('న', '|'), ('ను', '|'), ('చు', '|'), ('బ', '|'), ('లి', '|'), ('మి', '|'), ('న', 'U'), ('న్య', 'U'), ('స్త్రీ', 'U'), ('ల', '|'), ('బ', 'U'), ('ట్టి', '|'), ('తి', '|'), ('వెం', 'U'), ('ద', '|'), ('ఱి', '|'), ('న', 'U'), ('స్ఖ', '|'), ('ల', 'U'), ('ద్బ్ర', 'U'), ('హ్మ', '|'), ('చ', 'U'), ('ర్య', '|'), ('మ', '|'), ('తి', '|'), ('న', '|'), ('ను', '|'), ('చు', '|')]</t>
+          <t>[('అ', '|'), ('న', '|'), ('ఘ', '|'), ('మౌ', 'U'), ('వి', '|'), ('ప్ర', '|'), ('స', '|'), ('త్రా', 'U'), ('న్న', '|'), ('మెం', 'U'), ('గి', '|'), ('లి', '|'), ('జే', 'U'), ('సి', '|'), ('తీ', 'U'), ('వె', '|'), ('ము', 'U'), ('న్క్ర', '|'), ('తు', '|'), ('భో', 'U'), ('క్త', '|'), ('నే', 'U'), ('నే', 'U'), ('య', '|'), ('ను', '|'), ('చు', '|'), ('స', '|'), ('వ', '|'), ('తి', '|'), ('కొ', '|'), ('మా', 'U'), ('ళ్ళ', '|'), ('స', '|'), ('మ', '|'), ('యిం', 'U'), ('చి', '|'), ('తం', 'U'), ('ద', '|'), ('ఱి', '|'), ('ద', '|'), ('రు', '|'), ('గ', '|'), ('ని', '|'), ('రా', 'U'), ('క్ష', '|'), ('సాం', 'U'), ('త', '|'), ('కు', '|'), ('డ', '|'), ('న', '|'), ('ను', '|'), ('చు', '|'), ('బం', 'U'), ('ధు', '|'), ('వు', '|'), ('ల', 'U'), ('న్యో', 'U'), ('న్య', '|'), ('వై', 'U'), ('రా', 'U'), ('ను', '|'), ('హ', '|'), ('తు', '|'), ('లు', '|'), ('గా', 'U'), ('న', '|'), ('డ', '|'), ('చి', '|'), ('తి', '|'), ('భూ', 'U'), ('భా', 'U'), ('ర', '|'), ('హా', 'U'), ('రి', '|'), ('న', '|'), ('ను', '|'), ('చు', '|'), ('బ', '|'), ('లి', '|'), ('మి', '|'), ('న', 'U'), ('న్య', 'U'), ('స్త్రీ', 'U'), ('ల', '|'), ('బ', 'U'), ('ట్టి', '|'), ('తి', '|'), ('వెం', 'U'), ('ద', '|'), ('ఱి', '|'), ('న', 'U'), ('స్ఖ', '|'), ('ల', 'U'), ('ద్బ్ర', 'U'), ('హ్మ', '|'), ('చ', 'U'), ('ర్య', '|'), ('మ', '|'), ('తి', '|'), ('న', '|'), ('ను', '|'), ('చు', '|')]</t>
         </is>
       </c>
     </row>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>[('దో', 'U'), ('చు', '|'), ('చు', 'U'), ('న్న', '|'), ('ది', '|'), ('సం', 'U'), ('ఫు', 'U'), ('ల్ల', '|'), ('తో', 'U'), ('య', '|'), ('జా', 'U'), ('క్ష', '|'), ('మేల్', 'U'), ('బ', '|'), ('ళా', 'U'), ('యిం', 'U'), ('త', '|'), ('జా', 'U'), ('గే', 'U'), ('మి', '|'), ('మే', 'U'), ('లు', '|'), ('కొ', '|'), ('న', '|'), ('వె', '|'), ('చి', '|'), ('త్ర', '|'), ('చి', '|'), ('త్ర', '|'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', '|'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
+          <t>[('దో', 'U'), ('చు', '|'), ('చు', 'U'), ('న్న', '|'), ('ది', '|'), ('సం', 'U'), ('ఫు', 'U'), ('ల్ల', '|'), ('తో', 'U'), ('య', '|'), ('జా', 'U'), ('క్ష', '|'), ('మే', 'U'), ('ల్బ', '|'), ('ళా', 'U'), ('యిం', 'U'), ('త', '|'), ('జా', 'U'), ('గే', 'U'), ('మి', '|'), ('మే', 'U'), ('లు', '|'), ('కొ', '|'), ('న', '|'), ('వె', '|'), ('చి', '|'), ('త్ర', '|'), ('చి', '|'), ('త్ర', '|'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', '|'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>[('ఎ', 'U'), ('క్క', '|'), ('డ', '|'), ('నీ', 'U'), ('క', 'U'), ('న్న', '|'), ('ది', 'U'), ('క్కు', '|'), ('లే', 'U'), ('న', 'U'), ('ట్ల', '|'), ('ని', 'U'), ('న్న', 'U'), ('ర్చిం', 'U'), ('తు', '|'), ('ర', 'U'), ('బ్జ', '|'), ('గ', 'U'), ('ర్భా', 'U'), ('ది', '|'), ('సు', '|'), ('ర', '|'), ('లు', '|'), ('మ', '|'), ('ఱి', '|'), ('యెం', 'U'), ('దు', '|'), ('గ', '|'), ('తి', '|'), ('లే', 'U'), ('ని', '|'), ('మా', 'U'), ('డ్కి', '|'), ('మ', '|'), ('హా', 'U'), ('ము', '|'), ('ను', 'U'), ('ల్నీ', 'U'), ('యం', 'U'), ('దె', '|'), ('ల', 'U'), ('క్ష్య', '|'), ('ము', 'U'), ('ల్ని', '|'), ('లు', '|'), ('పు', '|'), ('కొం', 'U'), ('దు', '|'), ('రి', '|'), ('ల', '|'), ('ద', '|'), ('ర', '|'), ('ణో', 'U'), ('పా', 'U'), ('య', '|'), ('మెం', 'U'), ('దు', '|'), ('న', '|'), ('లే', 'U'), ('న', 'U'), ('ట్లు', '|'), ('స', 'U'), ('జ్జ', '|'), ('నుల్', 'U'), ('నీ', 'U'), ('క', '|'), ('థల్', 'U'), ('చ', '|'), ('దు', '|'), ('వు', '|'), ('కొం', 'U'), ('డ్రు', '|'), ('ప', '|'), ('గ', '|'), ('తు', '|'), ('ర', '|'), ('మె', 'U'), ('య్యె', '|'), ('డ', '|'), ('బ్ర', '|'), ('తి', '|'), ('కె', '|'), ('ద', '|'), ('మ', 'U'), ('న్న', 'U'), ('ట్లు', '|'), ('దు', '|'), ('ని', '|'), ('సి', '|'), ('రి', '|'), ('నీ', 'U'), ('చే', 'U'), ('త', '|'), ('ద', '|'), ('ను', '|'), ('జు', '|'), ('లె', 'U'), ('ల్ల', '|')]</t>
+          <t>[('ఎ', 'U'), ('క్క', '|'), ('డ', '|'), ('నీ', 'U'), ('క', 'U'), ('న్న', '|'), ('ది', 'U'), ('క్కు', '|'), ('లే', 'U'), ('న', 'U'), ('ట్ల', '|'), ('ని', 'U'), ('న్న', 'U'), ('ర్చిం', 'U'), ('తు', '|'), ('ర', 'U'), ('బ్జ', '|'), ('గ', 'U'), ('ర్భా', 'U'), ('ది', '|'), ('సు', '|'), ('ర', '|'), ('లు', '|'), ('మ', '|'), ('ఱి', '|'), ('యెం', 'U'), ('దు', '|'), ('గ', '|'), ('తి', '|'), ('లే', 'U'), ('ని', '|'), ('మా', 'U'), ('డ్కి', '|'), ('మ', '|'), ('హా', 'U'), ('ము', '|'), ('ను', 'U'), ('ల్నీ', 'U'), ('యం', 'U'), ('దె', '|'), ('ల', 'U'), ('క్ష్య', '|'), ('ము', 'U'), ('ల్ని', '|'), ('లు', '|'), ('పు', '|'), ('కొం', 'U'), ('దు', '|'), ('రి', '|'), ('ల', '|'), ('ద', '|'), ('ర', '|'), ('ణో', 'U'), ('పా', 'U'), ('య', '|'), ('మెం', 'U'), ('దు', '|'), ('న', '|'), ('లే', 'U'), ('న', 'U'), ('ట్లు', '|'), ('స', 'U'), ('జ్జ', '|'), ('ను', 'U'), ('ల్నీ', 'U'), ('క', '|'), ('థ', 'U'), ('ల్చ', '|'), ('దు', '|'), ('వు', '|'), ('కొం', 'U'), ('డ్రు', '|'), ('ప', '|'), ('గ', '|'), ('తు', '|'), ('ర', '|'), ('మె', 'U'), ('య్యె', '|'), ('డ', '|'), ('బ్ర', '|'), ('తి', '|'), ('కె', '|'), ('ద', '|'), ('మ', 'U'), ('న్న', 'U'), ('ట్లు', '|'), ('దు', '|'), ('ని', '|'), ('సి', '|'), ('రి', '|'), ('నీ', 'U'), ('చే', 'U'), ('త', '|'), ('ద', '|'), ('ను', '|'), ('జు', '|'), ('లె', 'U'), ('ల్ల', '|')]</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>[('పె', 'U'), ('ట్టు', '|'), ('పే', 'U'), ('రు', '|'), ('ల', '|'), ('నే', 'U'), ('క', '|'), ('ముల్', 'U'), ('పు', 'U'), ('ట్టు', '|'), ('పే', 'U'), ('రు', '|'), ('గు', '|'), ('ఱు', '|'), ('తె', '|'), ('ఱిం', 'U'), ('గి', '|'), ('న', '|'), ('నీ', 'U'), ('మూ', 'U'), ('ల', '|'), ('మె', '|'), ('ఱు', '|'), ('గ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('చి', '|'), ('త్ర', '|'), ('చి', '|'), ('త్ర', '|'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', '|'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
+          <t>[('పె', 'U'), ('ట్టు', '|'), ('పే', 'U'), ('రు', '|'), ('ల', '|'), ('నే', 'U'), ('క', '|'), ('ము', 'U'), ('ల్పు', 'U'), ('ట్టు', '|'), ('పే', 'U'), ('రు', '|'), ('గు', '|'), ('ఱు', '|'), ('తె', '|'), ('ఱిం', 'U'), ('గి', '|'), ('న', '|'), ('నీ', 'U'), ('మూ', 'U'), ('ల', '|'), ('మె', '|'), ('ఱు', '|'), ('గ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('చి', '|'), ('త్ర', '|'), ('చి', '|'), ('త్ర', '|'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('దా', 'U'), ('క్షి', 'U'), ('ణ్య', '|'), ('భా', 'U'), ('వ', '|'), ('హ', '|'), ('త', '|'), ('వి', '|'), ('మ', '|'), ('త', '|'), ('జీ', 'U'), ('వ', '|'), ('శ్రీ', 'U'), ('కా', 'U'), ('కు', '|'), ('ళాం', 'U'), ('ధ్ర', '|'), ('దే', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
@@ -3908,7 +3908,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>[('అ', 'U'), ('బ్ధి', '|'), ('ప', '|'), ('యః', 'U'), ('పా', 'U'), ('త్ర', '|'), ('మ', '|'), ('ద్రి', '|'), ('కా', 'U'), ('ణం', 'U'), ('ధా', 'U'), ('న', '|'), ('మ', '|'), ('హి', '|'), ('రా', 'U'), ('జ', '|'), ('గు', '|'), ('ణ', '|'), ('ము', '|'), ('దా', 'U'), ('ర', '|'), ('మ', '|'), ('ర', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('య', '|'), ('మృ', '|'), ('తా', 'U'), ('భి', '|'), ('లా', 'U'), ('ష', '|'), ('దే', 'U'), ('వ', '|'), ('తా', 'U'), ('సు', '|'), ('రుల్', 'U'), ('మ', '|'), ('థి', '|'), ('యిం', 'U'), ('ప', '|'), ('గి', '|'), ('రి', '|'), ('ము', 'U'), ('న్గం', 'U'), ('గ', 'U'), ('చ్ఛ', '|'), ('పా', 'U'), ('కృ', '|'), ('తి', '|'), ('వ', '|'), ('హిం', 'U'), ('చి', '|'), ('ని', 'U'), ('ర్వ', '|'), ('హిం', 'U'), ('చు', '|'), ('ట', '|'), ('గా', 'U'), ('ని', '|'), ('స', 'U'), ('ర్వ', '|'), ('కా', 'U'), ('శ్య', '|'), ('పు', '|'), ('ల', '|'), ('లో', 'U'), ('బ', 'U'), ('ఙ్క్తి', '|'), ('భే', 'U'), ('ద', '|'), ('ము', '|'), ('జే', 'U'), ('సి', '|'), ('ప', 'U'), ('ల్మ', '|'), ('ఱా', 'U'), ('స', '|'), ('కొ', 'U'), ('ల్పి', '|'), ('దై', 'U'), ('త్యు', '|'), ('ల', '|'), ('నో', 'U'), ('రు', '|'), ('గొ', 'U'), ('ట్టి', '|'), ('యా', 'U'), ('ది', 'U'), ('త్యు', '|'), ('ల', '|'), ('క', '|'), ('మృ', '|'), ('తా', 'U'), ('న్న', '|'), ('మి', '|'), ('డి', '|'), ('తి', '|'), ('వా', 'U'), ('య', '|'), ('మ', '|'), ('రు', '|'), ('లం', 'U'), ('దు', '|')]</t>
+          <t>[('అ', 'U'), ('బ్ధి', '|'), ('ప', '|'), ('యః', 'U'), ('పా', 'U'), ('త్ర', '|'), ('మ', '|'), ('ద్రి', '|'), ('కా', 'U'), ('ణం', 'U'), ('ధా', 'U'), ('న', '|'), ('మ', '|'), ('హి', '|'), ('రా', 'U'), ('జ', '|'), ('గు', '|'), ('ణ', '|'), ('ము', '|'), ('దా', 'U'), ('ర', '|'), ('మ', '|'), ('ర', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('య', '|'), ('మృ', '|'), ('తా', 'U'), ('భి', '|'), ('లా', 'U'), ('ష', '|'), ('దే', 'U'), ('వ', '|'), ('తా', 'U'), ('సు', '|'), ('రు', 'U'), ('ల్మ', '|'), ('థి', '|'), ('యిం', 'U'), ('ప', '|'), ('గి', '|'), ('రి', '|'), ('ము', 'U'), ('న్గం', 'U'), ('గ', 'U'), ('చ్ఛ', '|'), ('పా', 'U'), ('కృ', '|'), ('తి', '|'), ('వ', '|'), ('హిం', 'U'), ('చి', '|'), ('ని', 'U'), ('ర్వ', '|'), ('హిం', 'U'), ('చు', '|'), ('ట', '|'), ('గా', 'U'), ('ని', '|'), ('స', 'U'), ('ర్వ', '|'), ('కా', 'U'), ('శ్య', '|'), ('పు', '|'), ('ల', '|'), ('లో', 'U'), ('బ', 'U'), ('ఙ్క్తి', '|'), ('భే', 'U'), ('ద', '|'), ('ము', '|'), ('జే', 'U'), ('సి', '|'), ('ప', 'U'), ('ల్మ', '|'), ('ఱా', 'U'), ('స', '|'), ('కొ', 'U'), ('ల్పి', '|'), ('దై', 'U'), ('త్యు', '|'), ('ల', '|'), ('నో', 'U'), ('రు', '|'), ('గొ', 'U'), ('ట్టి', '|'), ('యా', 'U'), ('ది', 'U'), ('త్యు', '|'), ('ల', '|'), ('క', '|'), ('మృ', '|'), ('తా', 'U'), ('న్న', '|'), ('మి', '|'), ('డి', '|'), ('తి', '|'), ('వా', 'U'), ('య', '|'), ('మ', '|'), ('రు', '|'), ('లం', 'U'), ('దు', '|')]</t>
         </is>
       </c>
     </row>
@@ -3966,7 +3966,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>[('ఉ', 'U'), ('క్కు', '|'), ('న', '|'), ('బ', '|'), ('సి', '|'), ('డి', '|'), ('కన్', 'U'), ('ర', 'U'), ('క్క', '|'), ('సు', '|'), ('డొ', '|'), ('క', '|'), ('డు', '|'), ('ప', 'U'), ('ల్ది', 'U'), ('క్కు', '|'), ('లో', 'U'), ('రి', '|'), ('చి', '|'), ('బొ', 'U'), ('ల్లి', '|'), ('ప', 'U'), ('క్కి', '|'), ('మా', 'U'), ('వు', '|'), ('నె', 'U'), ('క్కు', '|'), ('రౌ', 'U'), ('తె', 'U'), ('క్క', '|'), ('డ', '|'), ('జి', 'U'), ('క్కె', '|'), ('డు', '|'), ('నం', 'U'), ('చు', '|'), ('నీ', 'U'), ('యి', 'U'), ('క్కు', '|'), ('వ', '|'), ('ల', '|'), ('ర', '|'), ('యం', 'U'), ('గ', '|'), ('గి', 'U'), ('క్కు', '|'), ('రిం', 'U'), ('చి', '|'), ('న', 'U'), ('క్కి', '|'), ('తి', '|'), ('వి', '|'), ('ల', '|'), ('క్రిం', 'U'), ('ద', '|'), ('జొ', 'U'), ('క్క', '|'), ('పు', '|'), ('బం', 'U'), ('ది', '|'), ('వై', 'U'), ('కొ', 'U'), ('క్క', '|'), ('రిం', 'U'), ('పు', '|'), ('చు', '|'), ('నా', 'U'), ('త', '|'), ('డ', 'U'), ('క్క', '|'), ('డి', '|'), ('కి', '|'), ('ని', '|'), ('మొ', 'U'), ('క్క', '|'), ('రిం', 'U'), ('ప', '|'), ('గ', '|'), ('జొ', '|'), ('ర', '|'), ('బొ', 'U'), ('క్క', '|'), ('తే', 'U'), ('క', '|'), ('ట', '|'), ('వా', 'U'), ('ని', '|'), ('డొ', 'U'), ('క్క', '|'), ('గ', '|'), ('ఱు', 'U'), ('క్కు', '|'), ('న', '|'), ('జె', 'U'), ('క్కి', '|'), ('ప', 'U'), ('ట్టి', '|')]</t>
+          <t>[('ఉ', 'U'), ('క్కు', '|'), ('న', '|'), ('బ', '|'), ('సి', '|'), ('డి', '|'), ('క', '|'), ('న్ర', 'U'), ('క్క', '|'), ('సు', '|'), ('డొ', '|'), ('క', '|'), ('డు', '|'), ('ప', 'U'), ('ల్ది', 'U'), ('క్కు', '|'), ('లో', 'U'), ('రి', '|'), ('చి', '|'), ('బొ', 'U'), ('ల్లి', '|'), ('ప', 'U'), ('క్కి', '|'), ('మా', 'U'), ('వు', '|'), ('నె', 'U'), ('క్కు', '|'), ('రౌ', 'U'), ('తె', 'U'), ('క్క', '|'), ('డ', '|'), ('జి', 'U'), ('క్కె', '|'), ('డు', '|'), ('నం', 'U'), ('చు', '|'), ('నీ', 'U'), ('యి', 'U'), ('క్కు', '|'), ('వ', '|'), ('ల', '|'), ('ర', '|'), ('యం', 'U'), ('గ', '|'), ('గి', 'U'), ('క్కు', '|'), ('రిం', 'U'), ('చి', '|'), ('న', 'U'), ('క్కి', '|'), ('తి', '|'), ('వి', '|'), ('ల', '|'), ('క్రిం', 'U'), ('ద', '|'), ('జొ', 'U'), ('క్క', '|'), ('పు', '|'), ('బం', 'U'), ('ది', '|'), ('వై', 'U'), ('కొ', 'U'), ('క్క', '|'), ('రిం', 'U'), ('పు', '|'), ('చు', '|'), ('నా', 'U'), ('త', '|'), ('డ', 'U'), ('క్క', '|'), ('డి', '|'), ('కి', '|'), ('ని', '|'), ('మొ', 'U'), ('క్క', '|'), ('రిం', 'U'), ('ప', '|'), ('గ', '|'), ('జొ', '|'), ('ర', '|'), ('బొ', 'U'), ('క్క', '|'), ('తే', 'U'), ('క', '|'), ('ట', '|'), ('వా', 'U'), ('ని', '|'), ('డొ', 'U'), ('క్క', '|'), ('గ', '|'), ('ఱు', 'U'), ('క్కు', '|'), ('న', '|'), ('జె', 'U'), ('క్కి', '|'), ('ప', 'U'), ('ట్టి', '|')]</t>
         </is>
       </c>
     </row>
@@ -4198,7 +4198,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>[('తా', 'U'), ('వ', 'U'), ('చ్చె', '|'), ('ద', '|'), ('న', '|'), ('టం', 'U'), ('చు', '|'), ('ధై', 'U'), ('ర్య', '|'), ('ల', 'U'), ('క్ష్మి', '|'), ('మ', '|'), ('హీ', 'U'), ('జ', '|'), ('వెం', 'U'), ('ట', '|'), ('రా', 'U'), ('న', '|'), ('డ', '|'), ('వి', '|'), ('కి', '|'), ('వె', '|'), ('డ', '|'), ('లి', '|'), ('నా', 'U'), ('వు', '|'), ('సు', '|'), ('గ్రీ', 'U'), ('వు', '|'), ('డు', 'U'), ('న్న', '|'), ('చో', 'U'), ('సొ', 'U'), ('మ్ము', '|'), ('దా', 'U'), ('ని', '|'), ('డ', '|'), ('సీ', 'U'), ('త', '|'), ('యా', 'U'), ('జా', 'U'), ('డ', '|'), ('న', '|'), ('త', '|'), ('ని', '|'), ('పొం', 'U'), ('ద', '|'), ('తి', '|'), ('కి', '|'), ('నా', 'U'), ('వు', '|'), ('ముం', 'U'), ('దు', '|'), ('జా', 'U'), ('న', '|'), ('కి', '|'), ('లం', 'U'), ('క', '|'), ('మూ', 'U'), ('ర్ఖిం', 'U'), ('చి', '|'), ('చొ', 'U'), ('చ్చి', '|'), ('ని', 'U'), ('న్దె', 'U'), ('చ్చి', '|'), ('న', '|'), ('రి', '|'), ('పు', '|'), ('ల', '|'), ('సా', 'U'), ('ధిం', 'U'), ('చి', '|'), ('నా', 'U'), ('వు', '|'), ('వై', 'U'), ('దే', 'U'), ('హి', '|'), ('భ', '|'), ('వ', '|'), ('దం', 'U'), ('క', '|'), ('వ', '|'), ('స', '|'), ('తి', '|'), ('గూ', 'U'), ('ర్చు', 'U'), ('న్న', '|'), ('చో', 'U'), ('భు', '|'), ('వ', '|'), ('న', '|'), ('సా', 'U'), ('మ్రా', 'U'), ('జ్య', '|'), ('ముల్', 'U'), ('పొం', 'U'), ('ది', '|'), ('నా', 'U'), ('వు', '|')]</t>
+          <t>[('తా', 'U'), ('వ', 'U'), ('చ్చె', '|'), ('ద', '|'), ('న', '|'), ('టం', 'U'), ('చు', '|'), ('ధై', 'U'), ('ర్య', '|'), ('ల', 'U'), ('క్ష్మి', '|'), ('మ', '|'), ('హీ', 'U'), ('జ', '|'), ('వెం', 'U'), ('ట', '|'), ('రా', 'U'), ('న', '|'), ('డ', '|'), ('వి', '|'), ('కి', '|'), ('వె', '|'), ('డ', '|'), ('లి', '|'), ('నా', 'U'), ('వు', '|'), ('సు', '|'), ('గ్రీ', 'U'), ('వు', '|'), ('డు', 'U'), ('న్న', '|'), ('చో', 'U'), ('సొ', 'U'), ('మ్ము', '|'), ('దా', 'U'), ('ని', '|'), ('డ', '|'), ('సీ', 'U'), ('త', '|'), ('యా', 'U'), ('జా', 'U'), ('డ', '|'), ('న', '|'), ('త', '|'), ('ని', '|'), ('పొం', 'U'), ('ద', '|'), ('తి', '|'), ('కి', '|'), ('నా', 'U'), ('వు', '|'), ('ముం', 'U'), ('దు', '|'), ('జా', 'U'), ('న', '|'), ('కి', '|'), ('లం', 'U'), ('క', '|'), ('మూ', 'U'), ('ర్ఖిం', 'U'), ('చి', '|'), ('చొ', 'U'), ('చ్చి', '|'), ('ని', 'U'), ('న్దె', 'U'), ('చ్చి', '|'), ('న', '|'), ('రి', '|'), ('పు', '|'), ('ల', '|'), ('సా', 'U'), ('ధిం', 'U'), ('చి', '|'), ('నా', 'U'), ('వు', '|'), ('వై', 'U'), ('దే', 'U'), ('హి', '|'), ('భ', '|'), ('వ', '|'), ('దం', 'U'), ('క', '|'), ('వ', '|'), ('స', '|'), ('తి', '|'), ('గూ', 'U'), ('ర్చు', 'U'), ('న్న', '|'), ('చో', 'U'), ('భు', '|'), ('వ', '|'), ('న', '|'), ('సా', 'U'), ('మ్రా', 'U'), ('జ్య', '|'), ('ము', 'U'), ('ల్పొం', 'U'), ('ది', '|'), ('నా', 'U'), ('వు', '|')]</t>
         </is>
       </c>
     </row>
@@ -6402,7 +6402,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>[('పూ', 'U'), ('ర్వ', '|'), ('క', '|'), ('వీం', 'U'), ('ద్రు', '|'), ('లు', '|'), ('పు', 'U'), ('ణ్య', '|'), ('ఫ', '|'), ('లం', 'U'), ('బే', 'U'), ('మి', '|'), ('సా', 'U'), ('క్షా', 'U'), ('త్క', '|'), ('రిం', 'U'), ('చి', '|'), ('య', 'U'), ('స్మ', 'U'), ('త్ప', '|'), ('రం', 'U'), ('బు', '|'), ('గా', 'U'), ('గ', 'U'), ('ద్య', '|'), ('ప', 'U'), ('ద్య', '|'), ('ముల్', 'U'), ('గ', 'U'), ('ల్పిం', 'U'), ('చు', '|'), ('మ', '|'), ('ని', '|'), ('న', '|'), ('వే', 'U'), ('వ', '|'), ('ర', '|'), ('మొ', '|'), ('సం', 'U'), ('గి', '|'), ('తి', '|'), ('వం', 'U'), ('డ్రు', '|'), ('వాం', 'U'), ('ఛ', '|'), ('జే', 'U'), ('సి', '|'), ('నే', 'U'), ('ర్చి', '|'), ('న', 'U'), ('ట్లు', '|'), ('గ', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('నే', 'U'), ('టి', '|'), ('క', '|'), ('వి', 'U'), ('త్వం', 'U'), ('బు', '|'), ('నీ', 'U'), ('కం', 'U'), ('కి', '|'), ('త', '|'), ('ము', '|'), ('జే', 'U'), ('సి', '|'), ('నె', '|'), ('న', '|'), ('రు', '|'), ('దో', 'U'), ('ప', '|'), ('జే', 'U'), ('దో', 'U'), ('యి', '|'), ('యొ', 'U'), ('గ్గి', '|'), ('న', '|'), ('శ్రీ', 'U'), ('పా', 'U'), ('ద', '|'), ('ర', '|'), ('జ', '|'), ('మిం', 'U'), ('త', '|'), ('నా', 'U'), ('మీ', 'U'), ('ద', '|'), ('బా', 'U'), ('ఱ', '|'), ('నీ', 'U'), ('వే', 'U'), ('మి', '|'), ('సా', 'U'), ('మి', '|')]</t>
+          <t>[('పూ', 'U'), ('ర్వ', '|'), ('క', '|'), ('వీం', 'U'), ('ద్రు', '|'), ('లు', '|'), ('పు', 'U'), ('ణ్య', '|'), ('ఫ', '|'), ('లం', 'U'), ('బే', 'U'), ('మి', '|'), ('సా', 'U'), ('క్షా', 'U'), ('త్క', '|'), ('రిం', 'U'), ('చి', '|'), ('య', 'U'), ('స్మ', 'U'), ('త్ప', '|'), ('రం', 'U'), ('బు', '|'), ('గా', 'U'), ('గ', 'U'), ('ద్య', '|'), ('ప', 'U'), ('ద్య', '|'), ('ము', 'U'), ('ల్గ', 'U'), ('ల్పిం', 'U'), ('చు', '|'), ('మ', '|'), ('ని', '|'), ('న', '|'), ('వే', 'U'), ('వ', '|'), ('ర', '|'), ('మొ', '|'), ('సం', 'U'), ('గి', '|'), ('తి', '|'), ('వం', 'U'), ('డ్రు', '|'), ('వాం', 'U'), ('ఛ', '|'), ('జే', 'U'), ('సి', '|'), ('నే', 'U'), ('ర్చి', '|'), ('న', 'U'), ('ట్లు', '|'), ('గ', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('నే', 'U'), ('టి', '|'), ('క', '|'), ('వి', 'U'), ('త్వం', 'U'), ('బు', '|'), ('నీ', 'U'), ('కం', 'U'), ('కి', '|'), ('త', '|'), ('ము', '|'), ('జే', 'U'), ('సి', '|'), ('నె', '|'), ('న', '|'), ('రు', '|'), ('దో', 'U'), ('ప', '|'), ('జే', 'U'), ('దో', 'U'), ('యి', '|'), ('యొ', 'U'), ('గ్గి', '|'), ('న', '|'), ('శ్రీ', 'U'), ('పా', 'U'), ('ద', '|'), ('ర', '|'), ('జ', '|'), ('మిం', 'U'), ('త', '|'), ('నా', 'U'), ('మీ', 'U'), ('ద', '|'), ('బా', 'U'), ('ఱ', '|'), ('నీ', 'U'), ('వే', 'U'), ('మి', '|'), ('సా', 'U'), ('మి', '|')]</t>
         </is>
       </c>
     </row>
@@ -6518,7 +6518,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>[('శ', '|'), ('బ', '|'), ('రి', '|'), ('యెం', 'U'), ('గి', '|'), ('లి', '|'), ('పం', 'U'), ('డ్లు', '|'), ('చ', '|'), ('వి', '|'), ('జూ', 'U'), ('చు', '|'), ('న', '|'), ('ను', '|'), ('కం', 'U'), ('ప', '|'), ('కు', 'U'), ('బ్జ', '|'), ('గం', 'U'), ('ధ', '|'), ('ము', '|'), ('పూ', 'U'), ('త', '|'), ('గొ', 'U'), ('న్న', '|'), ('క', '|'), ('రు', '|'), ('ణ', '|'), ('పాం', 'U'), ('చా', 'U'), ('లి', '|'), ('కో', 'U'), ('ర', '|'), ('సా', 'U'), ('ప', '|'), ('డి', '|'), ('న', '|'), ('ద', '|'), ('యా', 'U'), ('ర', '|'), ('తి', '|'), ('గో', 'U'), ('ప', 'U'), ('మ్మ', '|'), ('యు', 'U'), ('గ్గు', '|'), ('బాల్', 'U'), ('గ్రో', 'U'), ('లు', '|'), ('కృ', '|'), ('ప', '|'), ('ను', '|'), ('మా', 'U'), ('లి', '|'), ('కు', '|'), ('డొ', '|'), ('స', '|'), ('గు', '|'), ('తో', 'U'), ('మా', 'U'), ('లె', '|'), ('దా', 'U'), ('ల్చి', '|'), ('న', '|'), ('ప్రే', 'U'), ('మ', 'U'), ('ద్వి', '|'), ('జు', '|'), ('ని', '|'), ('కొం', 'U'), ('గ', '|'), ('టు', '|'), ('కు', '|'), ('లు', '|'), ('ది', 'U'), ('న్న', '|'), ('కూ', 'U'), ('ర్మి', '|'), ('గు', '|'), ('హు', '|'), ('డు', '|'), ('పా', 'U'), ('ద', '|'), ('ము', '|'), ('లు', '|'), ('బ', 'U'), ('ట్టు', '|'), ('ట', '|'), ('కు', 'U'), ('ల్బు', '|'), ('నె', '|'), ('న', '|'), ('రు', '|'), ('ను', '|'), ('ను', '|'), ('డు', '|'), ('త', '|'), ('దా', 'U'), ('స్య', '|'), ('ము', '|'), ('న', '|'), ('కు', '|'), ('బొ', '|'), ('డ', '|'), ('ము', '|'), ('ప్రే', 'U'), ('మ', '|')]</t>
+          <t>[('శ', '|'), ('బ', '|'), ('రి', '|'), ('యెం', 'U'), ('గి', '|'), ('లి', '|'), ('పం', 'U'), ('డ్లు', '|'), ('చ', '|'), ('వి', '|'), ('జూ', 'U'), ('చు', '|'), ('న', '|'), ('ను', '|'), ('కం', 'U'), ('ప', '|'), ('కు', 'U'), ('బ్జ', '|'), ('గం', 'U'), ('ధ', '|'), ('ము', '|'), ('పూ', 'U'), ('త', '|'), ('గొ', 'U'), ('న్న', '|'), ('క', '|'), ('రు', '|'), ('ణ', '|'), ('పాం', 'U'), ('చా', 'U'), ('లి', '|'), ('కో', 'U'), ('ర', '|'), ('సా', 'U'), ('ప', '|'), ('డి', '|'), ('న', '|'), ('ద', '|'), ('యా', 'U'), ('ర', '|'), ('తి', '|'), ('గో', 'U'), ('ప', 'U'), ('మ్మ', '|'), ('యు', 'U'), ('గ్గు', '|'), ('బా', 'U'), ('ల్గ్రో', 'U'), ('లు', '|'), ('కృ', '|'), ('ప', '|'), ('ను', '|'), ('మా', 'U'), ('లి', '|'), ('కు', '|'), ('డొ', '|'), ('స', '|'), ('గు', '|'), ('తో', 'U'), ('మా', 'U'), ('లె', '|'), ('దా', 'U'), ('ల్చి', '|'), ('న', '|'), ('ప్రే', 'U'), ('మ', 'U'), ('ద్వి', '|'), ('జు', '|'), ('ని', '|'), ('కొం', 'U'), ('గ', '|'), ('టు', '|'), ('కు', '|'), ('లు', '|'), ('ది', 'U'), ('న్న', '|'), ('కూ', 'U'), ('ర్మి', '|'), ('గు', '|'), ('హు', '|'), ('డు', '|'), ('పా', 'U'), ('ద', '|'), ('ము', '|'), ('లు', '|'), ('బ', 'U'), ('ట్టు', '|'), ('ట', '|'), ('కు', 'U'), ('ల్బు', '|'), ('నె', '|'), ('న', '|'), ('రు', '|'), ('ను', '|'), ('ను', '|'), ('డు', '|'), ('త', '|'), ('దా', 'U'), ('స్య', '|'), ('ము', '|'), ('న', '|'), ('కు', '|'), ('బొ', '|'), ('డ', '|'), ('ము', '|'), ('ప్రే', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
